--- a/examples/analytical/pHBB1991/pHBB1991.nonuniform_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.nonuniform_analytical.solution.xlsx
@@ -455,34 +455,34 @@
         <v>-0.04889896869814063</v>
       </c>
       <c r="B2">
-        <v>8.134229489395803</v>
+        <v>8.13357414358921</v>
       </c>
       <c r="C2">
-        <v>0.00024500703123709916</v>
+        <v>0.0002450169676502838</v>
       </c>
       <c r="D2">
-        <v>-4.020389625921875e-7</v>
+        <v>-2.529528624327738e-7</v>
       </c>
       <c r="E2">
-        <v>0.0019990551948675236</v>
+        <v>0.0019990012986896674</v>
       </c>
       <c r="F2">
-        <v>4.8957196234444776e-5</v>
+        <v>4.8955883636333254e-5</v>
       </c>
       <c r="G2">
-        <v>8.134230651695306</v>
+        <v>8.133575322549742</v>
       </c>
       <c r="H2">
-        <v>0.00024500740175475</v>
+        <v>0.00024501733728118143</v>
       </c>
       <c r="I2">
-        <v>-4.017909750036674e-7</v>
+        <v>-2.5270844047537384e-7</v>
       </c>
       <c r="J2">
-        <v>0.00199905529081962</v>
+        <v>0.0019990013959773614</v>
       </c>
       <c r="K2">
-        <v>4.895719856829665e-5</v>
+        <v>4.89558860011367e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -490,34 +490,34 @@
         <v>-0.046729248132457935</v>
       </c>
       <c r="B3">
-        <v>8.102168100065994</v>
+        <v>8.10013837017066</v>
       </c>
       <c r="C3">
-        <v>0.00023516775873832298</v>
+        <v>0.00023519727610256643</v>
       </c>
       <c r="D3">
-        <v>-1.1950768715891036e-6</v>
+        <v>-7.51104366103839e-7</v>
       </c>
       <c r="E3">
-        <v>0.001997169036385631</v>
+        <v>0.0019970068688779457</v>
       </c>
       <c r="F3">
-        <v>4.890390479414617e-5</v>
+        <v>4.890005084505262e-5</v>
       </c>
       <c r="G3">
-        <v>8.102171704123066</v>
+        <v>8.100142035706664</v>
       </c>
       <c r="H3">
-        <v>0.00023516885936132817</v>
+        <v>0.00023519837386438289</v>
       </c>
       <c r="I3">
-        <v>-1.194339667229275e-6</v>
+        <v>-7.503786260256082e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019971693255447774</v>
+        <v>0.0019970071625252466</v>
       </c>
       <c r="K3">
-        <v>4.890391166328458e-5</v>
+        <v>4.890005780790209e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -525,34 +525,34 @@
         <v>-0.044622902364851905</v>
       </c>
       <c r="B4">
-        <v>8.069771299591604</v>
+        <v>8.06630016745066</v>
       </c>
       <c r="C4">
-        <v>0.0002256158789654592</v>
+        <v>0.0002256644053459053</v>
       </c>
       <c r="D4">
-        <v>-1.9660707814415247e-6</v>
+        <v>-1.2342329467030255e-6</v>
       </c>
       <c r="E4">
-        <v>0.0019953036688006498</v>
+        <v>0.0019950333298856663</v>
       </c>
       <c r="F4">
-        <v>4.8852952097331936e-5</v>
+        <v>4.8846716527065525e-5</v>
       </c>
       <c r="G4">
-        <v>8.069777471894119</v>
+        <v>8.066306461321656</v>
       </c>
       <c r="H4">
-        <v>0.00022561768825526607</v>
+        <v>0.00022566620983382663</v>
       </c>
       <c r="I4">
-        <v>-1.9648578738349284e-6</v>
+        <v>-1.233040456953554e-6</v>
       </c>
       <c r="J4">
-        <v>0.001995304151577577</v>
+        <v>0.001995033821031835</v>
       </c>
       <c r="K4">
-        <v>4.885296323969846e-5</v>
+        <v>4.884672782202136e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -560,34 +560,34 @@
         <v>-0.04257735085834355</v>
       </c>
       <c r="B5">
-        <v>8.037100768916122</v>
+        <v>8.032130130014108</v>
       </c>
       <c r="C5">
-        <v>0.0002163396896712808</v>
+        <v>0.00021640667642149544</v>
       </c>
       <c r="D5">
-        <v>-2.7160497880405882e-6</v>
+        <v>-1.7028933753639671e-6</v>
       </c>
       <c r="E5">
-        <v>0.0019934555960331403</v>
+        <v>0.0019930767711759004</v>
       </c>
       <c r="F5">
-        <v>4.880445936631708e-5</v>
+        <v>4.879602701734455e-5</v>
       </c>
       <c r="G5">
-        <v>8.037109623310492</v>
+        <v>8.032139180851273</v>
       </c>
       <c r="H5">
-        <v>0.00021634218709950062</v>
+        <v>0.00021640916715320665</v>
       </c>
       <c r="I5">
-        <v>-2.7143740279019327e-6</v>
+        <v>-1.7012481750191483e-6</v>
       </c>
       <c r="J5">
-        <v>0.001993456273710266</v>
+        <v>0.0019930774619592263</v>
       </c>
       <c r="K5">
-        <v>4.880447448032774e-5</v>
+        <v>4.879604233361592e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -595,34 +595,34 @@
         <v>-0.04059008755652645</v>
       </c>
       <c r="B6">
-        <v>8.004234167614</v>
+        <v>7.997718669382678</v>
       </c>
       <c r="C6">
-        <v>0.00020732782636401524</v>
+        <v>0.0002074127474538254</v>
       </c>
       <c r="D6">
-        <v>-3.4460192481371084e-6</v>
+        <v>-2.1576220934949915e-6</v>
       </c>
       <c r="E6">
-        <v>0.001991621517080298</v>
+        <v>0.001991133510376697</v>
       </c>
       <c r="F6">
-        <v>4.875853739234427e-5</v>
+        <v>4.8748116821811103e-5</v>
       </c>
       <c r="G6">
-        <v>8.004245798901184</v>
+        <v>7.997730584984304</v>
       </c>
       <c r="H6">
-        <v>0.00020733099222509347</v>
+        <v>0.00020741590478634556</v>
       </c>
       <c r="I6">
-        <v>-3.4438928375813182e-6</v>
+        <v>-2.155537711474764e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019916223917012506</v>
+        <v>0.0019911344038320536</v>
       </c>
       <c r="K6">
-        <v>4.875855613379287e-5</v>
+        <v>4.874813579996602e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -630,34 +630,34 @@
         <v>-0.038658677813334305</v>
       </c>
       <c r="B7">
-        <v>7.971264808693941</v>
+        <v>7.963175672528583</v>
       </c>
       <c r="C7">
-        <v>0.00019856924838505783</v>
+        <v>0.00019867159975609676</v>
       </c>
       <c r="D7">
-        <v>-4.156959300282132e-6</v>
+        <v>-2.598939282098924e-6</v>
       </c>
       <c r="E7">
-        <v>0.001989798413248085</v>
+        <v>0.0019892002072649092</v>
       </c>
       <c r="F7">
-        <v>4.871528126812782e-5</v>
+        <v>4.8703101719593256e-5</v>
       </c>
       <c r="G7">
-        <v>7.9712792863329325</v>
+        <v>7.96319053207462</v>
       </c>
       <c r="H7">
-        <v>0.0001985730637757097</v>
+        <v>0.0001986754048311493</v>
       </c>
       <c r="I7">
-        <v>-4.154393814355294e-6</v>
+        <v>-2.5964287573302156e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019897994875321483</v>
+        <v>0.0019892013071934746</v>
       </c>
       <c r="K7">
-        <v>4.87153032573207e-5</v>
+        <v>4.8703123956707974e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -665,34 +665,34 @@
         <v>-0.03678075541029506</v>
       </c>
       <c r="B8">
-        <v>7.938300133204543</v>
+        <v>7.928628518715683</v>
       </c>
       <c r="C8">
-        <v>0.00019005322538577662</v>
+        <v>0.00019017252433393882</v>
       </c>
       <c r="D8">
-        <v>-4.849822731875532e-6</v>
+        <v>-3.027351219006839e-6</v>
       </c>
       <c r="E8">
-        <v>0.0019879836378931676</v>
+        <v>0.001987273981366548</v>
       </c>
       <c r="F8">
-        <v>4.867476484948339e-5</v>
+        <v>4.8661071475573046e-5</v>
       </c>
       <c r="G8">
-        <v>7.938317494124156</v>
+        <v>7.928646363866862</v>
       </c>
       <c r="H8">
-        <v>0.00019005767218998704</v>
+        <v>0.00019017695907574107</v>
       </c>
       <c r="I8">
-        <v>-4.846829131168969e-6</v>
+        <v>-3.0244271105784406e-6</v>
       </c>
       <c r="J8">
-        <v>0.0019879849147125023</v>
+        <v>0.001987275291550702</v>
       </c>
       <c r="K8">
-        <v>4.867478964958286e-5</v>
+        <v>4.866109649260681e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -700,34 +700,34 @@
         <v>-0.03495401965761728</v>
       </c>
       <c r="B9">
-        <v>7.905458862763402</v>
+        <v>7.894218282239556</v>
       </c>
       <c r="C9">
-        <v>0.0001817693241939448</v>
+        <v>0.00018190510877796878</v>
       </c>
       <c r="D9">
-        <v>-5.525532375028817e-6</v>
+        <v>-3.44335280314323e-6</v>
       </c>
       <c r="E9">
-        <v>0.0019861749993513415</v>
+        <v>0.00198535251960287</v>
       </c>
       <c r="F9">
-        <v>4.863703552161921e-5</v>
+        <v>4.862208299387807e-5</v>
       </c>
       <c r="G9">
-        <v>7.905479103372591</v>
+        <v>7.894239106175384</v>
       </c>
       <c r="H9">
-        <v>0.00018177438511199562</v>
+        <v>0.00018191015598298266</v>
       </c>
       <c r="I9">
-        <v>-5.522121030951723e-6</v>
+        <v>-3.440027203125203e-6</v>
       </c>
       <c r="J9">
-        <v>0.0019861764805943704</v>
+        <v>0.0019853540421544812</v>
       </c>
       <c r="K9">
-        <v>4.863706258949063e-5</v>
+        <v>4.86221101559539e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -735,34 +735,34 @@
         <v>-0.03317623257555752</v>
       </c>
       <c r="B10">
-        <v>7.872866896098598</v>
+        <v>7.860094236594542</v>
       </c>
       <c r="C10">
-        <v>0.0001737073960779826</v>
+        <v>0.00017385922455334337</v>
       </c>
       <c r="D10">
-        <v>-6.184978322157603e-6</v>
+        <v>-3.847430045712778e-6</v>
       </c>
       <c r="E10">
-        <v>0.001984370826053119</v>
+        <v>0.0019834341579220683</v>
       </c>
       <c r="F10">
-        <v>4.860210993515608e-5</v>
+        <v>4.8586154866597463e-5</v>
       </c>
       <c r="G10">
-        <v>7.872889961513266</v>
+        <v>7.8601179699034045</v>
       </c>
       <c r="H10">
-        <v>0.00017371305458363268</v>
+        <v>0.00017386486770491882</v>
       </c>
       <c r="I10">
-        <v>-6.181159048335071e-6</v>
+        <v>-3.843714590510529e-6</v>
       </c>
       <c r="J10">
-        <v>0.0019843725102933305</v>
+        <v>0.0019834358900272593</v>
       </c>
       <c r="K10">
-        <v>4.860213849923602e-5</v>
+        <v>4.858618321107299e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,34 +770,34 @@
         <v>-0.03144521615261516</v>
       </c>
       <c r="B11">
-        <v>7.840652238447193</v>
+        <v>7.826407113347923</v>
       </c>
       <c r="C11">
-        <v>0.00016585756446720732</v>
+        <v>0.00016602501474433047</v>
       </c>
       <c r="D11">
-        <v>-6.82901530529677e-6</v>
+        <v>-4.240062252889056e-6</v>
       </c>
       <c r="E11">
-        <v>0.001982570002942389</v>
+        <v>0.0019815179214590626</v>
       </c>
       <c r="F11">
-        <v>4.856997132684661e-5</v>
+        <v>4.855326417894224e-5</v>
       </c>
       <c r="G11">
-        <v>7.8406780106347735</v>
+        <v>7.826433609208333</v>
       </c>
       <c r="H11">
-        <v>0.00016586380467063135</v>
+        <v>0.00016603123803506353</v>
       </c>
       <c r="I11">
-        <v>-6.8247974055656275e-6</v>
+        <v>-4.235968142076621e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019825718821770253</v>
+        <v>0.0019815198513828676</v>
       </c>
       <c r="K11">
-        <v>4.8570000209291024e-5</v>
+        <v>4.855329219254815e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,34 +805,34 @@
         <v>-0.02975884967719607</v>
       </c>
       <c r="B12">
-        <v>7.808939455515096</v>
+        <v>7.793301862806799</v>
       </c>
       <c r="C12">
-        <v>0.00015821021331383387</v>
+        <v>0.0001583928824391198</v>
       </c>
       <c r="D12">
-        <v>-7.458460516298743e-6</v>
+        <v>-4.621723544335085e-6</v>
       </c>
       <c r="E12">
-        <v>0.0019807719711710968</v>
+        <v>0.001979603512920378</v>
       </c>
       <c r="F12">
-        <v>4.854056885790948e-5</v>
+        <v>4.852334614306343e-5</v>
       </c>
       <c r="G12">
-        <v>7.808967744312577</v>
+        <v>7.793330889029758</v>
       </c>
       <c r="H12">
-        <v>0.00015821701996172104</v>
+        <v>0.00015839967064521968</v>
       </c>
       <c r="I12">
-        <v>-7.453852871256546e-6</v>
+        <v>-4.6172615884553e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019807740279040413</v>
+        <v>0.001979605617068626</v>
       </c>
       <c r="K12">
-        <v>4.854059631521492e-5</v>
+        <v>4.852337160495126e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -840,34 +840,34 @@
         <v>-0.028115067139475602</v>
       </c>
       <c r="B13">
-        <v>7.777844265938038</v>
+        <v>7.760910813491365</v>
       </c>
       <c r="C13">
-        <v>0.0001507559765735482</v>
+        <v>0.00015095348023037497</v>
       </c>
       <c r="D13">
-        <v>-8.074091879679586e-6</v>
+        <v>-4.9928832183290655e-6</v>
       </c>
       <c r="E13">
-        <v>0.0019789766887300005</v>
+        <v>0.001977691248167833</v>
       </c>
       <c r="F13">
-        <v>4.8513819138985545e-5</v>
+        <v>4.849629672432837e-5</v>
       </c>
       <c r="G13">
-        <v>7.7778748083246105</v>
+        <v>7.760942057808895</v>
       </c>
       <c r="H13">
-        <v>0.00015076333490328465</v>
+        <v>0.00015096081866003498</v>
       </c>
       <c r="I13">
-        <v>-8.069103089582455e-6</v>
+        <v>-4.988063940361743e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019789788947297093</v>
+        <v>0.00197769349106343</v>
       </c>
       <c r="K13">
-        <v>4.8513842799631375e-5</v>
+        <v>4.8496316717090506e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -875,34 +875,34 @@
         <v>-0.026511854700278226</v>
       </c>
       <c r="B14">
-        <v>7.747468884682388</v>
+        <v>7.72934807224485</v>
       </c>
       <c r="C14">
-        <v>0.00014348572987588567</v>
+        <v>0.0001436977018998037</v>
       </c>
       <c r="D14">
-        <v>-8.67664623587742e-6</v>
+        <v>-5.354004184354135e-6</v>
       </c>
       <c r="E14">
-        <v>0.0019771845567550074</v>
+        <v>0.001975781948404394</v>
       </c>
       <c r="F14">
-        <v>4.8489609817107675e-5</v>
+        <v>4.847197797484406e-5</v>
       </c>
       <c r="G14">
-        <v>7.747501356277015</v>
+        <v>7.729381164056644</v>
       </c>
       <c r="H14">
-        <v>0.0001434936252648855</v>
+        <v>0.00014370557585351097</v>
       </c>
       <c r="I14">
-        <v>-8.671284891392663e-6</v>
+        <v>-5.3488380458107835e-6</v>
       </c>
       <c r="J14">
-        <v>0.001977186874662654</v>
+        <v>0.001975784286381531</v>
       </c>
       <c r="K14">
-        <v>4.8489626788897446e-5</v>
+        <v>4.8471989120026455e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,34 +910,34 @@
         <v>-0.024947248223872683</v>
       </c>
       <c r="B15">
-        <v>7.717898600496464</v>
+        <v>7.6987057592062875</v>
       </c>
       <c r="C15">
-        <v>0.00013639058654111216</v>
+        <v>0.0001366166784375094</v>
       </c>
       <c r="D15">
-        <v>-9.266815952837191e-6</v>
+        <v>-5.705538087493716e-6</v>
       </c>
       <c r="E15">
-        <v>0.001975396322428897</v>
+        <v>0.0019738768062077397</v>
       </c>
       <c r="F15">
-        <v>4.846780482369443e-5</v>
+        <v>4.8450225384589185e-5</v>
       </c>
       <c r="G15">
-        <v>7.717932637507239</v>
+        <v>7.698740301557486</v>
       </c>
       <c r="H15">
-        <v>0.0001363990037623327</v>
+        <v>0.00013662507274887176</v>
       </c>
       <c r="I15">
-        <v>-9.261091125757896e-6</v>
+        <v>-5.700035930537718e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019753987098776377</v>
+        <v>0.0019738791937567632</v>
       </c>
       <c r="K15">
-        <v>4.8467811959783834e-5</v>
+        <v>4.845022424061043e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -945,34 +945,34 @@
         <v>-0.023419330871660086</v>
       </c>
       <c r="B16">
-        <v>7.6891998534360395</v>
+        <v>7.669052316918825</v>
       </c>
       <c r="C16">
-        <v>0.00012946190186750574</v>
+        <v>0.00012970178230923006</v>
       </c>
       <c r="D16">
-        <v>-9.845241070860231e-6</v>
+        <v>-6.047914691310219e-6</v>
       </c>
       <c r="E16">
-        <v>0.001973612972971787</v>
+        <v>0.0019719772458281454</v>
       </c>
       <c r="F16">
-        <v>4.844825067696876e-5</v>
+        <v>4.8430856299800106e-5</v>
       </c>
       <c r="G16">
-        <v>7.689235078127766</v>
+        <v>7.669087918591666</v>
       </c>
       <c r="H16">
-        <v>0.0001294708238731946</v>
+        <v>0.00012971068004944439</v>
       </c>
       <c r="I16">
-        <v>-9.839163173519832e-6</v>
+        <v>-6.042088540776514e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019736153880015907</v>
+        <v>0.0019719796423836307</v>
       </c>
       <c r="K16">
-        <v>4.844824492361062e-5</v>
+        <v>4.843083979454156e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -980,34 +980,34 @@
         <v>-0.021926230753806925</v>
       </c>
       <c r="B17">
-        <v>7.661419840546803</v>
+        <v>7.640432786181</v>
       </c>
       <c r="C17">
-        <v>0.00012269129215701938</v>
+        <v>0.00012294464642166538</v>
       </c>
       <c r="D17">
-        <v>-1.0412492169533448e-5</v>
+        <v>-6.381521487263715e-6</v>
       </c>
       <c r="E17">
-        <v>0.0019718356358978204</v>
+        <v>0.001970084797059083</v>
       </c>
       <c r="F17">
-        <v>4.8430783147268676e-5</v>
+        <v>4.841367841307386e-5</v>
       </c>
       <c r="G17">
-        <v>7.661455882092639</v>
+        <v>7.640469083809211</v>
       </c>
       <c r="H17">
-        <v>0.00012270069809722348</v>
+        <v>0.00012295402672777398</v>
       </c>
       <c r="I17">
-        <v>-1.0406074392680584e-5</v>
+        <v>-6.3753858991611884e-6</v>
       </c>
       <c r="J17">
-        <v>0.001971838041834716</v>
+        <v>0.0019700871719568478</v>
       </c>
       <c r="K17">
-        <v>4.843076187176242e-5</v>
+        <v>4.841364418442186e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,34 +1015,34 @@
         <v>-0.020466118635945926</v>
       </c>
       <c r="B18">
-        <v>7.634587482775207</v>
+        <v>7.612870694957437</v>
       </c>
       <c r="C18">
-        <v>0.00011607067812492896</v>
+        <v>0.00011633720740498593</v>
       </c>
       <c r="D18">
-        <v>-1.0969036837609602e-5</v>
+        <v>-6.706667454062467e-6</v>
       </c>
       <c r="E18">
-        <v>0.0019700654993780285</v>
+        <v>0.0019682009984890963</v>
       </c>
       <c r="F18">
-        <v>4.8415233646376616e-5</v>
+        <v>4.8398497494933656e-5</v>
       </c>
       <c r="G18">
-        <v>7.6346239867252</v>
+        <v>7.612907358461783</v>
       </c>
       <c r="H18">
-        <v>0.00011608054005094696</v>
+        <v>0.00011634704247168577</v>
       </c>
       <c r="I18">
-        <v>-1.0962297356758297e-5</v>
+        <v>-6.7002415873354835e-6</v>
       </c>
       <c r="J18">
-        <v>0.001970067867656517</v>
+        <v>0.001968203332772407</v>
       </c>
       <c r="K18">
-        <v>4.841519487714317e-5</v>
+        <v>4.8398444077898104e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1050,34 +1050,34 @@
         <v>-0.019037205698135204</v>
       </c>
       <c r="B19">
-        <v>7.60871547043763</v>
+        <v>7.58637109695426</v>
       </c>
       <c r="C19">
-        <v>0.00010959236562563639</v>
+        <v>0.00010987178610915522</v>
       </c>
       <c r="D19">
-        <v>-1.1515180278329526e-5</v>
+        <v>-7.023522757978182e-6</v>
       </c>
       <c r="E19">
-        <v>0.001968303764352961</v>
+        <v>0.00196632734196938</v>
       </c>
       <c r="F19">
-        <v>4.8401434862095836e-5</v>
+        <v>4.838512383127991e-5</v>
       </c>
       <c r="G19">
-        <v>7.608752093513866</v>
+        <v>7.586407817449091</v>
       </c>
       <c r="H19">
-        <v>0.00010960264408005994</v>
+        <v>0.00010988203653898956</v>
       </c>
       <c r="I19">
-        <v>-1.1508145432296274e-5</v>
+        <v>-7.016833338197563e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019683060746592375</v>
+        <v>0.0019663296268408303</v>
       </c>
       <c r="K19">
-        <v>4.8401377399245345e-5</v>
+        <v>4.838505067779121e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1085,34 +1085,34 @@
         <v>-0.01763774134333008</v>
       </c>
       <c r="B20">
-        <v>7.583803070089515</v>
+        <v>7.560924305486266</v>
       </c>
       <c r="C20">
-        <v>0.00010324917905012079</v>
+        <v>0.00010354122062736035</v>
       </c>
       <c r="D20">
-        <v>-1.2050968844930633e-5</v>
+        <v>-7.332024618669927e-6</v>
       </c>
       <c r="E20">
-        <v>0.001966551637732777</v>
+        <v>0.0019644652667329147</v>
       </c>
       <c r="F20">
-        <v>4.8389225365881203e-5</v>
+        <v>4.8373377146991364e-5</v>
       </c>
       <c r="G20">
-        <v>7.5838394614964955</v>
+        <v>7.5609607695484184</v>
       </c>
       <c r="H20">
-        <v>0.00010325981693571994</v>
+        <v>0.00010355182954025975</v>
       </c>
       <c r="I20">
-        <v>-1.204367730619594e-5</v>
+        <v>-7.325109802010413e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019665538754654655</v>
+        <v>0.0019644674990984203</v>
       </c>
       <c r="K20">
-        <v>4.838914876738019e-5</v>
+        <v>4.837328451450275e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1120,34 +1120,34 @@
         <v>-0.016266011052682848</v>
       </c>
       <c r="B21">
-        <v>7.5598393992475215</v>
+        <v>7.536509948204814</v>
       </c>
       <c r="C21">
-        <v>9.703466298068194e-5</v>
+        <v>9.733906738936686e-5</v>
       </c>
       <c r="D21">
-        <v>-1.2576045081547458e-5</v>
+        <v>-7.63173944265988e-6</v>
       </c>
       <c r="E21">
-        <v>0.001964810373693252</v>
+        <v>0.001962616208816849</v>
       </c>
       <c r="F21">
-        <v>4.837845311332735e-5</v>
+        <v>4.8363090049342424e-5</v>
       </c>
       <c r="G21">
-        <v>7.5598751728129185</v>
+        <v>7.536545803590875</v>
       </c>
       <c r="H21">
-        <v>9.704557860253325e-5</v>
+        <v>9.73499532620153e-5</v>
       </c>
       <c r="I21">
-        <v>-1.2568552854045112e-5</v>
+        <v>-7.624653406489958e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019648125252562693</v>
+        <v>0.0019626183850086835</v>
       </c>
       <c r="K21">
-        <v>4.8378357596202395e-5</v>
+        <v>4.836297881937725e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1155,34 +1155,34 @@
         <v>-0.014920334285042733</v>
       </c>
       <c r="B22">
-        <v>7.536806924829517</v>
+        <v>7.513101068211093</v>
       </c>
       <c r="C22">
-        <v>9.094336432356071e-5</v>
+        <v>9.125988251179827e-5</v>
       </c>
       <c r="D22">
-        <v>-1.308944512448472e-5</v>
+        <v>-7.921673557309937e-6</v>
       </c>
       <c r="E22">
-        <v>0.0019630813672865937</v>
+        <v>0.0019607817086142155</v>
       </c>
       <c r="F22">
-        <v>4.836897789614948e-5</v>
+        <v>4.835411017956591e-5</v>
       </c>
       <c r="G22">
-        <v>7.536841627465848</v>
+        <v>7.51313588832582</v>
       </c>
       <c r="H22">
-        <v>9.095444366479719e-5</v>
+        <v>9.127093164551591e-5</v>
       </c>
       <c r="I22">
-        <v>-1.3081830920619818e-5</v>
+        <v>-7.91449137887914e-6</v>
       </c>
       <c r="J22">
-        <v>0.0019630834143237286</v>
+        <v>0.0019607838174000676</v>
       </c>
       <c r="K22">
-        <v>4.836886418674926e-5</v>
+        <v>4.835398165186523e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1190,34 +1190,34 @@
         <v>-0.013599062418082824</v>
       </c>
       <c r="B23">
-        <v>7.514684988735978</v>
+        <v>7.490668080365802</v>
       </c>
       <c r="C23">
-        <v>8.497119915018435e-5</v>
+        <v>8.52995876244567e-5</v>
       </c>
       <c r="D23">
-        <v>-1.3589334849039211e-5</v>
+        <v>-8.200030110685763e-6</v>
       </c>
       <c r="E23">
-        <v>0.0019613663007131857</v>
+        <v>0.0019589635756370794</v>
       </c>
       <c r="F23">
-        <v>4.836067287927619e-5</v>
+        <v>4.8346301321488534e-5</v>
       </c>
       <c r="G23">
-        <v>7.514718072869312</v>
+        <v>7.490701334282196</v>
       </c>
       <c r="H23">
-        <v>8.498228906615211e-5</v>
+        <v>8.531064725237088e-5</v>
       </c>
       <c r="I23">
-        <v>-1.3581705049102427e-5</v>
+        <v>-8.192852189964072e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019613682141273324</v>
+        <v>0.0019589655915700096</v>
       </c>
       <c r="K23">
-        <v>4.8360542053725715e-5</v>
+        <v>4.8346157025066494e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1225,34 +1225,34 @@
         <v>-0.012300576728531541</v>
       </c>
       <c r="B24">
-        <v>7.493453194052974</v>
+        <v>7.469182441385801</v>
       </c>
       <c r="C24">
-        <v>7.911589568883859e-5</v>
+        <v>7.945591163798943e-5</v>
       </c>
       <c r="D24">
-        <v>-1.4072690106822435e-5</v>
+        <v>-8.463918015734567e-6</v>
       </c>
       <c r="E24">
-        <v>0.001959667337202152</v>
+        <v>0.0019571641042602722</v>
       </c>
       <c r="F24">
-        <v>4.835342537784856e-5</v>
+        <v>4.8339543709474354e-5</v>
       </c>
       <c r="G24">
-        <v>7.493484000377377</v>
+        <v>7.46921347614679</v>
       </c>
       <c r="H24">
-        <v>7.91267989794909e-5</v>
+        <v>7.946678513084346e-5</v>
       </c>
       <c r="I24">
-        <v>-1.4065182281742697e-5</v>
+        <v>-8.456873093600925e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019596690721369577</v>
+        <v>0.0019571659823521023</v>
       </c>
       <c r="K24">
-        <v>4.8353278716713117e-5</v>
+        <v>4.833938525026039e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,34 +1260,34 @@
         <v>-0.011023286409034213</v>
       </c>
       <c r="B25">
-        <v>7.473094495345488</v>
+        <v>7.448619909144175</v>
       </c>
       <c r="C25">
-        <v>7.337748835295013e-5</v>
+        <v>7.372888340807497e-5</v>
       </c>
       <c r="D25">
-        <v>-1.4534938134175792e-5</v>
+        <v>-8.70902950006948e-6</v>
       </c>
       <c r="E25">
-        <v>0.001957987350550187</v>
+        <v>0.001955386327233481</v>
       </c>
       <c r="F25">
-        <v>4.834713701593629e-5</v>
+        <v>4.83337337355387e-5</v>
       </c>
       <c r="G25">
-        <v>7.4731222520871805</v>
+        <v>7.448647949405042</v>
       </c>
       <c r="H25">
-        <v>7.338796276046373e-5</v>
+        <v>7.37393292026657e-5</v>
       </c>
       <c r="I25">
-        <v>-1.4527721977586864e-5</v>
+        <v>-8.702275222430445e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019579888431418193</v>
+        <v>0.001955387999827624</v>
       </c>
       <c r="K25">
-        <v>4.8346975889894544e-5</v>
+        <v>4.833356268999644e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1295,34 +1295,34 @@
         <v>-0.009765626619215123</v>
       </c>
       <c r="B26">
-        <v>7.453597833871835</v>
+        <v>7.428963262334231</v>
       </c>
       <c r="C26">
-        <v>6.775881967402913e-5</v>
+        <v>6.812133228266888e-5</v>
       </c>
       <c r="D26">
-        <v>-1.4969590169148008e-5</v>
+        <v>-8.929314345864755e-6</v>
       </c>
       <c r="E26">
-        <v>0.0019563301705959233</v>
+        <v>0.0019536342856957493</v>
       </c>
       <c r="F26">
-        <v>4.834172338172956e-5</v>
+        <v>4.8328783203673596e-5</v>
       </c>
       <c r="G26">
-        <v>7.4536216760565495</v>
+        <v>7.4289874309988555</v>
       </c>
       <c r="H26">
-        <v>6.776858213724678e-5</v>
+        <v>6.813106811247709e-5</v>
       </c>
       <c r="I26">
-        <v>-1.4962864764523322e-5</v>
+        <v>-8.923034425486485e-6</v>
       </c>
       <c r="J26">
-        <v>0.001956331337360484</v>
+        <v>0.0019536356622230984</v>
       </c>
       <c r="K26">
-        <v>4.834154917063326e-5</v>
+        <v>4.832860105463712e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1330,34 +1330,34 @@
         <v>-0.008526056568552345</v>
       </c>
       <c r="B27">
-        <v>7.43496015580853</v>
+        <v>7.410204342874971</v>
       </c>
       <c r="C27">
-        <v>6.226599080554286e-5</v>
+        <v>6.263933736158594e-5</v>
       </c>
       <c r="D27">
-        <v>-1.5367907219498287e-5</v>
+        <v>-9.11668912651831e-6</v>
       </c>
       <c r="E27">
-        <v>0.001954700817442483</v>
+        <v>0.0019519132865370241</v>
       </c>
       <c r="F27">
-        <v>4.833711326807157e-5</v>
+        <v>4.832461823521844e-5</v>
       </c>
       <c r="G27">
-        <v>7.434979165768497</v>
+        <v>7.410223703533638</v>
       </c>
       <c r="H27">
-        <v>6.227472784684797e-5</v>
+        <v>6.264805057951799e-5</v>
       </c>
       <c r="I27">
-        <v>-1.536189388306464e-5</v>
+        <v>-9.111086458835105e-6</v>
       </c>
       <c r="J27">
-        <v>0.001954701557841704</v>
+        <v>0.0019519142566892418</v>
       </c>
       <c r="K27">
-        <v>4.8336927315100114e-5</v>
+        <v>4.832442634630653e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1365,34 +1365,34 @@
         <v>-0.00730305762871666</v>
       </c>
       <c r="B28">
-        <v>7.4171876612965875</v>
+        <v>7.392345285703967</v>
       </c>
       <c r="C28">
-        <v>5.6908690513193714e-5</v>
+        <v>5.729255557643234e-5</v>
       </c>
       <c r="D28">
-        <v>-1.5718649196416037e-5</v>
+        <v>-9.260826328706057e-6</v>
       </c>
       <c r="E28">
-        <v>0.0019531056916061262</v>
+        <v>0.0019502301118695929</v>
       </c>
       <c r="F28">
-        <v>4.833324757089318e-5</v>
+        <v>4.8321177900491315e-5</v>
       </c>
       <c r="G28">
-        <v>7.4172009290676115</v>
+        <v>7.392358905203953</v>
       </c>
       <c r="H28">
-        <v>5.6916075130085376e-5</v>
+        <v>5.72999200246091e-5</v>
       </c>
       <c r="I28">
-        <v>-1.5713579660317318e-5</v>
+        <v>-9.256111924494974e-6</v>
       </c>
       <c r="J28">
-        <v>0.0019531058938132347</v>
+        <v>0.0019502305522079413</v>
       </c>
       <c r="K28">
-        <v>4.8333051165557725e-5</v>
+        <v>4.832097751938838e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1400,34 +1400,34 @@
         <v>-0.006095131473061968</v>
       </c>
       <c r="B29">
-        <v>7.400296162906997</v>
+        <v>7.375398824511676</v>
       </c>
       <c r="C29">
-        <v>5.170033046407552e-5</v>
+        <v>5.2094356601681106e-5</v>
       </c>
       <c r="D29">
-        <v>-1.6007959922312005e-5</v>
+        <v>-9.349069175257663e-6</v>
       </c>
       <c r="E29">
-        <v>0.0019515526850048526</v>
+        <v>0.0019485931427967989</v>
       </c>
       <c r="F29">
-        <v>4.8330077913395726e-5</v>
+        <v>4.8318412639587234e-5</v>
       </c>
       <c r="G29">
-        <v>7.400302860506998</v>
+        <v>7.375405850045823</v>
       </c>
       <c r="H29">
-        <v>5.170604486659411e-5</v>
+        <v>5.210005544861292e-5</v>
       </c>
       <c r="I29">
-        <v>-1.6004060317775617e-5</v>
+        <v>-9.34544739861522e-6</v>
       </c>
       <c r="J29">
-        <v>0.001951552234834627</v>
+        <v>0.0019485929266229705</v>
       </c>
       <c r="K29">
-        <v>4.832987229183812e-5</v>
+        <v>4.831820491711185e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1435,34 +1435,34 @@
         <v>-0.0049007982409877415</v>
       </c>
       <c r="B30">
-        <v>7.384310486330955</v>
+        <v>7.359387611035663</v>
       </c>
       <c r="C30">
-        <v>4.6657923168373984e-5</v>
+        <v>4.706170112540973e-5</v>
       </c>
       <c r="D30">
-        <v>-1.621943526337876e-5</v>
+        <v>-9.366512037246441e-6</v>
       </c>
       <c r="E30">
-        <v>0.0019500511800127002</v>
+        <v>0.0019470123619651457</v>
       </c>
       <c r="F30">
-        <v>4.832756506790856e-5</v>
+        <v>4.831628253517395e-5</v>
       </c>
       <c r="G30">
-        <v>7.384309949534804</v>
+        <v>7.359387354378971</v>
       </c>
       <c r="H30">
-        <v>4.666168579417209e-5</v>
+        <v>4.706545354435401e-5</v>
       </c>
       <c r="I30">
-        <v>-1.6216907052611347e-5</v>
+        <v>-9.364163261757331e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019500499720842672</v>
+        <v>0.0019470113716499493</v>
       </c>
       <c r="K30">
-        <v>4.832735142675262e-5</v>
+        <v>4.831606855488457e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1470,34 +1470,34 @@
         <v>-0.003718594724924723</v>
       </c>
       <c r="B31">
-        <v>7.369262919519843</v>
+        <v>7.344342556085672</v>
       </c>
       <c r="C31">
-        <v>4.1801658374079804e-5</v>
+        <v>4.221471840159398e-5</v>
       </c>
       <c r="D31">
-        <v>-1.6334408429393164e-5</v>
+        <v>-9.296273491918073e-6</v>
       </c>
       <c r="E31">
-        <v>0.00194861191126053</v>
+        <v>0.001945499207256567</v>
       </c>
       <c r="F31">
-        <v>4.8325677254897734e-5</v>
+        <v>4.831475550593245e-5</v>
       </c>
       <c r="G31">
-        <v>7.369254727007169</v>
+        <v>7.344334576019153</v>
       </c>
       <c r="H31">
-        <v>4.180325221101727e-5</v>
+        <v>4.2216308011524005e-5</v>
       </c>
       <c r="I31">
-        <v>-1.633340807424181e-5</v>
+        <v>-9.29533583784878e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019486098615357273</v>
+        <v>0.0019454973478109483</v>
       </c>
       <c r="K31">
-        <v>4.832545677010455e-5</v>
+        <v>4.8314536316154056e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1505,34 +1505,34 @@
         <v>-0.002547072577722697</v>
       </c>
       <c r="B32">
-        <v>7.355190799809161</v>
+        <v>7.33030028323662</v>
       </c>
       <c r="C32">
-        <v>3.715416241745044e-5</v>
+        <v>3.757596762926318e-5</v>
       </c>
       <c r="D32">
-        <v>-1.633246627115251e-5</v>
+        <v>-9.119970530086997e-6</v>
       </c>
       <c r="E32">
-        <v>0.0019472466771999525</v>
+        <v>0.0019440662622215658</v>
       </c>
       <c r="F32">
-        <v>4.832438840405096e-5</v>
+        <v>4.8313805494678366e-5</v>
       </c>
       <c r="G32">
-        <v>7.35517484124564</v>
+        <v>7.330284455858274</v>
       </c>
       <c r="H32">
-        <v>3.7153461840442315e-5</v>
+        <v>3.757526911920313e-5</v>
       </c>
       <c r="I32">
-        <v>-1.6333085850431013e-5</v>
+        <v>-9.120522684987246e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019472437352451198</v>
+        <v>0.0019440634747248241</v>
       </c>
       <c r="K32">
-        <v>4.832416224722499e-5</v>
+        <v>4.831358213485481e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1540,34 +1540,34 @@
         <v>-0.001384796538244068</v>
       </c>
       <c r="B33">
-        <v>7.342133409918836</v>
+        <v>7.317299868908055</v>
       </c>
       <c r="C33">
-        <v>3.273945964125467e-5</v>
+        <v>3.316940221803574e-5</v>
       </c>
       <c r="D33">
-        <v>-1.6192185397376962e-5</v>
+        <v>-8.818380386115922e-6</v>
       </c>
       <c r="E33">
-        <v>0.0019459679045280747</v>
+        <v>0.001942726786302685</v>
       </c>
       <c r="F33">
-        <v>4.83236764617066e-5</v>
+        <v>4.831341072559045e-5</v>
       </c>
       <c r="G33">
-        <v>7.342109933542909</v>
+        <v>7.317276437159614</v>
       </c>
       <c r="H33">
-        <v>3.273645256372193e-5</v>
+        <v>3.3166403511725465e-5</v>
       </c>
       <c r="I33">
-        <v>-1.6194436540744292e-5</v>
+        <v>-8.8204275934059e-6</v>
       </c>
       <c r="J33">
-        <v>0.0019459640641948063</v>
+        <v>0.0019427230595528738</v>
       </c>
       <c r="K33">
-        <v>4.8323445813358755e-5</v>
+        <v>4.831318424704115e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1575,34 +1575,34 @@
         <v>-0.00023034267298949543</v>
       </c>
       <c r="B34">
-        <v>7.330128421644963</v>
+        <v>7.305379113184787</v>
       </c>
       <c r="C34">
-        <v>2.85816910019576e-5</v>
+        <v>2.901909190974515e-5</v>
       </c>
       <c r="D34">
-        <v>-1.5892050280885463e-5</v>
+        <v>-8.372253875610515e-6</v>
       </c>
       <c r="E34">
-        <v>0.0019447880864976357</v>
+        <v>0.0019414941075086747</v>
       </c>
       <c r="F34">
-        <v>4.832352182067959e-5</v>
+        <v>4.8313552098437e-5</v>
       </c>
       <c r="G34">
-        <v>7.3300980554275705</v>
+        <v>7.305348709514088</v>
       </c>
       <c r="H34">
-        <v>2.857649301804286e-5</v>
+        <v>2.9013908313811093e-5</v>
       </c>
       <c r="I34">
-        <v>-1.5895853591226252e-5</v>
+        <v>-8.37571896116097e-6</v>
       </c>
       <c r="J34">
-        <v>0.0019447833933663383</v>
+        <v>0.0019414894860820832</v>
       </c>
       <c r="K34">
-        <v>4.832328787509089e-5</v>
+        <v>4.8313323574664814e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1610,34 +1610,34 @@
         <v>0.0009177033683987063</v>
       </c>
       <c r="B35">
-        <v>7.319208171739583</v>
+        <v>7.29457063455313</v>
       </c>
       <c r="C35">
-        <v>2.470367746634621e-5</v>
+        <v>2.5147790115978112e-5</v>
       </c>
       <c r="D35">
-        <v>-1.5411490850339732e-5</v>
+        <v>-7.763224079898659e-6</v>
       </c>
       <c r="E35">
-        <v>0.0019437191334966528</v>
+        <v>0.0019403809193153918</v>
       </c>
       <c r="F35">
-        <v>4.8323905933866706e-5</v>
+        <v>4.831421177493763e-5</v>
       </c>
       <c r="G35">
-        <v>7.319171914218439</v>
+        <v>7.294534272270882</v>
       </c>
       <c r="H35">
-        <v>2.4696536181743125e-5</v>
+        <v>2.5140668531429454e-5</v>
       </c>
       <c r="I35">
-        <v>-1.5416672512461812e-5</v>
+        <v>-7.767944932787387e-6</v>
       </c>
       <c r="J35">
-        <v>0.0019437136881300023</v>
+        <v>0.0019403755070803719</v>
       </c>
       <c r="K35">
-        <v>4.832366989575572e-5</v>
+        <v>4.831398230181678e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1645,34 +1645,34 @@
         <v>0.0020607480858926483</v>
       </c>
       <c r="B36">
-        <v>7.309396073035814</v>
+        <v>7.284898102963271</v>
       </c>
       <c r="C36">
-        <v>2.1125440174660012e-5</v>
+        <v>2.1575458140936757e-5</v>
       </c>
       <c r="D36">
-        <v>-1.4731957908647408e-5</v>
+        <v>-6.974739491848046e-6</v>
       </c>
       <c r="E36">
-        <v>0.001942771688502302</v>
+        <v>0.0019393985393107251</v>
       </c>
       <c r="F36">
-        <v>4.832481015475913e-5</v>
+        <v>4.8315371995984364e-5</v>
       </c>
       <c r="G36">
-        <v>7.309355253887057</v>
+        <v>7.284857135929351</v>
       </c>
       <c r="H36">
-        <v>2.1116728075475603e-5</v>
+        <v>2.1566770087549867e-5</v>
       </c>
       <c r="I36">
-        <v>-1.473825442432716e-5</v>
+        <v>-6.980473730465661e-6</v>
       </c>
       <c r="J36">
-        <v>0.0019427656444889042</v>
+        <v>0.0019393924973864966</v>
       </c>
       <c r="K36">
-        <v>4.8324573229519705e-5</v>
+        <v>4.831514268370853e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1680,34 +1680,34 @@
         <v>0.0032001918522172254</v>
       </c>
       <c r="B37">
-        <v>7.300703454441411</v>
+        <v>7.276372917669644</v>
       </c>
       <c r="C37">
-        <v>1.7862802086654598e-5</v>
+        <v>1.831787066340181e-5</v>
       </c>
       <c r="D37">
-        <v>-1.3837944002253604e-5</v>
+        <v>-5.9929433876629276e-6</v>
       </c>
       <c r="E37">
-        <v>0.001941954468778066</v>
+        <v>0.0019385561968406767</v>
       </c>
       <c r="F37">
-        <v>4.832621482959177e-5</v>
+        <v>4.831701415161405e-5</v>
       </c>
       <c r="G37">
-        <v>7.3006596669104535</v>
+        <v>7.276328971098858</v>
       </c>
       <c r="H37">
-        <v>1.7852998463619297e-5</v>
+        <v>1.8308094070367647e-5</v>
       </c>
       <c r="I37">
-        <v>-1.3845015070980016e-5</v>
+        <v>-5.999380145824493e-6</v>
       </c>
       <c r="J37">
-        <v>0.0019419480256813342</v>
+        <v>0.0019385497359596005</v>
       </c>
       <c r="K37">
-        <v>4.8325978205061714e-5</v>
+        <v>4.831678610709395e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1715,34 +1715,34 @@
         <v>0.004337430628481818</v>
       </c>
       <c r="B38">
-        <v>7.293127088345206</v>
+        <v>7.268991601043169</v>
       </c>
       <c r="C38">
-        <v>1.4926194918769922e-5</v>
+        <v>1.538542594581264e-5</v>
       </c>
       <c r="D38">
-        <v>-1.2717856941562998e-5</v>
+        <v>-4.8074222843617905e-6</v>
       </c>
       <c r="E38">
-        <v>0.0019412736968323749</v>
+        <v>0.0019378604187530867</v>
       </c>
       <c r="F38">
-        <v>4.832809865016895e-5</v>
+        <v>4.831911811114281e-5</v>
       </c>
       <c r="G38">
-        <v>7.293082099137664</v>
+        <v>7.268946478960995</v>
       </c>
       <c r="H38">
-        <v>1.4915857706188227e-5</v>
+        <v>1.537511722144466e-5</v>
       </c>
       <c r="I38">
-        <v>-1.2725305573040613e-5</v>
+        <v>-4.8142002596446766e-6</v>
       </c>
       <c r="J38">
-        <v>0.0019412670884924117</v>
+        <v>0.0019378537865655631</v>
       </c>
       <c r="K38">
-        <v>4.832786347533887e-5</v>
+        <v>4.8318892416237195e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1750,34 +1750,34 @@
         <v>0.0054738576744072405</v>
       </c>
       <c r="B39">
-        <v>7.286647607685296</v>
+        <v>7.262734121304975</v>
       </c>
       <c r="C39">
-        <v>1.2319780378001687e-5</v>
+        <v>1.2782269476574575e-5</v>
       </c>
       <c r="D39">
-        <v>-1.13646635386386e-5</v>
+        <v>-3.411755880752112e-6</v>
       </c>
       <c r="E39">
-        <v>0.001940732677515238</v>
+        <v>0.001937314575489769</v>
       </c>
       <c r="F39">
-        <v>4.833043826492487e-5</v>
+        <v>4.832166181025402e-5</v>
       </c>
       <c r="G39">
-        <v>7.286603252170239</v>
+        <v>7.262689698694395</v>
       </c>
       <c r="H39">
-        <v>1.2309510644962184e-5</v>
+        <v>1.2772028057422568e-5</v>
       </c>
       <c r="I39">
-        <v>-1.137206165867108e-5</v>
+        <v>-3.418486135993661e-6</v>
       </c>
       <c r="J39">
-        <v>0.0019407261566864878</v>
+        <v>0.0019373080399406036</v>
       </c>
       <c r="K39">
-        <v>4.833020562453697e-5</v>
+        <v>4.832143949520496e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1785,34 +1785,34 @@
         <v>0.006610865255243126</v>
       </c>
       <c r="B40">
-        <v>7.281228942882617</v>
+        <v>7.257563281577396</v>
       </c>
       <c r="C40">
-        <v>1.0040967508979807e-5</v>
+        <v>1.0505812637309046e-5</v>
       </c>
       <c r="D40">
-        <v>-9.776241326252441e-6</v>
+        <v>-1.8038178450748722e-6</v>
       </c>
       <c r="E40">
-        <v>0.0019403315646781623</v>
+        <v>0.0019369186347863339</v>
       </c>
       <c r="F40">
-        <v>4.8333208138421584e-5</v>
+        <v>4.832462108505811e-5</v>
       </c>
       <c r="G40">
-        <v>7.281187014519815</v>
+        <v>7.257521390297183</v>
       </c>
       <c r="H40">
-        <v>1.003136983831584e-5</v>
+        <v>1.04962414393266e-5</v>
       </c>
       <c r="I40">
-        <v>-9.783158366970392e-6</v>
+        <v>-1.8101091583260488e-6</v>
       </c>
       <c r="J40">
-        <v>0.0019403253856671199</v>
+        <v>0.0019369124653975877</v>
       </c>
       <c r="K40">
-        <v>4.8332979026863144e-5</v>
+        <v>4.83244031006535e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1820,34 +1820,34 @@
         <v>0.007749846347466959</v>
       </c>
       <c r="B41">
-        <v>7.27681882690642</v>
+        <v>7.253425226107005</v>
       </c>
       <c r="C41">
-        <v>8.080371429572397e-6</v>
+        <v>8.546691545968992e-6</v>
       </c>
       <c r="D41">
-        <v>-7.955403752079319e-6</v>
+        <v>1.4200656101025599e-8</v>
       </c>
       <c r="E41">
-        <v>0.0019400673416781573</v>
+        <v>0.0019366691489394708</v>
       </c>
       <c r="F41">
-        <v>4.83363806448609e-5</v>
+        <v>4.832796973890436e-5</v>
       </c>
       <c r="G41">
-        <v>7.276780970402488</v>
+        <v>7.25338754470146</v>
       </c>
       <c r="H41">
-        <v>8.072013939169316e-6</v>
+        <v>8.538357132798356e-6</v>
       </c>
       <c r="I41">
-        <v>-7.96143552584467e-6</v>
+        <v>8.716171076569438e-9</v>
       </c>
       <c r="J41">
-        <v>0.001940061742704148</v>
+        <v>0.0019366635978510498</v>
       </c>
       <c r="K41">
-        <v>4.8336155941456274e-5</v>
+        <v>4.8327756929794004e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1855,34 +1855,34 @@
         <v>0.008892196345354493</v>
       </c>
       <c r="B42">
-        <v>7.273350330946849</v>
+        <v>7.250251023649259</v>
       </c>
       <c r="C42">
-        <v>6.422217000634322e-6</v>
+        <v>6.8891696116903005e-6</v>
       </c>
       <c r="D42">
-        <v>-5.909596268889783e-6</v>
+        <v>2.036047164324078e-6</v>
       </c>
       <c r="E42">
-        <v>0.0019399340176889093</v>
+        <v>0.0019365594768581847</v>
       </c>
       <c r="F42">
-        <v>4.8339926377205156e-5</v>
+        <v>4.8331679824001186e-5</v>
       </c>
       <c r="G42">
-        <v>7.273317948085069</v>
+        <v>7.250218980602137</v>
       </c>
       <c r="H42">
-        <v>6.415594915847704e-6</v>
+        <v>6.88256585227062e-6</v>
       </c>
       <c r="I42">
-        <v>-5.914391207314658e-6</v>
+        <v>2.031690695346811e-6</v>
       </c>
       <c r="J42">
-        <v>0.0019399292048781676</v>
+        <v>0.0019365547616150374</v>
       </c>
       <c r="K42">
-        <v>4.83397068248994e-5</v>
+        <v>4.833147290544792e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1890,34 +1890,34 @@
         <v>0.010039314770512228</v>
       </c>
       <c r="B43">
-        <v>7.2707443098082205</v>
+        <v>7.247959199794499</v>
       </c>
       <c r="C43">
-        <v>5.04514883869222e-6</v>
+        <v>5.51194531618884e-6</v>
       </c>
       <c r="D43">
-        <v>-3.6502929572109986e-6</v>
+        <v>4.251920422137403e-6</v>
       </c>
       <c r="E43">
-        <v>0.0019399230193126637</v>
+        <v>0.001936580217347632</v>
       </c>
       <c r="F43">
-        <v>4.834381464814345e-5</v>
+        <v>4.833572211472135e-5</v>
       </c>
       <c r="G43">
-        <v>7.270718486224761</v>
+        <v>7.247933898307292</v>
       </c>
       <c r="H43">
-        <v>5.040654968698641e-6</v>
+        <v>5.5074639289258915e-6</v>
       </c>
       <c r="I43">
-        <v>-3.6535732906597903e-6</v>
+        <v>4.248947427787145e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019399191538606454</v>
+        <v>0.0019365765072447275</v>
       </c>
       <c r="K43">
-        <v>4.8343600837320856e-5</v>
+        <v>4.8335521654527236e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1925,34 +1925,34 @@
         <v>0.011192606986466382</v>
       </c>
       <c r="B44">
-        <v>7.268912561833022</v>
+        <v>7.24645901176193</v>
       </c>
       <c r="C44">
-        <v>3.923371365998356e-6</v>
+        <v>4.389289125768824e-6</v>
       </c>
       <c r="D44">
-        <v>-1.1921518810340927e-6</v>
+        <v>6.64919232149584e-6</v>
       </c>
       <c r="E44">
-        <v>0.001940023737388824</v>
+        <v>0.0019367198086760577</v>
       </c>
       <c r="F44">
-        <v>4.834801415118183e-5</v>
+        <v>4.8340066741629545e-5</v>
       </c>
       <c r="G44">
-        <v>7.268894020316733</v>
+        <v>7.246441182120716</v>
       </c>
       <c r="H44">
-        <v>3.921276141193677e-6</v>
+        <v>4.387199781404115e-6</v>
       </c>
       <c r="I44">
-        <v>-1.193727811743217e-6</v>
+        <v>6.647779591971216e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019400209271192793</v>
+        <v>0.0019367172158483228</v>
       </c>
       <c r="K44">
-        <v>4.8347806510458756e-5</v>
+        <v>4.833987314928476e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1960,34 +1960,34 @@
         <v>0.012353485920408983</v>
       </c>
       <c r="B45">
-        <v>7.267761449754589</v>
+        <v>7.245654198288463</v>
       </c>
       <c r="C45">
-        <v>3.0280136043067456e-6</v>
+        <v>3.492404529571674e-6</v>
       </c>
       <c r="D45">
-        <v>1.4479911369991257e-6</v>
+        <v>9.213274219972133e-6</v>
       </c>
       <c r="E45">
-        <v>0.0019402241747017012</v>
+        <v>0.001936965234248774</v>
       </c>
       <c r="F45">
-        <v>4.8352493739649596e-5</v>
+        <v>4.8344683944861104e-5</v>
       </c>
       <c r="G45">
-        <v>7.267750533477258</v>
+        <v>7.245644181270703</v>
       </c>
       <c r="H45">
-        <v>3.0284561419648886e-6</v>
+        <v>3.4928459872772477e-6</v>
       </c>
       <c r="I45">
-        <v>1.4482153465826544e-6</v>
+        <v>9.213513966708357e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019402224706619108</v>
+        <v>0.0019369638102394492</v>
       </c>
       <c r="K45">
-        <v>4.835229253506852e-5</v>
+        <v>4.834449746935894e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1995,34 +1995,34 @@
         <v>0.01352337379421037</v>
       </c>
       <c r="B46">
-        <v>7.26719569285295</v>
+        <v>7.245446900549633</v>
       </c>
       <c r="C46">
-        <v>2.328596410116344e-6</v>
+        <v>2.7908912378135774e-6</v>
       </c>
       <c r="D46">
-        <v>4.252198675130522e-6</v>
+        <v>1.1928551437703627e-5</v>
       </c>
       <c r="E46">
-        <v>0.0019405116331491347</v>
+        <v>0.001937302766925818</v>
       </c>
       <c r="F46">
-        <v>4.835722326994049e-5</v>
+        <v>4.8349544894049146e-5</v>
       </c>
       <c r="G46">
-        <v>7.2671923786744514</v>
+        <v>7.245444661694751</v>
       </c>
       <c r="H46">
-        <v>2.331586959111761e-6</v>
+        <v>2.793873710404703e-6</v>
       </c>
       <c r="I46">
-        <v>4.254226788904622e-6</v>
+        <v>1.1930452671848745e-5</v>
       </c>
       <c r="J46">
-        <v>0.0019405110312626672</v>
+        <v>0.001937302504665636</v>
       </c>
       <c r="K46">
-        <v>4.835702861263791e-5</v>
+        <v>4.834936563041083e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,34 +2030,34 @@
         <v>0.014703703866818844</v>
       </c>
       <c r="B47">
-        <v>7.267122032340592</v>
+        <v>7.245741442836682</v>
       </c>
       <c r="C47">
-        <v>1.7944766022753327e-6</v>
+        <v>2.2541853358306274e-6</v>
       </c>
       <c r="D47">
-        <v>7.202484878058021e-6</v>
+        <v>1.4779307028422943e-5</v>
       </c>
       <c r="E47">
-        <v>0.0019408733793933387</v>
+        <v>0.0019377186856726245</v>
       </c>
       <c r="F47">
-        <v>4.836217444557881e-5</v>
+        <v>4.8354622512274806e-5</v>
       </c>
       <c r="G47">
-        <v>7.267125971189609</v>
+        <v>7.245746614662296</v>
       </c>
       <c r="H47">
-        <v>1.799909255544198e-6</v>
+        <v>2.259603205445218e-6</v>
       </c>
       <c r="I47">
-        <v>7.20623815810824e-6</v>
+        <v>1.4782803531115526e-5</v>
       </c>
       <c r="J47">
-        <v>0.0019408738265950137</v>
+        <v>0.001937719526251422</v>
       </c>
       <c r="K47">
-        <v>4.836198630776365e-5</v>
+        <v>4.835445041668034e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2065,34 +2065,34 @@
         <v>0.015895922190182113</v>
       </c>
       <c r="B48">
-        <v>7.267452493676583</v>
+        <v>7.246447686381563</v>
       </c>
       <c r="C48">
-        <v>1.3961529994017737e-6</v>
+        <v>1.8528617272811534e-6</v>
       </c>
       <c r="D48">
-        <v>1.0281761812821705e-5</v>
+        <v>1.7750561793151527e-5</v>
       </c>
       <c r="E48">
-        <v>0.0019412972355065479</v>
+        <v>0.001938199907065404</v>
       </c>
       <c r="F48">
-        <v>4.8367321593950945e-5</v>
+        <v>4.835989223672665e-5</v>
       </c>
       <c r="G48">
-        <v>7.267463072515772</v>
+        <v>7.246459632575055</v>
       </c>
       <c r="H48">
-        <v>1.4038266498068349e-6</v>
+        <v>1.8605144349533016e-6</v>
       </c>
       <c r="I48">
-        <v>1.0287094317880605e-5</v>
+        <v>1.7755525443024166e-5</v>
       </c>
       <c r="J48">
-        <v>0.0019412986393363132</v>
+        <v>0.0019382017501441652</v>
       </c>
       <c r="K48">
-        <v>4.836713983193119e-5</v>
+        <v>4.835972714889847e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2100,34 +2100,34 @@
         <v>0.01710148938084175</v>
       </c>
       <c r="B49">
-        <v>7.2681070204394596</v>
+        <v>7.247483724681634</v>
       </c>
       <c r="C49">
-        <v>1.1063420372564625e-6</v>
+        <v>1.5597067902987931e-6</v>
       </c>
       <c r="D49">
-        <v>1.3474613065846305e-5</v>
+        <v>2.0828771095473915e-5</v>
       </c>
       <c r="E49">
-        <v>0.001941772054131098</v>
+        <v>0.001938734488885069</v>
       </c>
       <c r="F49">
-        <v>4.8372642310534184e-5</v>
+        <v>4.8365332651632946e-5</v>
       </c>
       <c r="G49">
-        <v>7.268123437904142</v>
+        <v>7.247501618061929</v>
       </c>
       <c r="H49">
-        <v>1.115986665784097e-6</v>
+        <v>1.5693250582011e-6</v>
       </c>
       <c r="I49">
-        <v>1.3481330605550298e-5</v>
+        <v>2.083502868378413e-5</v>
       </c>
       <c r="J49">
-        <v>0.0019417742944143124</v>
+        <v>0.0019387372052478097</v>
       </c>
       <c r="K49">
-        <v>4.837246669269851e-5</v>
+        <v>4.8365174322303034e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2135,34 +2135,34 @@
         <v>0.018321882409371174</v>
       </c>
       <c r="B50">
-        <v>7.26901532907324</v>
+        <v>7.248777767802983</v>
       </c>
       <c r="C50">
-        <v>9.007620662932401e-7</v>
+        <v>1.3505005141298404e-6</v>
       </c>
       <c r="D50">
-        <v>1.6767852506744303e-5</v>
+        <v>2.400233843043502e-5</v>
       </c>
       <c r="E50">
-        <v>0.001942288054037827</v>
+        <v>0.0019393119811561739</v>
       </c>
       <c r="F50">
-        <v>4.837811791748586e-5</v>
+        <v>4.837092594085165e-5</v>
       </c>
       <c r="G50">
-        <v>7.269036676116633</v>
+        <v>7.248800673177455</v>
       </c>
       <c r="H50">
-        <v>9.120671309478648e-7</v>
+        <v>1.3617746561848114e-6</v>
       </c>
       <c r="I50">
-        <v>1.677573295471209e-5</v>
+        <v>2.40096898968033e-5</v>
       </c>
       <c r="J50">
-        <v>0.0019422909952260072</v>
+        <v>0.0019393154258928204</v>
       </c>
       <c r="K50">
-        <v>4.837794815451414e-5</v>
+        <v>4.837077406162654e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2170,34 +2170,34 @@
         <v>0.019558596409849263</v>
       </c>
       <c r="B51">
-        <v>7.270117922743106</v>
+        <v>7.25026915617285</v>
       </c>
       <c r="C51">
-        <v>7.586011936666411e-7</v>
+        <v>1.2044830495843167e-6</v>
       </c>
       <c r="D51">
-        <v>2.015085259195577e-5</v>
+        <v>2.726192818494519e-5</v>
       </c>
       <c r="E51">
-        <v>0.0019428370092578508</v>
+        <v>0.0019399236188167835</v>
       </c>
       <c r="F51">
-        <v>4.838373370372155e-5</v>
+        <v>4.837665812744283e-5</v>
       </c>
       <c r="G51">
-        <v>7.270143259711211</v>
+        <v>7.2502961091722655</v>
       </c>
       <c r="H51">
-        <v>7.712429583024386e-7</v>
+        <v>1.2170902187363008e-6</v>
       </c>
       <c r="I51">
-        <v>2.0159665392470094e-5</v>
+        <v>2.727016436116578e-5</v>
       </c>
       <c r="J51">
-        <v>0.0019428405120333059</v>
+        <v>0.0019399276436320907</v>
       </c>
       <c r="K51">
-        <v>4.838356947818767e-5</v>
+        <v>4.837651236014688e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2205,34 +2205,34 @@
         <v>0.020813146511586555</v>
       </c>
       <c r="B52">
-        <v>7.271366293379536</v>
+        <v>7.25190853837021</v>
       </c>
       <c r="C52">
-        <v>6.626787087224863e-7</v>
+        <v>1.104515684738008e-6</v>
       </c>
       <c r="D52">
-        <v>2.3615651989970866e-5</v>
+        <v>3.060058249316127e-5</v>
       </c>
       <c r="E52">
-        <v>0.0019434123008530077</v>
+        <v>0.0019405623672232185</v>
       </c>
       <c r="F52">
-        <v>4.838947893914464e-5</v>
+        <v>4.838251909266342e-5</v>
       </c>
       <c r="G52">
-        <v>7.271394716021587</v>
+        <v>7.2519386127255006</v>
       </c>
       <c r="H52">
-        <v>6.763438227596918e-7</v>
+        <v>1.118143391541344e-6</v>
       </c>
       <c r="I52">
-        <v>2.3625174709974452e-5</v>
+        <v>3.06095003481831e-5</v>
       </c>
       <c r="J52">
-        <v>0.001943416231945922</v>
+        <v>0.0019405668307630123</v>
       </c>
       <c r="K52">
-        <v>4.838931993171002e-5</v>
+        <v>4.838237909539251e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2240,34 +2240,34 @@
         <v>0.022087069695348203</v>
       </c>
       <c r="B53">
-        <v>7.272722420817078</v>
+        <v>7.253657329088647</v>
       </c>
       <c r="C53">
-        <v>5.993400850485879e-7</v>
+        <v>1.036976129078197e-6</v>
       </c>
       <c r="D53">
-        <v>2.715687343641106e-5</v>
+        <v>3.40136665194123e-5</v>
       </c>
       <c r="E53">
-        <v>0.001944008852978925</v>
+        <v>0.0019412228449119033</v>
       </c>
       <c r="F53">
-        <v>4.839534668201652e-5</v>
+        <v>4.8388502392693715e-5</v>
       </c>
       <c r="G53">
-        <v>7.272753110309827</v>
+        <v>7.253689687332465</v>
       </c>
       <c r="H53">
-        <v>6.137435781644989e-7</v>
+        <v>1.0513401863014259e-6</v>
       </c>
       <c r="I53">
-        <v>2.716690443146832e-5</v>
+        <v>3.402308098984137e-5</v>
       </c>
       <c r="J53">
-        <v>0.00194401309242815</v>
+        <v>0.0019412276203510563</v>
       </c>
       <c r="K53">
-        <v>4.839519259233335e-5</v>
+        <v>4.838836784063803e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2275,34 +2275,34 @@
         <v>0.023381926676347586</v>
       </c>
       <c r="B54">
-        <v>7.274157735771565</v>
+        <v>7.255486621734894</v>
       </c>
       <c r="C54">
-        <v>5.581467001938889e-7</v>
+        <v>9.914490792158786e-7</v>
       </c>
       <c r="D54">
-        <v>3.077149718698137e-5</v>
+        <v>3.749868048621222e-5</v>
       </c>
       <c r="E54">
-        <v>0.0019446229829472338</v>
+        <v>0.0019419011562345568</v>
       </c>
       <c r="F54">
-        <v>4.840133342075041e-5</v>
+        <v>4.83946049132883e-5</v>
       </c>
       <c r="G54">
-        <v>7.274189990349312</v>
+        <v>7.25552054706725</v>
       </c>
       <c r="H54">
-        <v>5.730435131002602e-7</v>
+        <v>1.0063051012547108e-6</v>
       </c>
       <c r="I54">
-        <v>3.0781863489703204e-5</v>
+        <v>3.75084320057605e-5</v>
       </c>
       <c r="J54">
-        <v>0.0019446274285647176</v>
+        <v>0.0019419061358587283</v>
       </c>
       <c r="K54">
-        <v>4.840118398177316e-5</v>
+        <v>4.839447551311552e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2310,34 +2310,34 @@
         <v>0.024699303816317582</v>
       </c>
       <c r="B55">
-        <v>7.2756517425029354</v>
+        <v>7.257375758495778</v>
       </c>
       <c r="C55">
-        <v>5.314317992655219e-7</v>
+        <v>9.602833958554e-7</v>
       </c>
       <c r="D55">
-        <v>3.445854205227763e-5</v>
+        <v>4.1054983919226696e-5</v>
       </c>
       <c r="E55">
-        <v>0.0019452521980681929</v>
+        <v>0.0019425946692962401</v>
       </c>
       <c r="F55">
-        <v>4.840743860577934e-5</v>
+        <v>4.84008264166373e-5</v>
       </c>
       <c r="G55">
-        <v>7.275684991050033</v>
+        <v>7.257410668183722</v>
       </c>
       <c r="H55">
-        <v>5.466219578058596e-7</v>
+        <v>9.754319575379699e-7</v>
       </c>
       <c r="I55">
-        <v>3.446910286719583e-5</v>
+        <v>4.1064941934162144e-5</v>
       </c>
       <c r="J55">
-        <v>0.0019452567672232385</v>
+        <v>0.0019425997662648065</v>
       </c>
       <c r="K55">
-        <v>4.840729359144137e-5</v>
+        <v>4.8400701914272254e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2345,34 +2345,34 @@
         <v>0.026040815067002142</v>
       </c>
       <c r="B56">
-        <v>7.277190496176065</v>
+        <v>7.259310758329335</v>
       </c>
       <c r="C56">
-        <v>5.137937963819831e-7</v>
+        <v>9.380867906694165e-7</v>
       </c>
       <c r="D56">
-        <v>3.8218704934098195e-5</v>
+        <v>4.468347775182007e-5</v>
       </c>
       <c r="E56">
-        <v>0.0019458949705034151</v>
+        <v>0.001943301772538864</v>
       </c>
       <c r="F56">
-        <v>4.841366413163336e-5</v>
+        <v>4.840716903912771e-5</v>
       </c>
       <c r="G56">
-        <v>7.277224296490303</v>
+        <v>7.259346201474758</v>
       </c>
       <c r="H56">
-        <v>5.291221380096848e-7</v>
+        <v>9.533731560059747e-7</v>
       </c>
       <c r="I56">
-        <v>3.822935122010247e-5</v>
+        <v>4.469354063200642e-5</v>
       </c>
       <c r="J56">
-        <v>0.0019458995996571055</v>
+        <v>0.001943306920269527</v>
       </c>
       <c r="K56">
-        <v>4.841352335854276e-5</v>
+        <v>4.8407049221620526e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2380,34 +2380,34 @@
         <v>0.027408103947448977</v>
       </c>
       <c r="B57">
-        <v>7.2787651034612075</v>
+        <v>7.2612827749557844</v>
       </c>
       <c r="C57">
-        <v>5.015884952053313e-7</v>
+        <v>9.212194351066774e-7</v>
       </c>
       <c r="D57">
-        <v>4.205400241969137e-5</v>
+        <v>4.8386284153233516e-5</v>
       </c>
       <c r="E57">
-        <v>0.0019465505161955807</v>
+        <v>0.001944021637483002</v>
       </c>
       <c r="F57">
-        <v>4.842001382430275e-5</v>
+        <v>4.841363679376563e-5</v>
       </c>
       <c r="G57">
-        <v>7.278799129364926</v>
+        <v>7.261318418973385</v>
       </c>
       <c r="H57">
-        <v>5.1694038019372e-7</v>
+        <v>9.365292792688887e-7</v>
       </c>
       <c r="I57">
-        <v>4.2064653773695393e-5</v>
+        <v>4.839637655242569e-5</v>
       </c>
       <c r="J57">
-        <v>0.0019465551588570505</v>
+        <v>0.0019440267874122961</v>
       </c>
       <c r="K57">
-        <v>4.8419877148921685e-5</v>
+        <v>4.8413521486691895e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2415,34 +2415,34 @@
         <v>0.028802845557525943</v>
       </c>
       <c r="B58">
-        <v>7.280370371257353</v>
+        <v>7.263286711392509</v>
       </c>
       <c r="C58">
-        <v>4.924662628549202e-7</v>
+        <v>9.073323989524735e-7</v>
       </c>
       <c r="D58">
-        <v>4.596744656674558e-5</v>
+        <v>5.216645413839408e-5</v>
       </c>
       <c r="E58">
-        <v>0.0019472185966063701</v>
+        <v>0.0019447540071360755</v>
       </c>
       <c r="F58">
-        <v>4.842649297670418e-5</v>
+        <v>4.8420235119057755e-5</v>
       </c>
       <c r="G58">
-        <v>7.280404393032262</v>
+        <v>7.263322321970276</v>
       </c>
       <c r="H58">
-        <v>5.07760894961708e-7</v>
+        <v>9.225851477408332e-7</v>
       </c>
       <c r="I58">
-        <v>4.597804640710623e-5</v>
+        <v>5.217652267975186e-5</v>
       </c>
       <c r="J58">
-        <v>0.0019472232203529443</v>
+        <v>0.0019447591255105944</v>
       </c>
       <c r="K58">
-        <v>4.8426360289541365e-5</v>
+        <v>4.842012418097111e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2450,34 +2450,34 @@
         <v>0.030226748630127864</v>
       </c>
       <c r="B59">
-        <v>7.282003677914301</v>
+        <v>7.265320065526233</v>
       </c>
       <c r="C59">
-        <v>4.849822291300869e-7</v>
+        <v>8.949789134366317e-7</v>
       </c>
       <c r="D59">
-        <v>4.996277410342324e-5</v>
+        <v>5.6027721515756074e-5</v>
       </c>
       <c r="E59">
-        <v>0.0019478993540405299</v>
+        <v>0.0019454990210485638</v>
       </c>
       <c r="F59">
-        <v>4.843310795910261e-5</v>
+        <v>4.8426970500579437e-5</v>
       </c>
       <c r="G59">
-        <v>7.2820375405241755</v>
+        <v>7.265355484213741</v>
       </c>
       <c r="H59">
-        <v>5.001651004499369e-7</v>
+        <v>9.101202086296273e-7</v>
       </c>
       <c r="I59">
-        <v>4.997328429572733e-5</v>
+        <v>5.6037729943706606e-5</v>
       </c>
       <c r="J59">
-        <v>0.0019479039372874325</v>
+        <v>0.0019455040854916192</v>
       </c>
       <c r="K59">
-        <v>4.843297917764616e-5</v>
+        <v>4.8426863816135504e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2485,34 +2485,34 @@
         <v>0.03168155762458797</v>
       </c>
       <c r="B60">
-        <v>7.283664093716935</v>
+        <v>7.2673820325440515</v>
       </c>
       <c r="C60">
-        <v>4.782905929112177e-7</v>
+        <v>8.83309510303407e-7</v>
       </c>
       <c r="D60">
-        <v>5.404423623517928e-5</v>
+        <v>5.997431074527144e-5</v>
       </c>
       <c r="E60">
-        <v>0.0019485931841272397</v>
+        <v>0.0019462570803743004</v>
       </c>
       <c r="F60">
-        <v>4.843986591530748e-5</v>
+        <v>4.8433850175821814e-5</v>
       </c>
       <c r="G60">
-        <v>7.283697696052249</v>
+        <v>7.267417155600685</v>
       </c>
       <c r="H60">
-        <v>4.933262391787366e-7</v>
+        <v>8.983039850099235e-7</v>
       </c>
       <c r="I60">
-        <v>5.40546320017838e-5</v>
+        <v>5.998423525577235e-5</v>
       </c>
       <c r="J60">
-        <v>0.0019485977130698272</v>
+        <v>0.0019462620766474991</v>
       </c>
       <c r="K60">
-        <v>4.843974097687611e-5</v>
+        <v>4.84337476488328e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,34 +2520,34 @@
         <v>0.03316905486385881</v>
       </c>
       <c r="B61">
-        <v>7.28535173981767</v>
+        <v>7.269472851912884</v>
       </c>
       <c r="C61">
-        <v>4.719205962466935e-7</v>
+        <v>8.718486040444797e-7</v>
       </c>
       <c r="D61">
-        <v>5.8216446795824066e-5</v>
+        <v>6.401079746435354e-5</v>
       </c>
       <c r="E61">
-        <v>0.0019493006435088453</v>
+        <v>0.0019470287505219347</v>
       </c>
       <c r="F61">
-        <v>4.844677454222518e-5</v>
+        <v>4.844088192000876e-5</v>
       </c>
       <c r="G61">
-        <v>7.28538501708783</v>
+        <v>7.2695076124447375</v>
       </c>
       <c r="H61">
-        <v>4.867864165415958e-7</v>
+        <v>8.866737193899105e-7</v>
       </c>
       <c r="I61">
-        <v>5.8226712318010526e-5</v>
+        <v>6.402062262199172e-5</v>
       </c>
       <c r="J61">
-        <v>0.0019493051095680438</v>
+        <v>0.0019470336698424772</v>
       </c>
       <c r="K61">
-        <v>4.8446653397677194e-5</v>
+        <v>4.8440783467315726e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2555,34 +2555,34 @@
         <v>0.03469106271808073</v>
       </c>
       <c r="B62">
-        <v>7.287067350746525</v>
+        <v>7.271593362411274</v>
       </c>
       <c r="C62">
-        <v>4.6562292243395946e-7</v>
+        <v>8.603413044847299e-7</v>
       </c>
       <c r="D62">
-        <v>6.248428041884905e-5</v>
+        <v>6.814201464397393e-5</v>
       </c>
       <c r="E62">
-        <v>0.001950022387356036</v>
+        <v>0.0019478146954596512</v>
       </c>
       <c r="F62">
-        <v>4.845384194150506e-5</v>
+        <v>4.844807390195318e-5</v>
       </c>
       <c r="G62">
-        <v>7.287100260923319</v>
+        <v>7.2716277165526995</v>
       </c>
       <c r="H62">
-        <v>4.803043932356712e-7</v>
+        <v>8.749825768047215e-7</v>
       </c>
       <c r="I62">
-        <v>6.249440550736116e-5</v>
+        <v>6.81517303016283e-5</v>
       </c>
       <c r="J62">
-        <v>0.0019500267852189945</v>
+        <v>0.0019478195324433083</v>
       </c>
       <c r="K62">
-        <v>4.8453724550276966e-5</v>
+        <v>4.844797944855366e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2590,34 +2590,34 @@
         <v>0.03624944583721316</v>
       </c>
       <c r="B63">
-        <v>7.288811994987583</v>
+        <v>7.273744718238715</v>
       </c>
       <c r="C63">
-        <v>4.5927119516601227e-7</v>
+        <v>8.486551788812878e-7</v>
       </c>
       <c r="D63">
-        <v>6.685280968573911e-5</v>
+        <v>7.237299459833363e-5</v>
       </c>
       <c r="E63">
-        <v>0.0019507591298917302</v>
+        <v>0.0019486156363191373</v>
       </c>
       <c r="F63">
-        <v>4.846107652780376e-5</v>
+        <v>4.8455434594916474e-5</v>
       </c>
       <c r="G63">
-        <v>7.28884450924429</v>
+        <v>7.27377863549637</v>
       </c>
       <c r="H63">
-        <v>4.737584757394474e-7</v>
+        <v>8.631027944407738e-7</v>
       </c>
       <c r="I63">
-        <v>6.686278742122832e-5</v>
+        <v>7.23825936806705e-5</v>
       </c>
       <c r="J63">
-        <v>0.001950763456137182</v>
+        <v>0.0019486203875457681</v>
       </c>
       <c r="K63">
-        <v>4.846096285423346e-5</v>
+        <v>4.845534407036123e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2625,34 +2625,34 @@
         <v>0.037846113435464034</v>
       </c>
       <c r="B64">
-        <v>7.29058690814572</v>
+        <v>7.27592821957317</v>
       </c>
       <c r="C64">
-        <v>4.5280298186267785e-7</v>
+        <v>8.367214094960454e-7</v>
       </c>
       <c r="D64">
-        <v>7.132727014544116e-5</v>
+        <v>7.670893681564379e-5</v>
       </c>
       <c r="E64">
-        <v>0.0019515116212142183</v>
+        <v>0.0019494323271416962</v>
       </c>
       <c r="F64">
-        <v>4.846848697781886e-5</v>
+        <v>4.84629727270664e-5</v>
       </c>
       <c r="G64">
-        <v>7.290619004648948</v>
+        <v>7.275961676535618</v>
       </c>
       <c r="H64">
-        <v>4.670886988584953e-7</v>
+        <v>8.509680152030847e-7</v>
       </c>
       <c r="I64">
-        <v>7.133709534341842e-5</v>
+        <v>7.671841387636668e-5</v>
       </c>
       <c r="J64">
-        <v>0.001951515873417101</v>
+        <v>0.0019494369902245332</v>
       </c>
       <c r="K64">
-        <v>4.846837698865565e-5</v>
+        <v>4.846288606301021e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,34 +2660,34 @@
         <v>0.039483021630316</v>
       </c>
       <c r="B65">
-        <v>7.292393399957923</v>
+        <v>7.278145218019483</v>
       </c>
       <c r="C65">
-        <v>4.461868617762536e-7</v>
+        <v>8.245019441452105e-7</v>
       </c>
       <c r="D65">
-        <v>7.591304370877609e-5</v>
+        <v>8.115519292320731e-5</v>
       </c>
       <c r="E65">
-        <v>0.0019522806347618213</v>
+        <v>0.0019502655417751266</v>
       </c>
       <c r="F65">
-        <v>4.8476082206369283e-5</v>
+        <v>4.8470697258195526e-5</v>
       </c>
       <c r="G65">
-        <v>7.292425060117302</v>
+        <v>7.278178194618042</v>
       </c>
       <c r="H65">
-        <v>4.6026477781782914e-7</v>
+        <v>8.385413197006347e-7</v>
       </c>
       <c r="I65">
-        <v>7.592271201720862e-5</v>
+        <v>8.116454328317645e-5</v>
       </c>
       <c r="J65">
-        <v>0.0019522848109762702</v>
+        <v>0.0019502701148235912</v>
       </c>
       <c r="K65">
-        <v>4.847597586916911e-5</v>
+        <v>4.847061438683902e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2695,34 +2695,34 @@
         <v>0.041162175839014895</v>
       </c>
       <c r="B66">
-        <v>7.294232805934437</v>
+        <v>7.280397067220107</v>
       </c>
       <c r="C66">
-        <v>4.3940534145468144e-7</v>
+        <v>8.119724503701597e-7</v>
       </c>
       <c r="D66">
-        <v>8.061565324052138e-5</v>
+        <v>8.571726216048507e-5</v>
       </c>
       <c r="E66">
-        <v>0.0019530669611869556</v>
+        <v>0.0019511160674644805</v>
       </c>
       <c r="F66">
-        <v>4.84838713590516e-5</v>
+        <v>4.847861737252297e-5</v>
       </c>
       <c r="G66">
-        <v>7.294264012351433</v>
+        <v>7.280429544648091</v>
       </c>
       <c r="H66">
-        <v>4.532696178670673e-7</v>
+        <v>8.257987730443993e-7</v>
       </c>
       <c r="I66">
-        <v>8.062516059432553e-5</v>
+        <v>8.572648138977236e-5</v>
       </c>
       <c r="J66">
-        <v>0.001953071059650183</v>
+        <v>0.0019511205487794771</v>
       </c>
       <c r="K66">
-        <v>4.848376864114094e-5</v>
+        <v>4.847853822557157e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2730,34 +2730,34 @@
         <v>0.04288563323545666</v>
       </c>
       <c r="B67">
-        <v>7.296106463822274</v>
+        <v>7.282685098528185</v>
       </c>
       <c r="C67">
-        <v>4.324466437361924e-7</v>
+        <v>7.99114118553333e-7</v>
       </c>
       <c r="D67">
-        <v>8.544076347527974e-5</v>
+        <v>9.040079282679054e-5</v>
       </c>
       <c r="E67">
-        <v>0.0019538714057894665</v>
+        <v>0.0019519847021490606</v>
       </c>
       <c r="F67">
-        <v>4.849186381430405e-5</v>
+        <v>4.848674248061418e-5</v>
       </c>
       <c r="G67">
-        <v>7.296137199264293</v>
+        <v>7.28271705820414</v>
       </c>
       <c r="H67">
-        <v>4.460914640389904e-7</v>
+        <v>8.127215877399353e-7</v>
       </c>
       <c r="I67">
-        <v>8.545010585913684e-5</v>
+        <v>9.040987651761349e-5</v>
       </c>
       <c r="J67">
-        <v>0.0019538754247807643</v>
+        <v>0.0019519890900807717</v>
       </c>
       <c r="K67">
-        <v>4.8491764682183494e-5</v>
+        <v>4.848666698871008e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2765,34 +2765,34 @@
         <v>0.04465550527048268</v>
       </c>
       <c r="B68">
-        <v>7.298015702730775</v>
+        <v>7.285010609434449</v>
       </c>
       <c r="C68">
-        <v>4.25301064007835e-7</v>
+        <v>7.859100195323562e-7</v>
       </c>
       <c r="D68">
-        <v>9.039418526265869e-5</v>
+        <v>9.521158690049867e-5</v>
       </c>
       <c r="E68">
-        <v>0.0019546947877699694</v>
+        <v>0.0019528722536500827</v>
       </c>
       <c r="F68">
-        <v>4.850006919044436e-5</v>
+        <v>4.849508222611067e-5</v>
       </c>
       <c r="G68">
-        <v>7.29804594961403</v>
+        <v>7.2850420325030525</v>
       </c>
       <c r="H68">
-        <v>4.3872045585685695e-7</v>
+        <v>7.99292679298761e-7</v>
       </c>
       <c r="I68">
-        <v>9.040335857923774e-5</v>
+        <v>9.522053053966594e-5</v>
       </c>
       <c r="J68">
-        <v>0.001954698725547123</v>
+        <v>0.0019528765465281655</v>
       </c>
       <c r="K68">
-        <v>4.8499973609342606e-5</v>
+        <v>4.849501031841324e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2800,34 +2800,34 @@
         <v>0.0464739602586711</v>
       </c>
       <c r="B69">
-        <v>7.299961838142205</v>
+        <v>7.287374857905625</v>
       </c>
       <c r="C69">
-        <v>4.1795948120813584e-7</v>
+        <v>7.723436108097815e-7</v>
       </c>
       <c r="D69">
-        <v>9.548188147399043e-5</v>
+        <v>0.00010015560625957727</v>
       </c>
       <c r="E69">
-        <v>0.001955537940339638</v>
+        <v>0.0019537795397472054</v>
       </c>
       <c r="F69">
-        <v>4.850849735519559e-5</v>
+        <v>4.850364649485542e-5</v>
       </c>
       <c r="G69">
-        <v>7.299991578358595</v>
+        <v>7.287405725085134</v>
       </c>
       <c r="H69">
-        <v>4.311472370074636e-7</v>
+        <v>7.854952704911056e-7</v>
       </c>
       <c r="I69">
-        <v>9.549088150554049e-5</v>
+        <v>0.00010016440518081795</v>
       </c>
       <c r="J69">
-        <v>0.001955541795104139</v>
+        <v>0.001953783735850076</v>
       </c>
       <c r="K69">
-        <v>4.8508405288765815e-5</v>
+        <v>4.850357809876018e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2835,34 +2835,34 @@
         <v>0.0483432260347933</v>
       </c>
       <c r="B70">
-        <v>7.301946169379376</v>
+        <v>7.289779059183448</v>
       </c>
       <c r="C70">
-        <v>4.10412797204618e-7</v>
+        <v>7.58398168348012e-7</v>
       </c>
       <c r="D70">
-        <v>0.00010070997373010551</v>
+        <v>0.00010523897970783112</v>
       </c>
       <c r="E70">
-        <v>0.0019564017112022086</v>
+        <v>0.0019547073886427104</v>
       </c>
       <c r="F70">
-        <v>4.851715843643949e-5</v>
+        <v>4.8512445425190254e-5</v>
       </c>
       <c r="G70">
-        <v>7.301975384191337</v>
+        <v>7.289809350646209</v>
       </c>
       <c r="H70">
-        <v>4.233624389800285e-7</v>
+        <v>7.713123676759124e-7</v>
       </c>
       <c r="I70">
-        <v>0.00010071879611655383</v>
+        <v>0.00010524762907018728</v>
       </c>
       <c r="J70">
-        <v>0.0019564054810886564</v>
+        <v>0.0019547114861939658</v>
       </c>
       <c r="K70">
-        <v>4.8517069846525085e-5</v>
+        <v>4.85123804661525e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2870,34 +2870,34 @@
         <v>0.05026559268319017</v>
       </c>
       <c r="B71">
-        <v>7.3039699779596265</v>
+        <v>7.29222438346975</v>
       </c>
       <c r="C71">
-        <v>4.0265173983566627e-7</v>
+        <v>7.440565807789996e-7</v>
       </c>
       <c r="D71">
-        <v>0.00010608474956946562</v>
+        <v>0.00011046801044449463</v>
       </c>
       <c r="E71">
-        <v>0.001957286963188302</v>
+        <v>0.001955656639587072</v>
       </c>
       <c r="F71">
-        <v>4.852606283362246e-5</v>
+        <v>4.8521489418867445e-5</v>
       </c>
       <c r="G71">
-        <v>7.30399864794054</v>
+        <v>7.292254078829734</v>
       </c>
       <c r="H71">
-        <v>4.1535650192154045e-7</v>
+        <v>7.567265726652553e-7</v>
       </c>
       <c r="I71">
-        <v>0.00010609338977850154</v>
+        <v>0.00011047650519990707</v>
       </c>
       <c r="J71">
-        <v>0.0019572906462666066</v>
+        <v>0.0019556606367461056</v>
       </c>
       <c r="K71">
-        <v>4.8525977679997453e-5</v>
+        <v>4.852142782019055e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2905,34 +2905,34 @@
         <v>0.05224341534341173</v>
       </c>
       <c r="B72">
-        <v>7.306034526185537</v>
+        <v>7.29471195385182</v>
       </c>
       <c r="C72">
-        <v>3.946667947479924e-7</v>
+        <v>7.293012717937591e-7</v>
       </c>
       <c r="D72">
-        <v>0.00011161266990451657</v>
+        <v>0.00011584918383138048</v>
       </c>
       <c r="E72">
-        <v>0.0019581945749526436</v>
+        <v>0.001956628143574858</v>
       </c>
       <c r="F72">
-        <v>4.853522122958169e-5</v>
+        <v>4.85307891523506e-5</v>
       </c>
       <c r="G72">
-        <v>7.306062631243083</v>
+        <v>7.294741032210839</v>
       </c>
       <c r="H72">
-        <v>4.071196124800396e-7</v>
+        <v>7.417200108842795e-7</v>
       </c>
       <c r="I72">
-        <v>0.00011162112328789746</v>
+        <v>0.00011585751875999991</v>
       </c>
       <c r="J72">
-        <v>0.0019581981692242695</v>
+        <v>0.0019566320384498</v>
       </c>
       <c r="K72">
-        <v>4.85351394697696e-5</v>
+        <v>4.853073083508142e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2940,34 +2940,34 @@
         <v>0.05427911709555772</v>
       </c>
       <c r="B73">
-        <v>7.3081410557315065</v>
+        <v>7.297242844233611</v>
       </c>
       <c r="C73">
-        <v>3.864481781409454e-7</v>
+        <v>7.141141630525891e-7</v>
       </c>
       <c r="D73">
-        <v>0.00011730037671581197</v>
+        <v>0.00012138917540862823</v>
       </c>
       <c r="E73">
-        <v>0.001959125441702353</v>
+        <v>0.0019576227640794234</v>
       </c>
       <c r="F73">
-        <v>4.854464460271259e-5</v>
+        <v>4.8540355588429164e-5</v>
       </c>
       <c r="G73">
-        <v>7.3081685750825125</v>
+        <v>7.29727128412502</v>
       </c>
       <c r="H73">
-        <v>3.986416784419553e-7</v>
+        <v>7.26274296365009e-7</v>
       </c>
       <c r="I73">
-        <v>0.00011730863844728752</v>
+        <v>0.0001213973450733729</v>
       </c>
       <c r="J73">
-        <v>0.001959128945107624</v>
+        <v>0.0019576265547281927</v>
       </c>
       <c r="K73">
-        <v>4.854456619177249e-5</v>
+        <v>4.854030047120666e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2975,34 +2975,34 @@
         <v>0.0563751919288537</v>
       </c>
       <c r="B74">
-        <v>7.310290786147153</v>
+        <v>7.2998180772013805</v>
       </c>
       <c r="C74">
-        <v>3.7798582095637155e-7</v>
+        <v>6.984766482236308e-7</v>
       </c>
       <c r="D74">
-        <v>0.00012315470097394942</v>
+        <v>0.00012709485914881656</v>
       </c>
       <c r="E74">
-        <v>0.001960080475947276</v>
+        <v>0.0019586413778182976</v>
       </c>
       <c r="F74">
-        <v>4.855434423946002e-5</v>
+        <v>4.855019998813052e-5</v>
       </c>
       <c r="G74">
-        <v>7.310317698301844</v>
+        <v>7.299845856595669</v>
       </c>
       <c r="H74">
-        <v>3.8991231309857256e-7</v>
+        <v>7.103705061355423e-7</v>
       </c>
       <c r="I74">
-        <v>0.00012316276608290998</v>
+        <v>0.0001271028579189042</v>
       </c>
       <c r="J74">
-        <v>0.0019600838863568456</v>
+        <v>0.0019586450622448345</v>
       </c>
       <c r="K74">
-        <v>4.85542691298341e-5</v>
+        <v>4.8550147987128134e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3010,34 +3010,34 @@
         <v>0.058534207797099655</v>
       </c>
       <c r="B75">
-        <v>7.312484913255892</v>
+        <v>7.302438621810016</v>
       </c>
       <c r="C75">
-        <v>3.692693557128521e-7</v>
+        <v>6.823695693601582e-7</v>
       </c>
       <c r="D75">
-        <v>0.00012918267079385428</v>
+        <v>0.0001329733159531002</v>
       </c>
       <c r="E75">
-        <v>0.00196106060827135</v>
+        <v>0.0019596848755494014</v>
       </c>
       <c r="F75">
-        <v>4.8564331747137415e-5</v>
+        <v>4.856033392293497e-5</v>
       </c>
       <c r="G75">
-        <v>7.312511196017985</v>
+        <v>7.30246571816925</v>
       </c>
       <c r="H75">
-        <v>3.8092082184320734e-7</v>
+        <v>6.939891558733613e-7</v>
       </c>
       <c r="I75">
-        <v>0.0001291905341256178</v>
+        <v>0.0001329811379478325</v>
       </c>
       <c r="J75">
-        <v>0.0019610639234874977</v>
+        <v>0.0019596884517092887</v>
       </c>
       <c r="K75">
-        <v>4.856425988841893e-5</v>
+        <v>4.856028495174092e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3045,34 +3045,34 @@
         <v>0.060758809764734634</v>
       </c>
       <c r="B76">
-        <v>7.314724607445123</v>
+        <v>7.3051053912949415</v>
       </c>
       <c r="C76">
-        <v>3.6028810364552233e-7</v>
+        <v>6.657731932713749e-7</v>
       </c>
       <c r="D76">
-        <v>0.0001353915198307018</v>
+        <v>0.00013903184239758042</v>
       </c>
       <c r="E76">
-        <v>0.00196206678812662</v>
+        <v>0.0019607541629008546</v>
       </c>
       <c r="F76">
-        <v>4.857461906708567e-5</v>
+        <v>4.857076928730652e-5</v>
       </c>
       <c r="G76">
-        <v>7.314750237911114</v>
+        <v>7.305131781571088</v>
       </c>
       <c r="H76">
-        <v>3.716561890120315e-7</v>
+        <v>6.771101763910826e-7</v>
       </c>
       <c r="I76">
-        <v>0.000135399176074638</v>
+        <v>0.00013903948151759038</v>
       </c>
       <c r="J76">
-        <v>0.0019620700058882675</v>
+        <v>0.0019607576287035476</v>
       </c>
       <c r="K76">
-        <v>4.857455040592864e-5</v>
+        <v>4.857072325694049e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3080,34 +3080,34 @@
         <v>0.06305172324737145</v>
       </c>
       <c r="B77">
-        <v>7.317011011849937</v>
+        <v>7.307819240720098</v>
       </c>
       <c r="C77">
-        <v>3.510310615968807e-7</v>
+        <v>6.486671873205049e-7</v>
       </c>
       <c r="D77">
-        <v>0.000141788695928332</v>
+        <v>0.00014527795973959438</v>
       </c>
       <c r="E77">
-        <v>0.0019630999846522545</v>
+        <v>0.0019618501612378905</v>
       </c>
       <c r="F77">
-        <v>4.8585218488185575e-5</v>
+        <v>4.8581518311554674e-5</v>
       </c>
       <c r="G77">
-        <v>7.317035966427401</v>
+        <v>7.307844901393378</v>
       </c>
       <c r="H77">
-        <v>3.6210706421262416e-7</v>
+        <v>6.597128888176334e-7</v>
       </c>
       <c r="I77">
-        <v>0.0001417961396319751</v>
+        <v>0.00014528540967133488</v>
       </c>
       <c r="J77">
-        <v>0.001963103102641469</v>
+        <v>0.0019618535145589366</v>
       </c>
       <c r="K77">
-        <v>4.85851529681415e-5</v>
+        <v>4.858147513043202e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3115,34 +3115,34 @@
         <v>0.06541575735077167</v>
       </c>
       <c r="B78">
-        <v>7.3193452404338935</v>
+        <v>7.310580964574589</v>
       </c>
       <c r="C78">
-        <v>3.414868885325313e-7</v>
+        <v>6.310305945108406e-7</v>
       </c>
       <c r="D78">
-        <v>0.00014838187003167087</v>
+        <v>0.00015171942319420277</v>
       </c>
       <c r="E78">
-        <v>0.0019641611875212514</v>
+        <v>0.00196297380857063</v>
       </c>
       <c r="F78">
-        <v>4.85961426607386e-5</v>
+        <v>4.859259357504364e-5</v>
       </c>
       <c r="G78">
-        <v>7.319369494813091</v>
+        <v>7.310605871627557</v>
       </c>
       <c r="H78">
-        <v>3.5226174851545025e-7</v>
+        <v>6.417759792329466e-7</v>
       </c>
       <c r="I78">
-        <v>0.0001483890955867507</v>
+        <v>0.00015172667739533433</v>
       </c>
       <c r="J78">
-        <v>0.001964164203358235</v>
+        <v>0.0019629770472485877</v>
       </c>
       <c r="K78">
-        <v>4.859608022214108e-5</v>
+        <v>4.859255314898431e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3150,34 +3150,34 @@
         <v>0.06785380831235142</v>
       </c>
       <c r="B79">
-        <v>7.321728375971293</v>
+        <v>7.313391294331588</v>
       </c>
       <c r="C79">
-        <v>3.3164389164712995e-7</v>
+        <v>6.128418078107965e-7</v>
       </c>
       <c r="D79">
-        <v>0.0001551789453751048</v>
+        <v>0.000158364231491547</v>
       </c>
       <c r="E79">
-        <v>0.0019652514078176385</v>
+        <v>0.0019641260605065794</v>
       </c>
       <c r="F79">
-        <v>4.860740461073176e-5</v>
+        <v>4.860400801976648e-5</v>
       </c>
       <c r="G79">
-        <v>7.32175190512731</v>
+        <v>7.313415423301995</v>
       </c>
       <c r="H79">
-        <v>3.421081802621163e-7</v>
+        <v>6.232774727414491e-7</v>
       </c>
       <c r="I79">
-        <v>0.00015518594697061587</v>
+        <v>0.0001583712831299114</v>
       </c>
       <c r="J79">
-        <v>0.001965254319064888</v>
+        <v>0.001964129182350427</v>
       </c>
       <c r="K79">
-        <v>4.860734519055537e-5</v>
+        <v>4.8603970252014916e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,34 +3185,34 @@
         <v>0.07036886304943443</v>
       </c>
       <c r="B80">
-        <v>7.324161467936004</v>
+        <v>7.316250895984006</v>
       </c>
       <c r="C80">
-        <v>3.214900120383934e-7</v>
+        <v>5.940785436819097e-7</v>
       </c>
       <c r="D80">
-        <v>0.00016218806695915614</v>
+        <v>0.00016522063672609613</v>
       </c>
       <c r="E80">
-        <v>0.0019663716789471222</v>
+        <v>0.0019653078912517234</v>
       </c>
       <c r="F80">
-        <v>4.861901775450238e-5</v>
+        <v>4.861577496430238e-5</v>
       </c>
       <c r="G80">
-        <v>7.324184246163759</v>
+        <v>7.3162742219998345</v>
       </c>
       <c r="H80">
-        <v>3.316339199483851e-7</v>
+        <v>6.041947062777011e-7</v>
       </c>
       <c r="I80">
-        <v>0.00016219483866023617</v>
+        <v>0.00016522747875579133</v>
       </c>
       <c r="J80">
-        <v>0.0019663744831084438</v>
+        <v>0.00196531089404127</v>
       </c>
       <c r="K80">
-        <v>4.861896128634545e-5</v>
+        <v>4.861573975564725e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3220,34 +3220,34 @@
         <v>0.07296400281859933</v>
       </c>
       <c r="B81">
-        <v>7.326645530302613</v>
+        <v>7.319160367572219</v>
       </c>
       <c r="C81">
-        <v>3.110128099340222e-7</v>
+        <v>5.747178147791608e-7</v>
       </c>
       <c r="D81">
-        <v>0.00016941763132821165</v>
+        <v>0.00017229715450917674</v>
       </c>
       <c r="E81">
-        <v>0.0019675230575842456</v>
+        <v>0.00196652029466416</v>
       </c>
       <c r="F81">
-        <v>4.863099591381972e-5</v>
+        <v>4.86279081181763e-5</v>
       </c>
       <c r="G81">
-        <v>7.326667531179436</v>
+        <v>7.319182865364575</v>
       </c>
       <c r="H81">
-        <v>3.2082613533859396e-7</v>
+        <v>5.8450430113025e-7</v>
       </c>
       <c r="I81">
-        <v>0.0001694241670103598</v>
+        <v>0.0001723037795901918</v>
       </c>
       <c r="J81">
-        <v>0.00196752575210961</v>
+        <v>0.00196652317615921</v>
       </c>
       <c r="K81">
-        <v>4.86309423277906e-5</v>
+        <v>4.862787536701638e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3255,34 +3255,34 @@
         <v>0.07564240699060418</v>
       </c>
       <c r="B82">
-        <v>7.329181539266292</v>
+        <v>7.3221202367198615</v>
       </c>
       <c r="C82">
-        <v>3.001994494512032e-7</v>
+        <v>5.547359017884464e-7</v>
       </c>
       <c r="D82">
-        <v>0.00017687629666246412</v>
+        <v>0.00017960257443655475</v>
       </c>
       <c r="E82">
-        <v>0.001968706624659252</v>
+        <v>0.0019677642853642104</v>
       </c>
       <c r="F82">
-        <v>4.864335333140073e-5</v>
+        <v>4.8640421596641314e-5</v>
       </c>
       <c r="G82">
-        <v>7.329202735706794</v>
+        <v>7.32214188064451</v>
       </c>
       <c r="H82">
-        <v>3.096715855002931e-7</v>
+        <v>5.6418213405645e-7</v>
       </c>
       <c r="I82">
-        <v>0.00017688259004723563</v>
+        <v>0.0001796089749789211</v>
       </c>
       <c r="J82">
-        <v>0.0019687092069494943</v>
+        <v>0.0019677670433101632</v>
       </c>
       <c r="K82">
-        <v>4.864330255412272e-5</v>
+        <v>4.8640391199124454e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3290,34 +3290,34 @@
         <v>0.07840735694551344</v>
       </c>
       <c r="B83">
-        <v>7.33177043088852</v>
+        <v>7.325130958194444</v>
       </c>
       <c r="C83">
-        <v>2.890366828711044e-7</v>
+        <v>5.341083243675213e-7</v>
       </c>
       <c r="D83">
-        <v>0.00018457299319765832</v>
+        <v>0.00018714597088324663</v>
       </c>
       <c r="E83">
-        <v>0.0019699234863879375</v>
+        <v>0.001969040899904932</v>
       </c>
       <c r="F83">
-        <v>4.8656104686877964e-5</v>
+        <v>4.865332993590479e-5</v>
       </c>
       <c r="G83">
-        <v>7.331790795141761</v>
+        <v>7.325151722284351</v>
       </c>
       <c r="H83">
-        <v>2.9815660476174904e-7</v>
+        <v>5.432033076927559e-7</v>
       </c>
       <c r="I83">
-        <v>0.00018457903784433583</v>
+        <v>0.00018715213901998443</v>
       </c>
       <c r="J83">
-        <v>0.0019699259537965474</v>
+        <v>0.001969043532038986</v>
       </c>
       <c r="K83">
-        <v>4.865605664142818e-5</v>
+        <v>4.8653301786052884e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3325,34 +3325,34 @@
         <v>0.08126224009279871</v>
       </c>
       <c r="B84">
-        <v>7.334413098676504</v>
+        <v>7.328192911510106</v>
       </c>
       <c r="C84">
-        <v>2.775108344086152e-7</v>
+        <v>5.128098111543695e-7</v>
       </c>
       <c r="D84">
-        <v>0.00019251693398666112</v>
+        <v>0.00019493671413815838</v>
       </c>
       <c r="E84">
-        <v>0.00197117477534792</v>
+        <v>0.0019703511980069337</v>
       </c>
       <c r="F84">
-        <v>4.866926511323855e-5</v>
+        <v>4.866664810882082e-5</v>
       </c>
       <c r="G84">
-        <v>7.334432602323378</v>
+        <v>7.328212769507225</v>
       </c>
       <c r="H84">
-        <v>2.8626708574391875e-7</v>
+        <v>5.21542120401394e-7</v>
       </c>
       <c r="I84">
-        <v>0.00019252272327516378</v>
+        <v>0.0001949426416989197</v>
       </c>
       <c r="J84">
-        <v>0.0019711771251823326</v>
+        <v>0.001970353702059928</v>
       </c>
       <c r="K84">
-        <v>4.8669219719139466e-5</v>
+        <v>4.8666622098697315e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,34 +3360,34 @@
         <v>0.08421055402133908</v>
       </c>
       <c r="B85">
-        <v>7.337110391104886</v>
+        <v>7.331306398590398</v>
       </c>
       <c r="C85">
-        <v>2.656077834579853e-7</v>
+        <v>4.908142688067667e-7</v>
       </c>
       <c r="D85">
-        <v>0.0002007176260173287</v>
+        <v>0.00020298448189159718</v>
       </c>
       <c r="E85">
-        <v>0.00197246165160482</v>
+        <v>0.0019716962638613514</v>
       </c>
       <c r="F85">
-        <v>4.868285021375382e-5</v>
+        <v>4.8680391541072284e-5</v>
       </c>
       <c r="G85">
-        <v>7.337129005089764</v>
+        <v>7.33132532400287</v>
       </c>
       <c r="H85">
-        <v>2.7398846231528775e-7</v>
+        <v>4.991720344261871e-7</v>
       </c>
       <c r="I85">
-        <v>0.00020072315315922742</v>
+        <v>0.0002029901604018604</v>
       </c>
       <c r="J85">
-        <v>0.001972463881135123</v>
+        <v>0.0019716986375713707</v>
       </c>
       <c r="K85">
-        <v>4.868280738706804e-5</v>
+        <v>4.868036756105231e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3395,34 +3395,34 @@
         <v>0.08725591078440487</v>
       </c>
       <c r="B86">
-        <v>7.339863109089052</v>
+        <v>7.334471641509397</v>
       </c>
       <c r="C86">
-        <v>2.5331294729323993e-7</v>
+        <v>4.6809475003463335e-7</v>
       </c>
       <c r="D86">
-        <v>0.0002091848817015954</v>
+        <v>0.0002112992710891697</v>
       </c>
       <c r="E86">
-        <v>0.0019737853038919607</v>
+        <v>0.001973077207504757</v>
       </c>
       <c r="F86">
-        <v>4.869687607941996e-5</v>
+        <v>4.869457612786752e-5</v>
       </c>
       <c r="G86">
-        <v>7.339880803734448</v>
+        <v>7.334489607609283</v>
       </c>
       <c r="H86">
-        <v>2.613056916211776e-7</v>
+        <v>4.7606564362565853e-7</v>
       </c>
       <c r="I86">
-        <v>0.00020919013974368038</v>
+        <v>0.0002113046917769817</v>
       </c>
       <c r="J86">
-        <v>0.0019737874103497267</v>
+        <v>0.0019730794486179626</v>
       </c>
       <c r="K86">
-        <v>4.8696835732744886e-5</v>
+        <v>4.86945540667861e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3430,34 +3430,34 @@
         <v>0.0904020413248746</v>
       </c>
       <c r="B87">
-        <v>7.342672003420087</v>
+        <v>7.337688780329789</v>
       </c>
       <c r="C87">
-        <v>2.40611263202531e-7</v>
+        <v>4.4462342058625663e-7</v>
       </c>
       <c r="D87">
-        <v>0.00021792883075118043</v>
+        <v>0.0002198914101660739</v>
       </c>
       <c r="E87">
-        <v>0.0019751469508472812</v>
+        <v>0.0019744951662696887</v>
       </c>
       <c r="F87">
-        <v>4.871135930693114e-5</v>
+        <v>4.870921825117703e-5</v>
       </c>
       <c r="G87">
-        <v>7.342688748444754</v>
+        <v>7.337705760210344</v>
       </c>
       <c r="H87">
-        <v>2.482032355731552e-7</v>
+        <v>4.521946397970919e-7</v>
       </c>
       <c r="I87">
-        <v>0.00021793381253884704</v>
+        <v>0.0002198965639119416</v>
       </c>
       <c r="J87">
-        <v>0.0019751489314306764</v>
+        <v>0.0019744972725471914</v>
       </c>
       <c r="K87">
-        <v>4.871132134951438e-5</v>
+        <v>4.870919799662529e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3465,34 +3465,34 @@
         <v>0.0936528000461066</v>
       </c>
       <c r="B88">
-        <v>7.345537772172187</v>
+        <v>7.3409578710567365</v>
       </c>
       <c r="C88">
-        <v>2.274871700344489e-7</v>
+        <v>4.2037152514784767e-7</v>
       </c>
       <c r="D88">
-        <v>0.0002269599324557815</v>
+        <v>0.00022877157167630098</v>
       </c>
       <c r="E88">
-        <v>0.0019765478423112107</v>
+        <v>0.00197595130631436</v>
       </c>
       <c r="F88">
-        <v>4.8726317017207225e-5</v>
+        <v>4.872433479753783e-5</v>
       </c>
       <c r="G88">
-        <v>7.345553536717097</v>
+        <v>7.340973837685208</v>
       </c>
       <c r="H88">
-        <v>2.346650421070519e-7</v>
+        <v>4.275297778733541e-7</v>
       </c>
       <c r="I88">
-        <v>0.00022696463066954433</v>
+        <v>0.00022877644903718505</v>
       </c>
       <c r="J88">
-        <v>0.001976549694188457</v>
+        <v>0.001975953275539224</v>
       </c>
       <c r="K88">
-        <v>4.8726281355022424e-5</v>
+        <v>4.872431623609489e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,34 +3500,34 @@
         <v>0.0970121695340651</v>
       </c>
       <c r="B89">
-        <v>7.34846105809395</v>
+        <v>7.344278883726395</v>
       </c>
       <c r="C89">
-        <v>2.1392458913347113e-7</v>
+        <v>3.953093521144651e-7</v>
       </c>
       <c r="D89">
-        <v>0.00023628898838011733</v>
+        <v>0.00023795078533181467</v>
       </c>
       <c r="E89">
-        <v>0.0019779892606893393</v>
+        <v>0.0019774468242349822</v>
       </c>
       <c r="F89">
-        <v>4.874176687449949e-5</v>
+        <v>4.873994317645375e-5</v>
       </c>
       <c r="G89">
-        <v>7.348475810741513</v>
+        <v>7.3442938099902495</v>
       </c>
       <c r="H89">
-        <v>2.2067452512981392e-7</v>
+        <v>4.0204084027428403e-7</v>
       </c>
       <c r="I89">
-        <v>0.00023629339552603046</v>
+        <v>0.00023795537652181533</v>
       </c>
       <c r="J89">
-        <v>0.0019779909810146005</v>
+        <v>0.001977448654228645</v>
       </c>
       <c r="K89">
-        <v>4.874173341037697e-5</v>
+        <v>4.873992619397812e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3535,34 +3535,34 @@
         <v>0.10048426543648617</v>
       </c>
       <c r="B90">
-        <v>7.351442445995781</v>
+        <v>7.3476517006478845</v>
       </c>
       <c r="C90">
-        <v>1.9990690464200914e-7</v>
+        <v>3.6940619719006984e-7</v>
       </c>
       <c r="D90">
-        <v>0.00024592715549667007</v>
+        <v>0.00024744045146732926</v>
       </c>
       <c r="E90">
-        <v>0.0019794725223837442</v>
+        <v>0.001978982948763957</v>
       </c>
       <c r="F90">
-        <v>4.8757727106098496e-5</v>
+        <v>4.875606133942136e-5</v>
       </c>
       <c r="G90">
-        <v>7.351456154815044</v>
+        <v>7.347665559400319</v>
       </c>
       <c r="H90">
-        <v>2.0621454454346887e-7</v>
+        <v>3.7569659984903486e-7</v>
       </c>
       <c r="I90">
-        <v>0.0002459312639129949</v>
+        <v>0.00024744474635580993</v>
       </c>
       <c r="J90">
-        <v>0.0019794741082887956</v>
+        <v>0.001978984637384442</v>
       </c>
       <c r="K90">
-        <v>4.8757695739899755e-5</v>
+        <v>4.875604582135997e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3570,34 +3570,34 @@
         <v>0.10407334150506084</v>
       </c>
       <c r="B91">
-        <v>7.354482460146147</v>
+        <v>7.351076114817189</v>
       </c>
       <c r="C91">
-        <v>1.8541694314355907e-7</v>
+        <v>3.426303257705121e-7</v>
       </c>
       <c r="D91">
-        <v>0.00025588595977148914</v>
+        <v>0.0002572523549469049</v>
       </c>
       <c r="E91">
-        <v>0.0019809989792968744</v>
+        <v>0.0019805609425570165</v>
       </c>
       <c r="F91">
-        <v>4.8774216522669597e-5</v>
+        <v>4.8772707799613014e-5</v>
       </c>
       <c r="G91">
-        <v>7.354495092712908</v>
+        <v>7.35108887892133</v>
       </c>
       <c r="H91">
-        <v>1.9126738503504904e-7</v>
+        <v>3.4846478140936913e-7</v>
       </c>
       <c r="I91">
-        <v>0.00025588976158639305</v>
+        <v>0.00025725634300999956</v>
       </c>
       <c r="J91">
-        <v>0.0019810004279003706</v>
+        <v>0.0019805624877034505</v>
       </c>
       <c r="K91">
-        <v>4.8774187151448375e-5</v>
+        <v>4.877269363129503e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3605,34 +3605,34 @@
         <v>0.10778379480681288</v>
       </c>
       <c r="B92">
-        <v>7.357581561690084</v>
+        <v>7.354551828521128</v>
       </c>
       <c r="C92">
-        <v>1.704369526232116e-7</v>
+        <v>3.1494893406479754e-7</v>
       </c>
       <c r="D92">
-        <v>0.0002661773102209341</v>
+        <v>0.00026739867952919216</v>
       </c>
       <c r="E92">
-        <v>0.0019825700204119108</v>
+        <v>0.001982182104072186</v>
       </c>
       <c r="F92">
-        <v>4.879125453924253e-5</v>
+        <v>4.878990165224928e-5</v>
       </c>
       <c r="G92">
-        <v>7.357593085109641</v>
+        <v>7.3545634708790715</v>
       </c>
       <c r="H92">
-        <v>1.7581473440374035e-7</v>
+        <v>3.203120226993205e-7</v>
       </c>
       <c r="I92">
-        <v>0.0002661807973716028</v>
+        <v>0.00026740234985946803</v>
       </c>
       <c r="J92">
-        <v>0.001982571328826174</v>
+        <v>0.0019821835036959792</v>
       </c>
       <c r="K92">
-        <v>4.879122705743374e-5</v>
+        <v>4.878988871919161e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3640,34 +3640,34 @@
         <v>0.11162017111105581</v>
       </c>
       <c r="B93">
-        <v>7.360740146103905</v>
+        <v>7.358078452148844</v>
       </c>
       <c r="C93">
-        <v>1.5494858071910146e-7</v>
+        <v>2.863281089061904e-7</v>
       </c>
       <c r="D93">
-        <v>0.0002768135134577533</v>
+        <v>0.00027789202270879975</v>
       </c>
       <c r="E93">
-        <v>0.0019841870734535224</v>
+        <v>0.001983847769543234</v>
       </c>
       <c r="F93">
-        <v>4.8808861196882915e-5</v>
+        <v>4.880766259569498e-5</v>
       </c>
       <c r="G93">
-        <v>7.360750527067888</v>
+        <v>7.3580889457968075</v>
       </c>
       <c r="H93">
-        <v>1.5983766111674768e-7</v>
+        <v>2.9120383296948616e-7</v>
       </c>
       <c r="I93">
-        <v>0.00027681667772640504</v>
+        <v>0.0002778953640339126</v>
       </c>
       <c r="J93">
-        <v>0.0019841882387957306</v>
+        <v>0.0019838490216597723</v>
       </c>
       <c r="K93">
-        <v>4.880883549655263e-5</v>
+        <v>4.8807650783954424e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3675,34 +3675,34 @@
         <v>0.11558717045852875</v>
       </c>
       <c r="B94">
-        <v>7.363958540700446</v>
+        <v>7.361655503227523</v>
       </c>
       <c r="C94">
-        <v>1.3893285223880912e-7</v>
+        <v>2.567327862047405e-7</v>
       </c>
       <c r="D94">
-        <v>0.0002878072887454357</v>
+        <v>0.0002887454110519265</v>
       </c>
       <c r="E94">
-        <v>0.0019858516066329174</v>
+        <v>0.0019855593150500256</v>
       </c>
       <c r="F94">
-        <v>4.882705718507459e-5</v>
+        <v>4.8826010953314105e-5</v>
       </c>
       <c r="G94">
-        <v>7.363967745509345</v>
+        <v>7.3616648213503755</v>
       </c>
       <c r="H94">
-        <v>1.433165913252572e-7</v>
+        <v>2.6110455084678023e-7</v>
       </c>
       <c r="I94">
-        <v>0.0002878101216807026</v>
+        <v>0.0002887484116497348</v>
       </c>
       <c r="J94">
-        <v>0.001985852626023681</v>
+        <v>0.00198556041774195</v>
       </c>
       <c r="K94">
-        <v>4.8827033156157194e-5</v>
+        <v>4.8826000149804976e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3710,34 +3710,34 @@
         <v>0.11968965291953414</v>
       </c>
       <c r="B95">
-        <v>7.367237002199671</v>
+        <v>7.365282405698092</v>
       </c>
       <c r="C95">
-        <v>1.2237014591211337e-7</v>
+        <v>2.2612670798907007e-7</v>
       </c>
       <c r="D95">
-        <v>0.00029917178358031623</v>
+        <v>0.00029997231604509224</v>
       </c>
       <c r="E95">
-        <v>0.0019875651304810493</v>
+        <v>0.0019873181586879634</v>
       </c>
       <c r="F95">
-        <v>4.8845863864842985e-5</v>
+        <v>4.884496769612051e-5</v>
       </c>
       <c r="G95">
-        <v>7.367244996779546</v>
+        <v>7.365290521671746</v>
       </c>
       <c r="H95">
-        <v>1.2623128456922452e-7</v>
+        <v>2.2997730093603446e-7</v>
       </c>
       <c r="I95">
-        <v>0.0002991742765291321</v>
+        <v>0.0002999749637641797</v>
       </c>
       <c r="J95">
-        <v>0.0019875660010556465</v>
+        <v>0.0019873191101118124</v>
       </c>
       <c r="K95">
-        <v>4.884584139538172e-5</v>
+        <v>4.8844957788910264e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3745,34 +3745,34 @@
         <v>0.12393264454813166</v>
       </c>
       <c r="B96">
-        <v>7.370575714379661</v>
+        <v>7.368958489445503</v>
       </c>
       <c r="C96">
-        <v>1.0524017035236869e-7</v>
+        <v>1.9447237798574308e-7</v>
       </c>
       <c r="D96">
-        <v>0.0003109205898214681</v>
+        <v>0.0003115866704765205</v>
       </c>
       <c r="E96">
-        <v>0.0019893291997738075</v>
+        <v>0.0019891257628384413</v>
       </c>
       <c r="F96">
-        <v>4.886530329265139e-5</v>
+        <v>4.886455446626261e-5</v>
       </c>
       <c r="G96">
-        <v>7.370582464357989</v>
+        <v>7.368965376891001</v>
       </c>
       <c r="H96">
-        <v>1.0856080917363807e-7</v>
+        <v>1.977839484489323e-7</v>
       </c>
       <c r="I96">
-        <v>0.0003109227339422662</v>
+        <v>0.0003115889527468364</v>
       </c>
       <c r="J96">
-        <v>0.0019893299186897347</v>
+        <v>0.0019891265612342773</v>
       </c>
       <c r="K96">
-        <v>4.886528226910874e-5</v>
+        <v>4.886454534491203e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3780,34 +3780,34 @@
         <v>0.1283213435396829</v>
       </c>
       <c r="B97">
-        <v>7.37397478582331</v>
+        <v>7.372682990096853</v>
       </c>
       <c r="C97">
-        <v>8.752193919735224e-8</v>
+        <v>1.617310156819825e-7</v>
       </c>
       <c r="D97">
-        <v>0.00032306776038898996</v>
+        <v>0.0003236028853704718</v>
       </c>
       <c r="E97">
-        <v>0.001991145415552921</v>
+        <v>0.0019909836365419984</v>
       </c>
       <c r="F97">
-        <v>4.8885398245102914e-5</v>
+        <v>4.8884793601381904e-5</v>
       </c>
       <c r="G97">
-        <v>7.3739802565449</v>
+        <v>7.3726886229326976</v>
       </c>
       <c r="H97">
-        <v>9.028351656498693e-8</v>
+        <v>1.6448505242388383e-7</v>
       </c>
       <c r="I97">
-        <v>0.00032306954660625797</v>
+        <v>0.0003236047891388716</v>
       </c>
       <c r="J97">
-        <v>0.0019911459799899925</v>
+        <v>0.0019909842802325766</v>
       </c>
       <c r="K97">
-        <v>4.888537855264046e-5</v>
+        <v>4.8884785157245726e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3815,34 +3815,34 @@
         <v>0.13286112659929092</v>
       </c>
       <c r="B98">
-        <v>7.377434247776073</v>
+        <v>7.376455049099168</v>
       </c>
       <c r="C98">
-        <v>6.919374539809187e-8</v>
+        <v>1.2786250881438952e-7</v>
       </c>
       <c r="D98">
-        <v>0.0003356278265518704</v>
+        <v>0.00033603586749559624</v>
       </c>
       <c r="E98">
-        <v>0.0019930154272462487</v>
+        <v>0.00199289333797557</v>
       </c>
       <c r="F98">
-        <v>4.890617224448296e-5</v>
+        <v>4.890570815988637e-5</v>
       </c>
       <c r="G98">
-        <v>7.377438404351825</v>
+        <v>7.376459401596644</v>
       </c>
       <c r="H98">
-        <v>7.13770147393123e-8</v>
+        <v>1.3003981739593657e-7</v>
       </c>
       <c r="I98">
-        <v>0.00033562924557414825</v>
+        <v>0.0003360373792328258</v>
       </c>
       <c r="J98">
-        <v>0.001993015834422209</v>
+        <v>0.001992893825380988</v>
       </c>
       <c r="K98">
-        <v>4.890615376725715e-5</v>
+        <v>4.890570028640371e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3850,34 +3850,34 @@
         <v>0.13755755552893628</v>
       </c>
       <c r="B99">
-        <v>7.380954052130146</v>
+        <v>7.38027371408701</v>
       </c>
       <c r="C99">
-        <v>5.0233134625132557e-8</v>
+        <v>9.282536422658629e-8</v>
       </c>
       <c r="D99">
-        <v>0.00034861581582721187</v>
+        <v>0.00034890103746916654</v>
       </c>
       <c r="E99">
-        <v>0.0019949409348910085</v>
+        <v>0.0019948564770350284</v>
       </c>
       <c r="F99">
-        <v>4.892764958517792e-5</v>
+        <v>4.892732194718136e-5</v>
       </c>
       <c r="G99">
-        <v>7.380956859492284</v>
+        <v>7.380276760909614</v>
       </c>
       <c r="H99">
-        <v>5.181814080471479e-8</v>
+        <v>9.440604365762217e-8</v>
       </c>
       <c r="I99">
-        <v>0.00034861685816439935</v>
+        <v>0.00034890214317971657</v>
       </c>
       <c r="J99">
-        <v>0.0019949411820666236</v>
+        <v>0.0019948568066797726</v>
       </c>
       <c r="K99">
-        <v>4.8927632206682304e-5</v>
+        <v>4.892731454016512e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3885,34 +3885,34 @@
         <v>0.14241638404137996</v>
       </c>
       <c r="B100">
-        <v>7.384534069550319</v>
+        <v>7.3841379395482205</v>
       </c>
       <c r="C100">
-        <v>3.061687775909554e-8</v>
+        <v>5.6576657034781486e-8</v>
       </c>
       <c r="D100">
-        <v>0.000362047270513203</v>
+        <v>0.000362214348479877</v>
       </c>
       <c r="E100">
-        <v>0.0019969236914633877</v>
+        <v>0.001996874718023929</v>
       </c>
       <c r="F100">
-        <v>4.8949855361007896e-5</v>
+        <v>4.894965954290188e-5</v>
       </c>
       <c r="G100">
-        <v>7.384535492465826</v>
+        <v>7.384139655778271</v>
       </c>
       <c r="H100">
-        <v>3.158293259831557e-8</v>
+        <v>5.754007512441822e-8</v>
       </c>
       <c r="I100">
-        <v>0.00036204792641974457</v>
+        <v>0.00036221503363795927</v>
       </c>
       <c r="J100">
-        <v>0.0019969237759475474</v>
+        <v>0.001996874888531291</v>
       </c>
       <c r="K100">
-        <v>4.894983896436355e-5</v>
+        <v>4.8949652500779335e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3920,34 +3920,34 @@
         <v>0.1474435648091811</v>
       </c>
       <c r="B101">
-        <v>7.3881740877564575</v>
+        <v>7.388046587794332</v>
       </c>
       <c r="C101">
-        <v>1.0320942432128555e-8</v>
+        <v>1.907197803946592e-8</v>
       </c>
       <c r="D101">
-        <v>0.00037593826687886263</v>
+        <v>0.0003759923056527388</v>
       </c>
       <c r="E101">
-        <v>0.001998965505317849</v>
+        <v>0.0019989497824491795</v>
       </c>
       <c r="F101">
-        <v>4.897281549351267e-5</v>
+        <v>4.897274632919182e-5</v>
       </c>
       <c r="G101">
-        <v>7.3881740908919005</v>
+        <v>7.38804694898689</v>
       </c>
       <c r="H101">
-        <v>1.0646599454796673e-8</v>
+        <v>1.939674635475023e-8</v>
       </c>
       <c r="I101">
-        <v>0.0003759385263871177</v>
+        <v>0.0003759925552202935</v>
       </c>
       <c r="J101">
-        <v>0.0019989654244773093</v>
+        <v>0.001998949792558895</v>
       </c>
       <c r="K101">
-        <v>4.897279996181126e-5</v>
+        <v>4.897273955325208e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.nonuniform_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.nonuniform_analytical.solution.xlsx
@@ -473,16 +473,16 @@
         <v>8.133575322549742</v>
       </c>
       <c r="H2">
-        <v>0.00024501733728118143</v>
+        <v>0.0002450173372811814</v>
       </c>
       <c r="I2">
-        <v>-2.5270844047537384e-7</v>
+        <v>-2.527084404754275e-7</v>
       </c>
       <c r="J2">
         <v>0.0019990013959773614</v>
       </c>
       <c r="K2">
-        <v>4.89558860011367e-5</v>
+        <v>4.8955886001136696e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -508,16 +508,16 @@
         <v>8.100142035706664</v>
       </c>
       <c r="H3">
-        <v>0.00023519837386438289</v>
+        <v>0.00023519837386438262</v>
       </c>
       <c r="I3">
-        <v>-7.503786260256082e-7</v>
+        <v>-7.503786260257674e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019970071625252466</v>
+        <v>0.001997007162525246</v>
       </c>
       <c r="K3">
-        <v>4.890005780790209e-5</v>
+        <v>4.8900057807902084e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -540,19 +540,19 @@
         <v>4.8846716527065525e-5</v>
       </c>
       <c r="G4">
-        <v>8.066306461321656</v>
+        <v>8.066306461321654</v>
       </c>
       <c r="H4">
-        <v>0.00022566620983382663</v>
+        <v>0.00022566620983382617</v>
       </c>
       <c r="I4">
-        <v>-1.233040456953554e-6</v>
+        <v>-1.2330404569538157e-6</v>
       </c>
       <c r="J4">
-        <v>0.001995033821031835</v>
+        <v>0.001995033821031834</v>
       </c>
       <c r="K4">
-        <v>4.884672782202136e-5</v>
+        <v>4.884672782202133e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -575,19 +575,19 @@
         <v>4.879602701734455e-5</v>
       </c>
       <c r="G5">
-        <v>8.032139180851273</v>
+        <v>8.03213918085127</v>
       </c>
       <c r="H5">
-        <v>0.00021640916715320665</v>
+        <v>0.000216409167153206</v>
       </c>
       <c r="I5">
-        <v>-1.7012481750191483e-6</v>
+        <v>-1.7012481750195096e-6</v>
       </c>
       <c r="J5">
-        <v>0.0019930774619592263</v>
+        <v>0.0019930774619592254</v>
       </c>
       <c r="K5">
-        <v>4.879604233361592e-5</v>
+        <v>4.87960423336159e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -610,19 +610,19 @@
         <v>4.8748116821811103e-5</v>
       </c>
       <c r="G6">
-        <v>7.997730584984304</v>
+        <v>7.997730584984302</v>
       </c>
       <c r="H6">
-        <v>0.00020741590478634556</v>
+        <v>0.00020741590478634474</v>
       </c>
       <c r="I6">
-        <v>-2.155537711474764e-6</v>
+        <v>-2.155537711475222e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019911344038320536</v>
+        <v>0.0019911344038320523</v>
       </c>
       <c r="K6">
-        <v>4.874813579996602e-5</v>
+        <v>4.874813579996598e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -645,19 +645,19 @@
         <v>4.8703101719593256e-5</v>
       </c>
       <c r="G7">
-        <v>7.96319053207462</v>
+        <v>7.963190532074617</v>
       </c>
       <c r="H7">
-        <v>0.0001986754048311493</v>
+        <v>0.0001986754048311484</v>
       </c>
       <c r="I7">
-        <v>-2.5964287573302156e-6</v>
+        <v>-2.596428757330766e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019892013071934746</v>
+        <v>0.0019892013071934733</v>
       </c>
       <c r="K7">
-        <v>4.8703123956707974e-5</v>
+        <v>4.870312395670791e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -680,19 +680,19 @@
         <v>4.8661071475573046e-5</v>
       </c>
       <c r="G8">
-        <v>7.928646363866862</v>
+        <v>7.928646363866858</v>
       </c>
       <c r="H8">
-        <v>0.00019017695907574107</v>
+        <v>0.0001901769590757401</v>
       </c>
       <c r="I8">
-        <v>-3.0244271105784406e-6</v>
+        <v>-3.0244271105790805e-6</v>
       </c>
       <c r="J8">
-        <v>0.001987275291550702</v>
+        <v>0.001987275291550701</v>
       </c>
       <c r="K8">
-        <v>4.866109649260681e-5</v>
+        <v>4.866109649260674e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -715,19 +715,19 @@
         <v>4.862208299387807e-5</v>
       </c>
       <c r="G9">
-        <v>7.894239106175384</v>
+        <v>7.89423910617538</v>
       </c>
       <c r="H9">
-        <v>0.00018191015598298266</v>
+        <v>0.00018191015598298157</v>
       </c>
       <c r="I9">
-        <v>-3.440027203125203e-6</v>
+        <v>-3.4400272031259316e-6</v>
       </c>
       <c r="J9">
-        <v>0.0019853540421544812</v>
+        <v>0.00198535404215448</v>
       </c>
       <c r="K9">
-        <v>4.86221101559539e-5</v>
+        <v>4.86221101559538e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -750,19 +750,19 @@
         <v>4.8586154866597463e-5</v>
       </c>
       <c r="G10">
-        <v>7.8601179699034045</v>
+        <v>7.8601179699034</v>
       </c>
       <c r="H10">
-        <v>0.00017386486770491882</v>
+        <v>0.0001738648677049176</v>
       </c>
       <c r="I10">
-        <v>-3.843714590510529e-6</v>
+        <v>-3.843714590511343e-6</v>
       </c>
       <c r="J10">
-        <v>0.0019834358900272593</v>
+        <v>0.001983435890027258</v>
       </c>
       <c r="K10">
-        <v>4.858618321107299e-5</v>
+        <v>4.858618321107287e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -785,19 +785,19 @@
         <v>4.855326417894224e-5</v>
       </c>
       <c r="G11">
-        <v>7.826433609208333</v>
+        <v>7.826433609208328</v>
       </c>
       <c r="H11">
-        <v>0.00016603123803506353</v>
+        <v>0.00016603123803506217</v>
       </c>
       <c r="I11">
-        <v>-4.235968142076621e-6</v>
+        <v>-4.2359681420775175e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019815198513828676</v>
+        <v>0.0019815198513828667</v>
       </c>
       <c r="K11">
-        <v>4.855329219254815e-5</v>
+        <v>4.8553292192548003e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -820,19 +820,19 @@
         <v>4.852334614306343e-5</v>
       </c>
       <c r="G12">
-        <v>7.793330889029758</v>
+        <v>7.793330889029753</v>
       </c>
       <c r="H12">
-        <v>0.00015839967064521968</v>
+        <v>0.00015839967064521822</v>
       </c>
       <c r="I12">
-        <v>-4.6172615884553e-6</v>
+        <v>-4.617261588456275e-6</v>
       </c>
       <c r="J12">
-        <v>0.001979605617068626</v>
+        <v>0.0019796056170686255</v>
       </c>
       <c r="K12">
-        <v>4.852337160495126e-5</v>
+        <v>4.85233716049511e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -855,19 +855,19 @@
         <v>4.849629672432837e-5</v>
       </c>
       <c r="G13">
-        <v>7.760942057808895</v>
+        <v>7.760942057808888</v>
       </c>
       <c r="H13">
-        <v>0.00015096081866003498</v>
+        <v>0.00015096081866003346</v>
       </c>
       <c r="I13">
-        <v>-4.988063940361743e-6</v>
+        <v>-4.988063940362796e-6</v>
       </c>
       <c r="J13">
-        <v>0.00197769349106343</v>
+        <v>0.0019776934910634295</v>
       </c>
       <c r="K13">
-        <v>4.8496316717090506e-5</v>
+        <v>4.8496316717090316e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -890,19 +890,19 @@
         <v>4.847197797484406e-5</v>
       </c>
       <c r="G14">
-        <v>7.729381164056644</v>
+        <v>7.729381164056638</v>
       </c>
       <c r="H14">
-        <v>0.00014370557585351097</v>
+        <v>0.0001437055758535094</v>
       </c>
       <c r="I14">
-        <v>-5.3488380458107835e-6</v>
+        <v>-5.34883804581191e-6</v>
       </c>
       <c r="J14">
         <v>0.001975784286381531</v>
       </c>
       <c r="K14">
-        <v>4.8471989120026455e-5</v>
+        <v>4.847198912002625e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -925,19 +925,19 @@
         <v>4.8450225384589185e-5</v>
       </c>
       <c r="G15">
-        <v>7.698740301557486</v>
+        <v>7.698740301557479</v>
       </c>
       <c r="H15">
-        <v>0.00013662507274887176</v>
+        <v>0.0001366250727488701</v>
       </c>
       <c r="I15">
-        <v>-5.700035930537718e-6</v>
+        <v>-5.700035930538917e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019738791937567632</v>
+        <v>0.0019738791937567637</v>
       </c>
       <c r="K15">
-        <v>4.845022424061043e-5</v>
+        <v>4.845022424061021e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -960,19 +960,19 @@
         <v>4.8430856299800106e-5</v>
       </c>
       <c r="G16">
-        <v>7.669087918591666</v>
+        <v>7.66908791859166</v>
       </c>
       <c r="H16">
-        <v>0.00012971068004944439</v>
+        <v>0.00012971068004944273</v>
       </c>
       <c r="I16">
-        <v>-6.042088540776514e-6</v>
+        <v>-6.0420885407777826e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019719796423836307</v>
+        <v>0.001971979642383632</v>
       </c>
       <c r="K16">
-        <v>4.843083979454156e-5</v>
+        <v>4.8430839794541317e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -995,19 +995,19 @@
         <v>4.841367841307386e-5</v>
       </c>
       <c r="G17">
-        <v>7.640469083809211</v>
+        <v>7.6404690838092035</v>
       </c>
       <c r="H17">
-        <v>0.00012295402672777398</v>
+        <v>0.00012295402672777233</v>
       </c>
       <c r="I17">
-        <v>-6.3753858991611884e-6</v>
+        <v>-6.375385899162527e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019700871719568478</v>
+        <v>0.0019700871719568486</v>
       </c>
       <c r="K17">
-        <v>4.841364418442186e-5</v>
+        <v>4.8413644184421604e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1030,19 +1030,19 @@
         <v>4.8398497494933656e-5</v>
       </c>
       <c r="G18">
-        <v>7.612907358461783</v>
+        <v>7.612907358461776</v>
       </c>
       <c r="H18">
-        <v>0.00011634704247168577</v>
+        <v>0.00011634704247168413</v>
       </c>
       <c r="I18">
-        <v>-6.7002415873354835e-6</v>
+        <v>-6.700241587336889e-6</v>
       </c>
       <c r="J18">
         <v>0.001968203332772407</v>
       </c>
       <c r="K18">
-        <v>4.8398444077898104e-5</v>
+        <v>4.8398444077897826e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1065,19 +1065,19 @@
         <v>4.838512383127991e-5</v>
       </c>
       <c r="G19">
-        <v>7.586407817449091</v>
+        <v>7.586407817449084</v>
       </c>
       <c r="H19">
-        <v>0.00010988203653898956</v>
+        <v>0.0001098820365389879</v>
       </c>
       <c r="I19">
-        <v>-7.016833338197563e-6</v>
+        <v>-7.016833338199031e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019663296268408303</v>
+        <v>0.00196632962684083</v>
       </c>
       <c r="K19">
-        <v>4.838505067779121e-5</v>
+        <v>4.8385050677790894e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1100,19 +1100,19 @@
         <v>4.8373377146991364e-5</v>
       </c>
       <c r="G20">
-        <v>7.5609607695484184</v>
+        <v>7.5609607695484105</v>
       </c>
       <c r="H20">
-        <v>0.00010355182954025975</v>
+        <v>0.0001035518295402581</v>
       </c>
       <c r="I20">
-        <v>-7.325109802010413e-6</v>
+        <v>-7.325109802011944e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019644674990984203</v>
+        <v>0.00196446749909842</v>
       </c>
       <c r="K20">
-        <v>4.837328451450275e-5</v>
+        <v>4.8373284514502404e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1135,19 +1135,19 @@
         <v>4.8363090049342424e-5</v>
       </c>
       <c r="G21">
-        <v>7.536545803590875</v>
+        <v>7.536545803590867</v>
       </c>
       <c r="H21">
-        <v>9.73499532620153e-5</v>
+        <v>9.734995326201363e-5</v>
       </c>
       <c r="I21">
-        <v>-7.624653406489958e-6</v>
+        <v>-7.624653406491551e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019626183850086835</v>
+        <v>0.0019626183850086822</v>
       </c>
       <c r="K21">
-        <v>4.836297881937725e-5</v>
+        <v>4.8362978819376865e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1170,19 +1170,19 @@
         <v>4.835411017956591e-5</v>
       </c>
       <c r="G22">
-        <v>7.51313588832582</v>
+        <v>7.513135888325812</v>
       </c>
       <c r="H22">
-        <v>9.127093164551591e-5</v>
+        <v>9.127093164551425e-5</v>
       </c>
       <c r="I22">
-        <v>-7.91449137887914e-6</v>
+        <v>-7.914491378880796e-6</v>
       </c>
       <c r="J22">
-        <v>0.0019607838174000676</v>
+        <v>0.0019607838174000667</v>
       </c>
       <c r="K22">
-        <v>4.835398165186523e-5</v>
+        <v>4.835398165186481e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1205,19 +1205,19 @@
         <v>4.8346301321488534e-5</v>
       </c>
       <c r="G23">
-        <v>7.490701334282196</v>
+        <v>7.490701334282188</v>
       </c>
       <c r="H23">
-        <v>8.531064725237088e-5</v>
+        <v>8.531064725236922e-5</v>
       </c>
       <c r="I23">
-        <v>-8.192852189964072e-6</v>
+        <v>-8.192852189965784e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019589655915700096</v>
+        <v>0.001958965591570009</v>
       </c>
       <c r="K23">
-        <v>4.8346157025066494e-5</v>
+        <v>4.834615702506604e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1240,19 +1240,19 @@
         <v>4.8339543709474354e-5</v>
       </c>
       <c r="G24">
-        <v>7.46921347614679</v>
+        <v>7.469213476146782</v>
       </c>
       <c r="H24">
-        <v>7.946678513084346e-5</v>
+        <v>7.946678513084185e-5</v>
       </c>
       <c r="I24">
-        <v>-8.456873093600925e-6</v>
+        <v>-8.456873093602695e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019571659823521023</v>
+        <v>0.001957165982352102</v>
       </c>
       <c r="K24">
-        <v>4.833938525026039e-5</v>
+        <v>4.83393852502599e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1275,19 +1275,19 @@
         <v>4.83337337355387e-5</v>
       </c>
       <c r="G25">
-        <v>7.448647949405042</v>
+        <v>7.448647949405034</v>
       </c>
       <c r="H25">
-        <v>7.37393292026657e-5</v>
+        <v>7.373932920266412e-5</v>
       </c>
       <c r="I25">
-        <v>-8.702275222430445e-6</v>
+        <v>-8.70227522243227e-6</v>
       </c>
       <c r="J25">
-        <v>0.001955387999827624</v>
+        <v>0.0019553879998276246</v>
       </c>
       <c r="K25">
-        <v>4.833356268999644e-5</v>
+        <v>4.833356268999592e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1310,19 +1310,19 @@
         <v>4.8328783203673596e-5</v>
       </c>
       <c r="G26">
-        <v>7.4289874309988555</v>
+        <v>7.4289874309988475</v>
       </c>
       <c r="H26">
-        <v>6.813106811247709e-5</v>
+        <v>6.813106811247555e-5</v>
       </c>
       <c r="I26">
-        <v>-8.923034425486485e-6</v>
+        <v>-8.923034425488367e-6</v>
       </c>
       <c r="J26">
-        <v>0.0019536356622230984</v>
+        <v>0.001953635662223099</v>
       </c>
       <c r="K26">
-        <v>4.832860105463712e-5</v>
+        <v>4.832860105463656e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1345,19 +1345,19 @@
         <v>4.832461823521844e-5</v>
       </c>
       <c r="G27">
-        <v>7.410223703533638</v>
+        <v>7.41022370353363</v>
       </c>
       <c r="H27">
-        <v>6.264805057951799e-5</v>
+        <v>6.264805057951653e-5</v>
       </c>
       <c r="I27">
-        <v>-9.111086458835105e-6</v>
+        <v>-9.111086458837038e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019519142566892418</v>
+        <v>0.001951914256689243</v>
       </c>
       <c r="K27">
-        <v>4.832442634630653e-5</v>
+        <v>4.8324426346305936e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1380,19 +1380,19 @@
         <v>4.8321177900491315e-5</v>
       </c>
       <c r="G28">
-        <v>7.392358905203953</v>
+        <v>7.392358905203945</v>
       </c>
       <c r="H28">
-        <v>5.72999200246091e-5</v>
+        <v>5.7299920024607674e-5</v>
       </c>
       <c r="I28">
-        <v>-9.256111924494974e-6</v>
+        <v>-9.256111924496959e-6</v>
       </c>
       <c r="J28">
-        <v>0.0019502305522079413</v>
+        <v>0.0019502305522079426</v>
       </c>
       <c r="K28">
-        <v>4.832097751938838e-5</v>
+        <v>4.832097751938774e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1415,19 +1415,19 @@
         <v>4.8318412639587234e-5</v>
       </c>
       <c r="G29">
-        <v>7.375405850045823</v>
+        <v>7.375405850045815</v>
       </c>
       <c r="H29">
-        <v>5.210005544861292e-5</v>
+        <v>5.2100055448611535e-5</v>
       </c>
       <c r="I29">
-        <v>-9.34544739861522e-6</v>
+        <v>-9.345447398617258e-6</v>
       </c>
       <c r="J29">
-        <v>0.0019485929266229705</v>
+        <v>0.0019485929266229722</v>
       </c>
       <c r="K29">
-        <v>4.831820491711185e-5</v>
+        <v>4.8318204917111193e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1450,19 +1450,19 @@
         <v>4.831628253517395e-5</v>
       </c>
       <c r="G30">
-        <v>7.359387354378971</v>
+        <v>7.359387354378963</v>
       </c>
       <c r="H30">
-        <v>4.706545354435401e-5</v>
+        <v>4.706545354435266e-5</v>
       </c>
       <c r="I30">
-        <v>-9.364163261757331e-6</v>
+        <v>-9.364163261759415e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019470113716499493</v>
+        <v>0.0019470113716499508</v>
       </c>
       <c r="K30">
-        <v>4.831606855488457e-5</v>
+        <v>4.831606855488391e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1485,19 +1485,19 @@
         <v>4.831475550593245e-5</v>
       </c>
       <c r="G31">
-        <v>7.344334576019153</v>
+        <v>7.344334576019145</v>
       </c>
       <c r="H31">
-        <v>4.2216308011524005e-5</v>
+        <v>4.221630801152268e-5</v>
       </c>
       <c r="I31">
-        <v>-9.29533583784878e-6</v>
+        <v>-9.295335837850918e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019454973478109483</v>
+        <v>0.0019454973478109502</v>
       </c>
       <c r="K31">
-        <v>4.8314536316154056e-5</v>
+        <v>4.831453631615341e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1520,19 +1520,19 @@
         <v>4.8313805494678366e-5</v>
       </c>
       <c r="G32">
-        <v>7.330284455858274</v>
+        <v>7.330284455858266</v>
       </c>
       <c r="H32">
-        <v>3.757526911920313e-5</v>
+        <v>3.757526911920184e-5</v>
       </c>
       <c r="I32">
-        <v>-9.120522684987246e-6</v>
+        <v>-9.120522684989436e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019440634747248241</v>
+        <v>0.0019440634747248263</v>
       </c>
       <c r="K32">
-        <v>4.831358213485481e-5</v>
+        <v>4.831358213485416e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1555,19 +1555,19 @@
         <v>4.831341072559045e-5</v>
       </c>
       <c r="G33">
-        <v>7.317276437159614</v>
+        <v>7.317276437159605</v>
       </c>
       <c r="H33">
-        <v>3.3166403511725465e-5</v>
+        <v>3.316640351172419e-5</v>
       </c>
       <c r="I33">
-        <v>-8.8204275934059e-6</v>
+        <v>-8.820427593408144e-6</v>
       </c>
       <c r="J33">
-        <v>0.0019427230595528738</v>
+        <v>0.0019427230595528762</v>
       </c>
       <c r="K33">
-        <v>4.831318424704115e-5</v>
+        <v>4.831318424704049e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1590,19 +1590,19 @@
         <v>4.8313552098437e-5</v>
       </c>
       <c r="G34">
-        <v>7.305348709514088</v>
+        <v>7.30534870951408</v>
       </c>
       <c r="H34">
-        <v>2.9013908313811093e-5</v>
+        <v>2.9013908313809825e-5</v>
       </c>
       <c r="I34">
-        <v>-8.37571896116097e-6</v>
+        <v>-8.375718961163262e-6</v>
       </c>
       <c r="J34">
-        <v>0.0019414894860820832</v>
+        <v>0.0019414894860820856</v>
       </c>
       <c r="K34">
-        <v>4.8313323574664814e-5</v>
+        <v>4.831332357466414e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1625,19 +1625,19 @@
         <v>4.831421177493763e-5</v>
       </c>
       <c r="G35">
-        <v>7.294534272270882</v>
+        <v>7.294534272270874</v>
       </c>
       <c r="H35">
-        <v>2.5140668531429454e-5</v>
+        <v>2.514066853142819e-5</v>
       </c>
       <c r="I35">
-        <v>-7.767944932787387e-6</v>
+        <v>-7.767944932789733e-6</v>
       </c>
       <c r="J35">
-        <v>0.0019403755070803719</v>
+        <v>0.0019403755070803743</v>
       </c>
       <c r="K35">
-        <v>4.831398230181678e-5</v>
+        <v>4.831398230181611e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1660,19 +1660,19 @@
         <v>4.8315371995984364e-5</v>
       </c>
       <c r="G36">
-        <v>7.284857135929351</v>
+        <v>7.284857135929343</v>
       </c>
       <c r="H36">
-        <v>2.1566770087549867e-5</v>
+        <v>2.1566770087548603e-5</v>
       </c>
       <c r="I36">
-        <v>-6.980473730465661e-6</v>
+        <v>-6.980473730468054e-6</v>
       </c>
       <c r="J36">
-        <v>0.0019393924973864966</v>
+        <v>0.0019393924973864992</v>
       </c>
       <c r="K36">
-        <v>4.831514268370853e-5</v>
+        <v>4.8315142683707874e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1695,19 +1695,19 @@
         <v>4.831701415161405e-5</v>
       </c>
       <c r="G37">
-        <v>7.276328971098858</v>
+        <v>7.276328971098849</v>
       </c>
       <c r="H37">
-        <v>1.8308094070367647e-5</v>
+        <v>1.830809407036639e-5</v>
       </c>
       <c r="I37">
-        <v>-5.999380145824493e-6</v>
+        <v>-5.999380145826941e-6</v>
       </c>
       <c r="J37">
-        <v>0.0019385497359596005</v>
+        <v>0.0019385497359596026</v>
       </c>
       <c r="K37">
-        <v>4.831678610709395e-5</v>
+        <v>4.831678610709331e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1730,19 +1730,19 @@
         <v>4.831911811114281e-5</v>
       </c>
       <c r="G38">
-        <v>7.268946478960995</v>
+        <v>7.268946478960987</v>
       </c>
       <c r="H38">
-        <v>1.537511722144466e-5</v>
+        <v>1.537511722144341e-5</v>
       </c>
       <c r="I38">
-        <v>-4.8142002596446766e-6</v>
+        <v>-4.8142002596471745e-6</v>
       </c>
       <c r="J38">
-        <v>0.0019378537865655631</v>
+        <v>0.001937853786565565</v>
       </c>
       <c r="K38">
-        <v>4.8318892416237195e-5</v>
+        <v>4.831889241623657e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1765,19 +1765,19 @@
         <v>4.832166181025402e-5</v>
       </c>
       <c r="G39">
-        <v>7.262689698694395</v>
+        <v>7.262689698694386</v>
       </c>
       <c r="H39">
-        <v>1.2772028057422568e-5</v>
+        <v>1.277202805742133e-5</v>
       </c>
       <c r="I39">
-        <v>-3.418486135993661e-6</v>
+        <v>-3.4184861359962113e-6</v>
       </c>
       <c r="J39">
-        <v>0.0019373080399406036</v>
+        <v>0.001937308039940605</v>
       </c>
       <c r="K39">
-        <v>4.832143949520496e-5</v>
+        <v>4.832143949520435e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1800,19 +1800,19 @@
         <v>4.832462108505811e-5</v>
       </c>
       <c r="G40">
-        <v>7.257521390297183</v>
+        <v>7.257521390297174</v>
       </c>
       <c r="H40">
-        <v>1.04962414393266e-5</v>
+        <v>1.0496241439325371e-5</v>
       </c>
       <c r="I40">
-        <v>-1.8101091583260488e-6</v>
+        <v>-1.8101091583286516e-6</v>
       </c>
       <c r="J40">
-        <v>0.0019369124653975877</v>
+        <v>0.0019369124653975892</v>
       </c>
       <c r="K40">
-        <v>4.83244031006535e-5</v>
+        <v>4.8324403100652894e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1835,19 +1835,19 @@
         <v>4.832796973890436e-5</v>
       </c>
       <c r="G41">
-        <v>7.25338754470146</v>
+        <v>7.25338754470145</v>
       </c>
       <c r="H41">
-        <v>8.538357132798356e-6</v>
+        <v>8.538357132797134e-6</v>
       </c>
       <c r="I41">
-        <v>8.716171076569438e-9</v>
+        <v>8.716171073912777e-9</v>
       </c>
       <c r="J41">
-        <v>0.0019366635978510498</v>
+        <v>0.0019366635978510514</v>
       </c>
       <c r="K41">
-        <v>4.8327756929794004e-5</v>
+        <v>4.832775692979341e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1870,19 +1870,19 @@
         <v>4.8331679824001186e-5</v>
       </c>
       <c r="G42">
-        <v>7.250218980602137</v>
+        <v>7.250218980602127</v>
       </c>
       <c r="H42">
-        <v>6.88256585227062e-6</v>
+        <v>6.8825658522694075e-6</v>
       </c>
       <c r="I42">
-        <v>2.031690695346811e-6</v>
+        <v>2.0316906953440993e-6</v>
       </c>
       <c r="J42">
-        <v>0.0019365547616150374</v>
+        <v>0.0019365547616150382</v>
       </c>
       <c r="K42">
-        <v>4.833147290544792e-5</v>
+        <v>4.8331472905447334e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1905,19 +1905,19 @@
         <v>4.833572211472135e-5</v>
       </c>
       <c r="G43">
-        <v>7.247933898307292</v>
+        <v>7.2479338983072825</v>
       </c>
       <c r="H43">
-        <v>5.5074639289258915e-6</v>
+        <v>5.507463928924687e-6</v>
       </c>
       <c r="I43">
-        <v>4.248947427787145e-6</v>
+        <v>4.248947427784378e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019365765072447275</v>
+        <v>0.0019365765072447282</v>
       </c>
       <c r="K43">
-        <v>4.8335521654527236e-5</v>
+        <v>4.8335521654526654e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1940,19 +1940,19 @@
         <v>4.8340066741629545e-5</v>
       </c>
       <c r="G44">
-        <v>7.246441182120716</v>
+        <v>7.246441182120706</v>
       </c>
       <c r="H44">
-        <v>4.387199781404115e-6</v>
+        <v>4.387199781402918e-6</v>
       </c>
       <c r="I44">
-        <v>6.647779591971216e-6</v>
+        <v>6.6477795919683944e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019367172158483228</v>
+        <v>0.0019367172158483235</v>
       </c>
       <c r="K44">
-        <v>4.833987314928476e-5</v>
+        <v>4.8339873149284184e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1975,19 +1975,19 @@
         <v>4.8344683944861104e-5</v>
       </c>
       <c r="G45">
-        <v>7.245644181270703</v>
+        <v>7.245644181270692</v>
       </c>
       <c r="H45">
-        <v>3.4928459872772477e-6</v>
+        <v>3.4928459872760594e-6</v>
       </c>
       <c r="I45">
-        <v>9.213513966708357e-6</v>
+        <v>9.213513966705484e-6</v>
       </c>
       <c r="J45">
         <v>0.0019369638102394492</v>
       </c>
       <c r="K45">
-        <v>4.834449746935894e-5</v>
+        <v>4.8344497469358374e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2010,19 +2010,19 @@
         <v>4.8349544894049146e-5</v>
       </c>
       <c r="G46">
-        <v>7.245444661694751</v>
+        <v>7.245444661694741</v>
       </c>
       <c r="H46">
-        <v>2.793873710404703e-6</v>
+        <v>2.793873710403524e-6</v>
       </c>
       <c r="I46">
-        <v>1.1930452671848745e-5</v>
+        <v>1.1930452671845816e-5</v>
       </c>
       <c r="J46">
-        <v>0.001937302504665636</v>
+        <v>0.0019373025046656362</v>
       </c>
       <c r="K46">
-        <v>4.834936563041083e-5</v>
+        <v>4.834936563041026e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2045,19 +2045,19 @@
         <v>4.8354622512274806e-5</v>
       </c>
       <c r="G47">
-        <v>7.245746614662296</v>
+        <v>7.245746614662284</v>
       </c>
       <c r="H47">
-        <v>2.259603205445218e-6</v>
+        <v>2.259603205444049e-6</v>
       </c>
       <c r="I47">
-        <v>1.4782803531115526e-5</v>
+        <v>1.4782803531112541e-5</v>
       </c>
       <c r="J47">
-        <v>0.001937719526251422</v>
+        <v>0.0019377195262514225</v>
       </c>
       <c r="K47">
-        <v>4.835445041668034e-5</v>
+        <v>4.8354450416679775e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2080,19 +2080,19 @@
         <v>4.835989223672665e-5</v>
       </c>
       <c r="G48">
-        <v>7.246459632575055</v>
+        <v>7.2464596325750446</v>
       </c>
       <c r="H48">
-        <v>1.8605144349533016e-6</v>
+        <v>1.860514434952143e-6</v>
       </c>
       <c r="I48">
-        <v>1.7755525443024166e-5</v>
+        <v>1.7755525443021133e-5</v>
       </c>
       <c r="J48">
-        <v>0.0019382017501441652</v>
+        <v>0.001938201750144167</v>
       </c>
       <c r="K48">
-        <v>4.835972714889847e-5</v>
+        <v>4.835972714889791e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2115,19 +2115,19 @@
         <v>4.8365332651632946e-5</v>
       </c>
       <c r="G49">
-        <v>7.247501618061929</v>
+        <v>7.247501618061919</v>
       </c>
       <c r="H49">
-        <v>1.5693250582011e-6</v>
+        <v>1.5693250581999523e-6</v>
       </c>
       <c r="I49">
-        <v>2.083502868378413e-5</v>
+        <v>2.0835028683781048e-5</v>
       </c>
       <c r="J49">
-        <v>0.0019387372052478097</v>
+        <v>0.0019387372052478119</v>
       </c>
       <c r="K49">
-        <v>4.8365174322303034e-5</v>
+        <v>4.836517432230248e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2150,19 +2150,19 @@
         <v>4.837092594085165e-5</v>
       </c>
       <c r="G50">
-        <v>7.248800673177455</v>
+        <v>7.248800673177445</v>
       </c>
       <c r="H50">
-        <v>1.3617746561848114e-6</v>
+        <v>1.3617746561836744e-6</v>
       </c>
       <c r="I50">
-        <v>2.40096898968033e-5</v>
+        <v>2.4009689896800163e-5</v>
       </c>
       <c r="J50">
-        <v>0.0019393154258928204</v>
+        <v>0.0019393154258928228</v>
       </c>
       <c r="K50">
-        <v>4.837077406162654e-5</v>
+        <v>4.8370774061626014e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2185,19 +2185,19 @@
         <v>4.837665812744283e-5</v>
       </c>
       <c r="G51">
-        <v>7.2502961091722655</v>
+        <v>7.250296109172255</v>
       </c>
       <c r="H51">
-        <v>1.2170902187363008e-6</v>
+        <v>1.2170902187351749e-6</v>
       </c>
       <c r="I51">
-        <v>2.727016436116578e-5</v>
+        <v>2.72701643611626e-5</v>
       </c>
       <c r="J51">
-        <v>0.0019399276436320907</v>
+        <v>0.0019399276436320937</v>
       </c>
       <c r="K51">
-        <v>4.837651236014688e-5</v>
+        <v>4.8376512360146374e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2220,19 +2220,19 @@
         <v>4.838251909266342e-5</v>
       </c>
       <c r="G52">
-        <v>7.2519386127255006</v>
+        <v>7.251938612725489</v>
       </c>
       <c r="H52">
-        <v>1.118143391541344e-6</v>
+        <v>1.1181433915402286e-6</v>
       </c>
       <c r="I52">
-        <v>3.06095003481831e-5</v>
+        <v>3.0609500348179865e-5</v>
       </c>
       <c r="J52">
-        <v>0.0019405668307630123</v>
+        <v>0.0019405668307630156</v>
       </c>
       <c r="K52">
-        <v>4.838237909539251e-5</v>
+        <v>4.8382379095392026e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2255,19 +2255,19 @@
         <v>4.8388502392693715e-5</v>
       </c>
       <c r="G53">
-        <v>7.253689687332465</v>
+        <v>7.253689687332454</v>
       </c>
       <c r="H53">
-        <v>1.0513401863014259e-6</v>
+        <v>1.0513401863003215e-6</v>
       </c>
       <c r="I53">
-        <v>3.402308098984137e-5</v>
+        <v>3.4023080989838096e-5</v>
       </c>
       <c r="J53">
-        <v>0.0019412276203510563</v>
+        <v>0.0019412276203510596</v>
       </c>
       <c r="K53">
-        <v>4.838836784063803e-5</v>
+        <v>4.838836784063756e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2290,19 +2290,19 @@
         <v>4.83946049132883e-5</v>
       </c>
       <c r="G54">
-        <v>7.25552054706725</v>
+        <v>7.255520547067238</v>
       </c>
       <c r="H54">
-        <v>1.0063051012547108e-6</v>
+        <v>1.0063051012536182e-6</v>
       </c>
       <c r="I54">
-        <v>3.75084320057605e-5</v>
+        <v>3.750843200575717e-5</v>
       </c>
       <c r="J54">
-        <v>0.0019419061358587283</v>
+        <v>0.0019419061358587314</v>
       </c>
       <c r="K54">
-        <v>4.839447551311552e-5</v>
+        <v>4.8394475513115074e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2325,19 +2325,19 @@
         <v>4.84008264166373e-5</v>
       </c>
       <c r="G55">
-        <v>7.257410668183722</v>
+        <v>7.257410668183709</v>
       </c>
       <c r="H55">
-        <v>9.754319575379699e-7</v>
+        <v>9.754319575368887e-7</v>
       </c>
       <c r="I55">
-        <v>4.1064941934162144e-5</v>
+        <v>4.106494193415876e-5</v>
       </c>
       <c r="J55">
-        <v>0.0019425997662648065</v>
+        <v>0.0019425997662648096</v>
       </c>
       <c r="K55">
-        <v>4.8400701914272254e-5</v>
+        <v>4.84007019142718e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2360,19 +2360,19 @@
         <v>4.840716903912771e-5</v>
       </c>
       <c r="G56">
-        <v>7.259346201474758</v>
+        <v>7.259346201474744</v>
       </c>
       <c r="H56">
-        <v>9.533731560059747e-7</v>
+        <v>9.53373156004905e-7</v>
       </c>
       <c r="I56">
-        <v>4.469354063200642e-5</v>
+        <v>4.4693540632003e-5</v>
       </c>
       <c r="J56">
-        <v>0.001943306920269527</v>
+        <v>0.0019433069202695295</v>
       </c>
       <c r="K56">
-        <v>4.8407049221620526e-5</v>
+        <v>4.8407049221620085e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2395,19 +2395,19 @@
         <v>4.841363679376563e-5</v>
       </c>
       <c r="G57">
-        <v>7.261318418973385</v>
+        <v>7.261318418973372</v>
       </c>
       <c r="H57">
-        <v>9.365292792688887e-7</v>
+        <v>9.365292792678307e-7</v>
       </c>
       <c r="I57">
-        <v>4.839637655242569e-5</v>
+        <v>4.83963765524222e-5</v>
       </c>
       <c r="J57">
-        <v>0.0019440267874122961</v>
+        <v>0.0019440267874122979</v>
       </c>
       <c r="K57">
-        <v>4.8413521486691895e-5</v>
+        <v>4.841352148669146e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2430,19 +2430,19 @@
         <v>4.8420235119057755e-5</v>
       </c>
       <c r="G58">
-        <v>7.263322321970276</v>
+        <v>7.263322321970262</v>
       </c>
       <c r="H58">
-        <v>9.225851477408332e-7</v>
+        <v>9.225851477397872e-7</v>
       </c>
       <c r="I58">
-        <v>5.217652267975186e-5</v>
+        <v>5.217652267974833e-5</v>
       </c>
       <c r="J58">
-        <v>0.0019447591255105944</v>
+        <v>0.0019447591255105957</v>
       </c>
       <c r="K58">
-        <v>4.842012418097111e-5</v>
+        <v>4.842012418097067e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2465,19 +2465,19 @@
         <v>4.8426970500579437e-5</v>
       </c>
       <c r="G59">
-        <v>7.265355484213741</v>
+        <v>7.2653554842137265</v>
       </c>
       <c r="H59">
-        <v>9.101202086296273e-7</v>
+        <v>9.101202086285935e-7</v>
       </c>
       <c r="I59">
-        <v>5.6037729943706606e-5</v>
+        <v>5.603772994370305e-5</v>
       </c>
       <c r="J59">
-        <v>0.0019455040854916192</v>
+        <v>0.0019455040854916197</v>
       </c>
       <c r="K59">
-        <v>4.8426863816135504e-5</v>
+        <v>4.842686381613507e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2500,19 +2500,19 @@
         <v>4.8433850175821814e-5</v>
       </c>
       <c r="G60">
-        <v>7.267417155600685</v>
+        <v>7.26741715560067</v>
       </c>
       <c r="H60">
-        <v>8.983039850099235e-7</v>
+        <v>8.983039850089023e-7</v>
       </c>
       <c r="I60">
-        <v>5.998423525577235e-5</v>
+        <v>5.998423525576875e-5</v>
       </c>
       <c r="J60">
-        <v>0.0019462620766474991</v>
+        <v>0.001946262076647499</v>
       </c>
       <c r="K60">
-        <v>4.84337476488328e-5</v>
+        <v>4.843374764883238e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2535,19 +2535,19 @@
         <v>4.844088192000876e-5</v>
       </c>
       <c r="G61">
-        <v>7.2695076124447375</v>
+        <v>7.269507612444722</v>
       </c>
       <c r="H61">
-        <v>8.866737193899105e-7</v>
+        <v>8.86673719388902e-7</v>
       </c>
       <c r="I61">
-        <v>6.402062262199172e-5</v>
+        <v>6.40206226219881e-5</v>
       </c>
       <c r="J61">
-        <v>0.0019470336698424772</v>
+        <v>0.0019470336698424763</v>
       </c>
       <c r="K61">
-        <v>4.8440783467315726e-5</v>
+        <v>4.844078346731532e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2570,19 +2570,19 @@
         <v>4.844807390195318e-5</v>
       </c>
       <c r="G62">
-        <v>7.2716277165526995</v>
+        <v>7.2716277165526835</v>
       </c>
       <c r="H62">
-        <v>8.749825768047215e-7</v>
+        <v>8.749825768037258e-7</v>
       </c>
       <c r="I62">
-        <v>6.81517303016283e-5</v>
+        <v>6.815173030162464e-5</v>
       </c>
       <c r="J62">
-        <v>0.0019478195324433083</v>
+        <v>0.0019478195324433062</v>
       </c>
       <c r="K62">
-        <v>4.844797944855366e-5</v>
+        <v>4.8447979448553246e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2605,19 +2605,19 @@
         <v>4.8455434594916474e-5</v>
       </c>
       <c r="G63">
-        <v>7.27377863549637</v>
+        <v>7.273778635496355</v>
       </c>
       <c r="H63">
-        <v>8.631027944407738e-7</v>
+        <v>8.631027944397914e-7</v>
       </c>
       <c r="I63">
-        <v>7.23825936806705e-5</v>
+        <v>7.238259368066681e-5</v>
       </c>
       <c r="J63">
-        <v>0.0019486203875457681</v>
+        <v>0.001948620387545765</v>
       </c>
       <c r="K63">
-        <v>4.845534407036123e-5</v>
+        <v>4.845534407036082e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2640,19 +2640,19 @@
         <v>4.84629727270664e-5</v>
       </c>
       <c r="G64">
-        <v>7.275961676535618</v>
+        <v>7.275961676535602</v>
       </c>
       <c r="H64">
-        <v>8.509680152030847e-7</v>
+        <v>8.509680152021159e-7</v>
       </c>
       <c r="I64">
-        <v>7.671841387636668e-5</v>
+        <v>7.671841387636301e-5</v>
       </c>
       <c r="J64">
-        <v>0.0019494369902245332</v>
+        <v>0.0019494369902245286</v>
       </c>
       <c r="K64">
-        <v>4.846288606301021e-5</v>
+        <v>4.846288606300981e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2675,19 +2675,19 @@
         <v>4.8470697258195526e-5</v>
       </c>
       <c r="G65">
-        <v>7.278178194618042</v>
+        <v>7.278178194618025</v>
       </c>
       <c r="H65">
-        <v>8.385413197006347e-7</v>
+        <v>8.385413196996798e-7</v>
       </c>
       <c r="I65">
-        <v>8.116454328317645e-5</v>
+        <v>8.116454328317272e-5</v>
       </c>
       <c r="J65">
-        <v>0.0019502701148235912</v>
+        <v>0.0019502701148235856</v>
       </c>
       <c r="K65">
-        <v>4.847061438683902e-5</v>
+        <v>4.8470614386838613e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2710,19 +2710,19 @@
         <v>4.847861737252297e-5</v>
       </c>
       <c r="G66">
-        <v>7.280429544648091</v>
+        <v>7.280429544648074</v>
       </c>
       <c r="H66">
-        <v>8.257987730443993e-7</v>
+        <v>8.257987730434588e-7</v>
       </c>
       <c r="I66">
-        <v>8.572648138977236e-5</v>
+        <v>8.572648138976862e-5</v>
       </c>
       <c r="J66">
-        <v>0.0019511205487794771</v>
+        <v>0.0019511205487794708</v>
       </c>
       <c r="K66">
-        <v>4.847853822557157e-5</v>
+        <v>4.847853822557117e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2745,19 +2745,19 @@
         <v>4.848674248061418e-5</v>
       </c>
       <c r="G67">
-        <v>7.28271705820414</v>
+        <v>7.282717058204123</v>
       </c>
       <c r="H67">
-        <v>8.127215877399353e-7</v>
+        <v>8.127215877390094e-7</v>
       </c>
       <c r="I67">
-        <v>9.040987651761349e-5</v>
+        <v>9.040987651760975e-5</v>
       </c>
       <c r="J67">
-        <v>0.0019519890900807717</v>
+        <v>0.0019519890900807646</v>
       </c>
       <c r="K67">
-        <v>4.848666698871008e-5</v>
+        <v>4.848666698870967e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2780,19 +2780,19 @@
         <v>4.849508222611067e-5</v>
       </c>
       <c r="G68">
-        <v>7.2850420325030525</v>
+        <v>7.285042032503036</v>
       </c>
       <c r="H68">
-        <v>7.99292679298761e-7</v>
+        <v>7.992926792978501e-7</v>
       </c>
       <c r="I68">
-        <v>9.522053053966594e-5</v>
+        <v>9.522053053966222e-5</v>
       </c>
       <c r="J68">
-        <v>0.0019528765465281655</v>
+        <v>0.0019528765465281577</v>
       </c>
       <c r="K68">
-        <v>4.849501031841324e-5</v>
+        <v>4.849501031841282e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2815,19 +2815,19 @@
         <v>4.850364649485542e-5</v>
       </c>
       <c r="G69">
-        <v>7.287405725085134</v>
+        <v>7.287405725085117</v>
       </c>
       <c r="H69">
-        <v>7.854952704911056e-7</v>
+        <v>7.854952704902101e-7</v>
       </c>
       <c r="I69">
-        <v>0.00010016440518081795</v>
+        <v>0.00010016440518081419</v>
       </c>
       <c r="J69">
-        <v>0.001953783735850076</v>
+        <v>0.001953783735850068</v>
       </c>
       <c r="K69">
-        <v>4.850357809876018e-5</v>
+        <v>4.850357809875975e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2850,19 +2850,19 @@
         <v>4.8512445425190254e-5</v>
       </c>
       <c r="G70">
-        <v>7.289809350646209</v>
+        <v>7.289809350646192</v>
       </c>
       <c r="H70">
-        <v>7.713123676759124e-7</v>
+        <v>7.713123676750324e-7</v>
       </c>
       <c r="I70">
-        <v>0.00010524762907018728</v>
+        <v>0.00010524762907018352</v>
       </c>
       <c r="J70">
-        <v>0.0019547114861939658</v>
+        <v>0.001954711486193958</v>
       </c>
       <c r="K70">
-        <v>4.85123804661525e-5</v>
+        <v>4.85123804661521e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2885,19 +2885,19 @@
         <v>4.8521489418867445e-5</v>
       </c>
       <c r="G71">
-        <v>7.292254078829734</v>
+        <v>7.292254078829717</v>
       </c>
       <c r="H71">
-        <v>7.567265726652553e-7</v>
+        <v>7.567265726643914e-7</v>
       </c>
       <c r="I71">
-        <v>0.00011047650519990707</v>
+        <v>0.00011047650519990339</v>
       </c>
       <c r="J71">
-        <v>0.0019556606367461056</v>
+        <v>0.0019556606367460974</v>
       </c>
       <c r="K71">
-        <v>4.852142782019055e-5</v>
+        <v>4.852142782019015e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2920,19 +2920,19 @@
         <v>4.85307891523506e-5</v>
       </c>
       <c r="G72">
-        <v>7.294741032210839</v>
+        <v>7.294741032210822</v>
       </c>
       <c r="H72">
-        <v>7.417200108842795e-7</v>
+        <v>7.417200108834321e-7</v>
       </c>
       <c r="I72">
-        <v>0.00011585751875999991</v>
+        <v>0.00011585751875999621</v>
       </c>
       <c r="J72">
-        <v>0.0019566320384498</v>
+        <v>0.001956632038449792</v>
       </c>
       <c r="K72">
-        <v>4.853073083508142e-5</v>
+        <v>4.853073083508103e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2955,19 +2955,19 @@
         <v>4.8540355588429164e-5</v>
       </c>
       <c r="G73">
-        <v>7.29727128412502</v>
+        <v>7.297271284125004</v>
       </c>
       <c r="H73">
-        <v>7.26274296365009e-7</v>
+        <v>7.262742963641785e-7</v>
       </c>
       <c r="I73">
-        <v>0.0001213973450733729</v>
+        <v>0.00012139734507336926</v>
       </c>
       <c r="J73">
-        <v>0.0019576265547281927</v>
+        <v>0.0019576265547281858</v>
       </c>
       <c r="K73">
-        <v>4.854030047120666e-5</v>
+        <v>4.854030047120627e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2990,19 +2990,19 @@
         <v>4.855019998813052e-5</v>
       </c>
       <c r="G74">
-        <v>7.299845856595669</v>
+        <v>7.299845856595653</v>
       </c>
       <c r="H74">
-        <v>7.103705061355423e-7</v>
+        <v>7.103705061347291e-7</v>
       </c>
       <c r="I74">
-        <v>0.0001271028579189042</v>
+        <v>0.00012710285791890058</v>
       </c>
       <c r="J74">
-        <v>0.0019586450622448345</v>
+        <v>0.0019586450622448275</v>
       </c>
       <c r="K74">
-        <v>4.8550147987128134e-5</v>
+        <v>4.855014798712775e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3025,19 +3025,19 @@
         <v>4.856033392293497e-5</v>
       </c>
       <c r="G75">
-        <v>7.30246571816925</v>
+        <v>7.302465718169234</v>
       </c>
       <c r="H75">
-        <v>6.939891558733613e-7</v>
+        <v>6.939891558725662e-7</v>
       </c>
       <c r="I75">
-        <v>0.0001329811379478325</v>
+        <v>0.00013298113794782892</v>
       </c>
       <c r="J75">
-        <v>0.0019596884517092887</v>
+        <v>0.001959688451709282</v>
       </c>
       <c r="K75">
-        <v>4.856028495174092e-5</v>
+        <v>4.856028495174052e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3060,19 +3060,19 @@
         <v>4.857076928730652e-5</v>
       </c>
       <c r="G76">
-        <v>7.305131781571088</v>
+        <v>7.305131781571073</v>
       </c>
       <c r="H76">
-        <v>6.771101763910826e-7</v>
+        <v>6.771101763903061e-7</v>
       </c>
       <c r="I76">
-        <v>0.00013903948151759038</v>
+        <v>0.00013903948151758688</v>
       </c>
       <c r="J76">
-        <v>0.0019607576287035476</v>
+        <v>0.001960757628703542</v>
       </c>
       <c r="K76">
-        <v>4.857072325694049e-5</v>
+        <v>4.8570723256940094e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3095,19 +3095,19 @@
         <v>4.8581518311554674e-5</v>
       </c>
       <c r="G77">
-        <v>7.307844901393378</v>
+        <v>7.307844901393363</v>
       </c>
       <c r="H77">
-        <v>6.597128888176334e-7</v>
+        <v>6.59712888816876e-7</v>
       </c>
       <c r="I77">
-        <v>0.00014528540967133488</v>
+        <v>0.00014528540967133146</v>
       </c>
       <c r="J77">
-        <v>0.0019618535145589366</v>
+        <v>0.0019618535145589306</v>
       </c>
       <c r="K77">
-        <v>4.858147513043202e-5</v>
+        <v>4.8581475130431636e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3130,19 +3130,19 @@
         <v>4.859259357504364e-5</v>
       </c>
       <c r="G78">
-        <v>7.310605871627557</v>
+        <v>7.310605871627542</v>
       </c>
       <c r="H78">
-        <v>6.417759792329466e-7</v>
+        <v>6.417759792322093e-7</v>
       </c>
       <c r="I78">
-        <v>0.00015172667739533433</v>
+        <v>0.00015172667739533102</v>
       </c>
       <c r="J78">
-        <v>0.0019629770472485877</v>
+        <v>0.001962977047248582</v>
       </c>
       <c r="K78">
-        <v>4.859255314898431e-5</v>
+        <v>4.859255314898391e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3165,19 +3165,19 @@
         <v>4.860400801976648e-5</v>
       </c>
       <c r="G79">
-        <v>7.313415423301995</v>
+        <v>7.313415423301982</v>
       </c>
       <c r="H79">
-        <v>6.232774727414491e-7</v>
+        <v>6.232774727407325e-7</v>
       </c>
       <c r="I79">
-        <v>0.0001583712831299114</v>
+        <v>0.00015837128312990822</v>
       </c>
       <c r="J79">
-        <v>0.001964129182350427</v>
+        <v>0.0019641291823504214</v>
       </c>
       <c r="K79">
-        <v>4.8603970252014916e-5</v>
+        <v>4.8603970252014496e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3200,19 +3200,19 @@
         <v>4.861577496430238e-5</v>
       </c>
       <c r="G80">
-        <v>7.3162742219998345</v>
+        <v>7.316274221999821</v>
       </c>
       <c r="H80">
-        <v>6.041947062777011e-7</v>
+        <v>6.041947062770059e-7</v>
       </c>
       <c r="I80">
-        <v>0.00016522747875579133</v>
+        <v>0.0001652274787557882</v>
       </c>
       <c r="J80">
-        <v>0.00196531089404127</v>
+        <v>0.001965310894041264</v>
       </c>
       <c r="K80">
-        <v>4.861573975564725e-5</v>
+        <v>4.861573975564683e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3235,19 +3235,19 @@
         <v>4.86279081181763e-5</v>
       </c>
       <c r="G81">
-        <v>7.319182865364575</v>
+        <v>7.319182865364562</v>
       </c>
       <c r="H81">
-        <v>5.8450430113025e-7</v>
+        <v>5.845043011295769e-7</v>
       </c>
       <c r="I81">
-        <v>0.0001723037795901918</v>
+        <v>0.0001723037795901888</v>
       </c>
       <c r="J81">
-        <v>0.00196652317615921</v>
+        <v>0.001966523176159204</v>
       </c>
       <c r="K81">
-        <v>4.862787536701638e-5</v>
+        <v>4.862787536701596e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3270,19 +3270,19 @@
         <v>4.8640421596641314e-5</v>
       </c>
       <c r="G82">
-        <v>7.32214188064451</v>
+        <v>7.322141880644497</v>
       </c>
       <c r="H82">
-        <v>5.6418213405645e-7</v>
+        <v>5.641821340557998e-7</v>
       </c>
       <c r="I82">
-        <v>0.0001796089749789211</v>
+        <v>0.00017960897497891826</v>
       </c>
       <c r="J82">
-        <v>0.0019677670433101632</v>
+        <v>0.0019677670433101576</v>
       </c>
       <c r="K82">
-        <v>4.8640391199124454e-5</v>
+        <v>4.864039119912404e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3305,19 +3305,19 @@
         <v>4.865332993590479e-5</v>
       </c>
       <c r="G83">
-        <v>7.325151722284351</v>
+        <v>7.325151722284339</v>
       </c>
       <c r="H83">
-        <v>5.432033076927559e-7</v>
+        <v>5.432033076921294e-7</v>
       </c>
       <c r="I83">
-        <v>0.00018715213901998443</v>
+        <v>0.0001871521390199817</v>
       </c>
       <c r="J83">
-        <v>0.001969043532038986</v>
+        <v>0.0019690435320389803</v>
       </c>
       <c r="K83">
-        <v>4.8653301786052884e-5</v>
+        <v>4.8653301786052484e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3340,19 +3340,19 @@
         <v>4.866664810882082e-5</v>
       </c>
       <c r="G84">
-        <v>7.328212769507225</v>
+        <v>7.328212769507212</v>
       </c>
       <c r="H84">
-        <v>5.21542120401394e-7</v>
+        <v>5.21542120400792e-7</v>
       </c>
       <c r="I84">
-        <v>0.0001949426416989197</v>
+        <v>0.00019494264169891718</v>
       </c>
       <c r="J84">
-        <v>0.001970353702059928</v>
+        <v>0.0019703537020599226</v>
       </c>
       <c r="K84">
-        <v>4.8666622098697315e-5</v>
+        <v>4.866662209869693e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3375,19 +3375,19 @@
         <v>4.8680391541072284e-5</v>
       </c>
       <c r="G85">
-        <v>7.33132532400287</v>
+        <v>7.331325324002859</v>
       </c>
       <c r="H85">
-        <v>4.991720344261871e-7</v>
+        <v>4.991720344256106e-7</v>
       </c>
       <c r="I85">
-        <v>0.0002029901604018604</v>
+        <v>0.00020299016040185795</v>
       </c>
       <c r="J85">
-        <v>0.0019716986375713707</v>
+        <v>0.001971698637571365</v>
       </c>
       <c r="K85">
-        <v>4.868036756105231e-5</v>
+        <v>4.868036756105194e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3410,19 +3410,19 @@
         <v>4.869457612786752e-5</v>
       </c>
       <c r="G86">
-        <v>7.334489607609283</v>
+        <v>7.334489607609273</v>
       </c>
       <c r="H86">
-        <v>4.7606564362565853e-7</v>
+        <v>4.7606564362510843e-7</v>
       </c>
       <c r="I86">
-        <v>0.0002113046917769817</v>
+        <v>0.00021130469177697926</v>
       </c>
       <c r="J86">
-        <v>0.0019730794486179626</v>
+        <v>0.0019730794486179574</v>
       </c>
       <c r="K86">
-        <v>4.86945540667861e-5</v>
+        <v>4.869455406678576e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3445,19 +3445,19 @@
         <v>4.870921825117703e-5</v>
       </c>
       <c r="G87">
-        <v>7.337705760210344</v>
+        <v>7.3377057602103335</v>
       </c>
       <c r="H87">
-        <v>4.521946397970919e-7</v>
+        <v>4.5219463979656913e-7</v>
       </c>
       <c r="I87">
-        <v>0.0002198965639119416</v>
+        <v>0.00021989656391193922</v>
       </c>
       <c r="J87">
-        <v>0.0019744972725471914</v>
+        <v>0.0019744972725471866</v>
       </c>
       <c r="K87">
-        <v>4.870919799662529e-5</v>
+        <v>4.870919799662496e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3480,19 +3480,19 @@
         <v>4.872433479753783e-5</v>
       </c>
       <c r="G88">
-        <v>7.340973837685208</v>
+        <v>7.3409738376851985</v>
       </c>
       <c r="H88">
-        <v>4.275297778733541e-7</v>
+        <v>4.2752977787285957e-7</v>
       </c>
       <c r="I88">
-        <v>0.00022877644903718505</v>
+        <v>0.00022877644903718282</v>
       </c>
       <c r="J88">
-        <v>0.001975953275539224</v>
+        <v>0.0019759532755392203</v>
       </c>
       <c r="K88">
-        <v>4.872431623609489e-5</v>
+        <v>4.872431623609457e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3515,19 +3515,19 @@
         <v>4.873994317645375e-5</v>
       </c>
       <c r="G89">
-        <v>7.3442938099902495</v>
+        <v>7.34429380999024</v>
       </c>
       <c r="H89">
-        <v>4.0204084027428403e-7</v>
+        <v>4.0204084027381875e-7</v>
       </c>
       <c r="I89">
-        <v>0.00023795537652181533</v>
+        <v>0.00023795537652181325</v>
       </c>
       <c r="J89">
-        <v>0.001977448654228645</v>
+        <v>0.001977448654228642</v>
       </c>
       <c r="K89">
-        <v>4.873992619397812e-5</v>
+        <v>4.873992619397781e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3550,19 +3550,19 @@
         <v>4.875606133942136e-5</v>
       </c>
       <c r="G90">
-        <v>7.347665559400319</v>
+        <v>7.34766555940031</v>
       </c>
       <c r="H90">
-        <v>3.7569659984903486e-7</v>
+        <v>3.7569659984859986e-7</v>
       </c>
       <c r="I90">
-        <v>0.00024744474635580993</v>
+        <v>0.000247444746355808</v>
       </c>
       <c r="J90">
-        <v>0.001978984637384442</v>
+        <v>0.0019789846373844395</v>
       </c>
       <c r="K90">
-        <v>4.875604582135997e-5</v>
+        <v>4.875604582135968e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3585,19 +3585,19 @@
         <v>4.8772707799613014e-5</v>
       </c>
       <c r="G91">
-        <v>7.35108887892133</v>
+        <v>7.351088878921322</v>
       </c>
       <c r="H91">
-        <v>3.4846478140936913e-7</v>
+        <v>3.4846478140896547e-7</v>
       </c>
       <c r="I91">
-        <v>0.00025725634300999956</v>
+        <v>0.0002572563430099977</v>
       </c>
       <c r="J91">
-        <v>0.0019805624877034505</v>
+        <v>0.0019805624877034488</v>
       </c>
       <c r="K91">
-        <v>4.877269363129503e-5</v>
+        <v>4.877269363129476e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3620,19 +3620,19 @@
         <v>4.878990165224928e-5</v>
       </c>
       <c r="G92">
-        <v>7.3545634708790715</v>
+        <v>7.354563470879064</v>
       </c>
       <c r="H92">
-        <v>3.203120226993205e-7</v>
+        <v>3.203120226989492e-7</v>
       </c>
       <c r="I92">
-        <v>0.00026740234985946803</v>
+        <v>0.0002674023498594663</v>
       </c>
       <c r="J92">
-        <v>0.0019821835036959792</v>
+        <v>0.001982183503695978</v>
       </c>
       <c r="K92">
-        <v>4.878988871919161e-5</v>
+        <v>4.878988871919137e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3655,19 +3655,19 @@
         <v>4.880766259569498e-5</v>
       </c>
       <c r="G93">
-        <v>7.3580889457968075</v>
+        <v>7.358088945796801</v>
       </c>
       <c r="H93">
-        <v>2.9120383296948616e-7</v>
+        <v>2.9120383296914846e-7</v>
       </c>
       <c r="I93">
-        <v>0.0002778953640339126</v>
+        <v>0.00027789536403391093</v>
       </c>
       <c r="J93">
-        <v>0.0019838490216597723</v>
+        <v>0.001983849021659772</v>
       </c>
       <c r="K93">
-        <v>4.8807650783954424e-5</v>
+        <v>4.880765078395419e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3690,19 +3690,19 @@
         <v>4.8826010953314105e-5</v>
       </c>
       <c r="G94">
-        <v>7.3616648213503755</v>
+        <v>7.36166482135037</v>
       </c>
       <c r="H94">
-        <v>2.6110455084678023e-7</v>
+        <v>2.611045508464772e-7</v>
       </c>
       <c r="I94">
-        <v>0.0002887484116497348</v>
+        <v>0.00028874841164973326</v>
       </c>
       <c r="J94">
-        <v>0.00198556041774195</v>
+        <v>0.0019855604177419495</v>
       </c>
       <c r="K94">
-        <v>4.8826000149804976e-5</v>
+        <v>4.882600014980478e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3725,19 +3725,19 @@
         <v>4.884496769612051e-5</v>
       </c>
       <c r="G95">
-        <v>7.365290521671746</v>
+        <v>7.365290521671741</v>
       </c>
       <c r="H95">
-        <v>2.2997730093603446e-7</v>
+        <v>2.2997730093576748e-7</v>
       </c>
       <c r="I95">
-        <v>0.0002999749637641797</v>
+        <v>0.00029997496376417843</v>
       </c>
       <c r="J95">
-        <v>0.0019873191101118124</v>
+        <v>0.001987319110111812</v>
       </c>
       <c r="K95">
-        <v>4.8844957788910264e-5</v>
+        <v>4.884495778891009e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3760,19 +3760,19 @@
         <v>4.886455446626261e-5</v>
       </c>
       <c r="G96">
-        <v>7.368965376891001</v>
+        <v>7.368965376890998</v>
       </c>
       <c r="H96">
-        <v>1.977839484489323e-7</v>
+        <v>1.9778394844870256e-7</v>
       </c>
       <c r="I96">
-        <v>0.0003115889527468364</v>
+        <v>0.0003115889527468353</v>
       </c>
       <c r="J96">
         <v>0.0019891265612342773</v>
       </c>
       <c r="K96">
-        <v>4.886454534491203e-5</v>
+        <v>4.886454534491189e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3795,19 +3795,19 @@
         <v>4.8884793601381904e-5</v>
       </c>
       <c r="G97">
-        <v>7.3726886229326976</v>
+        <v>7.372688622932694</v>
       </c>
       <c r="H97">
-        <v>1.6448505242388383e-7</v>
+        <v>1.644850524236927e-7</v>
       </c>
       <c r="I97">
-        <v>0.0003236047891388716</v>
+        <v>0.0003236047891388708</v>
       </c>
       <c r="J97">
-        <v>0.0019909842802325766</v>
+        <v>0.001990984280232577</v>
       </c>
       <c r="K97">
-        <v>4.8884785157245726e-5</v>
+        <v>4.8884785157245624e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3830,19 +3830,19 @@
         <v>4.890570815988637e-5</v>
       </c>
       <c r="G98">
-        <v>7.376459401596644</v>
+        <v>7.376459401596641</v>
       </c>
       <c r="H98">
-        <v>1.3003981739593657e-7</v>
+        <v>1.3003981739578537e-7</v>
       </c>
       <c r="I98">
-        <v>0.0003360373792328258</v>
+        <v>0.00033603737923282507</v>
       </c>
       <c r="J98">
-        <v>0.001992893825380988</v>
+        <v>0.0019928938253809874</v>
       </c>
       <c r="K98">
-        <v>4.890570028640371e-5</v>
+        <v>4.890570028640362e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3865,19 +3865,19 @@
         <v>4.892732194718136e-5</v>
       </c>
       <c r="G99">
-        <v>7.380276760909614</v>
+        <v>7.380276760909612</v>
       </c>
       <c r="H99">
-        <v>9.440604365762217e-8</v>
+        <v>9.440604365751236e-8</v>
       </c>
       <c r="I99">
-        <v>0.00034890214317971657</v>
+        <v>0.0003489021431797159</v>
       </c>
       <c r="J99">
-        <v>0.0019948568066797726</v>
+        <v>0.001994856806679772</v>
       </c>
       <c r="K99">
-        <v>4.892731454016512e-5</v>
+        <v>4.892731454016507e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3900,19 +3900,19 @@
         <v>4.894965954290188e-5</v>
       </c>
       <c r="G100">
-        <v>7.384139655778271</v>
+        <v>7.38413965577827</v>
       </c>
       <c r="H100">
-        <v>5.754007512441822e-8</v>
+        <v>5.7540075124351284e-8</v>
       </c>
       <c r="I100">
-        <v>0.00036221503363795927</v>
+        <v>0.000362215033637959</v>
       </c>
       <c r="J100">
-        <v>0.001996874888531291</v>
+        <v>0.0019968748885312907</v>
       </c>
       <c r="K100">
-        <v>4.8949652500779335e-5</v>
+        <v>4.89496525007793e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3938,16 +3938,16 @@
         <v>7.38804694898689</v>
       </c>
       <c r="H101">
-        <v>1.939674635475023e-8</v>
+        <v>1.9396746354727667e-8</v>
       </c>
       <c r="I101">
-        <v>0.0003759925552202935</v>
+        <v>0.0003759925552202933</v>
       </c>
       <c r="J101">
         <v>0.001998949792558895</v>
       </c>
       <c r="K101">
-        <v>4.897273955325208e-5</v>
+        <v>4.8972739553252064e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.nonuniform_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.nonuniform_analytical.solution.xlsx
@@ -455,34 +455,34 @@
         <v>-0.04889896869814063</v>
       </c>
       <c r="B2">
-        <v>8.13357414358921</v>
+        <v>8.133574143589207</v>
       </c>
       <c r="C2">
         <v>0.0002450169676502838</v>
       </c>
       <c r="D2">
-        <v>-2.529528624327738e-7</v>
+        <v>-2.5295286243278487e-7</v>
       </c>
       <c r="E2">
         <v>0.0019990012986896674</v>
       </c>
       <c r="F2">
-        <v>4.8955883636333254e-5</v>
+        <v>4.895588363633325e-5</v>
       </c>
       <c r="G2">
-        <v>8.133575322549742</v>
+        <v>8.133575322549788</v>
       </c>
       <c r="H2">
-        <v>0.0002450173372811814</v>
+        <v>0.0002450173372811815</v>
       </c>
       <c r="I2">
-        <v>-2.527084404754275e-7</v>
+        <v>-2.527084404753857e-7</v>
       </c>
       <c r="J2">
-        <v>0.0019990013959773614</v>
+        <v>0.001999001395977364</v>
       </c>
       <c r="K2">
-        <v>4.8955886001136696e-5</v>
+        <v>4.8955886001136805e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -490,34 +490,34 @@
         <v>-0.046729248132457935</v>
       </c>
       <c r="B3">
-        <v>8.10013837017066</v>
+        <v>8.100138370170663</v>
       </c>
       <c r="C3">
         <v>0.00023519727610256643</v>
       </c>
       <c r="D3">
-        <v>-7.51104366103839e-7</v>
+        <v>-7.511043661038371e-7</v>
       </c>
       <c r="E3">
-        <v>0.0019970068688779457</v>
+        <v>0.0019970068688779452</v>
       </c>
       <c r="F3">
-        <v>4.890005084505262e-5</v>
+        <v>4.8900050845052624e-5</v>
       </c>
       <c r="G3">
-        <v>8.100142035706664</v>
+        <v>8.100142035706778</v>
       </c>
       <c r="H3">
-        <v>0.00023519837386438262</v>
+        <v>0.00023519837386438297</v>
       </c>
       <c r="I3">
-        <v>-7.503786260257674e-7</v>
+        <v>-7.503786260256443e-7</v>
       </c>
       <c r="J3">
-        <v>0.001997007162525246</v>
+        <v>0.0019970071625252527</v>
       </c>
       <c r="K3">
-        <v>4.8900057807902084e-5</v>
+        <v>4.890005780790233e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -525,34 +525,34 @@
         <v>-0.044622902364851905</v>
       </c>
       <c r="B4">
-        <v>8.06630016745066</v>
+        <v>8.066300167450645</v>
       </c>
       <c r="C4">
         <v>0.0002256644053459053</v>
       </c>
       <c r="D4">
-        <v>-1.2342329467030255e-6</v>
+        <v>-1.234232946703039e-6</v>
       </c>
       <c r="E4">
-        <v>0.0019950333298856663</v>
+        <v>0.0019950333298856624</v>
       </c>
       <c r="F4">
-        <v>4.8846716527065525e-5</v>
+        <v>4.8846716527065253e-5</v>
       </c>
       <c r="G4">
-        <v>8.066306461321654</v>
+        <v>8.066306461321824</v>
       </c>
       <c r="H4">
-        <v>0.00022566620983382617</v>
+        <v>0.00022566620983382668</v>
       </c>
       <c r="I4">
-        <v>-1.2330404569538157e-6</v>
+        <v>-1.2330404569536148e-6</v>
       </c>
       <c r="J4">
-        <v>0.001995033821031834</v>
+        <v>0.001995033821031842</v>
       </c>
       <c r="K4">
-        <v>4.884672782202133e-5</v>
+        <v>4.884672782202169e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -560,34 +560,34 @@
         <v>-0.04257735085834355</v>
       </c>
       <c r="B5">
-        <v>8.032130130014108</v>
+        <v>8.032130130012593</v>
       </c>
       <c r="C5">
         <v>0.00021640667642149544</v>
       </c>
       <c r="D5">
-        <v>-1.7028933753639671e-6</v>
+        <v>-1.7028933753639286e-6</v>
       </c>
       <c r="E5">
-        <v>0.0019930767711759004</v>
+        <v>0.0019930767711754125</v>
       </c>
       <c r="F5">
-        <v>4.879602701734455e-5</v>
+        <v>4.8796027017314294e-5</v>
       </c>
       <c r="G5">
-        <v>8.03213918085127</v>
+        <v>8.032139180851543</v>
       </c>
       <c r="H5">
-        <v>0.000216409167153206</v>
+        <v>0.00021640916715320665</v>
       </c>
       <c r="I5">
-        <v>-1.7012481750195096e-6</v>
+        <v>-1.701248175019235e-6</v>
       </c>
       <c r="J5">
-        <v>0.0019930774619592254</v>
+        <v>0.001993077461959239</v>
       </c>
       <c r="K5">
-        <v>4.87960423336159e-5</v>
+        <v>4.879604233361642e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -595,34 +595,34 @@
         <v>-0.04059008755652645</v>
       </c>
       <c r="B6">
-        <v>7.997718669382678</v>
+        <v>7.997718669339731</v>
       </c>
       <c r="C6">
         <v>0.0002074127474538254</v>
       </c>
       <c r="D6">
-        <v>-2.1576220934949915e-6</v>
+        <v>-2.15762209349423e-6</v>
       </c>
       <c r="E6">
-        <v>0.001991133510376697</v>
+        <v>0.001991133510363418</v>
       </c>
       <c r="F6">
-        <v>4.8748116821811103e-5</v>
+        <v>4.874811682098521e-5</v>
       </c>
       <c r="G6">
-        <v>7.997730584984302</v>
+        <v>7.997730584984691</v>
       </c>
       <c r="H6">
-        <v>0.00020741590478634474</v>
+        <v>0.00020741590478634556</v>
       </c>
       <c r="I6">
-        <v>-2.155537711475222e-6</v>
+        <v>-2.1555377114748785e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019911344038320523</v>
+        <v>0.001991134403832071</v>
       </c>
       <c r="K6">
-        <v>4.874813579996598e-5</v>
+        <v>4.8748135799966685e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -630,34 +630,34 @@
         <v>-0.038658677813334305</v>
       </c>
       <c r="B7">
-        <v>7.963175672528583</v>
+        <v>7.963175671999751</v>
       </c>
       <c r="C7">
         <v>0.00019867159975609676</v>
       </c>
       <c r="D7">
-        <v>-2.598939282098924e-6</v>
+        <v>-2.5989392820885694e-6</v>
       </c>
       <c r="E7">
-        <v>0.0019892002072649092</v>
+        <v>0.001989200207106942</v>
       </c>
       <c r="F7">
-        <v>4.8703101719593256e-5</v>
+        <v>4.870310170975047e-5</v>
       </c>
       <c r="G7">
-        <v>7.963190532074617</v>
+        <v>7.963190532075102</v>
       </c>
       <c r="H7">
-        <v>0.0001986754048311484</v>
+        <v>0.00019867540483114933</v>
       </c>
       <c r="I7">
-        <v>-2.596428757330766e-6</v>
+        <v>-2.5964287573303575e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019892013071934733</v>
+        <v>0.001989201307193497</v>
       </c>
       <c r="K7">
-        <v>4.870312395670791e-5</v>
+        <v>4.870312395670874e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -665,34 +665,34 @@
         <v>-0.03678075541029506</v>
       </c>
       <c r="B8">
-        <v>7.928628518715683</v>
+        <v>7.9286285149868005</v>
       </c>
       <c r="C8">
         <v>0.00019017252433393882</v>
       </c>
       <c r="D8">
-        <v>-3.027351219006839e-6</v>
+        <v>-3.027351218930478e-6</v>
       </c>
       <c r="E8">
-        <v>0.001987273981366548</v>
+        <v>0.0019872739802864474</v>
       </c>
       <c r="F8">
-        <v>4.8661071475573046e-5</v>
+        <v>4.866107140816928e-5</v>
       </c>
       <c r="G8">
-        <v>7.928646363866858</v>
+        <v>7.9286463638674345</v>
       </c>
       <c r="H8">
-        <v>0.0001901769590757401</v>
+        <v>0.00019017695907574107</v>
       </c>
       <c r="I8">
-        <v>-3.0244271105790805e-6</v>
+        <v>-3.024427110578612e-6</v>
       </c>
       <c r="J8">
-        <v>0.001987275291550701</v>
+        <v>0.0019872752915507286</v>
       </c>
       <c r="K8">
-        <v>4.866109649260674e-5</v>
+        <v>4.866109649260766e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -700,34 +700,34 @@
         <v>-0.03495401965761728</v>
       </c>
       <c r="B9">
-        <v>7.894218282239556</v>
+        <v>7.894218264630098</v>
       </c>
       <c r="C9">
         <v>0.00018190510877796878</v>
       </c>
       <c r="D9">
-        <v>-3.44335280314323e-6</v>
+        <v>-3.443352802801342e-6</v>
       </c>
       <c r="E9">
-        <v>0.00198535251960287</v>
+        <v>0.0019853525146377427</v>
       </c>
       <c r="F9">
-        <v>4.862208299387807e-5</v>
+        <v>4.862208268359273e-5</v>
       </c>
       <c r="G9">
-        <v>7.89423910617538</v>
+        <v>7.894239106176041</v>
       </c>
       <c r="H9">
-        <v>0.00018191015598298157</v>
+        <v>0.00018191015598298255</v>
       </c>
       <c r="I9">
-        <v>-3.4400272031259316e-6</v>
+        <v>-3.440027203125406e-6</v>
       </c>
       <c r="J9">
-        <v>0.00198535404215448</v>
+        <v>0.0019853540421545125</v>
       </c>
       <c r="K9">
-        <v>4.86221101559538e-5</v>
+        <v>4.8622110155954795e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -735,34 +735,34 @@
         <v>-0.03317623257555752</v>
       </c>
       <c r="B10">
-        <v>7.860094236594542</v>
+        <v>7.860094175121829</v>
       </c>
       <c r="C10">
         <v>0.00017385922455334337</v>
       </c>
       <c r="D10">
-        <v>-3.847430045712778e-6</v>
+        <v>-3.8474300447529606e-6</v>
       </c>
       <c r="E10">
-        <v>0.0019834341579220683</v>
+        <v>0.001983434140985834</v>
       </c>
       <c r="F10">
-        <v>4.8586154866597463e-5</v>
+        <v>4.858615380663567e-5</v>
       </c>
       <c r="G10">
-        <v>7.8601179699034</v>
+        <v>7.86011796990414</v>
       </c>
       <c r="H10">
-        <v>0.0001738648677049176</v>
+        <v>0.00017386486770491863</v>
       </c>
       <c r="I10">
-        <v>-3.843714590511343e-6</v>
+        <v>-3.8437145905107625e-6</v>
       </c>
       <c r="J10">
-        <v>0.001983435890027258</v>
+        <v>0.001983435890027295</v>
       </c>
       <c r="K10">
-        <v>4.858618321107287e-5</v>
+        <v>4.8586183211073915e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,34 +770,34 @@
         <v>-0.03144521615261516</v>
       </c>
       <c r="B11">
-        <v>7.826407113347923</v>
+        <v>7.8264069437382</v>
       </c>
       <c r="C11">
         <v>0.00016602501474433047</v>
       </c>
       <c r="D11">
-        <v>-4.240062252889056e-6</v>
+        <v>-4.240062251498455e-6</v>
       </c>
       <c r="E11">
-        <v>0.0019815179214590626</v>
+        <v>0.001981517875634232</v>
       </c>
       <c r="F11">
-        <v>4.855326417894224e-5</v>
+        <v>4.8553261305852404e-5</v>
       </c>
       <c r="G11">
-        <v>7.826433609208328</v>
+        <v>7.826433609209141</v>
       </c>
       <c r="H11">
-        <v>0.00016603123803506217</v>
+        <v>0.00016603123803506323</v>
       </c>
       <c r="I11">
-        <v>-4.2359681420775175e-6</v>
+        <v>-4.235968142076888e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019815198513828667</v>
+        <v>0.0019815198513829075</v>
       </c>
       <c r="K11">
-        <v>4.8553292192548003e-5</v>
+        <v>4.8553292192549094e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,34 +805,34 @@
         <v>-0.02975884967719607</v>
       </c>
       <c r="B12">
-        <v>7.793301862806799</v>
+        <v>7.793301474739145</v>
       </c>
       <c r="C12">
         <v>0.0001583928824391198</v>
       </c>
       <c r="D12">
-        <v>-4.621723544335085e-6</v>
+        <v>-4.6217235458260065e-6</v>
       </c>
       <c r="E12">
-        <v>0.001979603512920378</v>
+        <v>0.001979603409766732</v>
       </c>
       <c r="F12">
-        <v>4.852334614306343e-5</v>
+        <v>4.852333966051009e-5</v>
       </c>
       <c r="G12">
-        <v>7.793330889029753</v>
+        <v>7.79333088903063</v>
       </c>
       <c r="H12">
-        <v>0.00015839967064521822</v>
+        <v>0.00015839967064521933</v>
       </c>
       <c r="I12">
-        <v>-4.617261588456275e-6</v>
+        <v>-4.617261588455603e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019796056170686255</v>
+        <v>0.0019796056170686706</v>
       </c>
       <c r="K12">
-        <v>4.85233716049511e-5</v>
+        <v>4.8523371604952216e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -840,34 +840,34 @@
         <v>-0.028115067139475602</v>
       </c>
       <c r="B13">
-        <v>7.760910813491365</v>
+        <v>7.760910050181119</v>
       </c>
       <c r="C13">
         <v>0.00015095348023037497</v>
       </c>
       <c r="D13">
-        <v>-4.9928832183290655e-6</v>
+        <v>-4.992883234835205e-6</v>
       </c>
       <c r="E13">
-        <v>0.001977691248167833</v>
+        <v>0.001977691047996105</v>
       </c>
       <c r="F13">
-        <v>4.849629672432837e-5</v>
+        <v>4.849628410545773e-5</v>
       </c>
       <c r="G13">
-        <v>7.760942057808888</v>
+        <v>7.760942057809822</v>
       </c>
       <c r="H13">
-        <v>0.00015096081866003346</v>
+        <v>0.00015096081866003457</v>
       </c>
       <c r="I13">
-        <v>-4.988063940362796e-6</v>
+        <v>-4.988063940362079e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019776934910634295</v>
+        <v>0.001977693491063478</v>
       </c>
       <c r="K13">
-        <v>4.8496316717090316e-5</v>
+        <v>4.849631671709145e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -875,34 +875,34 @@
         <v>-0.026511854700278226</v>
       </c>
       <c r="B14">
-        <v>7.72934807224485</v>
+        <v>7.729346744909792</v>
       </c>
       <c r="C14">
         <v>0.0001436977018998037</v>
       </c>
       <c r="D14">
-        <v>-5.354004184354135e-6</v>
+        <v>-5.354004245847756e-6</v>
       </c>
       <c r="E14">
-        <v>0.001975781948404394</v>
+        <v>0.001975781604255689</v>
       </c>
       <c r="F14">
-        <v>4.847197797484406e-5</v>
+        <v>4.847195618963448e-5</v>
       </c>
       <c r="G14">
-        <v>7.729381164056638</v>
+        <v>7.729381164057621</v>
       </c>
       <c r="H14">
-        <v>0.0001437055758535094</v>
+        <v>0.0001437055758535105</v>
       </c>
       <c r="I14">
-        <v>-5.34883804581191e-6</v>
+        <v>-5.348838045811157e-6</v>
       </c>
       <c r="J14">
-        <v>0.001975784286381531</v>
+        <v>0.001975784286381583</v>
       </c>
       <c r="K14">
-        <v>4.847198912002625e-5</v>
+        <v>4.84719891200274e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,34 +910,34 @@
         <v>-0.024947248223872683</v>
       </c>
       <c r="B15">
-        <v>7.6987057592062875</v>
+        <v>7.6987036727151725</v>
       </c>
       <c r="C15">
         <v>0.0001366166784375094</v>
       </c>
       <c r="D15">
-        <v>-5.705538087493716e-6</v>
+        <v>-5.70553825263329e-6</v>
       </c>
       <c r="E15">
-        <v>0.0019738768062077397</v>
+        <v>0.00197387627053191</v>
       </c>
       <c r="F15">
-        <v>4.8450225384589185e-5</v>
+        <v>4.845019129316937e-5</v>
       </c>
       <c r="G15">
-        <v>7.698740301557479</v>
+        <v>7.698740301558504</v>
       </c>
       <c r="H15">
-        <v>0.0001366250727488701</v>
+        <v>0.00013662507274887122</v>
       </c>
       <c r="I15">
-        <v>-5.700035930538917e-6</v>
+        <v>-5.7000359305381295e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019738791937567637</v>
+        <v>0.001973879193756819</v>
       </c>
       <c r="K15">
-        <v>4.845022424061021e-5</v>
+        <v>4.845022424061134e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -945,34 +945,34 @@
         <v>-0.023419330871660086</v>
       </c>
       <c r="B16">
-        <v>7.669052316918825</v>
+        <v>7.669049298077523</v>
       </c>
       <c r="C16">
         <v>0.00012970178230923006</v>
       </c>
       <c r="D16">
-        <v>-6.047914691310219e-6</v>
+        <v>-6.047915057272289e-6</v>
       </c>
       <c r="E16">
-        <v>0.0019719772458281454</v>
+        <v>0.001971976477737754</v>
       </c>
       <c r="F16">
-        <v>4.8430856299800106e-5</v>
+        <v>4.8430807085982744e-5</v>
       </c>
       <c r="G16">
-        <v>7.66908791859166</v>
+        <v>7.66908791859272</v>
       </c>
       <c r="H16">
-        <v>0.00012971068004944273</v>
+        <v>0.00012971068004944384</v>
       </c>
       <c r="I16">
-        <v>-6.0420885407777826e-6</v>
+        <v>-6.042088540776965e-6</v>
       </c>
       <c r="J16">
-        <v>0.001971979642383632</v>
+        <v>0.001971979642383691</v>
       </c>
       <c r="K16">
-        <v>4.8430839794541317e-5</v>
+        <v>4.843083979454244e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -980,34 +980,34 @@
         <v>-0.021926230753806925</v>
       </c>
       <c r="B17">
-        <v>7.640432786181</v>
+        <v>7.640428706162137</v>
       </c>
       <c r="C17">
         <v>0.00012294464642166538</v>
       </c>
       <c r="D17">
-        <v>-6.381521487263715e-6</v>
+        <v>-6.381522195584641e-6</v>
       </c>
       <c r="E17">
-        <v>0.001970084797059083</v>
+        <v>0.0019700837680736044</v>
       </c>
       <c r="F17">
-        <v>4.841367841307386e-5</v>
+        <v>4.8413611934728976e-5</v>
       </c>
       <c r="G17">
-        <v>7.6404690838092035</v>
+        <v>7.640469083810293</v>
       </c>
       <c r="H17">
-        <v>0.00012295402672777233</v>
+        <v>0.00012295402672777338</v>
       </c>
       <c r="I17">
-        <v>-6.375385899162527e-6</v>
+        <v>-6.375385899161682e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019700871719568486</v>
+        <v>0.0019700871719569115</v>
       </c>
       <c r="K17">
-        <v>4.8413644184421604e-5</v>
+        <v>4.841364418442272e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,34 +1015,34 @@
         <v>-0.020466118635945926</v>
       </c>
       <c r="B18">
-        <v>7.612870694957437</v>
+        <v>7.612865481085047</v>
       </c>
       <c r="C18">
         <v>0.00011633720740498593</v>
       </c>
       <c r="D18">
-        <v>-6.706667454062467e-6</v>
+        <v>-6.7066686906622275e-6</v>
       </c>
       <c r="E18">
-        <v>0.0019682009984890963</v>
+        <v>0.0019681996955695997</v>
       </c>
       <c r="F18">
-        <v>4.8398497494933656e-5</v>
+        <v>4.839841247992648e-5</v>
       </c>
       <c r="G18">
-        <v>7.612907358461776</v>
+        <v>7.61290735846289</v>
       </c>
       <c r="H18">
-        <v>0.00011634704247168413</v>
+        <v>0.00011634704247168512</v>
       </c>
       <c r="I18">
-        <v>-6.700241587336889e-6</v>
+        <v>-6.700241587336019e-6</v>
       </c>
       <c r="J18">
-        <v>0.001968203332772407</v>
+        <v>0.0019682033327724736</v>
       </c>
       <c r="K18">
-        <v>4.8398444077897826e-5</v>
+        <v>4.839844407789892e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1050,34 +1050,34 @@
         <v>-0.019037205698135204</v>
       </c>
       <c r="B19">
-        <v>7.58637109695426</v>
+        <v>7.58636473352594</v>
       </c>
       <c r="C19">
         <v>0.00010987178610915522</v>
       </c>
       <c r="D19">
-        <v>-7.023522757978182e-6</v>
+        <v>-7.023524747266364e-6</v>
       </c>
       <c r="E19">
-        <v>0.00196632734196938</v>
+        <v>0.0019663257677192923</v>
       </c>
       <c r="F19">
-        <v>4.838512383127991e-5</v>
+        <v>4.8385019910310906e-5</v>
       </c>
       <c r="G19">
-        <v>7.586407817449084</v>
+        <v>7.586407817450218</v>
       </c>
       <c r="H19">
-        <v>0.0001098820365389879</v>
+        <v>0.00010988203653898886</v>
       </c>
       <c r="I19">
-        <v>-7.016833338199031e-6</v>
+        <v>-7.016833338198137e-6</v>
       </c>
       <c r="J19">
-        <v>0.00196632962684083</v>
+        <v>0.001966329626840901</v>
       </c>
       <c r="K19">
-        <v>4.8385050677790894e-5</v>
+        <v>4.838505067779198e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1085,34 +1085,34 @@
         <v>-0.01763774134333008</v>
       </c>
       <c r="B20">
-        <v>7.560924305486266</v>
+        <v>7.560916826382249</v>
       </c>
       <c r="C20">
         <v>0.00010354122062736035</v>
       </c>
       <c r="D20">
-        <v>-7.332024618669927e-6</v>
+        <v>-7.3320276130930935e-6</v>
       </c>
       <c r="E20">
-        <v>0.0019644652667329147</v>
+        <v>0.001964463437406933</v>
       </c>
       <c r="F20">
-        <v>4.8373377146991364e-5</v>
+        <v>4.837325475894406e-5</v>
       </c>
       <c r="G20">
-        <v>7.5609607695484105</v>
+        <v>7.560960769549561</v>
       </c>
       <c r="H20">
-        <v>0.0001035518295402581</v>
+        <v>0.00010355182954025905</v>
       </c>
       <c r="I20">
-        <v>-7.325109802011944e-6</v>
+        <v>-7.325109802011028e-6</v>
       </c>
       <c r="J20">
-        <v>0.00196446749909842</v>
+        <v>0.0019644674990984957</v>
       </c>
       <c r="K20">
-        <v>4.8373284514502404e-5</v>
+        <v>4.837328451450346e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1120,34 +1120,34 @@
         <v>-0.016266011052682848</v>
       </c>
       <c r="B21">
-        <v>7.536509948204814</v>
+        <v>7.536501425095122</v>
       </c>
       <c r="C21">
         <v>9.733906738936686e-5</v>
       </c>
       <c r="D21">
-        <v>-7.63173944265988e-6</v>
+        <v>-7.631743709734346e-6</v>
       </c>
       <c r="E21">
-        <v>0.001962616208816849</v>
+        <v>0.0019626141510816113</v>
       </c>
       <c r="F21">
-        <v>4.8363090049342424e-5</v>
+        <v>4.8362950272157596e-5</v>
       </c>
       <c r="G21">
-        <v>7.536545803590867</v>
+        <v>7.53654580359203</v>
       </c>
       <c r="H21">
-        <v>9.734995326201363e-5</v>
+        <v>9.734995326201456e-5</v>
       </c>
       <c r="I21">
-        <v>-7.624653406491551e-6</v>
+        <v>-7.624653406490612e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019626183850086822</v>
+        <v>0.001962618385008762</v>
       </c>
       <c r="K21">
-        <v>4.8362978819376865e-5</v>
+        <v>4.8362978819377915e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1155,34 +1155,34 @@
         <v>-0.014920334285042733</v>
       </c>
       <c r="B22">
-        <v>7.513101068211093</v>
+        <v>7.5130915977361</v>
       </c>
       <c r="C22">
         <v>9.125988251179827e-5</v>
       </c>
       <c r="D22">
-        <v>-7.921673557309937e-6</v>
+        <v>-7.921679366060758e-6</v>
       </c>
       <c r="E22">
-        <v>0.0019607817086142155</v>
+        <v>0.001960779455937476</v>
       </c>
       <c r="F22">
-        <v>4.835411017956591e-5</v>
+        <v>4.8353954536138854e-5</v>
       </c>
       <c r="G22">
-        <v>7.513135888325812</v>
+        <v>7.513135888326986</v>
       </c>
       <c r="H22">
-        <v>9.127093164551425e-5</v>
+        <v>9.127093164551517e-5</v>
       </c>
       <c r="I22">
-        <v>-7.914491378880796e-6</v>
+        <v>-7.914491378879837e-6</v>
       </c>
       <c r="J22">
-        <v>0.0019607838174000667</v>
+        <v>0.0019607838174001504</v>
       </c>
       <c r="K22">
-        <v>4.835398165186481e-5</v>
+        <v>4.835398165186585e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1190,34 +1190,34 @@
         <v>-0.013599062418082824</v>
       </c>
       <c r="B23">
-        <v>7.490668080365802</v>
+        <v>7.490657772557749</v>
       </c>
       <c r="C23">
         <v>8.52995876244567e-5</v>
       </c>
       <c r="D23">
-        <v>-8.200030110685763e-6</v>
+        <v>-8.200037718757438e-6</v>
       </c>
       <c r="E23">
-        <v>0.0019589635756370794</v>
+        <v>0.0019589611649297248</v>
       </c>
       <c r="F23">
-        <v>4.8346301321488534e-5</v>
+        <v>4.8346131596149255e-5</v>
       </c>
       <c r="G23">
-        <v>7.490701334282188</v>
+        <v>7.49070133428337</v>
       </c>
       <c r="H23">
-        <v>8.531064725236922e-5</v>
+        <v>8.531064725237014e-5</v>
       </c>
       <c r="I23">
-        <v>-8.192852189965784e-6</v>
+        <v>-8.192852189964807e-6</v>
       </c>
       <c r="J23">
-        <v>0.001958965591570009</v>
+        <v>0.0019589655915700976</v>
       </c>
       <c r="K23">
-        <v>4.834615702506604e-5</v>
+        <v>4.834615702506706e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1225,34 +1225,34 @@
         <v>-0.012300576728531541</v>
       </c>
       <c r="B24">
-        <v>7.469182441385801</v>
+        <v>7.469171410457827</v>
       </c>
       <c r="C24">
         <v>7.945591163798943e-5</v>
       </c>
       <c r="D24">
-        <v>-8.463918015734567e-6</v>
+        <v>-8.463927657604099e-6</v>
       </c>
       <c r="E24">
-        <v>0.0019571641042602722</v>
+        <v>0.001957161573111479</v>
       </c>
       <c r="F24">
-        <v>4.8339543709474354e-5</v>
+        <v>4.833936179490946e-5</v>
       </c>
       <c r="G24">
-        <v>7.469213476146782</v>
+        <v>7.469213476147972</v>
       </c>
       <c r="H24">
-        <v>7.946678513084185e-5</v>
+        <v>7.946678513084275e-5</v>
       </c>
       <c r="I24">
-        <v>-8.456873093602695e-6</v>
+        <v>-8.4568730936017e-6</v>
       </c>
       <c r="J24">
-        <v>0.001957165982352102</v>
+        <v>0.0019571659823521942</v>
       </c>
       <c r="K24">
-        <v>4.83393852502599e-5</v>
+        <v>4.8339385250260904e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,34 +1260,34 @@
         <v>-0.011023286409034213</v>
       </c>
       <c r="B25">
-        <v>7.448619909144175</v>
+        <v>7.44860826691471</v>
       </c>
       <c r="C25">
         <v>7.372888340807497e-5</v>
       </c>
       <c r="D25">
-        <v>-8.70902950006948e-6</v>
+        <v>-8.709041376062064e-6</v>
       </c>
       <c r="E25">
-        <v>0.001955386327233481</v>
+        <v>0.0019553837118497595</v>
       </c>
       <c r="F25">
-        <v>4.83337337355387e-5</v>
+        <v>4.833354151728978e-5</v>
       </c>
       <c r="G25">
-        <v>7.448647949405034</v>
+        <v>7.448647949406229</v>
       </c>
       <c r="H25">
-        <v>7.373932920266412e-5</v>
+        <v>7.373932920266496e-5</v>
       </c>
       <c r="I25">
-        <v>-8.70227522243227e-6</v>
+        <v>-8.702275222431256e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019553879998276246</v>
+        <v>0.001955387999827721</v>
       </c>
       <c r="K25">
-        <v>4.833356268999592e-5</v>
+        <v>4.833356268999692e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1295,34 +1295,34 @@
         <v>-0.009765626619215123</v>
       </c>
       <c r="B26">
-        <v>7.428963262334231</v>
+        <v>7.428951114042946</v>
       </c>
       <c r="C26">
         <v>6.812133228266888e-5</v>
       </c>
       <c r="D26">
-        <v>-8.929314345864755e-6</v>
+        <v>-8.92932861120224e-6</v>
       </c>
       <c r="E26">
-        <v>0.0019536342856957493</v>
+        <v>0.001953631619506667</v>
       </c>
       <c r="F26">
-        <v>4.8328783203673596e-5</v>
+        <v>4.8328582481052536e-5</v>
       </c>
       <c r="G26">
-        <v>7.4289874309988475</v>
+        <v>7.428987431000048</v>
       </c>
       <c r="H26">
-        <v>6.813106811247555e-5</v>
+        <v>6.813106811247634e-5</v>
       </c>
       <c r="I26">
-        <v>-8.923034425488367e-6</v>
+        <v>-8.923034425487338e-6</v>
       </c>
       <c r="J26">
-        <v>0.001953635662223099</v>
+        <v>0.001953635662223199</v>
       </c>
       <c r="K26">
-        <v>4.832860105463656e-5</v>
+        <v>4.832860105463754e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1330,34 +1330,34 @@
         <v>-0.008526056568552345</v>
       </c>
       <c r="B27">
-        <v>7.410204342874971</v>
+        <v>7.410191784918882</v>
       </c>
       <c r="C27">
         <v>6.263933736158594e-5</v>
       </c>
       <c r="D27">
-        <v>-9.11668912651831e-6</v>
+        <v>-9.116705879470646e-6</v>
       </c>
       <c r="E27">
-        <v>0.0019519132865370241</v>
+        <v>0.0019519105993563992</v>
       </c>
       <c r="F27">
-        <v>4.832461823521844e-5</v>
+        <v>4.8324410673179863e-5</v>
       </c>
       <c r="G27">
-        <v>7.41022370353363</v>
+        <v>7.410223703534837</v>
       </c>
       <c r="H27">
-        <v>6.264805057951653e-5</v>
+        <v>6.264805057951725e-5</v>
       </c>
       <c r="I27">
-        <v>-9.111086458837038e-6</v>
+        <v>-9.111086458835992e-6</v>
       </c>
       <c r="J27">
-        <v>0.001951914256689243</v>
+        <v>0.0019519142566893472</v>
       </c>
       <c r="K27">
-        <v>4.8324426346305936e-5</v>
+        <v>4.8324426346306905e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1365,34 +1365,34 @@
         <v>-0.00730305762871666</v>
       </c>
       <c r="B28">
-        <v>7.392345285703967</v>
+        <v>7.392332404779484</v>
       </c>
       <c r="C28">
         <v>5.729255557643234e-5</v>
       </c>
       <c r="D28">
-        <v>-9.260826328706057e-6</v>
+        <v>-9.260845597049128e-6</v>
       </c>
       <c r="E28">
-        <v>0.0019502301118695929</v>
+        <v>0.001950227429479699</v>
       </c>
       <c r="F28">
-        <v>4.8321177900491315e-5</v>
+        <v>4.8320965005546946e-5</v>
       </c>
       <c r="G28">
-        <v>7.392358905203945</v>
+        <v>7.392358905205158</v>
       </c>
       <c r="H28">
-        <v>5.7299920024607674e-5</v>
+        <v>5.729992002460834e-5</v>
       </c>
       <c r="I28">
-        <v>-9.256111924496959e-6</v>
+        <v>-9.256111924495899e-6</v>
       </c>
       <c r="J28">
-        <v>0.0019502305522079426</v>
+        <v>0.001950230552208051</v>
       </c>
       <c r="K28">
-        <v>4.832097751938774e-5</v>
+        <v>4.832097751938869e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1400,34 +1400,34 @@
         <v>-0.006095131473061968</v>
       </c>
       <c r="B29">
-        <v>7.375398824511676</v>
+        <v>7.375385697702583</v>
       </c>
       <c r="C29">
         <v>5.2094356601681106e-5</v>
       </c>
       <c r="D29">
-        <v>-9.349069175257663e-6</v>
+        <v>-9.349090900620674e-6</v>
       </c>
       <c r="E29">
-        <v>0.0019485931427967989</v>
+        <v>0.0019485904868328271</v>
       </c>
       <c r="F29">
-        <v>4.8318412639587234e-5</v>
+        <v>4.83181957530721e-5</v>
       </c>
       <c r="G29">
-        <v>7.375405850045815</v>
+        <v>7.375405850047033</v>
       </c>
       <c r="H29">
-        <v>5.2100055448611535e-5</v>
+        <v>5.210005544861215e-5</v>
       </c>
       <c r="I29">
-        <v>-9.345447398617258e-6</v>
+        <v>-9.345447398616172e-6</v>
       </c>
       <c r="J29">
-        <v>0.0019485929266229722</v>
+        <v>0.001948592926623084</v>
       </c>
       <c r="K29">
-        <v>4.8318204917111193e-5</v>
+        <v>4.831820491711212e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1435,34 +1435,34 @@
         <v>-0.0049007982409877415</v>
       </c>
       <c r="B30">
-        <v>7.359387611035663</v>
+        <v>7.359374306478521</v>
       </c>
       <c r="C30">
         <v>4.706170112540973e-5</v>
       </c>
       <c r="D30">
-        <v>-9.366512037246441e-6</v>
+        <v>-9.3665360575084e-6</v>
       </c>
       <c r="E30">
-        <v>0.0019470123619651457</v>
+        <v>0.00194700975000084</v>
       </c>
       <c r="F30">
-        <v>4.831628253517395e-5</v>
+        <v>4.831606283818292e-5</v>
       </c>
       <c r="G30">
-        <v>7.359387354378963</v>
+        <v>7.359387354380188</v>
       </c>
       <c r="H30">
-        <v>4.706545354435266e-5</v>
+        <v>4.7065453544353235e-5</v>
       </c>
       <c r="I30">
-        <v>-9.364163261759415e-6</v>
+        <v>-9.364163261758307e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019470113716499508</v>
+        <v>0.0019470113716500664</v>
       </c>
       <c r="K30">
-        <v>4.831606855488391e-5</v>
+        <v>4.83160685548848e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1470,34 +1470,34 @@
         <v>-0.003718594724924723</v>
       </c>
       <c r="B31">
-        <v>7.344342556085672</v>
+        <v>7.344329133937909</v>
       </c>
       <c r="C31">
         <v>4.221471840159398e-5</v>
       </c>
       <c r="D31">
-        <v>-9.296273491918073e-6</v>
+        <v>-9.296299522542027e-6</v>
       </c>
       <c r="E31">
-        <v>0.001945499207256567</v>
+        <v>0.0019454966530185168</v>
       </c>
       <c r="F31">
-        <v>4.831475550593245e-5</v>
+        <v>4.831453403146398e-5</v>
       </c>
       <c r="G31">
-        <v>7.344334576019145</v>
+        <v>7.344334576020376</v>
       </c>
       <c r="H31">
-        <v>4.221630801152268e-5</v>
+        <v>4.221630801152323e-5</v>
       </c>
       <c r="I31">
-        <v>-9.295335837850918e-6</v>
+        <v>-9.295335837849778e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019454973478109502</v>
+        <v>0.0019454973478110701</v>
       </c>
       <c r="K31">
-        <v>4.831453631615341e-5</v>
+        <v>4.831453631615426e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1505,34 +1505,34 @@
         <v>-0.002547072577722697</v>
       </c>
       <c r="B32">
-        <v>7.33030028323662</v>
+        <v>7.330286796753259</v>
       </c>
       <c r="C32">
         <v>3.757596762926318e-5</v>
       </c>
       <c r="D32">
-        <v>-9.119970530086997e-6</v>
+        <v>-9.119998146107097e-6</v>
       </c>
       <c r="E32">
-        <v>0.0019440662622215658</v>
+        <v>0.0019440637758832073</v>
       </c>
       <c r="F32">
-        <v>4.8313805494678366e-5</v>
+        <v>4.831358314364582e-5</v>
       </c>
       <c r="G32">
-        <v>7.330284455858266</v>
+        <v>7.330284455859505</v>
       </c>
       <c r="H32">
-        <v>3.757526911920184e-5</v>
+        <v>3.7575269119202365e-5</v>
       </c>
       <c r="I32">
-        <v>-9.120522684989436e-6</v>
+        <v>-9.12052268498826e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019440634747248263</v>
+        <v>0.00194406347472495</v>
       </c>
       <c r="K32">
-        <v>4.831358213485416e-5</v>
+        <v>4.831358213485498e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1540,34 +1540,34 @@
         <v>-0.001384796538244068</v>
       </c>
       <c r="B33">
-        <v>7.317299868908055</v>
+        <v>7.317286365496365</v>
       </c>
       <c r="C33">
         <v>3.316940221803574e-5</v>
       </c>
       <c r="D33">
-        <v>-8.818380386115922e-6</v>
+        <v>-8.818409007328859e-6</v>
       </c>
       <c r="E33">
-        <v>0.001942726786302685</v>
+        <v>0.0019427243748271112</v>
       </c>
       <c r="F33">
-        <v>4.831341072559045e-5</v>
+        <v>4.831318828427399e-5</v>
       </c>
       <c r="G33">
-        <v>7.317276437159605</v>
+        <v>7.317276437160852</v>
       </c>
       <c r="H33">
-        <v>3.316640351172419e-5</v>
+        <v>3.31664035117247e-5</v>
       </c>
       <c r="I33">
-        <v>-8.820427593408144e-6</v>
+        <v>-8.82042759340692e-6</v>
       </c>
       <c r="J33">
-        <v>0.0019427230595528762</v>
+        <v>0.0019427230595530046</v>
       </c>
       <c r="K33">
-        <v>4.831318424704049e-5</v>
+        <v>4.8313184247041265e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1575,34 +1575,34 @@
         <v>-0.00023034267298949543</v>
       </c>
       <c r="B34">
-        <v>7.305379113184787</v>
+        <v>7.305365635353582</v>
       </c>
       <c r="C34">
         <v>2.901909190974515e-5</v>
       </c>
       <c r="D34">
-        <v>-8.372253875610515e-6</v>
+        <v>-8.372282758209993e-6</v>
       </c>
       <c r="E34">
-        <v>0.0019414941075086747</v>
+        <v>0.0019414917750216808</v>
       </c>
       <c r="F34">
-        <v>4.8313552098437e-5</v>
+        <v>4.831333025564672e-5</v>
       </c>
       <c r="G34">
-        <v>7.30534870951408</v>
+        <v>7.305348709515335</v>
       </c>
       <c r="H34">
-        <v>2.9013908313809825e-5</v>
+        <v>2.9013908313810324e-5</v>
       </c>
       <c r="I34">
-        <v>-8.375718961163262e-6</v>
+        <v>-8.37571896116198e-6</v>
       </c>
       <c r="J34">
-        <v>0.0019414894860820856</v>
+        <v>0.001941489486082219</v>
       </c>
       <c r="K34">
-        <v>4.831332357466414e-5</v>
+        <v>4.831332357466488e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1610,34 +1610,34 @@
         <v>0.0009177033683987063</v>
       </c>
       <c r="B35">
-        <v>7.29457063455313</v>
+        <v>7.294557220708654</v>
       </c>
       <c r="C35">
         <v>2.5147790115978112e-5</v>
       </c>
       <c r="D35">
-        <v>-7.763224079898659e-6</v>
+        <v>-7.763252318093851e-6</v>
       </c>
       <c r="E35">
-        <v>0.0019403809193153918</v>
+        <v>0.00194037866749745</v>
       </c>
       <c r="F35">
-        <v>4.831421177493763e-5</v>
+        <v>4.8313991137688784e-5</v>
       </c>
       <c r="G35">
-        <v>7.294534272270874</v>
+        <v>7.294534272272138</v>
       </c>
       <c r="H35">
-        <v>2.514066853142819e-5</v>
+        <v>2.514066853142868e-5</v>
       </c>
       <c r="I35">
-        <v>-7.767944932789733e-6</v>
+        <v>-7.76794493278838e-6</v>
       </c>
       <c r="J35">
-        <v>0.0019403755070803743</v>
+        <v>0.0019403755070805122</v>
       </c>
       <c r="K35">
-        <v>4.831398230181611e-5</v>
+        <v>4.8313982301816795e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1645,34 +1645,34 @@
         <v>0.0020607480858926483</v>
       </c>
       <c r="B36">
-        <v>7.284898102963271</v>
+        <v>7.284884788030078</v>
       </c>
       <c r="C36">
         <v>2.1575458140936757e-5</v>
       </c>
       <c r="D36">
-        <v>-6.974739491848046e-6</v>
+        <v>-6.9747660326479295e-6</v>
       </c>
       <c r="E36">
-        <v>0.0019393985393107251</v>
+        <v>0.0019393963677999675</v>
       </c>
       <c r="F36">
-        <v>4.8315371995984364e-5</v>
+        <v>4.831515310290752e-5</v>
       </c>
       <c r="G36">
-        <v>7.284857135929343</v>
+        <v>7.284857135930615</v>
       </c>
       <c r="H36">
-        <v>2.1566770087548603e-5</v>
+        <v>2.156677008754909e-5</v>
       </c>
       <c r="I36">
-        <v>-6.980473730468054e-6</v>
+        <v>-6.980473730466616e-6</v>
       </c>
       <c r="J36">
-        <v>0.0019393924973864992</v>
+        <v>0.0019393924973866415</v>
       </c>
       <c r="K36">
-        <v>4.8315142683707874e-5</v>
+        <v>4.83151426837085e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1680,34 +1680,34 @@
         <v>0.0032001918522172254</v>
       </c>
       <c r="B37">
-        <v>7.276372917669644</v>
+        <v>7.2763597335352035</v>
       </c>
       <c r="C37">
         <v>1.831787066340181e-5</v>
       </c>
       <c r="D37">
-        <v>-5.9929433876629276e-6</v>
+        <v>-5.9929670607790336e-6</v>
       </c>
       <c r="E37">
-        <v>0.0019385561968406767</v>
+        <v>0.0019385541036394949</v>
       </c>
       <c r="F37">
-        <v>4.831701415161405e-5</v>
+        <v>4.831679748368218e-5</v>
       </c>
       <c r="G37">
-        <v>7.276328971098849</v>
+        <v>7.2763289711001296</v>
       </c>
       <c r="H37">
-        <v>1.830809407036639e-5</v>
+        <v>1.8308094070366878e-5</v>
       </c>
       <c r="I37">
-        <v>-5.999380145826941e-6</v>
+        <v>-5.999380145825398e-6</v>
       </c>
       <c r="J37">
-        <v>0.0019385497359596026</v>
+        <v>0.0019385497359597488</v>
       </c>
       <c r="K37">
-        <v>4.831678610709331e-5</v>
+        <v>4.831678610709386e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1715,34 +1715,34 @@
         <v>0.004337430628481818</v>
       </c>
       <c r="B38">
-        <v>7.268991601043169</v>
+        <v>7.268978576840245</v>
       </c>
       <c r="C38">
         <v>1.538542594581264e-5</v>
       </c>
       <c r="D38">
-        <v>-4.8074222843617905e-6</v>
+        <v>-4.807441847079795e-6</v>
       </c>
       <c r="E38">
-        <v>0.0019378604187530867</v>
+        <v>0.001937858400629787</v>
       </c>
       <c r="F38">
-        <v>4.831911811114281e-5</v>
+        <v>4.831890409961596e-5</v>
       </c>
       <c r="G38">
-        <v>7.268946478960987</v>
+        <v>7.268946478962276</v>
       </c>
       <c r="H38">
-        <v>1.537511722144341e-5</v>
+        <v>1.5375117221443894e-5</v>
       </c>
       <c r="I38">
-        <v>-4.8142002596471745e-6</v>
+        <v>-4.81420025964551e-6</v>
       </c>
       <c r="J38">
-        <v>0.001937853786565565</v>
+        <v>0.001937853786565715</v>
       </c>
       <c r="K38">
-        <v>4.831889241623657e-5</v>
+        <v>4.831889241623705e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1750,34 +1750,34 @@
         <v>0.0054738576744072405</v>
       </c>
       <c r="B39">
-        <v>7.262734121304975</v>
+        <v>7.262721283557315</v>
       </c>
       <c r="C39">
         <v>1.2782269476574575e-5</v>
       </c>
       <c r="D39">
-        <v>-3.411755880752112e-6</v>
+        <v>-3.4117700749607536e-6</v>
       </c>
       <c r="E39">
-        <v>0.001937314575489769</v>
+        <v>0.0019373126283647574</v>
       </c>
       <c r="F39">
-        <v>4.832166181025402e-5</v>
+        <v>4.832145084202095e-5</v>
       </c>
       <c r="G39">
-        <v>7.262689698694386</v>
+        <v>7.262689698695683</v>
       </c>
       <c r="H39">
-        <v>1.277202805742133e-5</v>
+        <v>1.277202805742181e-5</v>
       </c>
       <c r="I39">
-        <v>-3.4184861359962113e-6</v>
+        <v>-3.418486135994407e-6</v>
       </c>
       <c r="J39">
-        <v>0.001937308039940605</v>
+        <v>0.001937308039940758</v>
       </c>
       <c r="K39">
-        <v>4.832143949520435e-5</v>
+        <v>4.832143949520476e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1785,34 +1785,34 @@
         <v>0.006610865255243126</v>
       </c>
       <c r="B40">
-        <v>7.257563281577396</v>
+        <v>7.257550654241503</v>
       </c>
       <c r="C40">
         <v>1.0505812637309046e-5</v>
       </c>
       <c r="D40">
-        <v>-1.8038178450748722e-6</v>
+        <v>-1.803825461029544e-6</v>
       </c>
       <c r="E40">
-        <v>0.0019369186347863339</v>
+        <v>0.0019369167540906971</v>
       </c>
       <c r="F40">
-        <v>4.832462108505811e-5</v>
+        <v>4.8324413505779754e-5</v>
       </c>
       <c r="G40">
-        <v>7.257521390297174</v>
+        <v>7.257521390298477</v>
       </c>
       <c r="H40">
-        <v>1.0496241439325371e-5</v>
+        <v>1.0496241439325844e-5</v>
       </c>
       <c r="I40">
-        <v>-1.8101091583286516e-6</v>
+        <v>-1.8101091583266862e-6</v>
       </c>
       <c r="J40">
-        <v>0.0019369124653975892</v>
+        <v>0.0019369124653977445</v>
       </c>
       <c r="K40">
-        <v>4.8324403100652894e-5</v>
+        <v>4.8324403100653246e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1820,34 +1820,34 @@
         <v>0.007749846347466959</v>
       </c>
       <c r="B41">
-        <v>7.253425226107005</v>
+        <v>7.253412830546522</v>
       </c>
       <c r="C41">
         <v>8.546691545968992e-6</v>
       </c>
       <c r="D41">
-        <v>1.4200656101025599e-8</v>
+        <v>1.4200716513346433e-8</v>
       </c>
       <c r="E41">
-        <v>0.0019366691489394708</v>
+        <v>0.0019366673299333077</v>
       </c>
       <c r="F41">
-        <v>4.832796973890436e-5</v>
+        <v>4.832776585451803e-5</v>
       </c>
       <c r="G41">
-        <v>7.25338754470145</v>
+        <v>7.253387544702759</v>
       </c>
       <c r="H41">
-        <v>8.538357132797134e-6</v>
+        <v>8.5383571327976e-6</v>
       </c>
       <c r="I41">
-        <v>8.716171073912777e-9</v>
+        <v>8.71617107605872e-9</v>
       </c>
       <c r="J41">
-        <v>0.0019366635978510514</v>
+        <v>0.001936663597851209</v>
       </c>
       <c r="K41">
-        <v>4.832775692979341e-5</v>
+        <v>4.83277569297937e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1855,34 +1855,34 @@
         <v>0.008892196345354493</v>
       </c>
       <c r="B42">
-        <v>7.250251023649259</v>
+        <v>7.2502388785788145</v>
       </c>
       <c r="C42">
         <v>6.8891696116903005e-6</v>
       </c>
       <c r="D42">
-        <v>2.036047164324078e-6</v>
+        <v>2.0360558324625034e-6</v>
       </c>
       <c r="E42">
-        <v>0.0019365594768581847</v>
+        <v>0.0019365577148973733</v>
       </c>
       <c r="F42">
-        <v>4.8331679824001186e-5</v>
+        <v>4.8331479901216593e-5</v>
       </c>
       <c r="G42">
-        <v>7.250218980602127</v>
+        <v>7.25021898060344</v>
       </c>
       <c r="H42">
-        <v>6.8825658522694075e-6</v>
+        <v>6.882565852269868e-6</v>
       </c>
       <c r="I42">
-        <v>2.0316906953440993e-6</v>
+        <v>2.0316906953464447e-6</v>
       </c>
       <c r="J42">
-        <v>0.0019365547616150382</v>
+        <v>0.001936554761615198</v>
       </c>
       <c r="K42">
-        <v>4.8331472905447334e-5</v>
+        <v>4.833147290544758e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1890,34 +1890,34 @@
         <v>0.010039314770512228</v>
       </c>
       <c r="B43">
-        <v>7.247959199794499</v>
+        <v>7.247947321226962</v>
       </c>
       <c r="C43">
         <v>5.51194531618884e-6</v>
       </c>
       <c r="D43">
-        <v>4.251920422137403e-6</v>
+        <v>4.251938422073548e-6</v>
       </c>
       <c r="E43">
-        <v>0.001936580217347632</v>
+        <v>0.0019365785080908912</v>
       </c>
       <c r="F43">
-        <v>4.833572211472135e-5</v>
+        <v>4.833552638112789e-5</v>
       </c>
       <c r="G43">
-        <v>7.2479338983072825</v>
+        <v>7.247933898308598</v>
       </c>
       <c r="H43">
-        <v>5.507463928924687e-6</v>
+        <v>5.507463928925145e-6</v>
       </c>
       <c r="I43">
-        <v>4.248947427784378e-6</v>
+        <v>4.248947427786937e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019365765072447282</v>
+        <v>0.001936576507244889</v>
       </c>
       <c r="K43">
-        <v>4.8335521654526654e-5</v>
+        <v>4.833552165452685e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1925,34 +1925,34 @@
         <v>0.011192606986466382</v>
       </c>
       <c r="B44">
-        <v>7.24645901176193</v>
+        <v>7.246447412987544</v>
       </c>
       <c r="C44">
         <v>4.389289125768824e-6</v>
       </c>
       <c r="D44">
-        <v>6.64919232149584e-6</v>
+        <v>6.6492201480031514e-6</v>
       </c>
       <c r="E44">
-        <v>0.0019367198086760577</v>
+        <v>0.0019367181482288444</v>
       </c>
       <c r="F44">
-        <v>4.8340066741629545e-5</v>
+        <v>4.833987538595072e-5</v>
       </c>
       <c r="G44">
-        <v>7.246441182120706</v>
+        <v>7.246441182122023</v>
       </c>
       <c r="H44">
-        <v>4.387199781402918e-6</v>
+        <v>4.387199781403374e-6</v>
       </c>
       <c r="I44">
-        <v>6.6477795919683944e-6</v>
+        <v>6.6477795919711795e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019367172158483235</v>
+        <v>0.0019367172158484848</v>
       </c>
       <c r="K44">
-        <v>4.8339873149284184e-5</v>
+        <v>4.833987314928433e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1960,34 +1960,34 @@
         <v>0.012353485920408983</v>
       </c>
       <c r="B45">
-        <v>7.245654198288463</v>
+        <v>7.2456428899067635</v>
       </c>
       <c r="C45">
         <v>3.492404529571674e-6</v>
       </c>
       <c r="D45">
-        <v>9.213274219972133e-6</v>
+        <v>9.213312135826661e-6</v>
       </c>
       <c r="E45">
-        <v>0.001936965234248774</v>
+        <v>0.001936963619245825</v>
       </c>
       <c r="F45">
-        <v>4.8344683944861104e-5</v>
+        <v>4.834449711775671e-5</v>
       </c>
       <c r="G45">
-        <v>7.245644181270692</v>
+        <v>7.245644181272009</v>
       </c>
       <c r="H45">
-        <v>3.4928459872760594e-6</v>
+        <v>3.492845987276513e-6</v>
       </c>
       <c r="I45">
-        <v>9.213513966705484e-6</v>
+        <v>9.213513966708506e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019369638102394492</v>
+        <v>0.0019369638102396105</v>
       </c>
       <c r="K45">
-        <v>4.8344497469358374e-5</v>
+        <v>4.8344497469358455e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1995,34 +1995,34 @@
         <v>0.01352337379421037</v>
       </c>
       <c r="B46">
-        <v>7.245446900549633</v>
+        <v>7.245435890565989</v>
       </c>
       <c r="C46">
         <v>2.7908912378135774e-6</v>
       </c>
       <c r="D46">
-        <v>1.1928551437703627e-5</v>
+        <v>1.1928599488115713e-5</v>
       </c>
       <c r="E46">
-        <v>0.001937302766925818</v>
+        <v>0.001937301194559103</v>
       </c>
       <c r="F46">
-        <v>4.8349544894049146e-5</v>
+        <v>4.834936270970386e-5</v>
       </c>
       <c r="G46">
-        <v>7.245444661694741</v>
+        <v>7.245444661696056</v>
       </c>
       <c r="H46">
-        <v>2.793873710403524e-6</v>
+        <v>2.793873710403975e-6</v>
       </c>
       <c r="I46">
-        <v>1.1930452671845816e-5</v>
+        <v>1.193045267184909e-5</v>
       </c>
       <c r="J46">
-        <v>0.0019373025046656362</v>
+        <v>0.001937302504665797</v>
       </c>
       <c r="K46">
-        <v>4.834936563041026e-5</v>
+        <v>4.8349365630410294e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,34 +2030,34 @@
         <v>0.014703703866818844</v>
       </c>
       <c r="B47">
-        <v>7.245741442836682</v>
+        <v>7.245730736825844</v>
       </c>
       <c r="C47">
         <v>2.2541853358306274e-6</v>
       </c>
       <c r="D47">
-        <v>1.4779307028422943e-5</v>
+        <v>1.4779365068283099e-5</v>
       </c>
       <c r="E47">
-        <v>0.0019377186856726245</v>
+        <v>0.0019377171536751295</v>
       </c>
       <c r="F47">
-        <v>4.8354622512274806e-5</v>
+        <v>4.835444505084836e-5</v>
       </c>
       <c r="G47">
-        <v>7.245746614662284</v>
+        <v>7.245746614663597</v>
       </c>
       <c r="H47">
-        <v>2.259603205444049e-6</v>
+        <v>2.259603205444497e-6</v>
       </c>
       <c r="I47">
-        <v>1.4782803531112541e-5</v>
+        <v>1.4782803531116082e-5</v>
       </c>
       <c r="J47">
-        <v>0.0019377195262514225</v>
+        <v>0.001937719526251583</v>
       </c>
       <c r="K47">
-        <v>4.8354450416679775e-5</v>
+        <v>4.8354450416679755e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2065,34 +2065,34 @@
         <v>0.015895922190182113</v>
       </c>
       <c r="B48">
-        <v>7.246447686381563</v>
+        <v>7.246437287711727</v>
       </c>
       <c r="C48">
         <v>1.8528617272811534e-6</v>
       </c>
       <c r="D48">
-        <v>1.7750561793151527e-5</v>
+        <v>1.7750629521792934e-5</v>
       </c>
       <c r="E48">
-        <v>0.001938199907065404</v>
+        <v>0.0019381984136631466</v>
       </c>
       <c r="F48">
-        <v>4.835989223672665e-5</v>
+        <v>4.835971954759592e-5</v>
       </c>
       <c r="G48">
-        <v>7.2464596325750446</v>
+        <v>7.246459632576352</v>
       </c>
       <c r="H48">
-        <v>1.860514434952143e-6</v>
+        <v>1.860514434952587e-6</v>
       </c>
       <c r="I48">
-        <v>1.7755525443021133e-5</v>
+        <v>1.775552544302494e-5</v>
       </c>
       <c r="J48">
-        <v>0.001938201750144167</v>
+        <v>0.001938201750144326</v>
       </c>
       <c r="K48">
-        <v>4.835972714889791e-5</v>
+        <v>4.8359727148897846e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2100,34 +2100,34 @@
         <v>0.01710148938084175</v>
       </c>
       <c r="B49">
-        <v>7.247483724681634</v>
+        <v>7.247473634785304</v>
       </c>
       <c r="C49">
         <v>1.5597067902987931e-6</v>
       </c>
       <c r="D49">
-        <v>2.0828771095473915e-5</v>
+        <v>2.0828848093788598e-5</v>
       </c>
       <c r="E49">
-        <v>0.001938734488885069</v>
+        <v>0.0019387330327298748</v>
       </c>
       <c r="F49">
-        <v>4.8365332651632946e-5</v>
+        <v>4.836516475724528e-5</v>
       </c>
       <c r="G49">
-        <v>7.247501618061919</v>
+        <v>7.24750161806322</v>
       </c>
       <c r="H49">
-        <v>1.5693250581999523e-6</v>
+        <v>1.5693250582003921e-6</v>
       </c>
       <c r="I49">
-        <v>2.0835028683781048e-5</v>
+        <v>2.0835028683785127e-5</v>
       </c>
       <c r="J49">
-        <v>0.0019387372052478119</v>
+        <v>0.00193873720524797</v>
       </c>
       <c r="K49">
-        <v>4.836517432230248e-5</v>
+        <v>4.836517432230238e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2135,34 +2135,34 @@
         <v>0.018321882409371174</v>
       </c>
       <c r="B50">
-        <v>7.248777767802983</v>
+        <v>7.248767986476219</v>
       </c>
       <c r="C50">
         <v>1.3505005141298404e-6</v>
       </c>
       <c r="D50">
-        <v>2.400233843043502e-5</v>
+        <v>2.4002424196133523e-5</v>
       </c>
       <c r="E50">
-        <v>0.0019393119811561739</v>
+        <v>0.0019393105612503657</v>
       </c>
       <c r="F50">
-        <v>4.837092594085165e-5</v>
+        <v>4.8370762840939965e-5</v>
       </c>
       <c r="G50">
-        <v>7.248800673177445</v>
+        <v>7.2488006731787396</v>
       </c>
       <c r="H50">
-        <v>1.3617746561836744e-6</v>
+        <v>1.3617746561841102e-6</v>
       </c>
       <c r="I50">
-        <v>2.4009689896800163e-5</v>
+        <v>2.400968989680452e-5</v>
       </c>
       <c r="J50">
-        <v>0.0019393154258928228</v>
+        <v>0.0019393154258929796</v>
       </c>
       <c r="K50">
-        <v>4.8370774061626014e-5</v>
+        <v>4.837077406162589e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2170,34 +2170,34 @@
         <v>0.019558596409849263</v>
       </c>
       <c r="B51">
-        <v>7.25026915617285</v>
+        <v>7.250259681882585</v>
       </c>
       <c r="C51">
         <v>1.2044830495843167e-6</v>
       </c>
       <c r="D51">
-        <v>2.726192818494519e-5</v>
+        <v>2.7262022163118018e-5</v>
       </c>
       <c r="E51">
-        <v>0.0019399236188167835</v>
+        <v>0.0019399222344385991</v>
       </c>
       <c r="F51">
-        <v>4.837665812744283e-5</v>
+        <v>4.837649980332754e-5</v>
       </c>
       <c r="G51">
-        <v>7.250296109172255</v>
+        <v>7.250296109173542</v>
       </c>
       <c r="H51">
-        <v>1.2170902187351749e-6</v>
+        <v>1.2170902187356064e-6</v>
       </c>
       <c r="I51">
-        <v>2.72701643611626e-5</v>
+        <v>2.7270164361167232e-5</v>
       </c>
       <c r="J51">
-        <v>0.0019399276436320937</v>
+        <v>0.0019399276436322492</v>
       </c>
       <c r="K51">
-        <v>4.8376512360146374e-5</v>
+        <v>4.837651236014622e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2205,34 +2205,34 @@
         <v>0.020813146511586555</v>
       </c>
       <c r="B52">
-        <v>7.25190853837021</v>
+        <v>7.251899368550405</v>
       </c>
       <c r="C52">
         <v>1.104515684738008e-6</v>
       </c>
       <c r="D52">
-        <v>3.060058249316127e-5</v>
+        <v>3.0600684100708324e-5</v>
       </c>
       <c r="E52">
-        <v>0.0019405623672232185</v>
+        <v>0.0019405610178590117</v>
       </c>
       <c r="F52">
-        <v>4.838251909266342e-5</v>
+        <v>4.838236551138063e-5</v>
       </c>
       <c r="G52">
-        <v>7.251938612725489</v>
+        <v>7.251938612726768</v>
       </c>
       <c r="H52">
-        <v>1.1181433915402286e-6</v>
+        <v>1.1181433915406564e-6</v>
       </c>
       <c r="I52">
-        <v>3.0609500348179865e-5</v>
+        <v>3.060950034818478e-5</v>
       </c>
       <c r="J52">
-        <v>0.0019405668307630156</v>
+        <v>0.0019405668307631702</v>
       </c>
       <c r="K52">
-        <v>4.8382379095392026e-5</v>
+        <v>4.8382379095391836e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2240,34 +2240,34 @@
         <v>0.022087069695348203</v>
       </c>
       <c r="B53">
-        <v>7.253657329088647</v>
+        <v>7.253648460409316</v>
       </c>
       <c r="C53">
         <v>1.036976129078197e-6</v>
       </c>
       <c r="D53">
-        <v>3.40136665194123e-5</v>
+        <v>3.401377516309506e-5</v>
       </c>
       <c r="E53">
-        <v>0.0019412228449119033</v>
+        <v>0.0019412215301985193</v>
       </c>
       <c r="F53">
-        <v>4.8388502392693715e-5</v>
+        <v>4.838835351073498e-5</v>
       </c>
       <c r="G53">
-        <v>7.253689687332454</v>
+        <v>7.253689687333723</v>
       </c>
       <c r="H53">
-        <v>1.0513401863003215e-6</v>
+        <v>1.0513401863007448e-6</v>
       </c>
       <c r="I53">
-        <v>3.4023080989838096e-5</v>
+        <v>3.40230809898433e-5</v>
       </c>
       <c r="J53">
-        <v>0.0019412276203510596</v>
+        <v>0.0019412276203512127</v>
       </c>
       <c r="K53">
-        <v>4.838836784063756e-5</v>
+        <v>4.838836784063732e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2275,34 +2275,34 @@
         <v>0.023381926676347586</v>
       </c>
       <c r="B54">
-        <v>7.255486621734894</v>
+        <v>7.255478050332885</v>
       </c>
       <c r="C54">
         <v>9.914490792158786e-7</v>
       </c>
       <c r="D54">
-        <v>3.749868048621222e-5</v>
+        <v>3.7498795574919365e-5</v>
       </c>
       <c r="E54">
-        <v>0.0019419011562345568</v>
+        <v>0.0019418998759130643</v>
       </c>
       <c r="F54">
-        <v>4.83946049132883e-5</v>
+        <v>4.839446067980259e-5</v>
       </c>
       <c r="G54">
-        <v>7.255520547067238</v>
+        <v>7.255520547068498</v>
       </c>
       <c r="H54">
-        <v>1.0063051012536182e-6</v>
+        <v>1.0063051012540368e-6</v>
       </c>
       <c r="I54">
-        <v>3.750843200575717e-5</v>
+        <v>3.750843200576265e-5</v>
       </c>
       <c r="J54">
-        <v>0.0019419061358587314</v>
+        <v>0.0019419061358588827</v>
       </c>
       <c r="K54">
-        <v>4.8394475513115074e-5</v>
+        <v>4.8394475513114816e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2310,34 +2310,34 @@
         <v>0.024699303816317582</v>
       </c>
       <c r="B55">
-        <v>7.257375758495778</v>
+        <v>7.257367480161589</v>
       </c>
       <c r="C55">
         <v>9.602833958554e-7</v>
       </c>
       <c r="D55">
-        <v>4.1054983919226696e-5</v>
+        <v>4.105510487151183e-5</v>
       </c>
       <c r="E55">
-        <v>0.0019425946692962401</v>
+        <v>0.00194259342317658</v>
       </c>
       <c r="F55">
-        <v>4.84008264166373e-5</v>
+        <v>4.840068677601837e-5</v>
       </c>
       <c r="G55">
-        <v>7.257410668183709</v>
+        <v>7.25741066818496</v>
       </c>
       <c r="H55">
-        <v>9.754319575368887e-7</v>
+        <v>9.754319575373029e-7</v>
       </c>
       <c r="I55">
-        <v>4.106494193415876e-5</v>
+        <v>4.106494193416452e-5</v>
       </c>
       <c r="J55">
-        <v>0.0019425997662648096</v>
+        <v>0.0019425997662649594</v>
       </c>
       <c r="K55">
-        <v>4.84007019142718e-5</v>
+        <v>4.8400701914271536e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2345,34 +2345,34 @@
         <v>0.026040815067002142</v>
       </c>
       <c r="B56">
-        <v>7.259310758329335</v>
+        <v>7.259302768649234</v>
       </c>
       <c r="C56">
         <v>9.380867906694165e-7</v>
       </c>
       <c r="D56">
-        <v>4.468347775182007e-5</v>
+        <v>4.46836039999225e-5</v>
       </c>
       <c r="E56">
-        <v>0.001943301772538864</v>
+        <v>0.0019433005604740027</v>
       </c>
       <c r="F56">
-        <v>4.840716903912771e-5</v>
+        <v>4.8407033932978165e-5</v>
       </c>
       <c r="G56">
-        <v>7.259346201474744</v>
+        <v>7.259346201475984</v>
       </c>
       <c r="H56">
-        <v>9.53373156004905e-7</v>
+        <v>9.533731560053144e-7</v>
       </c>
       <c r="I56">
-        <v>4.4693540632003e-5</v>
+        <v>4.469354063200903e-5</v>
       </c>
       <c r="J56">
-        <v>0.0019433069202695295</v>
+        <v>0.0019433069202696772</v>
       </c>
       <c r="K56">
-        <v>4.8407049221620085e-5</v>
+        <v>4.840704922161982e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2380,34 +2380,34 @@
         <v>0.027408103947448977</v>
       </c>
       <c r="B57">
-        <v>7.2612827749557844</v>
+        <v>7.261275069412562</v>
       </c>
       <c r="C57">
         <v>9.212194351066774e-7</v>
       </c>
       <c r="D57">
-        <v>4.8386284153233516e-5</v>
+        <v>4.838641514472512e-5</v>
       </c>
       <c r="E57">
-        <v>0.001944021637483002</v>
+        <v>0.0019440204593507123</v>
       </c>
       <c r="F57">
-        <v>4.841363679376563e-5</v>
+        <v>4.841350616228371e-5</v>
       </c>
       <c r="G57">
-        <v>7.261318418973372</v>
+        <v>7.2613184189746</v>
       </c>
       <c r="H57">
-        <v>9.365292792678307e-7</v>
+        <v>9.365292792682352e-7</v>
       </c>
       <c r="I57">
-        <v>4.83963765524222e-5</v>
+        <v>4.83963765524285e-5</v>
       </c>
       <c r="J57">
-        <v>0.0019440267874122979</v>
+        <v>0.0019440267874124438</v>
       </c>
       <c r="K57">
-        <v>4.841352148669146e-5</v>
+        <v>4.841352148669119e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2415,34 +2415,34 @@
         <v>0.028802845557525943</v>
       </c>
       <c r="B58">
-        <v>7.263286711392509</v>
+        <v>7.263279285430857</v>
       </c>
       <c r="C58">
         <v>9.073323989524735e-7</v>
       </c>
       <c r="D58">
-        <v>5.216645413839408e-5</v>
+        <v>5.2166589336395536e-5</v>
       </c>
       <c r="E58">
-        <v>0.0019447540071360755</v>
+        <v>0.0019447528628264345</v>
       </c>
       <c r="F58">
-        <v>4.8420235119057755e-5</v>
+        <v>4.842010890192948e-5</v>
       </c>
       <c r="G58">
-        <v>7.263322321970262</v>
+        <v>7.263322321971478</v>
       </c>
       <c r="H58">
-        <v>9.225851477397872e-7</v>
+        <v>9.225851477401867e-7</v>
       </c>
       <c r="I58">
-        <v>5.217652267974833e-5</v>
+        <v>5.2176522679754915e-5</v>
       </c>
       <c r="J58">
-        <v>0.0019447591255105957</v>
+        <v>0.0019447591255107393</v>
       </c>
       <c r="K58">
-        <v>4.842012418097067e-5</v>
+        <v>4.842012418097039e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2450,34 +2450,34 @@
         <v>0.030226748630127864</v>
       </c>
       <c r="B59">
-        <v>7.265320065526233</v>
+        <v>7.265312914589989</v>
       </c>
       <c r="C59">
         <v>8.949789134366317e-7</v>
       </c>
       <c r="D59">
-        <v>5.6027721515756074e-5</v>
+        <v>5.602786039842266e-5</v>
       </c>
       <c r="E59">
-        <v>0.0019454990210485638</v>
+        <v>0.0019454979104554636</v>
       </c>
       <c r="F59">
-        <v>4.8426970500579437e-5</v>
+        <v>4.8426848637476386e-5</v>
       </c>
       <c r="G59">
-        <v>7.2653554842137265</v>
+        <v>7.265355484214932</v>
       </c>
       <c r="H59">
-        <v>9.101202086285935e-7</v>
+        <v>9.101202086289876e-7</v>
       </c>
       <c r="I59">
-        <v>5.603772994370305e-5</v>
+        <v>5.603772994370989e-5</v>
       </c>
       <c r="J59">
-        <v>0.0019455040854916197</v>
+        <v>0.0019455040854917608</v>
       </c>
       <c r="K59">
-        <v>4.842686381613507e-5</v>
+        <v>4.8426863816134785e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2485,34 +2485,34 @@
         <v>0.03168155762458797</v>
       </c>
       <c r="B60">
-        <v>7.2673820325440515</v>
+        <v>7.267375152092617</v>
       </c>
       <c r="C60">
         <v>8.83309510303407e-7</v>
       </c>
       <c r="D60">
-        <v>5.997431074527144e-5</v>
+        <v>5.997445280501339e-5</v>
       </c>
       <c r="E60">
-        <v>0.0019462570803743004</v>
+        <v>0.001946256003389602</v>
       </c>
       <c r="F60">
-        <v>4.8433850175821814e-5</v>
+        <v>4.8433732606605773e-5</v>
       </c>
       <c r="G60">
-        <v>7.26741715560067</v>
+        <v>7.267417155601863</v>
       </c>
       <c r="H60">
-        <v>8.983039850089023e-7</v>
+        <v>8.98303985009291e-7</v>
       </c>
       <c r="I60">
-        <v>5.998423525576875e-5</v>
+        <v>5.9984235255775845e-5</v>
       </c>
       <c r="J60">
-        <v>0.001946262076647499</v>
+        <v>0.0019462620766476381</v>
       </c>
       <c r="K60">
-        <v>4.843374764883238e-5</v>
+        <v>4.843374764883209e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,34 +2520,34 @@
         <v>0.03316905486385881</v>
       </c>
       <c r="B61">
-        <v>7.269472851912884</v>
+        <v>7.269466237423369</v>
       </c>
       <c r="C61">
         <v>8.718486040444797e-7</v>
       </c>
       <c r="D61">
-        <v>6.401079746435354e-5</v>
+        <v>6.401094220706533e-5</v>
       </c>
       <c r="E61">
-        <v>0.0019470287505219347</v>
+        <v>0.0019470277070312576</v>
       </c>
       <c r="F61">
-        <v>4.844088192000876e-5</v>
+        <v>4.8440768584734116e-5</v>
       </c>
       <c r="G61">
-        <v>7.269507612444722</v>
+        <v>7.269507612445902</v>
       </c>
       <c r="H61">
-        <v>8.86673719388902e-7</v>
+        <v>8.866737193892856e-7</v>
       </c>
       <c r="I61">
-        <v>6.40206226219881e-5</v>
+        <v>6.402062262199545e-5</v>
       </c>
       <c r="J61">
-        <v>0.0019470336698424763</v>
+        <v>0.0019470336698426136</v>
       </c>
       <c r="K61">
-        <v>4.844078346731532e-5</v>
+        <v>4.8440783467315015e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2555,34 +2555,34 @@
         <v>0.03469106271808073</v>
       </c>
       <c r="B62">
-        <v>7.271593362411274</v>
+        <v>7.271587009371627</v>
       </c>
       <c r="C62">
         <v>8.603413044847299e-7</v>
       </c>
       <c r="D62">
-        <v>6.814201464397393e-5</v>
+        <v>6.814216158840867e-5</v>
       </c>
       <c r="E62">
-        <v>0.0019478146954596512</v>
+        <v>0.0019478136853391054</v>
       </c>
       <c r="F62">
-        <v>4.844807390195318e-5</v>
+        <v>4.8447964740740784e-5</v>
       </c>
       <c r="G62">
-        <v>7.2716277165526835</v>
+        <v>7.2716277165538505</v>
       </c>
       <c r="H62">
-        <v>8.749825768037258e-7</v>
+        <v>8.749825768041046e-7</v>
       </c>
       <c r="I62">
-        <v>6.815173030162464e-5</v>
+        <v>6.815173030163226e-5</v>
       </c>
       <c r="J62">
-        <v>0.0019478195324433062</v>
+        <v>0.001947819532443442</v>
       </c>
       <c r="K62">
-        <v>4.8447979448553246e-5</v>
+        <v>4.8447979448552955e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2590,34 +2590,34 @@
         <v>0.03624944583721316</v>
       </c>
       <c r="B63">
-        <v>7.273744718238715</v>
+        <v>7.273738622135766</v>
       </c>
       <c r="C63">
         <v>8.486551788812878e-7</v>
       </c>
       <c r="D63">
-        <v>7.237299459833363e-5</v>
+        <v>7.237314327567379e-5</v>
       </c>
       <c r="E63">
-        <v>0.0019486156363191373</v>
+        <v>0.0019486146594325782</v>
       </c>
       <c r="F63">
-        <v>4.8455434594916474e-5</v>
+        <v>4.845532954775412e-5</v>
       </c>
       <c r="G63">
-        <v>7.273778635496355</v>
+        <v>7.273778635497508</v>
       </c>
       <c r="H63">
-        <v>8.631027944397914e-7</v>
+        <v>8.631027944401649e-7</v>
       </c>
       <c r="I63">
-        <v>7.238259368066681e-5</v>
+        <v>7.238259368067469e-5</v>
       </c>
       <c r="J63">
-        <v>0.001948620387545765</v>
+        <v>0.0019486203875458989</v>
       </c>
       <c r="K63">
-        <v>4.845534407036082e-5</v>
+        <v>4.845534407036052e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2625,34 +2625,34 @@
         <v>0.037846113435464034</v>
       </c>
       <c r="B64">
-        <v>7.27592821957317</v>
+        <v>7.27592237587831</v>
       </c>
       <c r="C64">
         <v>8.367214094960454e-7</v>
       </c>
       <c r="D64">
-        <v>7.670893681564379e-5</v>
+        <v>7.670908676927273e-5</v>
       </c>
       <c r="E64">
-        <v>0.0019494323271416962</v>
+        <v>0.0019494313833382465</v>
       </c>
       <c r="F64">
-        <v>4.84629727270664e-5</v>
+        <v>4.8462871733573745e-5</v>
       </c>
       <c r="G64">
-        <v>7.275961676535602</v>
+        <v>7.275961676536741</v>
       </c>
       <c r="H64">
-        <v>8.509680152021159e-7</v>
+        <v>8.509680152024843e-7</v>
       </c>
       <c r="I64">
-        <v>7.671841387636301e-5</v>
+        <v>7.671841387637114e-5</v>
       </c>
       <c r="J64">
-        <v>0.0019494369902245286</v>
+        <v>0.0019494369902246613</v>
       </c>
       <c r="K64">
-        <v>4.846288606300981e-5</v>
+        <v>4.8462886063009495e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,34 +2660,34 @@
         <v>0.039483021630316</v>
       </c>
       <c r="B65">
-        <v>7.278145218019483</v>
+        <v>7.278139622173663</v>
       </c>
       <c r="C65">
         <v>8.245019441452105e-7</v>
       </c>
       <c r="D65">
-        <v>8.115519292320731e-5</v>
+        <v>8.11553437086665e-5</v>
       </c>
       <c r="E65">
-        <v>0.0019502655417751266</v>
+        <v>0.0019502646308868438</v>
       </c>
       <c r="F65">
-        <v>4.8470697258195526e-5</v>
+        <v>4.847060025737793e-5</v>
       </c>
       <c r="G65">
-        <v>7.278178194618025</v>
+        <v>7.27817819461915</v>
       </c>
       <c r="H65">
-        <v>8.385413196996798e-7</v>
+        <v>8.385413197000427e-7</v>
       </c>
       <c r="I65">
-        <v>8.116454328317272e-5</v>
+        <v>8.11645432831811e-5</v>
       </c>
       <c r="J65">
-        <v>0.0019502701148235856</v>
+        <v>0.0019502701148237161</v>
       </c>
       <c r="K65">
-        <v>4.8470614386838613e-5</v>
+        <v>4.84706143868383e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2695,34 +2695,34 @@
         <v>0.041162175839014895</v>
       </c>
       <c r="B66">
-        <v>7.280397067220107</v>
+        <v>7.280391714619198</v>
       </c>
       <c r="C66">
         <v>8.119724503701597e-7</v>
       </c>
       <c r="D66">
-        <v>8.571726216048507e-5</v>
+        <v>8.571741334559529e-5</v>
       </c>
       <c r="E66">
-        <v>0.0019511160674644805</v>
+        <v>0.001951115189304116</v>
       </c>
       <c r="F66">
-        <v>4.847861737252297e-5</v>
+        <v>4.8478524302528665e-5</v>
       </c>
       <c r="G66">
-        <v>7.280429544648074</v>
+        <v>7.280429544649183</v>
       </c>
       <c r="H66">
-        <v>8.257987730434588e-7</v>
+        <v>8.257987730438161e-7</v>
       </c>
       <c r="I66">
-        <v>8.572648138976862e-5</v>
+        <v>8.572648138977724e-5</v>
       </c>
       <c r="J66">
-        <v>0.0019511205487794708</v>
+        <v>0.001951120548779599</v>
       </c>
       <c r="K66">
-        <v>4.847853822557117e-5</v>
+        <v>4.847853822557085e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2730,34 +2730,34 @@
         <v>0.04288563323545666</v>
       </c>
       <c r="B67">
-        <v>7.282685098528185</v>
+        <v>7.282679984509258</v>
       </c>
       <c r="C67">
         <v>7.99114118553333e-7</v>
       </c>
       <c r="D67">
-        <v>9.040079282679054e-5</v>
+        <v>9.040094399191785e-5</v>
       </c>
       <c r="E67">
-        <v>0.0019519847021490606</v>
+        <v>0.0019519838565078883</v>
       </c>
       <c r="F67">
-        <v>4.848674248061418e-5</v>
+        <v>4.848665327850304e-5</v>
       </c>
       <c r="G67">
-        <v>7.282717058204123</v>
+        <v>7.2827170582052165</v>
       </c>
       <c r="H67">
-        <v>8.127215877390094e-7</v>
+        <v>8.127215877393608e-7</v>
       </c>
       <c r="I67">
-        <v>9.040987651760975e-5</v>
+        <v>9.040987651761863e-5</v>
       </c>
       <c r="J67">
-        <v>0.0019519890900807646</v>
+        <v>0.0019519890900808903</v>
       </c>
       <c r="K67">
-        <v>4.848666698870967e-5</v>
+        <v>4.8486666988709363e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2765,34 +2765,34 @@
         <v>0.04465550527048268</v>
       </c>
       <c r="B68">
-        <v>7.285010609434449</v>
+        <v>7.285005729263277</v>
       </c>
       <c r="C68">
         <v>7.859100195323562e-7</v>
       </c>
       <c r="D68">
-        <v>9.521158690049867e-5</v>
+        <v>9.521173763894731e-5</v>
       </c>
       <c r="E68">
-        <v>0.0019528722536500827</v>
+        <v>0.0019528714402958106</v>
       </c>
       <c r="F68">
-        <v>4.849508222611067e-5</v>
+        <v>4.8494996827639143e-5</v>
       </c>
       <c r="G68">
-        <v>7.285042032503036</v>
+        <v>7.285042032504113</v>
       </c>
       <c r="H68">
-        <v>7.992926792978501e-7</v>
+        <v>7.992926792981952e-7</v>
       </c>
       <c r="I68">
-        <v>9.522053053966222e-5</v>
+        <v>9.522053053967129e-5</v>
       </c>
       <c r="J68">
-        <v>0.0019528765465281577</v>
+        <v>0.0019528765465282815</v>
       </c>
       <c r="K68">
-        <v>4.849501031841282e-5</v>
+        <v>4.849501031841252e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2800,34 +2800,34 @@
         <v>0.0464739602586711</v>
       </c>
       <c r="B69">
-        <v>7.287374857905625</v>
+        <v>7.287370206765583</v>
       </c>
       <c r="C69">
         <v>7.723436108097815e-7</v>
       </c>
       <c r="D69">
-        <v>0.00010015560625957727</v>
+        <v>0.00010015575617809434</v>
       </c>
       <c r="E69">
-        <v>0.0019537795397472054</v>
+        <v>0.001953778758421978</v>
       </c>
       <c r="F69">
-        <v>4.850364649485542e-5</v>
+        <v>4.850356483428012e-5</v>
       </c>
       <c r="G69">
-        <v>7.287405725085117</v>
+        <v>7.2874057250861775</v>
       </c>
       <c r="H69">
-        <v>7.854952704902101e-7</v>
+        <v>7.85495270490549e-7</v>
       </c>
       <c r="I69">
-        <v>0.00010016440518081419</v>
+        <v>0.00010016440518082346</v>
       </c>
       <c r="J69">
-        <v>0.001953783735850068</v>
+        <v>0.00195378373585019</v>
       </c>
       <c r="K69">
-        <v>4.850357809875975e-5</v>
+        <v>4.850357809875946e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2835,34 +2835,34 @@
         <v>0.0483432260347933</v>
       </c>
       <c r="B70">
-        <v>7.289779059183448</v>
+        <v>7.289774632165888</v>
       </c>
       <c r="C70">
         <v>7.58398168348012e-7</v>
       </c>
       <c r="D70">
-        <v>0.00010523897970783112</v>
+        <v>0.00010523912842720858</v>
       </c>
       <c r="E70">
-        <v>0.0019547073886427104</v>
+        <v>0.0019547066390612185</v>
       </c>
       <c r="F70">
-        <v>4.8512445425190254e-5</v>
+        <v>4.851236743509188e-5</v>
       </c>
       <c r="G70">
-        <v>7.289809350646192</v>
+        <v>7.289809350647235</v>
       </c>
       <c r="H70">
-        <v>7.713123676750324e-7</v>
+        <v>7.71312367675365e-7</v>
       </c>
       <c r="I70">
-        <v>0.00010524762907018352</v>
+        <v>0.00010524762907019295</v>
       </c>
       <c r="J70">
-        <v>0.001954711486193958</v>
+        <v>0.0019547114861940777</v>
       </c>
       <c r="K70">
-        <v>4.85123804661521e-5</v>
+        <v>4.851238046615183e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2870,34 +2870,34 @@
         <v>0.05026559268319017</v>
       </c>
       <c r="B71">
-        <v>7.29222438346975</v>
+        <v>7.292220175565946</v>
       </c>
       <c r="C71">
         <v>7.440565807789996e-7</v>
       </c>
       <c r="D71">
-        <v>0.00011046801044449463</v>
+        <v>0.00011046815760025476</v>
       </c>
       <c r="E71">
-        <v>0.001955656639587072</v>
+        <v>0.0019556559214347967</v>
       </c>
       <c r="F71">
-        <v>4.8521489418867445e-5</v>
+        <v>4.852141502999615e-5</v>
       </c>
       <c r="G71">
-        <v>7.292254078829717</v>
+        <v>7.292254078830743</v>
       </c>
       <c r="H71">
-        <v>7.567265726643914e-7</v>
+        <v>7.567265726647176e-7</v>
       </c>
       <c r="I71">
-        <v>0.00011047650519990339</v>
+        <v>0.00011047650519991298</v>
       </c>
       <c r="J71">
-        <v>0.0019556606367460974</v>
+        <v>0.001955660636746215</v>
       </c>
       <c r="K71">
-        <v>4.852142782019015e-5</v>
+        <v>4.852142782018991e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2905,34 +2905,34 @@
         <v>0.05224341534341173</v>
       </c>
       <c r="B72">
-        <v>7.29471195385182</v>
+        <v>7.294707959946488</v>
       </c>
       <c r="C72">
         <v>7.293012717937591e-7</v>
       </c>
       <c r="D72">
-        <v>0.00011584918383138048</v>
+        <v>0.00011584932907453068</v>
       </c>
       <c r="E72">
-        <v>0.001956628143574858</v>
+        <v>0.001956627456506461</v>
       </c>
       <c r="F72">
-        <v>4.85307891523506e-5</v>
+        <v>4.853071829349389e-5</v>
       </c>
       <c r="G72">
-        <v>7.294741032210822</v>
+        <v>7.294741032211828</v>
       </c>
       <c r="H72">
-        <v>7.417200108834321e-7</v>
+        <v>7.417200108837517e-7</v>
       </c>
       <c r="I72">
-        <v>0.00011585751875999621</v>
+        <v>0.00011585751876000588</v>
       </c>
       <c r="J72">
-        <v>0.001956632038449792</v>
+        <v>0.001956632038449907</v>
       </c>
       <c r="K72">
-        <v>4.853073083508103e-5</v>
+        <v>4.853073083508081e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2940,34 +2940,34 @@
         <v>0.05427911709555772</v>
       </c>
       <c r="B73">
-        <v>7.297242844233611</v>
+        <v>7.297239059100108</v>
       </c>
       <c r="C73">
         <v>7.141141630525891e-7</v>
       </c>
       <c r="D73">
-        <v>0.00012138917540862823</v>
+        <v>0.00012138931840646898</v>
       </c>
       <c r="E73">
-        <v>0.0019576227640794234</v>
+        <v>0.0019576221077173125</v>
       </c>
       <c r="F73">
-        <v>4.8540355588429164e-5</v>
+        <v>4.8540288186303366e-5</v>
       </c>
       <c r="G73">
-        <v>7.297271284125004</v>
+        <v>7.29727128412599</v>
       </c>
       <c r="H73">
-        <v>7.262742963641785e-7</v>
+        <v>7.262742963644914e-7</v>
       </c>
       <c r="I73">
-        <v>0.00012139734507336926</v>
+        <v>0.00012139734507337904</v>
       </c>
       <c r="J73">
-        <v>0.0019576265547281858</v>
+        <v>0.0019576265547282977</v>
       </c>
       <c r="K73">
-        <v>4.854030047120627e-5</v>
+        <v>4.854030047120608e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2975,34 +2975,34 @@
         <v>0.0563751919288537</v>
       </c>
       <c r="B74">
-        <v>7.2998180772013805</v>
+        <v>7.299814495498569</v>
       </c>
       <c r="C74">
         <v>6.984766482236308e-7</v>
       </c>
       <c r="D74">
-        <v>0.00012709485914881656</v>
+        <v>0.0001270949995857879</v>
       </c>
       <c r="E74">
-        <v>0.0019586413778182976</v>
+        <v>0.001958640751751383</v>
       </c>
       <c r="F74">
-        <v>4.855019998813052e-5</v>
+        <v>4.8550135967296485e-5</v>
       </c>
       <c r="G74">
-        <v>7.299845856595653</v>
+        <v>7.299845856596619</v>
       </c>
       <c r="H74">
-        <v>7.103705061347291e-7</v>
+        <v>7.10370506135035e-7</v>
       </c>
       <c r="I74">
-        <v>0.00012710285791890058</v>
+        <v>0.00012710285791891045</v>
       </c>
       <c r="J74">
-        <v>0.0019586450622448275</v>
+        <v>0.0019586450622449364</v>
       </c>
       <c r="K74">
-        <v>4.855014798712775e-5</v>
+        <v>4.8550147987127606e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3010,34 +3010,34 @@
         <v>0.058534207797099655</v>
       </c>
       <c r="B75">
-        <v>7.302438621810016</v>
+        <v>7.302435238080848</v>
       </c>
       <c r="C75">
         <v>6.823695693601582e-7</v>
       </c>
       <c r="D75">
-        <v>0.0001329733159531002</v>
+        <v>0.00013297345353165013</v>
       </c>
       <c r="E75">
-        <v>0.0019596848755494014</v>
+        <v>0.001959684279332067</v>
       </c>
       <c r="F75">
-        <v>4.856033392293497e-5</v>
+        <v>4.856027320573906e-5</v>
       </c>
       <c r="G75">
-        <v>7.302465718169234</v>
+        <v>7.302465718170178</v>
       </c>
       <c r="H75">
-        <v>6.939891558725662e-7</v>
+        <v>6.939891558728649e-7</v>
       </c>
       <c r="I75">
-        <v>0.00013298113794782892</v>
+        <v>0.00013298113794783887</v>
       </c>
       <c r="J75">
-        <v>0.001959688451709282</v>
+        <v>0.0019596884517093876</v>
       </c>
       <c r="K75">
-        <v>4.856028495174052e-5</v>
+        <v>4.856028495174041e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3045,34 +3045,34 @@
         <v>0.060758809764734634</v>
       </c>
       <c r="B76">
-        <v>7.3051053912949415</v>
+        <v>7.305102199966785</v>
       </c>
       <c r="C76">
         <v>6.657731932713749e-7</v>
       </c>
       <c r="D76">
-        <v>0.00013903184239758042</v>
+        <v>0.00013903197683903709</v>
       </c>
       <c r="E76">
-        <v>0.0019607541629008546</v>
+        <v>0.001960753596052163</v>
       </c>
       <c r="F76">
-        <v>4.857076928730652e-5</v>
+        <v>4.857071179384758e-5</v>
       </c>
       <c r="G76">
-        <v>7.305131781571073</v>
+        <v>7.305131781571995</v>
       </c>
       <c r="H76">
-        <v>6.771101763903061e-7</v>
+        <v>6.771101763905974e-7</v>
       </c>
       <c r="I76">
-        <v>0.00013903948151758688</v>
+        <v>0.00013903948151759685</v>
       </c>
       <c r="J76">
-        <v>0.001960757628703542</v>
+        <v>0.001960757628703643</v>
       </c>
       <c r="K76">
-        <v>4.8570723256940094e-5</v>
+        <v>4.857072325694e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3080,34 +3080,34 @@
         <v>0.06305172324737145</v>
       </c>
       <c r="B77">
-        <v>7.307819240720098</v>
+        <v>7.30781623610681</v>
       </c>
       <c r="C77">
         <v>6.486671873205049e-7</v>
       </c>
       <c r="D77">
-        <v>0.00014527795973959438</v>
+        <v>0.00014527809078502537</v>
       </c>
       <c r="E77">
-        <v>0.0019618501612378905</v>
+        <v>0.0019618496232410394</v>
       </c>
       <c r="F77">
-        <v>4.8581518311554674e-5</v>
+        <v>4.8581463959677454e-5</v>
       </c>
       <c r="G77">
-        <v>7.307844901393363</v>
+        <v>7.307844901394263</v>
       </c>
       <c r="H77">
-        <v>6.59712888816876e-7</v>
+        <v>6.597128888171595e-7</v>
       </c>
       <c r="I77">
-        <v>0.00014528540967133146</v>
+        <v>0.00014528540967134144</v>
       </c>
       <c r="J77">
-        <v>0.0019618535145589306</v>
+        <v>0.0019618535145590286</v>
       </c>
       <c r="K77">
-        <v>4.8581475130431636e-5</v>
+        <v>4.858147513043156e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3115,34 +3115,34 @@
         <v>0.06541575735077167</v>
       </c>
       <c r="B78">
-        <v>7.310580964574589</v>
+        <v>7.310578140880337</v>
       </c>
       <c r="C78">
         <v>6.310305945108406e-7</v>
       </c>
       <c r="D78">
-        <v>0.00015171942319420277</v>
+        <v>0.0001517195506052437</v>
       </c>
       <c r="E78">
-        <v>0.00196297380857063</v>
+        <v>0.0019629732988726894</v>
       </c>
       <c r="F78">
-        <v>4.859259357504364e-5</v>
+        <v>4.85925422803593e-5</v>
       </c>
       <c r="G78">
-        <v>7.310605871627542</v>
+        <v>7.310605871628418</v>
       </c>
       <c r="H78">
-        <v>6.417759792322093e-7</v>
+        <v>6.41775979232485e-7</v>
       </c>
       <c r="I78">
-        <v>0.00015172667739533102</v>
+        <v>0.00015172667739534102</v>
       </c>
       <c r="J78">
-        <v>0.001962977047248582</v>
+        <v>0.001962977047248676</v>
       </c>
       <c r="K78">
-        <v>4.859255314898391e-5</v>
+        <v>4.859255314898385e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3150,34 +3150,34 @@
         <v>0.06785380831235142</v>
       </c>
       <c r="B79">
-        <v>7.313391294331588</v>
+        <v>7.313388645656415</v>
       </c>
       <c r="C79">
         <v>6.128418078107965e-7</v>
       </c>
       <c r="D79">
-        <v>0.000158364231491547</v>
+        <v>0.00015836435505118</v>
       </c>
       <c r="E79">
-        <v>0.0019641260605065794</v>
+        <v>0.001964125578518504</v>
       </c>
       <c r="F79">
-        <v>4.860400801976648e-5</v>
+        <v>4.86039596957004e-5</v>
       </c>
       <c r="G79">
-        <v>7.313415423301982</v>
+        <v>7.313415423302834</v>
       </c>
       <c r="H79">
-        <v>6.232774727407325e-7</v>
+        <v>6.232774727409999e-7</v>
       </c>
       <c r="I79">
-        <v>0.00015837128312990822</v>
+        <v>0.00015837128312991814</v>
       </c>
       <c r="J79">
-        <v>0.0019641291823504214</v>
+        <v>0.0019641291823505125</v>
       </c>
       <c r="K79">
-        <v>4.8603970252014496e-5</v>
+        <v>4.860397025201445e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,34 +3185,34 @@
         <v>0.07036886304943443</v>
       </c>
       <c r="B80">
-        <v>7.316250895984006</v>
+        <v>7.316248416331102</v>
       </c>
       <c r="C80">
         <v>5.940785436819097e-7</v>
       </c>
       <c r="D80">
-        <v>0.00016522063672609613</v>
+        <v>0.00016522075623936187</v>
       </c>
       <c r="E80">
-        <v>0.0019653078912517234</v>
+        <v>0.0019653074363486767</v>
       </c>
       <c r="F80">
-        <v>4.861577496430238e-5</v>
+        <v>4.861572952216937e-5</v>
       </c>
       <c r="G80">
-        <v>7.316274221999821</v>
+        <v>7.316274222000647</v>
       </c>
       <c r="H80">
-        <v>6.041947062770059e-7</v>
+        <v>6.041947062772649e-7</v>
       </c>
       <c r="I80">
-        <v>0.0001652274787557882</v>
+        <v>0.0001652274787557981</v>
       </c>
       <c r="J80">
-        <v>0.001965310894041264</v>
+        <v>0.001965310894041352</v>
       </c>
       <c r="K80">
-        <v>4.861573975564683e-5</v>
+        <v>4.86157397556468e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3220,34 +3220,34 @@
         <v>0.07296400281859933</v>
       </c>
       <c r="B81">
-        <v>7.319160367572219</v>
+        <v>7.319158050856856</v>
       </c>
       <c r="C81">
         <v>5.747178147791608e-7</v>
       </c>
       <c r="D81">
-        <v>0.00017229715450917674</v>
+        <v>0.00017229726980380082</v>
       </c>
       <c r="E81">
-        <v>0.00196652029466416</v>
+        <v>0.001966519866186152</v>
       </c>
       <c r="F81">
-        <v>4.86279081181763e-5</v>
+        <v>4.8627865467283235e-5</v>
       </c>
       <c r="G81">
-        <v>7.319182865364562</v>
+        <v>7.319182865365363</v>
       </c>
       <c r="H81">
-        <v>5.845043011295769e-7</v>
+        <v>5.845043011298275e-7</v>
       </c>
       <c r="I81">
-        <v>0.0001723037795901888</v>
+        <v>0.0001723037795901986</v>
       </c>
       <c r="J81">
-        <v>0.001966523176159204</v>
+        <v>0.0019665231761592885</v>
       </c>
       <c r="K81">
-        <v>4.862787536701596e-5</v>
+        <v>4.862787536701595e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3255,34 +3255,34 @@
         <v>0.07564240699060418</v>
       </c>
       <c r="B82">
-        <v>7.3221202367198615</v>
+        <v>7.322118076779936</v>
       </c>
       <c r="C82">
         <v>5.547359017884464e-7</v>
       </c>
       <c r="D82">
-        <v>0.00017960257443655475</v>
+        <v>0.0001796026853634728</v>
       </c>
       <c r="E82">
-        <v>0.0019677642853642104</v>
+        <v>0.0019677638826170523</v>
       </c>
       <c r="F82">
-        <v>4.8640421596641314e-5</v>
+        <v>4.864038164441653e-5</v>
       </c>
       <c r="G82">
-        <v>7.322141880644497</v>
+        <v>7.322141880645272</v>
       </c>
       <c r="H82">
-        <v>5.641821340557998e-7</v>
+        <v>5.641821340560415e-7</v>
       </c>
       <c r="I82">
-        <v>0.00017960897497891826</v>
+        <v>0.000179608974978928</v>
       </c>
       <c r="J82">
-        <v>0.0019677670433101576</v>
+        <v>0.0019677670433102387</v>
       </c>
       <c r="K82">
-        <v>4.864039119912404e-5</v>
+        <v>4.8640391199124034e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3290,34 +3290,34 @@
         <v>0.07840735694551344</v>
       </c>
       <c r="B83">
-        <v>7.325130958194444</v>
+        <v>7.325128948802533</v>
       </c>
       <c r="C83">
         <v>5.341083243675213e-7</v>
       </c>
       <c r="D83">
-        <v>0.00018714597088324663</v>
+        <v>0.00018714607731701093</v>
       </c>
       <c r="E83">
-        <v>0.001969040899904932</v>
+        <v>0.0019690405221615232</v>
       </c>
       <c r="F83">
-        <v>4.865332993590479e-5</v>
+        <v>4.86532925880539e-5</v>
       </c>
       <c r="G83">
-        <v>7.325151722284339</v>
+        <v>7.325151722285088</v>
       </c>
       <c r="H83">
-        <v>5.432033076921294e-7</v>
+        <v>5.432033076923621e-7</v>
       </c>
       <c r="I83">
-        <v>0.0001871521390199817</v>
+        <v>0.0001871521390199913</v>
       </c>
       <c r="J83">
-        <v>0.0019690435320389803</v>
+        <v>0.001969043532039058</v>
       </c>
       <c r="K83">
-        <v>4.8653301786052484e-5</v>
+        <v>4.86533017860525e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3325,34 +3325,34 @@
         <v>0.08126224009279871</v>
       </c>
       <c r="B84">
-        <v>7.328192911510106</v>
+        <v>7.328191046386956</v>
       </c>
       <c r="C84">
         <v>5.128098111543695e-7</v>
       </c>
       <c r="D84">
-        <v>0.00019493671413815838</v>
+        <v>0.00019493681597721154</v>
       </c>
       <c r="E84">
-        <v>0.0019703511980069337</v>
+        <v>0.001970350844508878</v>
       </c>
       <c r="F84">
-        <v>4.866664810882082e-5</v>
+        <v>4.866661326950781e-5</v>
       </c>
       <c r="G84">
-        <v>7.328212769507212</v>
+        <v>7.328212769507933</v>
       </c>
       <c r="H84">
-        <v>5.21542120400792e-7</v>
+        <v>5.215421204010153e-7</v>
       </c>
       <c r="I84">
-        <v>0.00019494264169891718</v>
+        <v>0.0001949426416989266</v>
       </c>
       <c r="J84">
-        <v>0.0019703537020599226</v>
+        <v>0.001970353702059996</v>
       </c>
       <c r="K84">
-        <v>4.866662209869693e-5</v>
+        <v>4.866662209869694e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,34 +3360,34 @@
         <v>0.08421055402133908</v>
       </c>
       <c r="B85">
-        <v>7.331306398590398</v>
+        <v>7.331304671419719</v>
       </c>
       <c r="C85">
         <v>4.908142688067667e-7</v>
       </c>
       <c r="D85">
-        <v>0.00020298448189159718</v>
+        <v>0.00020298457905840053</v>
       </c>
       <c r="E85">
-        <v>0.0019716962638613514</v>
+        <v>0.001971695933820892</v>
       </c>
       <c r="F85">
-        <v>4.8680391541072284e-5</v>
+        <v>4.868035911312491e-5</v>
       </c>
       <c r="G85">
-        <v>7.331325324002859</v>
+        <v>7.331325324003551</v>
       </c>
       <c r="H85">
-        <v>4.991720344256106e-7</v>
+        <v>4.991720344258241e-7</v>
       </c>
       <c r="I85">
-        <v>0.00020299016040185795</v>
+        <v>0.00020299016040186722</v>
       </c>
       <c r="J85">
-        <v>0.001971698637571365</v>
+        <v>0.0019716986375714353</v>
       </c>
       <c r="K85">
-        <v>4.868036756105194e-5</v>
+        <v>4.8680367561051956e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3395,34 +3395,34 @@
         <v>0.08725591078440487</v>
       </c>
       <c r="B86">
-        <v>7.334471641509397</v>
+        <v>7.334470045953827</v>
       </c>
       <c r="C86">
         <v>4.6809475003463335e-7</v>
       </c>
       <c r="D86">
-        <v>0.0002112992710891697</v>
+        <v>0.0002112993635301737</v>
       </c>
       <c r="E86">
-        <v>0.001973077207504757</v>
+        <v>0.001973076900107038</v>
       </c>
       <c r="F86">
-        <v>4.869457612786752e-5</v>
+        <v>4.8694546013005146e-5</v>
       </c>
       <c r="G86">
-        <v>7.334489607609273</v>
+        <v>7.334489607609936</v>
       </c>
       <c r="H86">
-        <v>4.7606564362510843e-7</v>
+        <v>4.7606564362531215e-7</v>
       </c>
       <c r="I86">
-        <v>0.00021130469177697926</v>
+        <v>0.00021130469177698842</v>
       </c>
       <c r="J86">
-        <v>0.0019730794486179574</v>
+        <v>0.0019730794486180242</v>
       </c>
       <c r="K86">
-        <v>4.869455406678576e-5</v>
+        <v>4.8694554066785784e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3430,34 +3430,34 @@
         <v>0.0904020413248746</v>
       </c>
       <c r="B87">
-        <v>7.337688780329789</v>
+        <v>7.3376873100478655</v>
       </c>
       <c r="C87">
         <v>4.4462342058625663e-7</v>
       </c>
       <c r="D87">
-        <v>0.0002198914101660739</v>
+        <v>0.00021989149785152221</v>
       </c>
       <c r="E87">
-        <v>0.0019744951662696887</v>
+        <v>0.001974494880675315</v>
       </c>
       <c r="F87">
-        <v>4.870921825117703e-5</v>
+        <v>4.870919035025942e-5</v>
       </c>
       <c r="G87">
-        <v>7.3377057602103335</v>
+        <v>7.337705760210967</v>
       </c>
       <c r="H87">
-        <v>4.5219463979656913e-7</v>
+        <v>4.521946397967626e-7</v>
       </c>
       <c r="I87">
-        <v>0.00021989656391193922</v>
+        <v>0.0002198965639119482</v>
       </c>
       <c r="J87">
-        <v>0.0019744972725471866</v>
+        <v>0.00197449727254725</v>
       </c>
       <c r="K87">
-        <v>4.870919799662496e-5</v>
+        <v>4.8709197996624986e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3465,34 +3465,34 @@
         <v>0.0936528000461066</v>
       </c>
       <c r="B88">
-        <v>7.3409578710567365</v>
+        <v>7.340956519720713</v>
       </c>
       <c r="C88">
         <v>4.2037152514784767e-7</v>
       </c>
       <c r="D88">
-        <v>0.00022877157167630098</v>
+        <v>0.00022877165459986225</v>
       </c>
       <c r="E88">
-        <v>0.00197595130631436</v>
+        <v>0.0019759510416622493</v>
       </c>
       <c r="F88">
-        <v>4.872433479753783e-5</v>
+        <v>4.8724309010832496e-5</v>
       </c>
       <c r="G88">
-        <v>7.3409738376851985</v>
+        <v>7.340973837685801</v>
       </c>
       <c r="H88">
-        <v>4.2752977787285957e-7</v>
+        <v>4.275297778730425e-7</v>
       </c>
       <c r="I88">
-        <v>0.00022877644903718282</v>
+        <v>0.00022877644903719147</v>
       </c>
       <c r="J88">
-        <v>0.0019759532755392203</v>
+        <v>0.0019759532755392792</v>
       </c>
       <c r="K88">
-        <v>4.872431623609457e-5</v>
+        <v>4.872431623609461e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,34 +3500,34 @@
         <v>0.0970121695340651</v>
       </c>
       <c r="B89">
-        <v>7.344278883726395</v>
+        <v>7.344277645040714</v>
       </c>
       <c r="C89">
         <v>3.953093521144651e-7</v>
       </c>
       <c r="D89">
-        <v>0.00023795078533181467</v>
+        <v>0.00023795086351003657</v>
       </c>
       <c r="E89">
-        <v>0.0019774468242349822</v>
+        <v>0.0019774465796454817</v>
       </c>
       <c r="F89">
-        <v>4.873994317645375e-5</v>
+        <v>4.873991940391953e-5</v>
       </c>
       <c r="G89">
-        <v>7.34429380999024</v>
+        <v>7.344293809990811</v>
       </c>
       <c r="H89">
-        <v>4.0204084027381875e-7</v>
+        <v>4.0204084027399075e-7</v>
       </c>
       <c r="I89">
-        <v>0.00023795537652181325</v>
+        <v>0.00023795537652182162</v>
       </c>
       <c r="J89">
-        <v>0.001977448654228642</v>
+        <v>0.001977448654228698</v>
       </c>
       <c r="K89">
-        <v>4.873992619397781e-5</v>
+        <v>4.873992619397785e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3535,34 +3535,34 @@
         <v>0.10048426543648617</v>
       </c>
       <c r="B90">
-        <v>7.3476517006478845</v>
+        <v>7.347650568368094</v>
       </c>
       <c r="C90">
         <v>3.6940619719006984e-7</v>
       </c>
       <c r="D90">
-        <v>0.00024744045146732926</v>
+        <v>0.0002474405249389155</v>
       </c>
       <c r="E90">
-        <v>0.001978982948763957</v>
+        <v>0.0019789827233421993</v>
       </c>
       <c r="F90">
-        <v>4.875606133942136e-5</v>
+        <v>4.875603948100551e-5</v>
       </c>
       <c r="G90">
-        <v>7.34766555940031</v>
+        <v>7.347665559400848</v>
       </c>
       <c r="H90">
-        <v>3.7569659984859986e-7</v>
+        <v>3.756965998487604e-7</v>
       </c>
       <c r="I90">
-        <v>0.000247444746355808</v>
+        <v>0.0002474447463558161</v>
       </c>
       <c r="J90">
-        <v>0.0019789846373844395</v>
+        <v>0.0019789846373844916</v>
       </c>
       <c r="K90">
-        <v>4.875604582135968e-5</v>
+        <v>4.875604582135973e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3570,34 +3570,34 @@
         <v>0.10407334150506084</v>
       </c>
       <c r="B91">
-        <v>7.351076114817189</v>
+        <v>7.351075082769107</v>
       </c>
       <c r="C91">
         <v>3.426303257705121e-7</v>
       </c>
       <c r="D91">
-        <v>0.0002572523549469049</v>
+        <v>0.0002572524237718167</v>
       </c>
       <c r="E91">
-        <v>0.0019805609425570165</v>
+        <v>0.0019805607353964817</v>
       </c>
       <c r="F91">
-        <v>4.8772707799613014e-5</v>
+        <v>4.877268775555879e-5</v>
       </c>
       <c r="G91">
-        <v>7.351088878921322</v>
+        <v>7.351088878921826</v>
       </c>
       <c r="H91">
-        <v>3.4846478140896547e-7</v>
+        <v>3.484647814091143e-7</v>
       </c>
       <c r="I91">
-        <v>0.0002572563430099977</v>
+        <v>0.0002572563430100055</v>
       </c>
       <c r="J91">
-        <v>0.0019805624877034488</v>
+        <v>0.0019805624877034973</v>
       </c>
       <c r="K91">
-        <v>4.877269363129476e-5</v>
+        <v>4.8772693631294823e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3605,34 +3605,34 @@
         <v>0.10778379480681288</v>
       </c>
       <c r="B92">
-        <v>7.354551828521128</v>
+        <v>7.354550890620017</v>
       </c>
       <c r="C92">
         <v>3.1494893406479754e-7</v>
       </c>
       <c r="D92">
-        <v>0.00026739867952919216</v>
+        <v>0.00026739874378757934</v>
       </c>
       <c r="E92">
-        <v>0.001982182104072186</v>
+        <v>0.0019821819142584384</v>
       </c>
       <c r="F92">
-        <v>4.878990165224928e-5</v>
+        <v>4.878988332341084e-5</v>
       </c>
       <c r="G92">
-        <v>7.354563470879064</v>
+        <v>7.354563470879533</v>
       </c>
       <c r="H92">
-        <v>3.203120226989492e-7</v>
+        <v>3.2031202269908585e-7</v>
       </c>
       <c r="I92">
-        <v>0.0002674023498594663</v>
+        <v>0.0002674023498594738</v>
       </c>
       <c r="J92">
-        <v>0.001982183503695978</v>
+        <v>0.0019821835036960226</v>
       </c>
       <c r="K92">
-        <v>4.878988871919137e-5</v>
+        <v>4.8789888719191436e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3640,34 +3640,34 @@
         <v>0.11162017111105581</v>
       </c>
       <c r="B93">
-        <v>7.358078452148844</v>
+        <v>7.358077602418368</v>
       </c>
       <c r="C93">
         <v>2.863281089061904e-7</v>
       </c>
       <c r="D93">
-        <v>0.00027789202270879975</v>
+        <v>0.0002778920824997706</v>
       </c>
       <c r="E93">
-        <v>0.001983847769543234</v>
+        <v>0.0019838475961577863</v>
       </c>
       <c r="F93">
-        <v>4.880766259569498e-5</v>
+        <v>4.880764588385616e-5</v>
       </c>
       <c r="G93">
-        <v>7.358088945796801</v>
+        <v>7.358088945797235</v>
       </c>
       <c r="H93">
-        <v>2.9120383296914846e-7</v>
+        <v>2.912038329692725e-7</v>
       </c>
       <c r="I93">
-        <v>0.00027789536403391093</v>
+        <v>0.0002778953640339181</v>
       </c>
       <c r="J93">
-        <v>0.001983849021659772</v>
+        <v>0.0019838490216598126</v>
       </c>
       <c r="K93">
-        <v>4.880765078395419e-5</v>
+        <v>4.880765078395426e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3675,34 +3675,34 @@
         <v>0.11558717045852875</v>
       </c>
       <c r="B94">
-        <v>7.361655503227523</v>
+        <v>7.361654735818273</v>
       </c>
       <c r="C94">
         <v>2.567327862047405e-7</v>
       </c>
       <c r="D94">
-        <v>0.0002887454110519265</v>
+        <v>0.00028874546649216795</v>
       </c>
       <c r="E94">
-        <v>0.0019855593150500256</v>
+        <v>0.001985559157174293</v>
       </c>
       <c r="F94">
-        <v>4.8826010953314105e-5</v>
+        <v>4.8825995761507674e-5</v>
       </c>
       <c r="G94">
-        <v>7.36166482135037</v>
+        <v>7.361664821350768</v>
       </c>
       <c r="H94">
-        <v>2.611045508464772e-7</v>
+        <v>2.6110455084658827e-7</v>
       </c>
       <c r="I94">
-        <v>0.00028874841164973326</v>
+        <v>0.0002887484116497401</v>
       </c>
       <c r="J94">
-        <v>0.0019855604177419495</v>
+        <v>0.0019855604177419868</v>
       </c>
       <c r="K94">
-        <v>4.882600014980478e-5</v>
+        <v>4.882600014980484e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3710,34 +3710,34 @@
         <v>0.11968965291953414</v>
       </c>
       <c r="B95">
-        <v>7.365282405698092</v>
+        <v>7.365281714905444</v>
       </c>
       <c r="C95">
         <v>2.2612670798907007e-7</v>
       </c>
       <c r="D95">
-        <v>0.00029997231604509224</v>
+        <v>0.00029997236726735457</v>
       </c>
       <c r="E95">
-        <v>0.0019873181586879634</v>
+        <v>0.001987318015407259</v>
       </c>
       <c r="F95">
-        <v>4.884496769612051e-5</v>
+        <v>4.884495392894407e-5</v>
       </c>
       <c r="G95">
-        <v>7.365290521671741</v>
+        <v>7.365290521672102</v>
       </c>
       <c r="H95">
-        <v>2.2997730093576748e-7</v>
+        <v>2.2997730093586513e-7</v>
       </c>
       <c r="I95">
-        <v>0.00029997496376417843</v>
+        <v>0.0002999749637641848</v>
       </c>
       <c r="J95">
-        <v>0.001987319110111812</v>
+        <v>0.0019873191101118454</v>
       </c>
       <c r="K95">
-        <v>4.884495778891009e-5</v>
+        <v>4.884495778891015e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3745,34 +3745,34 @@
         <v>0.12393264454813166</v>
       </c>
       <c r="B96">
-        <v>7.368958489445503</v>
+        <v>7.368957869726568</v>
       </c>
       <c r="C96">
         <v>1.9447237798574308e-7</v>
       </c>
       <c r="D96">
-        <v>0.0003115866704765205</v>
+        <v>0.00031158671762798474</v>
       </c>
       <c r="E96">
-        <v>0.0019891257628384413</v>
+        <v>0.0019891256332459713</v>
       </c>
       <c r="F96">
-        <v>4.886455446626261e-5</v>
+        <v>4.886454203018768e-5</v>
       </c>
       <c r="G96">
-        <v>7.368965376890998</v>
+        <v>7.36896537689132</v>
       </c>
       <c r="H96">
-        <v>1.9778394844870256e-7</v>
+        <v>1.9778394844878647e-7</v>
       </c>
       <c r="I96">
-        <v>0.0003115889527468353</v>
+        <v>0.0003115889527468411</v>
       </c>
       <c r="J96">
-        <v>0.0019891265612342773</v>
+        <v>0.001989126561234307</v>
       </c>
       <c r="K96">
-        <v>4.886454534491189e-5</v>
+        <v>4.8864545344911954e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3780,34 +3780,34 @@
         <v>0.1283213435396829</v>
       </c>
       <c r="B97">
-        <v>7.372682990096853</v>
+        <v>7.372682436086361</v>
       </c>
       <c r="C97">
         <v>1.617310156819825e-7</v>
       </c>
       <c r="D97">
-        <v>0.0003236028853704718</v>
+        <v>0.00032360292861101955</v>
       </c>
       <c r="E97">
-        <v>0.0019909836365419984</v>
+        <v>0.001990983519742794</v>
       </c>
       <c r="F97">
-        <v>4.8884793601381904e-5</v>
+        <v>4.888478240505245e-5</v>
       </c>
       <c r="G97">
-        <v>7.372688622932694</v>
+        <v>7.372688622932978</v>
       </c>
       <c r="H97">
-        <v>1.644850524236927e-7</v>
+        <v>1.6448505242376244e-7</v>
       </c>
       <c r="I97">
-        <v>0.0003236047891388708</v>
+        <v>0.00032360478913887606</v>
       </c>
       <c r="J97">
-        <v>0.001990984280232577</v>
+        <v>0.0019909842802326035</v>
       </c>
       <c r="K97">
-        <v>4.8884785157245624e-5</v>
+        <v>4.888478515724567e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3815,34 +3815,34 @@
         <v>0.13286112659929092</v>
       </c>
       <c r="B98">
-        <v>7.376455049099168</v>
+        <v>7.376454555624034</v>
       </c>
       <c r="C98">
         <v>1.2786250881438952e-7</v>
       </c>
       <c r="D98">
-        <v>0.00033603586749559624</v>
+        <v>0.00033603590699600303</v>
       </c>
       <c r="E98">
-        <v>0.00199289333797557</v>
+        <v>0.0019928932330903204</v>
       </c>
       <c r="F98">
-        <v>4.890570815988637e-5</v>
+        <v>4.890569811440327e-5</v>
       </c>
       <c r="G98">
-        <v>7.376459401596641</v>
+        <v>7.376459401596886</v>
       </c>
       <c r="H98">
-        <v>1.3003981739578537e-7</v>
+        <v>1.3003981739584054e-7</v>
       </c>
       <c r="I98">
-        <v>0.00033603737923282507</v>
+        <v>0.0003360373792328297</v>
       </c>
       <c r="J98">
-        <v>0.0019928938253809874</v>
+        <v>0.001992893825381011</v>
       </c>
       <c r="K98">
-        <v>4.890570028640362e-5</v>
+        <v>4.890570028640367e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3850,34 +3850,34 @@
         <v>0.13755755552893628</v>
       </c>
       <c r="B99">
-        <v>7.38027371408701</v>
+        <v>7.380273276179428</v>
       </c>
       <c r="C99">
         <v>9.282536422658629e-8</v>
       </c>
       <c r="D99">
-        <v>0.00034890103746916654</v>
+        <v>0.00034890107340924427</v>
       </c>
       <c r="E99">
-        <v>0.0019948564770350284</v>
+        <v>0.001994856383203761</v>
       </c>
       <c r="F99">
-        <v>4.892732194718136e-5</v>
+        <v>4.892731296636935e-5</v>
       </c>
       <c r="G99">
-        <v>7.380276760909612</v>
+        <v>7.380276760909817</v>
       </c>
       <c r="H99">
-        <v>9.440604365751236e-8</v>
+        <v>9.44060436575524e-8</v>
       </c>
       <c r="I99">
-        <v>0.0003489021431797159</v>
+        <v>0.00034890214317971987</v>
       </c>
       <c r="J99">
-        <v>0.001994856806679772</v>
+        <v>0.001994856806679793</v>
       </c>
       <c r="K99">
-        <v>4.892731454016507e-5</v>
+        <v>4.892731454016511e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3885,34 +3885,34 @@
         <v>0.14241638404137996</v>
       </c>
       <c r="B100">
-        <v>7.3841379395482205</v>
+        <v>7.384137552457144</v>
       </c>
       <c r="C100">
         <v>5.6576657034781486e-8</v>
       </c>
       <c r="D100">
-        <v>0.000362214348479877</v>
+        <v>0.0003622143810465881</v>
       </c>
       <c r="E100">
-        <v>0.001996874718023929</v>
+        <v>0.001996874634409493</v>
       </c>
       <c r="F100">
-        <v>4.894965954290188e-5</v>
+        <v>4.894965154355592e-5</v>
       </c>
       <c r="G100">
-        <v>7.38413965577827</v>
+        <v>7.384139655778458</v>
       </c>
       <c r="H100">
-        <v>5.7540075124351284e-8</v>
+        <v>5.754007512437567e-8</v>
       </c>
       <c r="I100">
-        <v>0.000362215033637959</v>
+        <v>0.0003622150336379625</v>
       </c>
       <c r="J100">
-        <v>0.0019968748885312907</v>
+        <v>0.0019968748885313106</v>
       </c>
       <c r="K100">
-        <v>4.89496525007793e-5</v>
+        <v>4.8949652500779355e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3920,34 +3920,34 @@
         <v>0.1474435648091811</v>
       </c>
       <c r="B101">
-        <v>7.388046587794332</v>
+        <v>7.388046246995176</v>
       </c>
       <c r="C101">
         <v>1.907197803946592e-8</v>
       </c>
       <c r="D101">
-        <v>0.0003759923056527388</v>
+        <v>0.0003759923350383095</v>
       </c>
       <c r="E101">
-        <v>0.0019989497824491795</v>
+        <v>0.001998949708240484</v>
       </c>
       <c r="F101">
-        <v>4.897274632919182e-5</v>
+        <v>4.8972739231299896e-5</v>
       </c>
       <c r="G101">
-        <v>7.38804694898689</v>
+        <v>7.388046948986922</v>
       </c>
       <c r="H101">
-        <v>1.9396746354727667e-8</v>
+        <v>1.9396746354735883e-8</v>
       </c>
       <c r="I101">
-        <v>0.0003759925552202933</v>
+        <v>0.000375992555220294</v>
       </c>
       <c r="J101">
-        <v>0.001998949792558895</v>
+        <v>0.001998949792558898</v>
       </c>
       <c r="K101">
-        <v>4.8972739553252064e-5</v>
+        <v>4.897273955325208e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.nonuniform_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.nonuniform_analytical.solution.xlsx
@@ -455,34 +455,34 @@
         <v>-0.04889896869814063</v>
       </c>
       <c r="B2">
-        <v>8.133574143589207</v>
+        <v>8.13357414358921</v>
       </c>
       <c r="C2">
         <v>0.0002450169676502838</v>
       </c>
       <c r="D2">
-        <v>-2.5295286243278487e-7</v>
+        <v>-2.529528624327934e-7</v>
       </c>
       <c r="E2">
         <v>0.0019990012986896674</v>
       </c>
       <c r="F2">
-        <v>4.895588363633325e-5</v>
+        <v>4.8955883636333254e-5</v>
       </c>
       <c r="G2">
-        <v>8.133575322549788</v>
+        <v>8.133575322549742</v>
       </c>
       <c r="H2">
-        <v>0.0002450173372811815</v>
+        <v>0.0002450173372811814</v>
       </c>
       <c r="I2">
-        <v>-2.527084404753857e-7</v>
+        <v>-2.527084404754275e-7</v>
       </c>
       <c r="J2">
-        <v>0.001999001395977364</v>
+        <v>0.0019990013959773614</v>
       </c>
       <c r="K2">
-        <v>4.8955886001136805e-5</v>
+        <v>4.8955886001136696e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -490,34 +490,34 @@
         <v>-0.046729248132457935</v>
       </c>
       <c r="B3">
-        <v>8.100138370170663</v>
+        <v>8.100138370170662</v>
       </c>
       <c r="C3">
         <v>0.00023519727610256643</v>
       </c>
       <c r="D3">
-        <v>-7.511043661038371e-7</v>
+        <v>-7.511043661038317e-7</v>
       </c>
       <c r="E3">
         <v>0.0019970068688779452</v>
       </c>
       <c r="F3">
-        <v>4.8900050845052624e-5</v>
+        <v>4.890005084505261e-5</v>
       </c>
       <c r="G3">
-        <v>8.100142035706778</v>
+        <v>8.100142035706664</v>
       </c>
       <c r="H3">
-        <v>0.00023519837386438297</v>
+        <v>0.00023519837386438262</v>
       </c>
       <c r="I3">
-        <v>-7.503786260256443e-7</v>
+        <v>-7.503786260257674e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019970071625252527</v>
+        <v>0.001997007162525246</v>
       </c>
       <c r="K3">
-        <v>4.890005780790233e-5</v>
+        <v>4.8900057807902084e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -525,34 +525,34 @@
         <v>-0.044622902364851905</v>
       </c>
       <c r="B4">
-        <v>8.066300167450645</v>
+        <v>8.066300167450647</v>
       </c>
       <c r="C4">
         <v>0.0002256644053459053</v>
       </c>
       <c r="D4">
-        <v>-1.234232946703039e-6</v>
+        <v>-1.234232946703025e-6</v>
       </c>
       <c r="E4">
-        <v>0.0019950333298856624</v>
+        <v>0.001995033329885662</v>
       </c>
       <c r="F4">
         <v>4.8846716527065253e-5</v>
       </c>
       <c r="G4">
-        <v>8.066306461321824</v>
+        <v>8.066306461321654</v>
       </c>
       <c r="H4">
-        <v>0.00022566620983382668</v>
+        <v>0.00022566620983382617</v>
       </c>
       <c r="I4">
-        <v>-1.2330404569536148e-6</v>
+        <v>-1.2330404569538157e-6</v>
       </c>
       <c r="J4">
-        <v>0.001995033821031842</v>
+        <v>0.001995033821031834</v>
       </c>
       <c r="K4">
-        <v>4.884672782202169e-5</v>
+        <v>4.884672782202133e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -560,34 +560,34 @@
         <v>-0.04257735085834355</v>
       </c>
       <c r="B5">
-        <v>8.032130130012593</v>
+        <v>8.03213013001259</v>
       </c>
       <c r="C5">
         <v>0.00021640667642149544</v>
       </c>
       <c r="D5">
-        <v>-1.7028933753639286e-6</v>
+        <v>-1.7028933753639464e-6</v>
       </c>
       <c r="E5">
         <v>0.0019930767711754125</v>
       </c>
       <c r="F5">
-        <v>4.8796027017314294e-5</v>
+        <v>4.879602701731428e-5</v>
       </c>
       <c r="G5">
-        <v>8.032139180851543</v>
+        <v>8.03213918085127</v>
       </c>
       <c r="H5">
-        <v>0.00021640916715320665</v>
+        <v>0.000216409167153206</v>
       </c>
       <c r="I5">
-        <v>-1.701248175019235e-6</v>
+        <v>-1.7012481750195096e-6</v>
       </c>
       <c r="J5">
-        <v>0.001993077461959239</v>
+        <v>0.0019930774619592254</v>
       </c>
       <c r="K5">
-        <v>4.879604233361642e-5</v>
+        <v>4.87960423336159e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -601,28 +601,28 @@
         <v>0.0002074127474538254</v>
       </c>
       <c r="D6">
-        <v>-2.15762209349423e-6</v>
+        <v>-2.157622093494248e-6</v>
       </c>
       <c r="E6">
-        <v>0.001991133510363418</v>
+        <v>0.0019911335103634177</v>
       </c>
       <c r="F6">
         <v>4.874811682098521e-5</v>
       </c>
       <c r="G6">
-        <v>7.997730584984691</v>
+        <v>7.997730584984302</v>
       </c>
       <c r="H6">
-        <v>0.00020741590478634556</v>
+        <v>0.00020741590478634474</v>
       </c>
       <c r="I6">
-        <v>-2.1555377114748785e-6</v>
+        <v>-2.155537711475222e-6</v>
       </c>
       <c r="J6">
-        <v>0.001991134403832071</v>
+        <v>0.0019911344038320523</v>
       </c>
       <c r="K6">
-        <v>4.8748135799966685e-5</v>
+        <v>4.874813579996598e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -630,34 +630,34 @@
         <v>-0.038658677813334305</v>
       </c>
       <c r="B7">
-        <v>7.963175671999751</v>
+        <v>7.9631756719997515</v>
       </c>
       <c r="C7">
         <v>0.00019867159975609676</v>
       </c>
       <c r="D7">
-        <v>-2.5989392820885694e-6</v>
+        <v>-2.5989392820885655e-6</v>
       </c>
       <c r="E7">
         <v>0.001989200207106942</v>
       </c>
       <c r="F7">
-        <v>4.870310170975047e-5</v>
+        <v>4.870310170975046e-5</v>
       </c>
       <c r="G7">
-        <v>7.963190532075102</v>
+        <v>7.963190532074617</v>
       </c>
       <c r="H7">
-        <v>0.00019867540483114933</v>
+        <v>0.0001986754048311484</v>
       </c>
       <c r="I7">
-        <v>-2.5964287573303575e-6</v>
+        <v>-2.596428757330766e-6</v>
       </c>
       <c r="J7">
-        <v>0.001989201307193497</v>
+        <v>0.0019892013071934733</v>
       </c>
       <c r="K7">
-        <v>4.870312395670874e-5</v>
+        <v>4.870312395670791e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -665,34 +665,34 @@
         <v>-0.03678075541029506</v>
       </c>
       <c r="B8">
-        <v>7.9286285149868005</v>
+        <v>7.9286285149868</v>
       </c>
       <c r="C8">
         <v>0.00019017252433393882</v>
       </c>
       <c r="D8">
-        <v>-3.027351218930478e-6</v>
+        <v>-3.0273512189304563e-6</v>
       </c>
       <c r="E8">
-        <v>0.0019872739802864474</v>
+        <v>0.001987273980286448</v>
       </c>
       <c r="F8">
         <v>4.866107140816928e-5</v>
       </c>
       <c r="G8">
-        <v>7.9286463638674345</v>
+        <v>7.928646363866858</v>
       </c>
       <c r="H8">
-        <v>0.00019017695907574107</v>
+        <v>0.0001901769590757401</v>
       </c>
       <c r="I8">
-        <v>-3.024427110578612e-6</v>
+        <v>-3.0244271105790805e-6</v>
       </c>
       <c r="J8">
-        <v>0.0019872752915507286</v>
+        <v>0.001987275291550701</v>
       </c>
       <c r="K8">
-        <v>4.866109649260766e-5</v>
+        <v>4.866109649260674e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -700,34 +700,34 @@
         <v>-0.03495401965761728</v>
       </c>
       <c r="B9">
-        <v>7.894218264630098</v>
+        <v>7.8942182646301005</v>
       </c>
       <c r="C9">
         <v>0.00018190510877796878</v>
       </c>
       <c r="D9">
-        <v>-3.443352802801342e-6</v>
+        <v>-3.4433528028013423e-6</v>
       </c>
       <c r="E9">
         <v>0.0019853525146377427</v>
       </c>
       <c r="F9">
-        <v>4.862208268359273e-5</v>
+        <v>4.8622082683592737e-5</v>
       </c>
       <c r="G9">
-        <v>7.894239106176041</v>
+        <v>7.89423910617538</v>
       </c>
       <c r="H9">
-        <v>0.00018191015598298255</v>
+        <v>0.00018191015598298157</v>
       </c>
       <c r="I9">
-        <v>-3.440027203125406e-6</v>
+        <v>-3.4400272031259316e-6</v>
       </c>
       <c r="J9">
-        <v>0.0019853540421545125</v>
+        <v>0.00198535404215448</v>
       </c>
       <c r="K9">
-        <v>4.8622110155954795e-5</v>
+        <v>4.86221101559538e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -735,7 +735,7 @@
         <v>-0.03317623257555752</v>
       </c>
       <c r="B10">
-        <v>7.860094175121829</v>
+        <v>7.860094175121828</v>
       </c>
       <c r="C10">
         <v>0.00017385922455334337</v>
@@ -747,22 +747,22 @@
         <v>0.001983434140985834</v>
       </c>
       <c r="F10">
-        <v>4.858615380663567e-5</v>
+        <v>4.858615380663568e-5</v>
       </c>
       <c r="G10">
-        <v>7.86011796990414</v>
+        <v>7.8601179699034</v>
       </c>
       <c r="H10">
-        <v>0.00017386486770491863</v>
+        <v>0.0001738648677049176</v>
       </c>
       <c r="I10">
-        <v>-3.8437145905107625e-6</v>
+        <v>-3.843714590511343e-6</v>
       </c>
       <c r="J10">
-        <v>0.001983435890027295</v>
+        <v>0.001983435890027258</v>
       </c>
       <c r="K10">
-        <v>4.8586183211073915e-5</v>
+        <v>4.858618321107287e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,7 +770,7 @@
         <v>-0.03144521615261516</v>
       </c>
       <c r="B11">
-        <v>7.8264069437382</v>
+        <v>7.826406943738201</v>
       </c>
       <c r="C11">
         <v>0.00016602501474433047</v>
@@ -779,25 +779,25 @@
         <v>-4.240062251498455e-6</v>
       </c>
       <c r="E11">
-        <v>0.001981517875634232</v>
+        <v>0.0019815178756342317</v>
       </c>
       <c r="F11">
-        <v>4.8553261305852404e-5</v>
+        <v>4.855326130585241e-5</v>
       </c>
       <c r="G11">
-        <v>7.826433609209141</v>
+        <v>7.826433609208328</v>
       </c>
       <c r="H11">
-        <v>0.00016603123803506323</v>
+        <v>0.00016603123803506217</v>
       </c>
       <c r="I11">
-        <v>-4.235968142076888e-6</v>
+        <v>-4.2359681420775175e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019815198513829075</v>
+        <v>0.0019815198513828667</v>
       </c>
       <c r="K11">
-        <v>4.8553292192549094e-5</v>
+        <v>4.8553292192548003e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,13 +805,13 @@
         <v>-0.02975884967719607</v>
       </c>
       <c r="B12">
-        <v>7.793301474739145</v>
+        <v>7.7933014747391445</v>
       </c>
       <c r="C12">
         <v>0.0001583928824391198</v>
       </c>
       <c r="D12">
-        <v>-4.6217235458260065e-6</v>
+        <v>-4.621723545826e-6</v>
       </c>
       <c r="E12">
         <v>0.001979603409766732</v>
@@ -820,19 +820,19 @@
         <v>4.852333966051009e-5</v>
       </c>
       <c r="G12">
-        <v>7.79333088903063</v>
+        <v>7.793330889029753</v>
       </c>
       <c r="H12">
-        <v>0.00015839967064521933</v>
+        <v>0.00015839967064521822</v>
       </c>
       <c r="I12">
-        <v>-4.617261588455603e-6</v>
+        <v>-4.617261588456275e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019796056170686706</v>
+        <v>0.0019796056170686255</v>
       </c>
       <c r="K12">
-        <v>4.8523371604952216e-5</v>
+        <v>4.85233716049511e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -852,22 +852,22 @@
         <v>0.001977691047996105</v>
       </c>
       <c r="F13">
-        <v>4.849628410545773e-5</v>
+        <v>4.849628410545774e-5</v>
       </c>
       <c r="G13">
-        <v>7.760942057809822</v>
+        <v>7.760942057808888</v>
       </c>
       <c r="H13">
-        <v>0.00015096081866003457</v>
+        <v>0.00015096081866003346</v>
       </c>
       <c r="I13">
-        <v>-4.988063940362079e-6</v>
+        <v>-4.988063940362796e-6</v>
       </c>
       <c r="J13">
-        <v>0.001977693491063478</v>
+        <v>0.0019776934910634295</v>
       </c>
       <c r="K13">
-        <v>4.849631671709145e-5</v>
+        <v>4.8496316717090316e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -875,34 +875,34 @@
         <v>-0.026511854700278226</v>
       </c>
       <c r="B14">
-        <v>7.729346744909792</v>
+        <v>7.729346744909794</v>
       </c>
       <c r="C14">
         <v>0.0001436977018998037</v>
       </c>
       <c r="D14">
-        <v>-5.354004245847756e-6</v>
+        <v>-5.354004245847757e-6</v>
       </c>
       <c r="E14">
-        <v>0.001975781604255689</v>
+        <v>0.0019757816042556887</v>
       </c>
       <c r="F14">
-        <v>4.847195618963448e-5</v>
+        <v>4.847195618963449e-5</v>
       </c>
       <c r="G14">
-        <v>7.729381164057621</v>
+        <v>7.729381164056638</v>
       </c>
       <c r="H14">
-        <v>0.0001437055758535105</v>
+        <v>0.0001437055758535094</v>
       </c>
       <c r="I14">
-        <v>-5.348838045811157e-6</v>
+        <v>-5.34883804581191e-6</v>
       </c>
       <c r="J14">
-        <v>0.001975784286381583</v>
+        <v>0.001975784286381531</v>
       </c>
       <c r="K14">
-        <v>4.84719891200274e-5</v>
+        <v>4.847198912002625e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,34 +910,34 @@
         <v>-0.024947248223872683</v>
       </c>
       <c r="B15">
-        <v>7.6987036727151725</v>
+        <v>7.698703672715173</v>
       </c>
       <c r="C15">
         <v>0.0001366166784375094</v>
       </c>
       <c r="D15">
-        <v>-5.70553825263329e-6</v>
+        <v>-5.705538252633291e-6</v>
       </c>
       <c r="E15">
         <v>0.00197387627053191</v>
       </c>
       <c r="F15">
-        <v>4.845019129316937e-5</v>
+        <v>4.8450191293169366e-5</v>
       </c>
       <c r="G15">
-        <v>7.698740301558504</v>
+        <v>7.698740301557479</v>
       </c>
       <c r="H15">
-        <v>0.00013662507274887122</v>
+        <v>0.0001366250727488701</v>
       </c>
       <c r="I15">
-        <v>-5.7000359305381295e-6</v>
+        <v>-5.700035930538917e-6</v>
       </c>
       <c r="J15">
-        <v>0.001973879193756819</v>
+        <v>0.0019738791937567637</v>
       </c>
       <c r="K15">
-        <v>4.845022424061134e-5</v>
+        <v>4.845022424061021e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -951,28 +951,28 @@
         <v>0.00012970178230923006</v>
       </c>
       <c r="D16">
-        <v>-6.047915057272289e-6</v>
+        <v>-6.047915057272288e-6</v>
       </c>
       <c r="E16">
-        <v>0.001971976477737754</v>
+        <v>0.0019719764777377546</v>
       </c>
       <c r="F16">
         <v>4.8430807085982744e-5</v>
       </c>
       <c r="G16">
-        <v>7.66908791859272</v>
+        <v>7.66908791859166</v>
       </c>
       <c r="H16">
-        <v>0.00012971068004944384</v>
+        <v>0.00012971068004944273</v>
       </c>
       <c r="I16">
-        <v>-6.042088540776965e-6</v>
+        <v>-6.0420885407777826e-6</v>
       </c>
       <c r="J16">
-        <v>0.001971979642383691</v>
+        <v>0.001971979642383632</v>
       </c>
       <c r="K16">
-        <v>4.843083979454244e-5</v>
+        <v>4.8430839794541317e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -995,19 +995,19 @@
         <v>4.8413611934728976e-5</v>
       </c>
       <c r="G17">
-        <v>7.640469083810293</v>
+        <v>7.6404690838092035</v>
       </c>
       <c r="H17">
-        <v>0.00012295402672777338</v>
+        <v>0.00012295402672777233</v>
       </c>
       <c r="I17">
-        <v>-6.375385899161682e-6</v>
+        <v>-6.375385899162527e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019700871719569115</v>
+        <v>0.0019700871719568486</v>
       </c>
       <c r="K17">
-        <v>4.841364418442272e-5</v>
+        <v>4.8413644184421604e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,34 +1015,34 @@
         <v>-0.020466118635945926</v>
       </c>
       <c r="B18">
-        <v>7.612865481085047</v>
+        <v>7.612865481085045</v>
       </c>
       <c r="C18">
         <v>0.00011633720740498593</v>
       </c>
       <c r="D18">
-        <v>-6.7066686906622275e-6</v>
+        <v>-6.706668690662227e-6</v>
       </c>
       <c r="E18">
-        <v>0.0019681996955695997</v>
+        <v>0.0019681996955696</v>
       </c>
       <c r="F18">
-        <v>4.839841247992648e-5</v>
+        <v>4.8398412479926476e-5</v>
       </c>
       <c r="G18">
-        <v>7.61290735846289</v>
+        <v>7.612907358461776</v>
       </c>
       <c r="H18">
-        <v>0.00011634704247168512</v>
+        <v>0.00011634704247168413</v>
       </c>
       <c r="I18">
-        <v>-6.700241587336019e-6</v>
+        <v>-6.700241587336889e-6</v>
       </c>
       <c r="J18">
-        <v>0.0019682033327724736</v>
+        <v>0.001968203332772407</v>
       </c>
       <c r="K18">
-        <v>4.839844407789892e-5</v>
+        <v>4.8398444077897826e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1056,7 +1056,7 @@
         <v>0.00010987178610915522</v>
       </c>
       <c r="D19">
-        <v>-7.023524747266364e-6</v>
+        <v>-7.023524747266349e-6</v>
       </c>
       <c r="E19">
         <v>0.0019663257677192923</v>
@@ -1065,19 +1065,19 @@
         <v>4.8385019910310906e-5</v>
       </c>
       <c r="G19">
-        <v>7.586407817450218</v>
+        <v>7.586407817449084</v>
       </c>
       <c r="H19">
-        <v>0.00010988203653898886</v>
+        <v>0.0001098820365389879</v>
       </c>
       <c r="I19">
-        <v>-7.016833338198137e-6</v>
+        <v>-7.016833338199031e-6</v>
       </c>
       <c r="J19">
-        <v>0.001966329626840901</v>
+        <v>0.00196632962684083</v>
       </c>
       <c r="K19">
-        <v>4.838505067779198e-5</v>
+        <v>4.8385050677790894e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1085,34 +1085,34 @@
         <v>-0.01763774134333008</v>
       </c>
       <c r="B20">
-        <v>7.560916826382249</v>
+        <v>7.5609168263822495</v>
       </c>
       <c r="C20">
         <v>0.00010354122062736035</v>
       </c>
       <c r="D20">
-        <v>-7.3320276130930935e-6</v>
+        <v>-7.332027613093094e-6</v>
       </c>
       <c r="E20">
         <v>0.001964463437406933</v>
       </c>
       <c r="F20">
-        <v>4.837325475894406e-5</v>
+        <v>4.8373254758944056e-5</v>
       </c>
       <c r="G20">
-        <v>7.560960769549561</v>
+        <v>7.5609607695484105</v>
       </c>
       <c r="H20">
-        <v>0.00010355182954025905</v>
+        <v>0.0001035518295402581</v>
       </c>
       <c r="I20">
-        <v>-7.325109802011028e-6</v>
+        <v>-7.325109802011944e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019644674990984957</v>
+        <v>0.00196446749909842</v>
       </c>
       <c r="K20">
-        <v>4.837328451450346e-5</v>
+        <v>4.8373284514502404e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1129,25 +1129,25 @@
         <v>-7.631743709734346e-6</v>
       </c>
       <c r="E21">
-        <v>0.0019626141510816113</v>
+        <v>0.0019626141510816117</v>
       </c>
       <c r="F21">
         <v>4.8362950272157596e-5</v>
       </c>
       <c r="G21">
-        <v>7.53654580359203</v>
+        <v>7.536545803590867</v>
       </c>
       <c r="H21">
-        <v>9.734995326201456e-5</v>
+        <v>9.734995326201363e-5</v>
       </c>
       <c r="I21">
-        <v>-7.624653406490612e-6</v>
+        <v>-7.624653406491551e-6</v>
       </c>
       <c r="J21">
-        <v>0.001962618385008762</v>
+        <v>0.0019626183850086822</v>
       </c>
       <c r="K21">
-        <v>4.8362978819377915e-5</v>
+        <v>4.8362978819376865e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1170,19 +1170,19 @@
         <v>4.8353954536138854e-5</v>
       </c>
       <c r="G22">
-        <v>7.513135888326986</v>
+        <v>7.513135888325812</v>
       </c>
       <c r="H22">
-        <v>9.127093164551517e-5</v>
+        <v>9.127093164551425e-5</v>
       </c>
       <c r="I22">
-        <v>-7.914491378879837e-6</v>
+        <v>-7.914491378880796e-6</v>
       </c>
       <c r="J22">
-        <v>0.0019607838174001504</v>
+        <v>0.0019607838174000667</v>
       </c>
       <c r="K22">
-        <v>4.835398165186585e-5</v>
+        <v>4.835398165186481e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1190,34 +1190,34 @@
         <v>-0.013599062418082824</v>
       </c>
       <c r="B23">
-        <v>7.490657772557749</v>
+        <v>7.490657772557748</v>
       </c>
       <c r="C23">
         <v>8.52995876244567e-5</v>
       </c>
       <c r="D23">
-        <v>-8.200037718757438e-6</v>
+        <v>-8.200037718757436e-6</v>
       </c>
       <c r="E23">
         <v>0.0019589611649297248</v>
       </c>
       <c r="F23">
-        <v>4.8346131596149255e-5</v>
+        <v>4.834613159614925e-5</v>
       </c>
       <c r="G23">
-        <v>7.49070133428337</v>
+        <v>7.490701334282188</v>
       </c>
       <c r="H23">
-        <v>8.531064725237014e-5</v>
+        <v>8.531064725236922e-5</v>
       </c>
       <c r="I23">
-        <v>-8.192852189964807e-6</v>
+        <v>-8.192852189965784e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019589655915700976</v>
+        <v>0.001958965591570009</v>
       </c>
       <c r="K23">
-        <v>4.834615702506706e-5</v>
+        <v>4.834615702506604e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1225,34 +1225,34 @@
         <v>-0.012300576728531541</v>
       </c>
       <c r="B24">
-        <v>7.469171410457827</v>
+        <v>7.469171410457826</v>
       </c>
       <c r="C24">
         <v>7.945591163798943e-5</v>
       </c>
       <c r="D24">
-        <v>-8.463927657604099e-6</v>
+        <v>-8.463927657604086e-6</v>
       </c>
       <c r="E24">
-        <v>0.001957161573111479</v>
+        <v>0.0019571615731114795</v>
       </c>
       <c r="F24">
-        <v>4.833936179490946e-5</v>
+        <v>4.8339361794909474e-5</v>
       </c>
       <c r="G24">
-        <v>7.469213476147972</v>
+        <v>7.469213476146782</v>
       </c>
       <c r="H24">
-        <v>7.946678513084275e-5</v>
+        <v>7.946678513084185e-5</v>
       </c>
       <c r="I24">
-        <v>-8.4568730936017e-6</v>
+        <v>-8.456873093602695e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019571659823521942</v>
+        <v>0.001957165982352102</v>
       </c>
       <c r="K24">
-        <v>4.8339385250260904e-5</v>
+        <v>4.83393852502599e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,34 +1260,34 @@
         <v>-0.011023286409034213</v>
       </c>
       <c r="B25">
-        <v>7.44860826691471</v>
+        <v>7.448608266914714</v>
       </c>
       <c r="C25">
         <v>7.372888340807497e-5</v>
       </c>
       <c r="D25">
-        <v>-8.709041376062064e-6</v>
+        <v>-8.70904137606208e-6</v>
       </c>
       <c r="E25">
         <v>0.0019553837118497595</v>
       </c>
       <c r="F25">
-        <v>4.833354151728978e-5</v>
+        <v>4.8333541517289776e-5</v>
       </c>
       <c r="G25">
-        <v>7.448647949406229</v>
+        <v>7.448647949405034</v>
       </c>
       <c r="H25">
-        <v>7.373932920266496e-5</v>
+        <v>7.373932920266412e-5</v>
       </c>
       <c r="I25">
-        <v>-8.702275222431256e-6</v>
+        <v>-8.70227522243227e-6</v>
       </c>
       <c r="J25">
-        <v>0.001955387999827721</v>
+        <v>0.0019553879998276246</v>
       </c>
       <c r="K25">
-        <v>4.833356268999692e-5</v>
+        <v>4.833356268999592e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1307,22 +1307,22 @@
         <v>0.001953631619506667</v>
       </c>
       <c r="F26">
-        <v>4.8328582481052536e-5</v>
+        <v>4.832858248105254e-5</v>
       </c>
       <c r="G26">
-        <v>7.428987431000048</v>
+        <v>7.4289874309988475</v>
       </c>
       <c r="H26">
-        <v>6.813106811247634e-5</v>
+        <v>6.813106811247555e-5</v>
       </c>
       <c r="I26">
-        <v>-8.923034425487338e-6</v>
+        <v>-8.923034425488367e-6</v>
       </c>
       <c r="J26">
-        <v>0.001953635662223199</v>
+        <v>0.001953635662223099</v>
       </c>
       <c r="K26">
-        <v>4.832860105463754e-5</v>
+        <v>4.832860105463656e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1330,34 +1330,34 @@
         <v>-0.008526056568552345</v>
       </c>
       <c r="B27">
-        <v>7.410191784918882</v>
+        <v>7.410191784918883</v>
       </c>
       <c r="C27">
         <v>6.263933736158594e-5</v>
       </c>
       <c r="D27">
-        <v>-9.116705879470646e-6</v>
+        <v>-9.116705879470632e-6</v>
       </c>
       <c r="E27">
-        <v>0.0019519105993563992</v>
+        <v>0.001951910599356399</v>
       </c>
       <c r="F27">
-        <v>4.8324410673179863e-5</v>
+        <v>4.832441067317987e-5</v>
       </c>
       <c r="G27">
-        <v>7.410223703534837</v>
+        <v>7.41022370353363</v>
       </c>
       <c r="H27">
-        <v>6.264805057951725e-5</v>
+        <v>6.264805057951653e-5</v>
       </c>
       <c r="I27">
-        <v>-9.111086458835992e-6</v>
+        <v>-9.111086458837038e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019519142566893472</v>
+        <v>0.001951914256689243</v>
       </c>
       <c r="K27">
-        <v>4.8324426346306905e-5</v>
+        <v>4.8324426346305936e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1365,7 +1365,7 @@
         <v>-0.00730305762871666</v>
       </c>
       <c r="B28">
-        <v>7.392332404779484</v>
+        <v>7.392332404779486</v>
       </c>
       <c r="C28">
         <v>5.729255557643234e-5</v>
@@ -1374,25 +1374,25 @@
         <v>-9.260845597049128e-6</v>
       </c>
       <c r="E28">
-        <v>0.001950227429479699</v>
+        <v>0.0019502274294796989</v>
       </c>
       <c r="F28">
         <v>4.8320965005546946e-5</v>
       </c>
       <c r="G28">
-        <v>7.392358905205158</v>
+        <v>7.392358905203945</v>
       </c>
       <c r="H28">
-        <v>5.729992002460834e-5</v>
+        <v>5.7299920024607674e-5</v>
       </c>
       <c r="I28">
-        <v>-9.256111924495899e-6</v>
+        <v>-9.256111924496959e-6</v>
       </c>
       <c r="J28">
-        <v>0.001950230552208051</v>
+        <v>0.0019502305522079426</v>
       </c>
       <c r="K28">
-        <v>4.832097751938869e-5</v>
+        <v>4.832097751938774e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1400,7 +1400,7 @@
         <v>-0.006095131473061968</v>
       </c>
       <c r="B29">
-        <v>7.375385697702583</v>
+        <v>7.3753856977025825</v>
       </c>
       <c r="C29">
         <v>5.2094356601681106e-5</v>
@@ -1409,25 +1409,25 @@
         <v>-9.349090900620674e-6</v>
       </c>
       <c r="E29">
-        <v>0.0019485904868328271</v>
+        <v>0.0019485904868328276</v>
       </c>
       <c r="F29">
         <v>4.83181957530721e-5</v>
       </c>
       <c r="G29">
-        <v>7.375405850047033</v>
+        <v>7.375405850045815</v>
       </c>
       <c r="H29">
-        <v>5.210005544861215e-5</v>
+        <v>5.2100055448611535e-5</v>
       </c>
       <c r="I29">
-        <v>-9.345447398616172e-6</v>
+        <v>-9.345447398617258e-6</v>
       </c>
       <c r="J29">
-        <v>0.001948592926623084</v>
+        <v>0.0019485929266229722</v>
       </c>
       <c r="K29">
-        <v>4.831820491711212e-5</v>
+        <v>4.8318204917111193e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1450,19 +1450,19 @@
         <v>4.831606283818292e-5</v>
       </c>
       <c r="G30">
-        <v>7.359387354380188</v>
+        <v>7.359387354378963</v>
       </c>
       <c r="H30">
-        <v>4.7065453544353235e-5</v>
+        <v>4.706545354435266e-5</v>
       </c>
       <c r="I30">
-        <v>-9.364163261758307e-6</v>
+        <v>-9.364163261759415e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019470113716500664</v>
+        <v>0.0019470113716499508</v>
       </c>
       <c r="K30">
-        <v>4.83160685548848e-5</v>
+        <v>4.831606855488391e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1479,25 +1479,25 @@
         <v>-9.296299522542027e-6</v>
       </c>
       <c r="E31">
-        <v>0.0019454966530185168</v>
+        <v>0.001945496653018517</v>
       </c>
       <c r="F31">
         <v>4.831453403146398e-5</v>
       </c>
       <c r="G31">
-        <v>7.344334576020376</v>
+        <v>7.344334576019145</v>
       </c>
       <c r="H31">
-        <v>4.221630801152323e-5</v>
+        <v>4.221630801152268e-5</v>
       </c>
       <c r="I31">
-        <v>-9.295335837849778e-6</v>
+        <v>-9.295335837850918e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019454973478110701</v>
+        <v>0.0019454973478109502</v>
       </c>
       <c r="K31">
-        <v>4.831453631615426e-5</v>
+        <v>4.831453631615341e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1511,7 +1511,7 @@
         <v>3.757596762926318e-5</v>
       </c>
       <c r="D32">
-        <v>-9.119998146107097e-6</v>
+        <v>-9.11999814610707e-6</v>
       </c>
       <c r="E32">
         <v>0.0019440637758832073</v>
@@ -1520,19 +1520,19 @@
         <v>4.831358314364582e-5</v>
       </c>
       <c r="G32">
-        <v>7.330284455859505</v>
+        <v>7.330284455858266</v>
       </c>
       <c r="H32">
-        <v>3.7575269119202365e-5</v>
+        <v>3.757526911920184e-5</v>
       </c>
       <c r="I32">
-        <v>-9.12052268498826e-6</v>
+        <v>-9.120522684989436e-6</v>
       </c>
       <c r="J32">
-        <v>0.00194406347472495</v>
+        <v>0.0019440634747248263</v>
       </c>
       <c r="K32">
-        <v>4.831358213485498e-5</v>
+        <v>4.831358213485416e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1540,34 +1540,34 @@
         <v>-0.001384796538244068</v>
       </c>
       <c r="B33">
-        <v>7.317286365496365</v>
+        <v>7.317286365496367</v>
       </c>
       <c r="C33">
         <v>3.316940221803574e-5</v>
       </c>
       <c r="D33">
-        <v>-8.818409007328859e-6</v>
+        <v>-8.81840900732886e-6</v>
       </c>
       <c r="E33">
         <v>0.0019427243748271112</v>
       </c>
       <c r="F33">
-        <v>4.831318828427399e-5</v>
+        <v>4.8313188284273985e-5</v>
       </c>
       <c r="G33">
-        <v>7.317276437160852</v>
+        <v>7.317276437159605</v>
       </c>
       <c r="H33">
-        <v>3.31664035117247e-5</v>
+        <v>3.316640351172419e-5</v>
       </c>
       <c r="I33">
-        <v>-8.82042759340692e-6</v>
+        <v>-8.820427593408144e-6</v>
       </c>
       <c r="J33">
-        <v>0.0019427230595530046</v>
+        <v>0.0019427230595528762</v>
       </c>
       <c r="K33">
-        <v>4.8313184247041265e-5</v>
+        <v>4.831318424704049e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1590,19 +1590,19 @@
         <v>4.831333025564672e-5</v>
       </c>
       <c r="G34">
-        <v>7.305348709515335</v>
+        <v>7.30534870951408</v>
       </c>
       <c r="H34">
-        <v>2.9013908313810324e-5</v>
+        <v>2.9013908313809825e-5</v>
       </c>
       <c r="I34">
-        <v>-8.37571896116198e-6</v>
+        <v>-8.375718961163262e-6</v>
       </c>
       <c r="J34">
-        <v>0.001941489486082219</v>
+        <v>0.0019414894860820856</v>
       </c>
       <c r="K34">
-        <v>4.831332357466488e-5</v>
+        <v>4.831332357466414e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1610,7 +1610,7 @@
         <v>0.0009177033683987063</v>
       </c>
       <c r="B35">
-        <v>7.294557220708654</v>
+        <v>7.2945572207086515</v>
       </c>
       <c r="C35">
         <v>2.5147790115978112e-5</v>
@@ -1619,25 +1619,25 @@
         <v>-7.763252318093851e-6</v>
       </c>
       <c r="E35">
-        <v>0.00194037866749745</v>
+        <v>0.0019403786674974499</v>
       </c>
       <c r="F35">
         <v>4.8313991137688784e-5</v>
       </c>
       <c r="G35">
-        <v>7.294534272272138</v>
+        <v>7.294534272270874</v>
       </c>
       <c r="H35">
-        <v>2.514066853142868e-5</v>
+        <v>2.514066853142819e-5</v>
       </c>
       <c r="I35">
-        <v>-7.76794493278838e-6</v>
+        <v>-7.767944932789733e-6</v>
       </c>
       <c r="J35">
-        <v>0.0019403755070805122</v>
+        <v>0.0019403755070803743</v>
       </c>
       <c r="K35">
-        <v>4.8313982301816795e-5</v>
+        <v>4.831398230181611e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1645,34 +1645,34 @@
         <v>0.0020607480858926483</v>
       </c>
       <c r="B36">
-        <v>7.284884788030078</v>
+        <v>7.28488478803008</v>
       </c>
       <c r="C36">
         <v>2.1575458140936757e-5</v>
       </c>
       <c r="D36">
-        <v>-6.9747660326479295e-6</v>
+        <v>-6.974766032647931e-6</v>
       </c>
       <c r="E36">
-        <v>0.0019393963677999675</v>
+        <v>0.0019393963677999673</v>
       </c>
       <c r="F36">
         <v>4.831515310290752e-5</v>
       </c>
       <c r="G36">
-        <v>7.284857135930615</v>
+        <v>7.284857135929343</v>
       </c>
       <c r="H36">
-        <v>2.156677008754909e-5</v>
+        <v>2.1566770087548603e-5</v>
       </c>
       <c r="I36">
-        <v>-6.980473730466616e-6</v>
+        <v>-6.980473730468054e-6</v>
       </c>
       <c r="J36">
-        <v>0.0019393924973866415</v>
+        <v>0.0019393924973864992</v>
       </c>
       <c r="K36">
-        <v>4.83151426837085e-5</v>
+        <v>4.8315142683707874e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1680,7 +1680,7 @@
         <v>0.0032001918522172254</v>
       </c>
       <c r="B37">
-        <v>7.2763597335352035</v>
+        <v>7.276359733535202</v>
       </c>
       <c r="C37">
         <v>1.831787066340181e-5</v>
@@ -1689,25 +1689,25 @@
         <v>-5.9929670607790336e-6</v>
       </c>
       <c r="E37">
-        <v>0.0019385541036394949</v>
+        <v>0.0019385541036394955</v>
       </c>
       <c r="F37">
-        <v>4.831679748368218e-5</v>
+        <v>4.831679748368219e-5</v>
       </c>
       <c r="G37">
-        <v>7.2763289711001296</v>
+        <v>7.276328971098849</v>
       </c>
       <c r="H37">
-        <v>1.8308094070366878e-5</v>
+        <v>1.830809407036639e-5</v>
       </c>
       <c r="I37">
-        <v>-5.999380145825398e-6</v>
+        <v>-5.999380145826941e-6</v>
       </c>
       <c r="J37">
-        <v>0.0019385497359597488</v>
+        <v>0.0019385497359596026</v>
       </c>
       <c r="K37">
-        <v>4.831678610709386e-5</v>
+        <v>4.831678610709331e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1715,34 +1715,34 @@
         <v>0.004337430628481818</v>
       </c>
       <c r="B38">
-        <v>7.268978576840245</v>
+        <v>7.268978576840244</v>
       </c>
       <c r="C38">
         <v>1.538542594581264e-5</v>
       </c>
       <c r="D38">
-        <v>-4.807441847079795e-6</v>
+        <v>-4.807441847079767e-6</v>
       </c>
       <c r="E38">
         <v>0.001937858400629787</v>
       </c>
       <c r="F38">
-        <v>4.831890409961596e-5</v>
+        <v>4.831890409961597e-5</v>
       </c>
       <c r="G38">
-        <v>7.268946478962276</v>
+        <v>7.268946478960987</v>
       </c>
       <c r="H38">
-        <v>1.5375117221443894e-5</v>
+        <v>1.537511722144341e-5</v>
       </c>
       <c r="I38">
-        <v>-4.81420025964551e-6</v>
+        <v>-4.8142002596471745e-6</v>
       </c>
       <c r="J38">
-        <v>0.001937853786565715</v>
+        <v>0.001937853786565565</v>
       </c>
       <c r="K38">
-        <v>4.831889241623705e-5</v>
+        <v>4.831889241623657e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1750,7 +1750,7 @@
         <v>0.0054738576744072405</v>
       </c>
       <c r="B39">
-        <v>7.262721283557315</v>
+        <v>7.262721283557316</v>
       </c>
       <c r="C39">
         <v>1.2782269476574575e-5</v>
@@ -1759,25 +1759,25 @@
         <v>-3.4117700749607536e-6</v>
       </c>
       <c r="E39">
-        <v>0.0019373126283647574</v>
+        <v>0.0019373126283647579</v>
       </c>
       <c r="F39">
         <v>4.832145084202095e-5</v>
       </c>
       <c r="G39">
-        <v>7.262689698695683</v>
+        <v>7.262689698694386</v>
       </c>
       <c r="H39">
-        <v>1.277202805742181e-5</v>
+        <v>1.277202805742133e-5</v>
       </c>
       <c r="I39">
-        <v>-3.418486135994407e-6</v>
+        <v>-3.4184861359962113e-6</v>
       </c>
       <c r="J39">
-        <v>0.001937308039940758</v>
+        <v>0.001937308039940605</v>
       </c>
       <c r="K39">
-        <v>4.832143949520476e-5</v>
+        <v>4.832143949520435e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1785,7 +1785,7 @@
         <v>0.006610865255243126</v>
       </c>
       <c r="B40">
-        <v>7.257550654241503</v>
+        <v>7.257550654241504</v>
       </c>
       <c r="C40">
         <v>1.0505812637309046e-5</v>
@@ -1800,19 +1800,19 @@
         <v>4.8324413505779754e-5</v>
       </c>
       <c r="G40">
-        <v>7.257521390298477</v>
+        <v>7.257521390297174</v>
       </c>
       <c r="H40">
-        <v>1.0496241439325844e-5</v>
+        <v>1.0496241439325371e-5</v>
       </c>
       <c r="I40">
-        <v>-1.8101091583266862e-6</v>
+        <v>-1.8101091583286516e-6</v>
       </c>
       <c r="J40">
-        <v>0.0019369124653977445</v>
+        <v>0.0019369124653975892</v>
       </c>
       <c r="K40">
-        <v>4.8324403100653246e-5</v>
+        <v>4.8324403100652894e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1820,7 +1820,7 @@
         <v>0.007749846347466959</v>
       </c>
       <c r="B41">
-        <v>7.253412830546522</v>
+        <v>7.253412830546521</v>
       </c>
       <c r="C41">
         <v>8.546691545968992e-6</v>
@@ -1829,25 +1829,25 @@
         <v>1.4200716513346433e-8</v>
       </c>
       <c r="E41">
-        <v>0.0019366673299333077</v>
+        <v>0.0019366673299333079</v>
       </c>
       <c r="F41">
         <v>4.832776585451803e-5</v>
       </c>
       <c r="G41">
-        <v>7.253387544702759</v>
+        <v>7.25338754470145</v>
       </c>
       <c r="H41">
-        <v>8.5383571327976e-6</v>
+        <v>8.538357132797134e-6</v>
       </c>
       <c r="I41">
-        <v>8.71617107605872e-9</v>
+        <v>8.716171073912777e-9</v>
       </c>
       <c r="J41">
-        <v>0.001936663597851209</v>
+        <v>0.0019366635978510514</v>
       </c>
       <c r="K41">
-        <v>4.83277569297937e-5</v>
+        <v>4.832775692979341e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1861,28 +1861,28 @@
         <v>6.8891696116903005e-6</v>
       </c>
       <c r="D42">
-        <v>2.0360558324625034e-6</v>
+        <v>2.036055832462504e-6</v>
       </c>
       <c r="E42">
-        <v>0.0019365577148973733</v>
+        <v>0.0019365577148973728</v>
       </c>
       <c r="F42">
-        <v>4.8331479901216593e-5</v>
+        <v>4.833147990121659e-5</v>
       </c>
       <c r="G42">
-        <v>7.25021898060344</v>
+        <v>7.250218980602127</v>
       </c>
       <c r="H42">
-        <v>6.882565852269868e-6</v>
+        <v>6.8825658522694075e-6</v>
       </c>
       <c r="I42">
-        <v>2.0316906953464447e-6</v>
+        <v>2.0316906953440993e-6</v>
       </c>
       <c r="J42">
-        <v>0.001936554761615198</v>
+        <v>0.0019365547616150382</v>
       </c>
       <c r="K42">
-        <v>4.833147290544758e-5</v>
+        <v>4.8331472905447334e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1896,28 +1896,28 @@
         <v>5.51194531618884e-6</v>
       </c>
       <c r="D43">
-        <v>4.251938422073548e-6</v>
+        <v>4.2519384220735484e-6</v>
       </c>
       <c r="E43">
-        <v>0.0019365785080908912</v>
+        <v>0.0019365785080908914</v>
       </c>
       <c r="F43">
         <v>4.833552638112789e-5</v>
       </c>
       <c r="G43">
-        <v>7.247933898308598</v>
+        <v>7.2479338983072825</v>
       </c>
       <c r="H43">
-        <v>5.507463928925145e-6</v>
+        <v>5.507463928924687e-6</v>
       </c>
       <c r="I43">
-        <v>4.248947427786937e-6</v>
+        <v>4.248947427784378e-6</v>
       </c>
       <c r="J43">
-        <v>0.001936576507244889</v>
+        <v>0.0019365765072447282</v>
       </c>
       <c r="K43">
-        <v>4.833552165452685e-5</v>
+        <v>4.8335521654526654e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1934,25 +1934,25 @@
         <v>6.6492201480031514e-6</v>
       </c>
       <c r="E44">
-        <v>0.0019367181482288444</v>
+        <v>0.0019367181482288442</v>
       </c>
       <c r="F44">
-        <v>4.833987538595072e-5</v>
+        <v>4.8339875385950724e-5</v>
       </c>
       <c r="G44">
-        <v>7.246441182122023</v>
+        <v>7.246441182120706</v>
       </c>
       <c r="H44">
-        <v>4.387199781403374e-6</v>
+        <v>4.387199781402918e-6</v>
       </c>
       <c r="I44">
-        <v>6.6477795919711795e-6</v>
+        <v>6.6477795919683944e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019367172158484848</v>
+        <v>0.0019367172158483235</v>
       </c>
       <c r="K44">
-        <v>4.833987314928433e-5</v>
+        <v>4.8339873149284184e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1960,13 +1960,13 @@
         <v>0.012353485920408983</v>
       </c>
       <c r="B45">
-        <v>7.2456428899067635</v>
+        <v>7.245642889906763</v>
       </c>
       <c r="C45">
         <v>3.492404529571674e-6</v>
       </c>
       <c r="D45">
-        <v>9.213312135826661e-6</v>
+        <v>9.213312135826688e-6</v>
       </c>
       <c r="E45">
         <v>0.001936963619245825</v>
@@ -1975,19 +1975,19 @@
         <v>4.834449711775671e-5</v>
       </c>
       <c r="G45">
-        <v>7.245644181272009</v>
+        <v>7.245644181270692</v>
       </c>
       <c r="H45">
-        <v>3.492845987276513e-6</v>
+        <v>3.4928459872760594e-6</v>
       </c>
       <c r="I45">
-        <v>9.213513966708506e-6</v>
+        <v>9.213513966705484e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019369638102396105</v>
+        <v>0.0019369638102394492</v>
       </c>
       <c r="K45">
-        <v>4.8344497469358455e-5</v>
+        <v>4.8344497469358374e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1995,34 +1995,34 @@
         <v>0.01352337379421037</v>
       </c>
       <c r="B46">
-        <v>7.245435890565989</v>
+        <v>7.2454358905659895</v>
       </c>
       <c r="C46">
         <v>2.7908912378135774e-6</v>
       </c>
       <c r="D46">
-        <v>1.1928599488115713e-5</v>
+        <v>1.1928599488115741e-5</v>
       </c>
       <c r="E46">
-        <v>0.001937301194559103</v>
+        <v>0.0019373011945591025</v>
       </c>
       <c r="F46">
         <v>4.834936270970386e-5</v>
       </c>
       <c r="G46">
-        <v>7.245444661696056</v>
+        <v>7.245444661694741</v>
       </c>
       <c r="H46">
-        <v>2.793873710403975e-6</v>
+        <v>2.793873710403524e-6</v>
       </c>
       <c r="I46">
-        <v>1.193045267184909e-5</v>
+        <v>1.1930452671845816e-5</v>
       </c>
       <c r="J46">
-        <v>0.001937302504665797</v>
+        <v>0.0019373025046656362</v>
       </c>
       <c r="K46">
-        <v>4.8349365630410294e-5</v>
+        <v>4.834936563041026e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,7 +2030,7 @@
         <v>0.014703703866818844</v>
       </c>
       <c r="B47">
-        <v>7.245730736825844</v>
+        <v>7.245730736825845</v>
       </c>
       <c r="C47">
         <v>2.2541853358306274e-6</v>
@@ -2039,25 +2039,25 @@
         <v>1.4779365068283099e-5</v>
       </c>
       <c r="E47">
-        <v>0.0019377171536751295</v>
+        <v>0.001937717153675129</v>
       </c>
       <c r="F47">
-        <v>4.835444505084836e-5</v>
+        <v>4.8354445050848366e-5</v>
       </c>
       <c r="G47">
-        <v>7.245746614663597</v>
+        <v>7.245746614662284</v>
       </c>
       <c r="H47">
-        <v>2.259603205444497e-6</v>
+        <v>2.259603205444049e-6</v>
       </c>
       <c r="I47">
-        <v>1.4782803531116082e-5</v>
+        <v>1.4782803531112541e-5</v>
       </c>
       <c r="J47">
-        <v>0.001937719526251583</v>
+        <v>0.0019377195262514225</v>
       </c>
       <c r="K47">
-        <v>4.8354450416679755e-5</v>
+        <v>4.8354450416679775e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2071,7 +2071,7 @@
         <v>1.8528617272811534e-6</v>
       </c>
       <c r="D48">
-        <v>1.7750629521792934e-5</v>
+        <v>1.775062952179296e-5</v>
       </c>
       <c r="E48">
         <v>0.0019381984136631466</v>
@@ -2080,19 +2080,19 @@
         <v>4.835971954759592e-5</v>
       </c>
       <c r="G48">
-        <v>7.246459632576352</v>
+        <v>7.2464596325750446</v>
       </c>
       <c r="H48">
-        <v>1.860514434952587e-6</v>
+        <v>1.860514434952143e-6</v>
       </c>
       <c r="I48">
-        <v>1.775552544302494e-5</v>
+        <v>1.7755525443021133e-5</v>
       </c>
       <c r="J48">
-        <v>0.001938201750144326</v>
+        <v>0.001938201750144167</v>
       </c>
       <c r="K48">
-        <v>4.8359727148897846e-5</v>
+        <v>4.835972714889791e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2106,28 +2106,28 @@
         <v>1.5597067902987931e-6</v>
       </c>
       <c r="D49">
-        <v>2.0828848093788598e-5</v>
+        <v>2.0828848093788625e-5</v>
       </c>
       <c r="E49">
         <v>0.0019387330327298748</v>
       </c>
       <c r="F49">
-        <v>4.836516475724528e-5</v>
+        <v>4.8365164757245284e-5</v>
       </c>
       <c r="G49">
-        <v>7.24750161806322</v>
+        <v>7.247501618061919</v>
       </c>
       <c r="H49">
-        <v>1.5693250582003921e-6</v>
+        <v>1.5693250581999523e-6</v>
       </c>
       <c r="I49">
-        <v>2.0835028683785127e-5</v>
+        <v>2.0835028683781048e-5</v>
       </c>
       <c r="J49">
-        <v>0.00193873720524797</v>
+        <v>0.0019387372052478119</v>
       </c>
       <c r="K49">
-        <v>4.836517432230238e-5</v>
+        <v>4.836517432230248e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2141,28 +2141,28 @@
         <v>1.3505005141298404e-6</v>
       </c>
       <c r="D50">
-        <v>2.4002424196133523e-5</v>
+        <v>2.400242419613355e-5</v>
       </c>
       <c r="E50">
         <v>0.0019393105612503657</v>
       </c>
       <c r="F50">
-        <v>4.8370762840939965e-5</v>
+        <v>4.837076284093996e-5</v>
       </c>
       <c r="G50">
-        <v>7.2488006731787396</v>
+        <v>7.248800673177445</v>
       </c>
       <c r="H50">
-        <v>1.3617746561841102e-6</v>
+        <v>1.3617746561836744e-6</v>
       </c>
       <c r="I50">
-        <v>2.400968989680452e-5</v>
+        <v>2.4009689896800163e-5</v>
       </c>
       <c r="J50">
-        <v>0.0019393154258929796</v>
+        <v>0.0019393154258928228</v>
       </c>
       <c r="K50">
-        <v>4.837077406162589e-5</v>
+        <v>4.8370774061626014e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2179,25 +2179,25 @@
         <v>2.7262022163118018e-5</v>
       </c>
       <c r="E51">
-        <v>0.0019399222344385991</v>
+        <v>0.0019399222344385987</v>
       </c>
       <c r="F51">
         <v>4.837649980332754e-5</v>
       </c>
       <c r="G51">
-        <v>7.250296109173542</v>
+        <v>7.250296109172255</v>
       </c>
       <c r="H51">
-        <v>1.2170902187356064e-6</v>
+        <v>1.2170902187351749e-6</v>
       </c>
       <c r="I51">
-        <v>2.7270164361167232e-5</v>
+        <v>2.72701643611626e-5</v>
       </c>
       <c r="J51">
-        <v>0.0019399276436322492</v>
+        <v>0.0019399276436320937</v>
       </c>
       <c r="K51">
-        <v>4.837651236014622e-5</v>
+        <v>4.8376512360146374e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2214,25 +2214,25 @@
         <v>3.0600684100708324e-5</v>
       </c>
       <c r="E52">
-        <v>0.0019405610178590117</v>
+        <v>0.0019405610178590115</v>
       </c>
       <c r="F52">
         <v>4.838236551138063e-5</v>
       </c>
       <c r="G52">
-        <v>7.251938612726768</v>
+        <v>7.251938612725489</v>
       </c>
       <c r="H52">
-        <v>1.1181433915406564e-6</v>
+        <v>1.1181433915402286e-6</v>
       </c>
       <c r="I52">
-        <v>3.060950034818478e-5</v>
+        <v>3.0609500348179865e-5</v>
       </c>
       <c r="J52">
-        <v>0.0019405668307631702</v>
+        <v>0.0019405668307630156</v>
       </c>
       <c r="K52">
-        <v>4.8382379095391836e-5</v>
+        <v>4.8382379095392026e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2249,25 +2249,25 @@
         <v>3.401377516309506e-5</v>
       </c>
       <c r="E53">
-        <v>0.0019412215301985193</v>
+        <v>0.0019412215301985196</v>
       </c>
       <c r="F53">
-        <v>4.838835351073498e-5</v>
+        <v>4.8388353510734986e-5</v>
       </c>
       <c r="G53">
-        <v>7.253689687333723</v>
+        <v>7.253689687332454</v>
       </c>
       <c r="H53">
-        <v>1.0513401863007448e-6</v>
+        <v>1.0513401863003215e-6</v>
       </c>
       <c r="I53">
-        <v>3.40230809898433e-5</v>
+        <v>3.4023080989838096e-5</v>
       </c>
       <c r="J53">
-        <v>0.0019412276203512127</v>
+        <v>0.0019412276203510596</v>
       </c>
       <c r="K53">
-        <v>4.838836784063732e-5</v>
+        <v>4.838836784063756e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2275,7 +2275,7 @@
         <v>0.023381926676347586</v>
       </c>
       <c r="B54">
-        <v>7.255478050332885</v>
+        <v>7.2554780503328855</v>
       </c>
       <c r="C54">
         <v>9.914490792158786e-7</v>
@@ -2284,25 +2284,25 @@
         <v>3.7498795574919365e-5</v>
       </c>
       <c r="E54">
-        <v>0.0019418998759130643</v>
+        <v>0.001941899875913064</v>
       </c>
       <c r="F54">
-        <v>4.839446067980259e-5</v>
+        <v>4.83944606798026e-5</v>
       </c>
       <c r="G54">
-        <v>7.255520547068498</v>
+        <v>7.255520547067238</v>
       </c>
       <c r="H54">
-        <v>1.0063051012540368e-6</v>
+        <v>1.0063051012536182e-6</v>
       </c>
       <c r="I54">
-        <v>3.750843200576265e-5</v>
+        <v>3.750843200575717e-5</v>
       </c>
       <c r="J54">
-        <v>0.0019419061358588827</v>
+        <v>0.0019419061358587314</v>
       </c>
       <c r="K54">
-        <v>4.8394475513114816e-5</v>
+        <v>4.8394475513115074e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2310,13 +2310,13 @@
         <v>0.024699303816317582</v>
       </c>
       <c r="B55">
-        <v>7.257367480161589</v>
+        <v>7.25736748016159</v>
       </c>
       <c r="C55">
         <v>9.602833958554e-7</v>
       </c>
       <c r="D55">
-        <v>4.105510487151183e-5</v>
+        <v>4.1055104871511797e-5</v>
       </c>
       <c r="E55">
         <v>0.00194259342317658</v>
@@ -2325,19 +2325,19 @@
         <v>4.840068677601837e-5</v>
       </c>
       <c r="G55">
-        <v>7.25741066818496</v>
+        <v>7.257410668183709</v>
       </c>
       <c r="H55">
-        <v>9.754319575373029e-7</v>
+        <v>9.754319575368887e-7</v>
       </c>
       <c r="I55">
-        <v>4.106494193416452e-5</v>
+        <v>4.106494193415876e-5</v>
       </c>
       <c r="J55">
-        <v>0.0019425997662649594</v>
+        <v>0.0019425997662648096</v>
       </c>
       <c r="K55">
-        <v>4.8400701914271536e-5</v>
+        <v>4.84007019142718e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2345,34 +2345,34 @@
         <v>0.026040815067002142</v>
       </c>
       <c r="B56">
-        <v>7.259302768649234</v>
+        <v>7.259302768649233</v>
       </c>
       <c r="C56">
         <v>9.380867906694165e-7</v>
       </c>
       <c r="D56">
-        <v>4.46836039999225e-5</v>
+        <v>4.4683603999922525e-5</v>
       </c>
       <c r="E56">
-        <v>0.0019433005604740027</v>
+        <v>0.0019433005604740025</v>
       </c>
       <c r="F56">
         <v>4.8407033932978165e-5</v>
       </c>
       <c r="G56">
-        <v>7.259346201475984</v>
+        <v>7.259346201474744</v>
       </c>
       <c r="H56">
-        <v>9.533731560053144e-7</v>
+        <v>9.53373156004905e-7</v>
       </c>
       <c r="I56">
-        <v>4.469354063200903e-5</v>
+        <v>4.4693540632003e-5</v>
       </c>
       <c r="J56">
-        <v>0.0019433069202696772</v>
+        <v>0.0019433069202695295</v>
       </c>
       <c r="K56">
-        <v>4.840704922161982e-5</v>
+        <v>4.8407049221620085e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2380,7 +2380,7 @@
         <v>0.027408103947448977</v>
       </c>
       <c r="B57">
-        <v>7.261275069412562</v>
+        <v>7.261275069412563</v>
       </c>
       <c r="C57">
         <v>9.212194351066774e-7</v>
@@ -2392,22 +2392,22 @@
         <v>0.0019440204593507123</v>
       </c>
       <c r="F57">
-        <v>4.841350616228371e-5</v>
+        <v>4.84135061622837e-5</v>
       </c>
       <c r="G57">
-        <v>7.2613184189746</v>
+        <v>7.261318418973372</v>
       </c>
       <c r="H57">
-        <v>9.365292792682352e-7</v>
+        <v>9.365292792678307e-7</v>
       </c>
       <c r="I57">
-        <v>4.83963765524285e-5</v>
+        <v>4.83963765524222e-5</v>
       </c>
       <c r="J57">
-        <v>0.0019440267874124438</v>
+        <v>0.0019440267874122979</v>
       </c>
       <c r="K57">
-        <v>4.841352148669119e-5</v>
+        <v>4.841352148669146e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2415,7 +2415,7 @@
         <v>0.028802845557525943</v>
       </c>
       <c r="B58">
-        <v>7.263279285430857</v>
+        <v>7.263279285430858</v>
       </c>
       <c r="C58">
         <v>9.073323989524735e-7</v>
@@ -2424,25 +2424,25 @@
         <v>5.2166589336395536e-5</v>
       </c>
       <c r="E58">
-        <v>0.0019447528628264345</v>
+        <v>0.0019447528628264341</v>
       </c>
       <c r="F58">
         <v>4.842010890192948e-5</v>
       </c>
       <c r="G58">
-        <v>7.263322321971478</v>
+        <v>7.263322321970262</v>
       </c>
       <c r="H58">
-        <v>9.225851477401867e-7</v>
+        <v>9.225851477397872e-7</v>
       </c>
       <c r="I58">
-        <v>5.2176522679754915e-5</v>
+        <v>5.217652267974833e-5</v>
       </c>
       <c r="J58">
-        <v>0.0019447591255107393</v>
+        <v>0.0019447591255105957</v>
       </c>
       <c r="K58">
-        <v>4.842012418097039e-5</v>
+        <v>4.842012418097067e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2450,34 +2450,34 @@
         <v>0.030226748630127864</v>
       </c>
       <c r="B59">
-        <v>7.265312914589989</v>
+        <v>7.265312914589988</v>
       </c>
       <c r="C59">
         <v>8.949789134366317e-7</v>
       </c>
       <c r="D59">
-        <v>5.602786039842266e-5</v>
+        <v>5.602786039842262e-5</v>
       </c>
       <c r="E59">
-        <v>0.0019454979104554636</v>
+        <v>0.0019454979104554639</v>
       </c>
       <c r="F59">
         <v>4.8426848637476386e-5</v>
       </c>
       <c r="G59">
-        <v>7.265355484214932</v>
+        <v>7.2653554842137265</v>
       </c>
       <c r="H59">
-        <v>9.101202086289876e-7</v>
+        <v>9.101202086285935e-7</v>
       </c>
       <c r="I59">
-        <v>5.603772994370989e-5</v>
+        <v>5.603772994370305e-5</v>
       </c>
       <c r="J59">
-        <v>0.0019455040854917608</v>
+        <v>0.0019455040854916197</v>
       </c>
       <c r="K59">
-        <v>4.8426863816134785e-5</v>
+        <v>4.842686381613507e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2494,25 +2494,25 @@
         <v>5.997445280501339e-5</v>
       </c>
       <c r="E60">
-        <v>0.001946256003389602</v>
+        <v>0.0019462560033896023</v>
       </c>
       <c r="F60">
         <v>4.8433732606605773e-5</v>
       </c>
       <c r="G60">
-        <v>7.267417155601863</v>
+        <v>7.26741715560067</v>
       </c>
       <c r="H60">
-        <v>8.98303985009291e-7</v>
+        <v>8.983039850089023e-7</v>
       </c>
       <c r="I60">
-        <v>5.9984235255775845e-5</v>
+        <v>5.998423525576875e-5</v>
       </c>
       <c r="J60">
-        <v>0.0019462620766476381</v>
+        <v>0.001946262076647499</v>
       </c>
       <c r="K60">
-        <v>4.843374764883209e-5</v>
+        <v>4.843374764883238e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,7 +2520,7 @@
         <v>0.03316905486385881</v>
       </c>
       <c r="B61">
-        <v>7.269466237423369</v>
+        <v>7.26946623742337</v>
       </c>
       <c r="C61">
         <v>8.718486040444797e-7</v>
@@ -2532,22 +2532,22 @@
         <v>0.0019470277070312576</v>
       </c>
       <c r="F61">
-        <v>4.8440768584734116e-5</v>
+        <v>4.844076858473411e-5</v>
       </c>
       <c r="G61">
-        <v>7.269507612445902</v>
+        <v>7.269507612444722</v>
       </c>
       <c r="H61">
-        <v>8.866737193892856e-7</v>
+        <v>8.86673719388902e-7</v>
       </c>
       <c r="I61">
-        <v>6.402062262199545e-5</v>
+        <v>6.40206226219881e-5</v>
       </c>
       <c r="J61">
-        <v>0.0019470336698426136</v>
+        <v>0.0019470336698424763</v>
       </c>
       <c r="K61">
-        <v>4.8440783467315015e-5</v>
+        <v>4.844078346731532e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2555,34 +2555,34 @@
         <v>0.03469106271808073</v>
       </c>
       <c r="B62">
-        <v>7.271587009371627</v>
+        <v>7.271587009371626</v>
       </c>
       <c r="C62">
         <v>8.603413044847299e-7</v>
       </c>
       <c r="D62">
-        <v>6.814216158840867e-5</v>
+        <v>6.81421615884087e-5</v>
       </c>
       <c r="E62">
-        <v>0.0019478136853391054</v>
+        <v>0.0019478136853391058</v>
       </c>
       <c r="F62">
         <v>4.8447964740740784e-5</v>
       </c>
       <c r="G62">
-        <v>7.2716277165538505</v>
+        <v>7.2716277165526835</v>
       </c>
       <c r="H62">
-        <v>8.749825768041046e-7</v>
+        <v>8.749825768037258e-7</v>
       </c>
       <c r="I62">
-        <v>6.815173030163226e-5</v>
+        <v>6.815173030162464e-5</v>
       </c>
       <c r="J62">
-        <v>0.001947819532443442</v>
+        <v>0.0019478195324433062</v>
       </c>
       <c r="K62">
-        <v>4.8447979448552955e-5</v>
+        <v>4.8447979448553246e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2590,34 +2590,34 @@
         <v>0.03624944583721316</v>
       </c>
       <c r="B63">
-        <v>7.273738622135766</v>
+        <v>7.273738622135767</v>
       </c>
       <c r="C63">
         <v>8.486551788812878e-7</v>
       </c>
       <c r="D63">
-        <v>7.237314327567379e-5</v>
+        <v>7.237314327567376e-5</v>
       </c>
       <c r="E63">
-        <v>0.0019486146594325782</v>
+        <v>0.0019486146594325778</v>
       </c>
       <c r="F63">
-        <v>4.845532954775412e-5</v>
+        <v>4.845532954775411e-5</v>
       </c>
       <c r="G63">
-        <v>7.273778635497508</v>
+        <v>7.273778635496355</v>
       </c>
       <c r="H63">
-        <v>8.631027944401649e-7</v>
+        <v>8.631027944397914e-7</v>
       </c>
       <c r="I63">
-        <v>7.238259368067469e-5</v>
+        <v>7.238259368066681e-5</v>
       </c>
       <c r="J63">
-        <v>0.0019486203875458989</v>
+        <v>0.001948620387545765</v>
       </c>
       <c r="K63">
-        <v>4.845534407036052e-5</v>
+        <v>4.845534407036082e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2625,34 +2625,34 @@
         <v>0.037846113435464034</v>
       </c>
       <c r="B64">
-        <v>7.27592237587831</v>
+        <v>7.275922375878311</v>
       </c>
       <c r="C64">
         <v>8.367214094960454e-7</v>
       </c>
       <c r="D64">
-        <v>7.670908676927273e-5</v>
+        <v>7.670908676927277e-5</v>
       </c>
       <c r="E64">
-        <v>0.0019494313833382465</v>
+        <v>0.0019494313833382463</v>
       </c>
       <c r="F64">
         <v>4.8462871733573745e-5</v>
       </c>
       <c r="G64">
-        <v>7.275961676536741</v>
+        <v>7.275961676535602</v>
       </c>
       <c r="H64">
-        <v>8.509680152024843e-7</v>
+        <v>8.509680152021159e-7</v>
       </c>
       <c r="I64">
-        <v>7.671841387637114e-5</v>
+        <v>7.671841387636301e-5</v>
       </c>
       <c r="J64">
-        <v>0.0019494369902246613</v>
+        <v>0.0019494369902245286</v>
       </c>
       <c r="K64">
-        <v>4.8462886063009495e-5</v>
+        <v>4.846288606300981e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,7 +2660,7 @@
         <v>0.039483021630316</v>
       </c>
       <c r="B65">
-        <v>7.278139622173663</v>
+        <v>7.278139622173662</v>
       </c>
       <c r="C65">
         <v>8.245019441452105e-7</v>
@@ -2669,25 +2669,25 @@
         <v>8.11553437086665e-5</v>
       </c>
       <c r="E65">
-        <v>0.0019502646308868438</v>
+        <v>0.001950264630886844</v>
       </c>
       <c r="F65">
-        <v>4.847060025737793e-5</v>
+        <v>4.847060025737794e-5</v>
       </c>
       <c r="G65">
-        <v>7.27817819461915</v>
+        <v>7.278178194618025</v>
       </c>
       <c r="H65">
-        <v>8.385413197000427e-7</v>
+        <v>8.385413196996798e-7</v>
       </c>
       <c r="I65">
-        <v>8.11645432831811e-5</v>
+        <v>8.116454328317272e-5</v>
       </c>
       <c r="J65">
-        <v>0.0019502701148237161</v>
+        <v>0.0019502701148235856</v>
       </c>
       <c r="K65">
-        <v>4.84706143868383e-5</v>
+        <v>4.8470614386838613e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2704,25 +2704,25 @@
         <v>8.571741334559529e-5</v>
       </c>
       <c r="E66">
-        <v>0.001951115189304116</v>
+        <v>0.0019511151893041151</v>
       </c>
       <c r="F66">
         <v>4.8478524302528665e-5</v>
       </c>
       <c r="G66">
-        <v>7.280429544649183</v>
+        <v>7.280429544648074</v>
       </c>
       <c r="H66">
-        <v>8.257987730438161e-7</v>
+        <v>8.257987730434588e-7</v>
       </c>
       <c r="I66">
-        <v>8.572648138977724e-5</v>
+        <v>8.572648138976862e-5</v>
       </c>
       <c r="J66">
-        <v>0.001951120548779599</v>
+        <v>0.0019511205487794708</v>
       </c>
       <c r="K66">
-        <v>4.847853822557085e-5</v>
+        <v>4.847853822557117e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2736,7 +2736,7 @@
         <v>7.99114118553333e-7</v>
       </c>
       <c r="D67">
-        <v>9.040094399191785e-5</v>
+        <v>9.040094399191787e-5</v>
       </c>
       <c r="E67">
         <v>0.0019519838565078883</v>
@@ -2745,19 +2745,19 @@
         <v>4.848665327850304e-5</v>
       </c>
       <c r="G67">
-        <v>7.2827170582052165</v>
+        <v>7.282717058204123</v>
       </c>
       <c r="H67">
-        <v>8.127215877393608e-7</v>
+        <v>8.127215877390094e-7</v>
       </c>
       <c r="I67">
-        <v>9.040987651761863e-5</v>
+        <v>9.040987651760975e-5</v>
       </c>
       <c r="J67">
-        <v>0.0019519890900808903</v>
+        <v>0.0019519890900807646</v>
       </c>
       <c r="K67">
-        <v>4.8486666988709363e-5</v>
+        <v>4.848666698870967e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2765,7 +2765,7 @@
         <v>0.04465550527048268</v>
       </c>
       <c r="B68">
-        <v>7.285005729263277</v>
+        <v>7.285005729263278</v>
       </c>
       <c r="C68">
         <v>7.859100195323562e-7</v>
@@ -2774,25 +2774,25 @@
         <v>9.521173763894731e-5</v>
       </c>
       <c r="E68">
-        <v>0.0019528714402958106</v>
+        <v>0.0019528714402958108</v>
       </c>
       <c r="F68">
         <v>4.8494996827639143e-5</v>
       </c>
       <c r="G68">
-        <v>7.285042032504113</v>
+        <v>7.285042032503036</v>
       </c>
       <c r="H68">
-        <v>7.992926792981952e-7</v>
+        <v>7.992926792978501e-7</v>
       </c>
       <c r="I68">
-        <v>9.522053053967129e-5</v>
+        <v>9.522053053966222e-5</v>
       </c>
       <c r="J68">
-        <v>0.0019528765465282815</v>
+        <v>0.0019528765465281577</v>
       </c>
       <c r="K68">
-        <v>4.849501031841252e-5</v>
+        <v>4.849501031841282e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2806,28 +2806,28 @@
         <v>7.723436108097815e-7</v>
       </c>
       <c r="D69">
-        <v>0.00010015575617809434</v>
+        <v>0.00010015575617809435</v>
       </c>
       <c r="E69">
-        <v>0.001953778758421978</v>
+        <v>0.0019537787584219778</v>
       </c>
       <c r="F69">
         <v>4.850356483428012e-5</v>
       </c>
       <c r="G69">
-        <v>7.2874057250861775</v>
+        <v>7.287405725085117</v>
       </c>
       <c r="H69">
-        <v>7.85495270490549e-7</v>
+        <v>7.854952704902101e-7</v>
       </c>
       <c r="I69">
-        <v>0.00010016440518082346</v>
+        <v>0.00010016440518081419</v>
       </c>
       <c r="J69">
-        <v>0.00195378373585019</v>
+        <v>0.001953783735850068</v>
       </c>
       <c r="K69">
-        <v>4.850357809875946e-5</v>
+        <v>4.850357809875975e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2835,34 +2835,34 @@
         <v>0.0483432260347933</v>
       </c>
       <c r="B70">
-        <v>7.289774632165888</v>
+        <v>7.289774632165889</v>
       </c>
       <c r="C70">
         <v>7.58398168348012e-7</v>
       </c>
       <c r="D70">
-        <v>0.00010523912842720858</v>
+        <v>0.00010523912842720852</v>
       </c>
       <c r="E70">
-        <v>0.0019547066390612185</v>
+        <v>0.001954706639061218</v>
       </c>
       <c r="F70">
-        <v>4.851236743509188e-5</v>
+        <v>4.8512367435091887e-5</v>
       </c>
       <c r="G70">
-        <v>7.289809350647235</v>
+        <v>7.289809350646192</v>
       </c>
       <c r="H70">
-        <v>7.71312367675365e-7</v>
+        <v>7.713123676750324e-7</v>
       </c>
       <c r="I70">
-        <v>0.00010524762907019295</v>
+        <v>0.00010524762907018352</v>
       </c>
       <c r="J70">
-        <v>0.0019547114861940777</v>
+        <v>0.001954711486193958</v>
       </c>
       <c r="K70">
-        <v>4.851238046615183e-5</v>
+        <v>4.85123804661521e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2870,7 +2870,7 @@
         <v>0.05026559268319017</v>
       </c>
       <c r="B71">
-        <v>7.292220175565946</v>
+        <v>7.292220175565945</v>
       </c>
       <c r="C71">
         <v>7.440565807789996e-7</v>
@@ -2879,25 +2879,25 @@
         <v>0.00011046815760025476</v>
       </c>
       <c r="E71">
-        <v>0.0019556559214347967</v>
+        <v>0.0019556559214347962</v>
       </c>
       <c r="F71">
         <v>4.852141502999615e-5</v>
       </c>
       <c r="G71">
-        <v>7.292254078830743</v>
+        <v>7.292254078829717</v>
       </c>
       <c r="H71">
-        <v>7.567265726647176e-7</v>
+        <v>7.567265726643914e-7</v>
       </c>
       <c r="I71">
-        <v>0.00011047650519991298</v>
+        <v>0.00011047650519990339</v>
       </c>
       <c r="J71">
-        <v>0.001955660636746215</v>
+        <v>0.0019556606367460974</v>
       </c>
       <c r="K71">
-        <v>4.852142782018991e-5</v>
+        <v>4.852142782019015e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2911,28 +2911,28 @@
         <v>7.293012717937591e-7</v>
       </c>
       <c r="D72">
-        <v>0.00011584932907453068</v>
+        <v>0.0001158493290745307</v>
       </c>
       <c r="E72">
-        <v>0.001956627456506461</v>
+        <v>0.0019566274565064605</v>
       </c>
       <c r="F72">
-        <v>4.853071829349389e-5</v>
+        <v>4.853071829349388e-5</v>
       </c>
       <c r="G72">
-        <v>7.294741032211828</v>
+        <v>7.294741032210822</v>
       </c>
       <c r="H72">
-        <v>7.417200108837517e-7</v>
+        <v>7.417200108834321e-7</v>
       </c>
       <c r="I72">
-        <v>0.00011585751876000588</v>
+        <v>0.00011585751875999621</v>
       </c>
       <c r="J72">
-        <v>0.001956632038449907</v>
+        <v>0.001956632038449792</v>
       </c>
       <c r="K72">
-        <v>4.853073083508081e-5</v>
+        <v>4.853073083508103e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2940,7 +2940,7 @@
         <v>0.05427911709555772</v>
       </c>
       <c r="B73">
-        <v>7.297239059100108</v>
+        <v>7.297239059100109</v>
       </c>
       <c r="C73">
         <v>7.141141630525891e-7</v>
@@ -2949,25 +2949,25 @@
         <v>0.00012138931840646898</v>
       </c>
       <c r="E73">
-        <v>0.0019576221077173125</v>
+        <v>0.001957622107717312</v>
       </c>
       <c r="F73">
         <v>4.8540288186303366e-5</v>
       </c>
       <c r="G73">
-        <v>7.29727128412599</v>
+        <v>7.297271284125004</v>
       </c>
       <c r="H73">
-        <v>7.262742963644914e-7</v>
+        <v>7.262742963641785e-7</v>
       </c>
       <c r="I73">
-        <v>0.00012139734507337904</v>
+        <v>0.00012139734507336926</v>
       </c>
       <c r="J73">
-        <v>0.0019576265547282977</v>
+        <v>0.0019576265547281858</v>
       </c>
       <c r="K73">
-        <v>4.854030047120608e-5</v>
+        <v>4.854030047120627e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2975,7 +2975,7 @@
         <v>0.0563751919288537</v>
       </c>
       <c r="B74">
-        <v>7.299814495498569</v>
+        <v>7.299814495498568</v>
       </c>
       <c r="C74">
         <v>6.984766482236308e-7</v>
@@ -2987,22 +2987,22 @@
         <v>0.001958640751751383</v>
       </c>
       <c r="F74">
-        <v>4.8550135967296485e-5</v>
+        <v>4.855013596729647e-5</v>
       </c>
       <c r="G74">
-        <v>7.299845856596619</v>
+        <v>7.299845856595653</v>
       </c>
       <c r="H74">
-        <v>7.10370506135035e-7</v>
+        <v>7.103705061347291e-7</v>
       </c>
       <c r="I74">
-        <v>0.00012710285791891045</v>
+        <v>0.00012710285791890058</v>
       </c>
       <c r="J74">
-        <v>0.0019586450622449364</v>
+        <v>0.0019586450622448275</v>
       </c>
       <c r="K74">
-        <v>4.8550147987127606e-5</v>
+        <v>4.855014798712775e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3025,19 +3025,19 @@
         <v>4.856027320573906e-5</v>
       </c>
       <c r="G75">
-        <v>7.302465718170178</v>
+        <v>7.302465718169234</v>
       </c>
       <c r="H75">
-        <v>6.939891558728649e-7</v>
+        <v>6.939891558725662e-7</v>
       </c>
       <c r="I75">
-        <v>0.00013298113794783887</v>
+        <v>0.00013298113794782892</v>
       </c>
       <c r="J75">
-        <v>0.0019596884517093876</v>
+        <v>0.001959688451709282</v>
       </c>
       <c r="K75">
-        <v>4.856028495174041e-5</v>
+        <v>4.856028495174052e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3045,7 +3045,7 @@
         <v>0.060758809764734634</v>
       </c>
       <c r="B76">
-        <v>7.305102199966785</v>
+        <v>7.305102199966786</v>
       </c>
       <c r="C76">
         <v>6.657731932713749e-7</v>
@@ -3057,22 +3057,22 @@
         <v>0.001960753596052163</v>
       </c>
       <c r="F76">
-        <v>4.857071179384758e-5</v>
+        <v>4.857071179384759e-5</v>
       </c>
       <c r="G76">
-        <v>7.305131781571995</v>
+        <v>7.305131781571073</v>
       </c>
       <c r="H76">
-        <v>6.771101763905974e-7</v>
+        <v>6.771101763903061e-7</v>
       </c>
       <c r="I76">
-        <v>0.00013903948151759685</v>
+        <v>0.00013903948151758688</v>
       </c>
       <c r="J76">
-        <v>0.001960757628703643</v>
+        <v>0.001960757628703542</v>
       </c>
       <c r="K76">
-        <v>4.857072325694e-5</v>
+        <v>4.8570723256940094e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3095,19 +3095,19 @@
         <v>4.8581463959677454e-5</v>
       </c>
       <c r="G77">
-        <v>7.307844901394263</v>
+        <v>7.307844901393363</v>
       </c>
       <c r="H77">
-        <v>6.597128888171595e-7</v>
+        <v>6.59712888816876e-7</v>
       </c>
       <c r="I77">
-        <v>0.00014528540967134144</v>
+        <v>0.00014528540967133146</v>
       </c>
       <c r="J77">
-        <v>0.0019618535145590286</v>
+        <v>0.0019618535145589306</v>
       </c>
       <c r="K77">
-        <v>4.858147513043156e-5</v>
+        <v>4.8581475130431636e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3127,22 +3127,22 @@
         <v>0.0019629732988726894</v>
       </c>
       <c r="F78">
-        <v>4.85925422803593e-5</v>
+        <v>4.8592542280359294e-5</v>
       </c>
       <c r="G78">
-        <v>7.310605871628418</v>
+        <v>7.310605871627542</v>
       </c>
       <c r="H78">
-        <v>6.41775979232485e-7</v>
+        <v>6.417759792322093e-7</v>
       </c>
       <c r="I78">
-        <v>0.00015172667739534102</v>
+        <v>0.00015172667739533102</v>
       </c>
       <c r="J78">
-        <v>0.001962977047248676</v>
+        <v>0.001962977047248582</v>
       </c>
       <c r="K78">
-        <v>4.859255314898385e-5</v>
+        <v>4.859255314898391e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3150,7 +3150,7 @@
         <v>0.06785380831235142</v>
       </c>
       <c r="B79">
-        <v>7.313388645656415</v>
+        <v>7.313388645656416</v>
       </c>
       <c r="C79">
         <v>6.128418078107965e-7</v>
@@ -3159,25 +3159,25 @@
         <v>0.00015836435505118</v>
       </c>
       <c r="E79">
-        <v>0.001964125578518504</v>
+        <v>0.0019641255785185037</v>
       </c>
       <c r="F79">
-        <v>4.86039596957004e-5</v>
+        <v>4.860395969570039e-5</v>
       </c>
       <c r="G79">
-        <v>7.313415423302834</v>
+        <v>7.313415423301982</v>
       </c>
       <c r="H79">
-        <v>6.232774727409999e-7</v>
+        <v>6.232774727407325e-7</v>
       </c>
       <c r="I79">
-        <v>0.00015837128312991814</v>
+        <v>0.00015837128312990822</v>
       </c>
       <c r="J79">
-        <v>0.0019641291823505125</v>
+        <v>0.0019641291823504214</v>
       </c>
       <c r="K79">
-        <v>4.860397025201445e-5</v>
+        <v>4.8603970252014496e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,34 +3185,34 @@
         <v>0.07036886304943443</v>
       </c>
       <c r="B80">
-        <v>7.316248416331102</v>
+        <v>7.316248416331103</v>
       </c>
       <c r="C80">
         <v>5.940785436819097e-7</v>
       </c>
       <c r="D80">
-        <v>0.00016522075623936187</v>
+        <v>0.0001652207562393619</v>
       </c>
       <c r="E80">
         <v>0.0019653074363486767</v>
       </c>
       <c r="F80">
-        <v>4.861572952216937e-5</v>
+        <v>4.861572952216938e-5</v>
       </c>
       <c r="G80">
-        <v>7.316274222000647</v>
+        <v>7.316274221999821</v>
       </c>
       <c r="H80">
-        <v>6.041947062772649e-7</v>
+        <v>6.041947062770059e-7</v>
       </c>
       <c r="I80">
-        <v>0.0001652274787557981</v>
+        <v>0.0001652274787557882</v>
       </c>
       <c r="J80">
-        <v>0.001965310894041352</v>
+        <v>0.001965310894041264</v>
       </c>
       <c r="K80">
-        <v>4.86157397556468e-5</v>
+        <v>4.861573975564683e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3220,34 +3220,34 @@
         <v>0.07296400281859933</v>
       </c>
       <c r="B81">
-        <v>7.319158050856856</v>
+        <v>7.319158050856857</v>
       </c>
       <c r="C81">
         <v>5.747178147791608e-7</v>
       </c>
       <c r="D81">
-        <v>0.00017229726980380082</v>
+        <v>0.00017229726980380088</v>
       </c>
       <c r="E81">
-        <v>0.001966519866186152</v>
+        <v>0.0019665198661861514</v>
       </c>
       <c r="F81">
         <v>4.8627865467283235e-5</v>
       </c>
       <c r="G81">
-        <v>7.319182865365363</v>
+        <v>7.319182865364562</v>
       </c>
       <c r="H81">
-        <v>5.845043011298275e-7</v>
+        <v>5.845043011295769e-7</v>
       </c>
       <c r="I81">
-        <v>0.0001723037795901986</v>
+        <v>0.0001723037795901888</v>
       </c>
       <c r="J81">
-        <v>0.0019665231761592885</v>
+        <v>0.001966523176159204</v>
       </c>
       <c r="K81">
-        <v>4.862787536701595e-5</v>
+        <v>4.862787536701596e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3261,28 +3261,28 @@
         <v>5.547359017884464e-7</v>
       </c>
       <c r="D82">
-        <v>0.0001796026853634728</v>
+        <v>0.00017960268536347285</v>
       </c>
       <c r="E82">
         <v>0.0019677638826170523</v>
       </c>
       <c r="F82">
-        <v>4.864038164441653e-5</v>
+        <v>4.864038164441654e-5</v>
       </c>
       <c r="G82">
-        <v>7.322141880645272</v>
+        <v>7.322141880644497</v>
       </c>
       <c r="H82">
-        <v>5.641821340560415e-7</v>
+        <v>5.641821340557998e-7</v>
       </c>
       <c r="I82">
-        <v>0.000179608974978928</v>
+        <v>0.00017960897497891826</v>
       </c>
       <c r="J82">
-        <v>0.0019677670433102387</v>
+        <v>0.0019677670433101576</v>
       </c>
       <c r="K82">
-        <v>4.8640391199124034e-5</v>
+        <v>4.864039119912404e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3290,34 +3290,34 @@
         <v>0.07840735694551344</v>
       </c>
       <c r="B83">
-        <v>7.325128948802533</v>
+        <v>7.325128948802532</v>
       </c>
       <c r="C83">
         <v>5.341083243675213e-7</v>
       </c>
       <c r="D83">
-        <v>0.00018714607731701093</v>
+        <v>0.00018714607731701102</v>
       </c>
       <c r="E83">
-        <v>0.0019690405221615232</v>
+        <v>0.001969040522161524</v>
       </c>
       <c r="F83">
-        <v>4.86532925880539e-5</v>
+        <v>4.8653292588053906e-5</v>
       </c>
       <c r="G83">
-        <v>7.325151722285088</v>
+        <v>7.325151722284339</v>
       </c>
       <c r="H83">
-        <v>5.432033076923621e-7</v>
+        <v>5.432033076921294e-7</v>
       </c>
       <c r="I83">
-        <v>0.0001871521390199913</v>
+        <v>0.0001871521390199817</v>
       </c>
       <c r="J83">
-        <v>0.001969043532039058</v>
+        <v>0.0019690435320389803</v>
       </c>
       <c r="K83">
-        <v>4.86533017860525e-5</v>
+        <v>4.8653301786052484e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3325,34 +3325,34 @@
         <v>0.08126224009279871</v>
       </c>
       <c r="B84">
-        <v>7.328191046386956</v>
+        <v>7.328191046386957</v>
       </c>
       <c r="C84">
         <v>5.128098111543695e-7</v>
       </c>
       <c r="D84">
-        <v>0.00019493681597721154</v>
+        <v>0.00019493681597721152</v>
       </c>
       <c r="E84">
-        <v>0.001970350844508878</v>
+        <v>0.0019703508445088774</v>
       </c>
       <c r="F84">
         <v>4.866661326950781e-5</v>
       </c>
       <c r="G84">
-        <v>7.328212769507933</v>
+        <v>7.328212769507212</v>
       </c>
       <c r="H84">
-        <v>5.215421204010153e-7</v>
+        <v>5.21542120400792e-7</v>
       </c>
       <c r="I84">
-        <v>0.0001949426416989266</v>
+        <v>0.00019494264169891718</v>
       </c>
       <c r="J84">
-        <v>0.001970353702059996</v>
+        <v>0.0019703537020599226</v>
       </c>
       <c r="K84">
-        <v>4.866662209869694e-5</v>
+        <v>4.866662209869693e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,34 +3360,34 @@
         <v>0.08421055402133908</v>
       </c>
       <c r="B85">
-        <v>7.331304671419719</v>
+        <v>7.33130467141972</v>
       </c>
       <c r="C85">
         <v>4.908142688067667e-7</v>
       </c>
       <c r="D85">
-        <v>0.00020298457905840053</v>
+        <v>0.00020298457905840048</v>
       </c>
       <c r="E85">
-        <v>0.001971695933820892</v>
+        <v>0.0019716959338208916</v>
       </c>
       <c r="F85">
         <v>4.868035911312491e-5</v>
       </c>
       <c r="G85">
-        <v>7.331325324003551</v>
+        <v>7.331325324002859</v>
       </c>
       <c r="H85">
-        <v>4.991720344258241e-7</v>
+        <v>4.991720344256106e-7</v>
       </c>
       <c r="I85">
-        <v>0.00020299016040186722</v>
+        <v>0.00020299016040185795</v>
       </c>
       <c r="J85">
-        <v>0.0019716986375714353</v>
+        <v>0.001971698637571365</v>
       </c>
       <c r="K85">
-        <v>4.8680367561051956e-5</v>
+        <v>4.868036756105194e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3395,7 +3395,7 @@
         <v>0.08725591078440487</v>
       </c>
       <c r="B86">
-        <v>7.334470045953827</v>
+        <v>7.334470045953828</v>
       </c>
       <c r="C86">
         <v>4.6809475003463335e-7</v>
@@ -3407,22 +3407,22 @@
         <v>0.001973076900107038</v>
       </c>
       <c r="F86">
-        <v>4.8694546013005146e-5</v>
+        <v>4.869454601300515e-5</v>
       </c>
       <c r="G86">
-        <v>7.334489607609936</v>
+        <v>7.334489607609273</v>
       </c>
       <c r="H86">
-        <v>4.7606564362531215e-7</v>
+        <v>4.7606564362510843e-7</v>
       </c>
       <c r="I86">
-        <v>0.00021130469177698842</v>
+        <v>0.00021130469177697926</v>
       </c>
       <c r="J86">
-        <v>0.0019730794486180242</v>
+        <v>0.0019730794486179574</v>
       </c>
       <c r="K86">
-        <v>4.8694554066785784e-5</v>
+        <v>4.869455406678576e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3439,25 +3439,25 @@
         <v>0.00021989149785152221</v>
       </c>
       <c r="E87">
-        <v>0.001974494880675315</v>
+        <v>0.0019744948806753155</v>
       </c>
       <c r="F87">
-        <v>4.870919035025942e-5</v>
+        <v>4.870919035025941e-5</v>
       </c>
       <c r="G87">
-        <v>7.337705760210967</v>
+        <v>7.3377057602103335</v>
       </c>
       <c r="H87">
-        <v>4.521946397967626e-7</v>
+        <v>4.5219463979656913e-7</v>
       </c>
       <c r="I87">
-        <v>0.0002198965639119482</v>
+        <v>0.00021989656391193922</v>
       </c>
       <c r="J87">
-        <v>0.00197449727254725</v>
+        <v>0.0019744972725471866</v>
       </c>
       <c r="K87">
-        <v>4.8709197996624986e-5</v>
+        <v>4.870919799662496e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3474,25 +3474,25 @@
         <v>0.00022877165459986225</v>
       </c>
       <c r="E88">
-        <v>0.0019759510416622493</v>
+        <v>0.0019759510416622497</v>
       </c>
       <c r="F88">
         <v>4.8724309010832496e-5</v>
       </c>
       <c r="G88">
-        <v>7.340973837685801</v>
+        <v>7.3409738376851985</v>
       </c>
       <c r="H88">
-        <v>4.275297778730425e-7</v>
+        <v>4.2752977787285957e-7</v>
       </c>
       <c r="I88">
-        <v>0.00022877644903719147</v>
+        <v>0.00022877644903718282</v>
       </c>
       <c r="J88">
-        <v>0.0019759532755392792</v>
+        <v>0.0019759532755392203</v>
       </c>
       <c r="K88">
-        <v>4.872431623609461e-5</v>
+        <v>4.872431623609457e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,7 +3500,7 @@
         <v>0.0970121695340651</v>
       </c>
       <c r="B89">
-        <v>7.344277645040714</v>
+        <v>7.344277645040715</v>
       </c>
       <c r="C89">
         <v>3.953093521144651e-7</v>
@@ -3512,22 +3512,22 @@
         <v>0.0019774465796454817</v>
       </c>
       <c r="F89">
-        <v>4.873991940391953e-5</v>
+        <v>4.873991940391952e-5</v>
       </c>
       <c r="G89">
-        <v>7.344293809990811</v>
+        <v>7.34429380999024</v>
       </c>
       <c r="H89">
-        <v>4.0204084027399075e-7</v>
+        <v>4.0204084027381875e-7</v>
       </c>
       <c r="I89">
-        <v>0.00023795537652182162</v>
+        <v>0.00023795537652181325</v>
       </c>
       <c r="J89">
-        <v>0.001977448654228698</v>
+        <v>0.001977448654228642</v>
       </c>
       <c r="K89">
-        <v>4.873992619397785e-5</v>
+        <v>4.873992619397781e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3550,19 +3550,19 @@
         <v>4.875603948100551e-5</v>
       </c>
       <c r="G90">
-        <v>7.347665559400848</v>
+        <v>7.34766555940031</v>
       </c>
       <c r="H90">
-        <v>3.756965998487604e-7</v>
+        <v>3.7569659984859986e-7</v>
       </c>
       <c r="I90">
-        <v>0.0002474447463558161</v>
+        <v>0.000247444746355808</v>
       </c>
       <c r="J90">
-        <v>0.0019789846373844916</v>
+        <v>0.0019789846373844395</v>
       </c>
       <c r="K90">
-        <v>4.875604582135973e-5</v>
+        <v>4.875604582135968e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3585,19 +3585,19 @@
         <v>4.877268775555879e-5</v>
       </c>
       <c r="G91">
-        <v>7.351088878921826</v>
+        <v>7.351088878921322</v>
       </c>
       <c r="H91">
-        <v>3.484647814091143e-7</v>
+        <v>3.4846478140896547e-7</v>
       </c>
       <c r="I91">
-        <v>0.0002572563430100055</v>
+        <v>0.0002572563430099977</v>
       </c>
       <c r="J91">
-        <v>0.0019805624877034973</v>
+        <v>0.0019805624877034488</v>
       </c>
       <c r="K91">
-        <v>4.8772693631294823e-5</v>
+        <v>4.877269363129476e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3611,28 +3611,28 @@
         <v>3.1494893406479754e-7</v>
       </c>
       <c r="D92">
-        <v>0.00026739874378757934</v>
+        <v>0.00026739874378757923</v>
       </c>
       <c r="E92">
         <v>0.0019821819142584384</v>
       </c>
       <c r="F92">
-        <v>4.878988332341084e-5</v>
+        <v>4.878988332341083e-5</v>
       </c>
       <c r="G92">
-        <v>7.354563470879533</v>
+        <v>7.354563470879064</v>
       </c>
       <c r="H92">
-        <v>3.2031202269908585e-7</v>
+        <v>3.203120226989492e-7</v>
       </c>
       <c r="I92">
-        <v>0.0002674023498594738</v>
+        <v>0.0002674023498594663</v>
       </c>
       <c r="J92">
-        <v>0.0019821835036960226</v>
+        <v>0.001982183503695978</v>
       </c>
       <c r="K92">
-        <v>4.8789888719191436e-5</v>
+        <v>4.878988871919137e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3640,7 +3640,7 @@
         <v>0.11162017111105581</v>
       </c>
       <c r="B93">
-        <v>7.358077602418368</v>
+        <v>7.358077602418369</v>
       </c>
       <c r="C93">
         <v>2.863281089061904e-7</v>
@@ -3652,22 +3652,22 @@
         <v>0.0019838475961577863</v>
       </c>
       <c r="F93">
-        <v>4.880764588385616e-5</v>
+        <v>4.8807645883856166e-5</v>
       </c>
       <c r="G93">
-        <v>7.358088945797235</v>
+        <v>7.358088945796801</v>
       </c>
       <c r="H93">
-        <v>2.912038329692725e-7</v>
+        <v>2.9120383296914846e-7</v>
       </c>
       <c r="I93">
-        <v>0.0002778953640339181</v>
+        <v>0.00027789536403391093</v>
       </c>
       <c r="J93">
-        <v>0.0019838490216598126</v>
+        <v>0.001983849021659772</v>
       </c>
       <c r="K93">
-        <v>4.880765078395426e-5</v>
+        <v>4.880765078395419e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3675,7 +3675,7 @@
         <v>0.11558717045852875</v>
       </c>
       <c r="B94">
-        <v>7.361654735818273</v>
+        <v>7.361654735818274</v>
       </c>
       <c r="C94">
         <v>2.567327862047405e-7</v>
@@ -3684,25 +3684,25 @@
         <v>0.00028874546649216795</v>
       </c>
       <c r="E94">
-        <v>0.001985559157174293</v>
+        <v>0.0019855591571742927</v>
       </c>
       <c r="F94">
-        <v>4.8825995761507674e-5</v>
+        <v>4.882599576150767e-5</v>
       </c>
       <c r="G94">
-        <v>7.361664821350768</v>
+        <v>7.36166482135037</v>
       </c>
       <c r="H94">
-        <v>2.6110455084658827e-7</v>
+        <v>2.611045508464772e-7</v>
       </c>
       <c r="I94">
-        <v>0.0002887484116497401</v>
+        <v>0.00028874841164973326</v>
       </c>
       <c r="J94">
-        <v>0.0019855604177419868</v>
+        <v>0.0019855604177419495</v>
       </c>
       <c r="K94">
-        <v>4.882600014980484e-5</v>
+        <v>4.882600014980478e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3710,7 +3710,7 @@
         <v>0.11968965291953414</v>
       </c>
       <c r="B95">
-        <v>7.365281714905444</v>
+        <v>7.365281714905441</v>
       </c>
       <c r="C95">
         <v>2.2612670798907007e-7</v>
@@ -3722,22 +3722,22 @@
         <v>0.001987318015407259</v>
       </c>
       <c r="F95">
-        <v>4.884495392894407e-5</v>
+        <v>4.8844953928944064e-5</v>
       </c>
       <c r="G95">
-        <v>7.365290521672102</v>
+        <v>7.365290521671741</v>
       </c>
       <c r="H95">
-        <v>2.2997730093586513e-7</v>
+        <v>2.2997730093576748e-7</v>
       </c>
       <c r="I95">
-        <v>0.0002999749637641848</v>
+        <v>0.00029997496376417843</v>
       </c>
       <c r="J95">
-        <v>0.0019873191101118454</v>
+        <v>0.001987319110111812</v>
       </c>
       <c r="K95">
-        <v>4.884495778891015e-5</v>
+        <v>4.884495778891009e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3757,22 +3757,22 @@
         <v>0.0019891256332459713</v>
       </c>
       <c r="F96">
-        <v>4.886454203018768e-5</v>
+        <v>4.886454203018767e-5</v>
       </c>
       <c r="G96">
-        <v>7.36896537689132</v>
+        <v>7.368965376890998</v>
       </c>
       <c r="H96">
-        <v>1.9778394844878647e-7</v>
+        <v>1.9778394844870256e-7</v>
       </c>
       <c r="I96">
-        <v>0.0003115889527468411</v>
+        <v>0.0003115889527468353</v>
       </c>
       <c r="J96">
-        <v>0.001989126561234307</v>
+        <v>0.0019891265612342773</v>
       </c>
       <c r="K96">
-        <v>4.8864545344911954e-5</v>
+        <v>4.886454534491189e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3792,22 +3792,22 @@
         <v>0.001990983519742794</v>
       </c>
       <c r="F97">
-        <v>4.888478240505245e-5</v>
+        <v>4.8884782405052464e-5</v>
       </c>
       <c r="G97">
-        <v>7.372688622932978</v>
+        <v>7.372688622932694</v>
       </c>
       <c r="H97">
-        <v>1.6448505242376244e-7</v>
+        <v>1.644850524236927e-7</v>
       </c>
       <c r="I97">
-        <v>0.00032360478913887606</v>
+        <v>0.0003236047891388708</v>
       </c>
       <c r="J97">
-        <v>0.0019909842802326035</v>
+        <v>0.001990984280232577</v>
       </c>
       <c r="K97">
-        <v>4.888478515724567e-5</v>
+        <v>4.8884785157245624e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3815,34 +3815,34 @@
         <v>0.13286112659929092</v>
       </c>
       <c r="B98">
-        <v>7.376454555624034</v>
+        <v>7.376454555624035</v>
       </c>
       <c r="C98">
         <v>1.2786250881438952e-7</v>
       </c>
       <c r="D98">
-        <v>0.00033603590699600303</v>
+        <v>0.0003360359069960031</v>
       </c>
       <c r="E98">
-        <v>0.0019928932330903204</v>
+        <v>0.00199289323309032</v>
       </c>
       <c r="F98">
-        <v>4.890569811440327e-5</v>
+        <v>4.8905698114403275e-5</v>
       </c>
       <c r="G98">
-        <v>7.376459401596886</v>
+        <v>7.376459401596641</v>
       </c>
       <c r="H98">
-        <v>1.3003981739584054e-7</v>
+        <v>1.3003981739578537e-7</v>
       </c>
       <c r="I98">
-        <v>0.0003360373792328297</v>
+        <v>0.00033603737923282507</v>
       </c>
       <c r="J98">
-        <v>0.001992893825381011</v>
+        <v>0.0019928938253809874</v>
       </c>
       <c r="K98">
-        <v>4.890570028640367e-5</v>
+        <v>4.890570028640362e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3856,28 +3856,28 @@
         <v>9.282536422658629e-8</v>
       </c>
       <c r="D99">
-        <v>0.00034890107340924427</v>
+        <v>0.0003489010734092443</v>
       </c>
       <c r="E99">
-        <v>0.001994856383203761</v>
+        <v>0.0019948563832037605</v>
       </c>
       <c r="F99">
         <v>4.892731296636935e-5</v>
       </c>
       <c r="G99">
-        <v>7.380276760909817</v>
+        <v>7.380276760909612</v>
       </c>
       <c r="H99">
-        <v>9.44060436575524e-8</v>
+        <v>9.440604365751236e-8</v>
       </c>
       <c r="I99">
-        <v>0.00034890214317971987</v>
+        <v>0.0003489021431797159</v>
       </c>
       <c r="J99">
-        <v>0.001994856806679793</v>
+        <v>0.001994856806679772</v>
       </c>
       <c r="K99">
-        <v>4.892731454016511e-5</v>
+        <v>4.892731454016507e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3885,13 +3885,13 @@
         <v>0.14241638404137996</v>
       </c>
       <c r="B100">
-        <v>7.384137552457144</v>
+        <v>7.384137552457143</v>
       </c>
       <c r="C100">
         <v>5.6576657034781486e-8</v>
       </c>
       <c r="D100">
-        <v>0.0003622143810465881</v>
+        <v>0.000362214381046588</v>
       </c>
       <c r="E100">
         <v>0.001996874634409493</v>
@@ -3900,19 +3900,19 @@
         <v>4.894965154355592e-5</v>
       </c>
       <c r="G100">
-        <v>7.384139655778458</v>
+        <v>7.38413965577827</v>
       </c>
       <c r="H100">
-        <v>5.754007512437567e-8</v>
+        <v>5.7540075124351284e-8</v>
       </c>
       <c r="I100">
-        <v>0.0003622150336379625</v>
+        <v>0.000362215033637959</v>
       </c>
       <c r="J100">
-        <v>0.0019968748885313106</v>
+        <v>0.0019968748885312907</v>
       </c>
       <c r="K100">
-        <v>4.8949652500779355e-5</v>
+        <v>4.89496525007793e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3920,34 +3920,34 @@
         <v>0.1474435648091811</v>
       </c>
       <c r="B101">
-        <v>7.388046246995176</v>
+        <v>7.3880462469951755</v>
       </c>
       <c r="C101">
         <v>1.907197803946592e-8</v>
       </c>
       <c r="D101">
-        <v>0.0003759923350383095</v>
+        <v>0.00037599233503830945</v>
       </c>
       <c r="E101">
-        <v>0.001998949708240484</v>
+        <v>0.0019989497082404844</v>
       </c>
       <c r="F101">
-        <v>4.8972739231299896e-5</v>
+        <v>4.897273923129991e-5</v>
       </c>
       <c r="G101">
-        <v>7.388046948986922</v>
+        <v>7.38804694898689</v>
       </c>
       <c r="H101">
-        <v>1.9396746354735883e-8</v>
+        <v>1.9396746354727667e-8</v>
       </c>
       <c r="I101">
-        <v>0.000375992555220294</v>
+        <v>0.0003759925552202933</v>
       </c>
       <c r="J101">
-        <v>0.001998949792558898</v>
+        <v>0.001998949792558895</v>
       </c>
       <c r="K101">
-        <v>4.897273955325208e-5</v>
+        <v>4.8972739553252064e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.nonuniform_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.nonuniform_analytical.solution.xlsx
@@ -470,19 +470,19 @@
         <v>4.8955883636333254e-5</v>
       </c>
       <c r="G2">
-        <v>8.133575322549742</v>
+        <v>8.133575322549751</v>
       </c>
       <c r="H2">
-        <v>0.0002450173372811814</v>
+        <v>0.00024501733728118143</v>
       </c>
       <c r="I2">
-        <v>-2.527084404754275e-7</v>
+        <v>-2.527084404754243e-7</v>
       </c>
       <c r="J2">
-        <v>0.0019990013959773614</v>
+        <v>0.0019990013959773623</v>
       </c>
       <c r="K2">
-        <v>4.8955886001136696e-5</v>
+        <v>4.895588600113674e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -505,19 +505,19 @@
         <v>4.890005084505261e-5</v>
       </c>
       <c r="G3">
-        <v>8.100142035706664</v>
+        <v>8.100142035706687</v>
       </c>
       <c r="H3">
-        <v>0.00023519837386438262</v>
+        <v>0.00023519837386438286</v>
       </c>
       <c r="I3">
-        <v>-7.503786260257674e-7</v>
+        <v>-7.503786260257582e-7</v>
       </c>
       <c r="J3">
-        <v>0.001997007162525246</v>
+        <v>0.0019970071625252496</v>
       </c>
       <c r="K3">
-        <v>4.8900057807902084e-5</v>
+        <v>4.890005780790219e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -540,19 +540,19 @@
         <v>4.8846716527065253e-5</v>
       </c>
       <c r="G4">
-        <v>8.066306461321654</v>
+        <v>8.066306461321691</v>
       </c>
       <c r="H4">
-        <v>0.00022566620983382617</v>
+        <v>0.00022566620983382657</v>
       </c>
       <c r="I4">
-        <v>-1.2330404569538157e-6</v>
+        <v>-1.2330404569538007e-6</v>
       </c>
       <c r="J4">
-        <v>0.001995033821031834</v>
+        <v>0.001995033821031839</v>
       </c>
       <c r="K4">
-        <v>4.884672782202133e-5</v>
+        <v>4.8846727822021516e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -575,19 +575,19 @@
         <v>4.879602701731428e-5</v>
       </c>
       <c r="G5">
-        <v>8.03213918085127</v>
+        <v>8.03213918085133</v>
       </c>
       <c r="H5">
-        <v>0.000216409167153206</v>
+        <v>0.00021640916715320657</v>
       </c>
       <c r="I5">
-        <v>-1.7012481750195096e-6</v>
+        <v>-1.7012481750194892e-6</v>
       </c>
       <c r="J5">
-        <v>0.0019930774619592254</v>
+        <v>0.0019930774619592324</v>
       </c>
       <c r="K5">
-        <v>4.87960423336159e-5</v>
+        <v>4.879604233361614e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -610,19 +610,19 @@
         <v>4.874811682098521e-5</v>
       </c>
       <c r="G6">
-        <v>7.997730584984302</v>
+        <v>7.997730584984386</v>
       </c>
       <c r="H6">
-        <v>0.00020741590478634474</v>
+        <v>0.00020741590478634545</v>
       </c>
       <c r="I6">
-        <v>-2.155537711475222e-6</v>
+        <v>-2.155537711475197e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019911344038320523</v>
+        <v>0.001991134403832062</v>
       </c>
       <c r="K6">
-        <v>4.874813579996598e-5</v>
+        <v>4.87481357999663e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -645,19 +645,19 @@
         <v>4.870310170975046e-5</v>
       </c>
       <c r="G7">
-        <v>7.963190532074617</v>
+        <v>7.963190532074721</v>
       </c>
       <c r="H7">
-        <v>0.0001986754048311484</v>
+        <v>0.0001986754048311492</v>
       </c>
       <c r="I7">
-        <v>-2.596428757330766e-6</v>
+        <v>-2.596428757330737e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019892013071934733</v>
+        <v>0.0019892013071934845</v>
       </c>
       <c r="K7">
-        <v>4.870312395670791e-5</v>
+        <v>4.870312395670829e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -680,19 +680,19 @@
         <v>4.866107140816928e-5</v>
       </c>
       <c r="G8">
-        <v>7.928646363866858</v>
+        <v>7.928646363866982</v>
       </c>
       <c r="H8">
-        <v>0.0001901769590757401</v>
+        <v>0.00019017695907574093</v>
       </c>
       <c r="I8">
-        <v>-3.0244271105790805e-6</v>
+        <v>-3.024427110579049e-6</v>
       </c>
       <c r="J8">
-        <v>0.001987275291550701</v>
+        <v>0.0019872752915507143</v>
       </c>
       <c r="K8">
-        <v>4.866109649260674e-5</v>
+        <v>4.866109649260717e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -715,19 +715,19 @@
         <v>4.8622082683592737e-5</v>
       </c>
       <c r="G9">
-        <v>7.89423910617538</v>
+        <v>7.894239106175522</v>
       </c>
       <c r="H9">
-        <v>0.00018191015598298157</v>
+        <v>0.0001819101559829825</v>
       </c>
       <c r="I9">
-        <v>-3.4400272031259316e-6</v>
+        <v>-3.440027203125897e-6</v>
       </c>
       <c r="J9">
-        <v>0.00198535404215448</v>
+        <v>0.001985354042154495</v>
       </c>
       <c r="K9">
-        <v>4.86221101559538e-5</v>
+        <v>4.8622110155954294e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -750,19 +750,19 @@
         <v>4.858615380663568e-5</v>
       </c>
       <c r="G10">
-        <v>7.8601179699034</v>
+        <v>7.86011796990356</v>
       </c>
       <c r="H10">
-        <v>0.0001738648677049176</v>
+        <v>0.00017386486770491863</v>
       </c>
       <c r="I10">
-        <v>-3.843714590511343e-6</v>
+        <v>-3.843714590511305e-6</v>
       </c>
       <c r="J10">
-        <v>0.001983435890027258</v>
+        <v>0.001983435890027275</v>
       </c>
       <c r="K10">
-        <v>4.858618321107287e-5</v>
+        <v>4.858618321107341e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -785,19 +785,19 @@
         <v>4.855326130585241e-5</v>
       </c>
       <c r="G11">
-        <v>7.826433609208328</v>
+        <v>7.826433609208503</v>
       </c>
       <c r="H11">
-        <v>0.00016603123803506217</v>
+        <v>0.00016603123803506336</v>
       </c>
       <c r="I11">
-        <v>-4.2359681420775175e-6</v>
+        <v>-4.235968142077476e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019815198513828667</v>
+        <v>0.0019815198513828854</v>
       </c>
       <c r="K11">
-        <v>4.8553292192548003e-5</v>
+        <v>4.85532921925486e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -820,19 +820,19 @@
         <v>4.852333966051009e-5</v>
       </c>
       <c r="G12">
-        <v>7.793330889029753</v>
+        <v>7.793330889029942</v>
       </c>
       <c r="H12">
-        <v>0.00015839967064521822</v>
+        <v>0.00015839967064521955</v>
       </c>
       <c r="I12">
-        <v>-4.617261588456275e-6</v>
+        <v>-4.617261588456231e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019796056170686255</v>
+        <v>0.001979605617068646</v>
       </c>
       <c r="K12">
-        <v>4.85233716049511e-5</v>
+        <v>4.8523371604951735e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -855,19 +855,19 @@
         <v>4.849628410545774e-5</v>
       </c>
       <c r="G13">
-        <v>7.760942057808888</v>
+        <v>7.76094205780909</v>
       </c>
       <c r="H13">
-        <v>0.00015096081866003346</v>
+        <v>0.00015096081866003495</v>
       </c>
       <c r="I13">
-        <v>-4.988063940362796e-6</v>
+        <v>-4.988063940362748e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019776934910634295</v>
+        <v>0.0019776934910634525</v>
       </c>
       <c r="K13">
-        <v>4.8496316717090316e-5</v>
+        <v>4.8496316717090994e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -890,19 +890,19 @@
         <v>4.847195618963449e-5</v>
       </c>
       <c r="G14">
-        <v>7.729381164056638</v>
+        <v>7.729381164056849</v>
       </c>
       <c r="H14">
-        <v>0.0001437055758535094</v>
+        <v>0.00014370557585351103</v>
       </c>
       <c r="I14">
-        <v>-5.34883804581191e-6</v>
+        <v>-5.348838045811861e-6</v>
       </c>
       <c r="J14">
-        <v>0.001975784286381531</v>
+        <v>0.0019757842863815547</v>
       </c>
       <c r="K14">
-        <v>4.847198912002625e-5</v>
+        <v>4.8471989120026957e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -925,19 +925,19 @@
         <v>4.8450191293169366e-5</v>
       </c>
       <c r="G15">
-        <v>7.698740301557479</v>
+        <v>7.6987403015577005</v>
       </c>
       <c r="H15">
-        <v>0.0001366250727488701</v>
+        <v>0.00013662507274887184</v>
       </c>
       <c r="I15">
-        <v>-5.700035930538917e-6</v>
+        <v>-5.7000359305388664e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019738791937567637</v>
+        <v>0.0019738791937567897</v>
       </c>
       <c r="K15">
-        <v>4.845022424061021e-5</v>
+        <v>4.845022424061093e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -960,19 +960,19 @@
         <v>4.8430807085982744e-5</v>
       </c>
       <c r="G16">
-        <v>7.66908791859166</v>
+        <v>7.669087918591888</v>
       </c>
       <c r="H16">
-        <v>0.00012971068004944273</v>
+        <v>0.00012971068004944452</v>
       </c>
       <c r="I16">
-        <v>-6.0420885407777826e-6</v>
+        <v>-6.042088540777731e-6</v>
       </c>
       <c r="J16">
-        <v>0.001971979642383632</v>
+        <v>0.0019719796423836593</v>
       </c>
       <c r="K16">
-        <v>4.8430839794541317e-5</v>
+        <v>4.843083979454207e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -995,19 +995,19 @@
         <v>4.8413611934728976e-5</v>
       </c>
       <c r="G17">
-        <v>7.6404690838092035</v>
+        <v>7.640469083809439</v>
       </c>
       <c r="H17">
-        <v>0.00012295402672777233</v>
+        <v>0.00012295402672777412</v>
       </c>
       <c r="I17">
-        <v>-6.375385899162527e-6</v>
+        <v>-6.375385899162473e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019700871719568486</v>
+        <v>0.0019700871719568777</v>
       </c>
       <c r="K17">
-        <v>4.8413644184421604e-5</v>
+        <v>4.8413644184422383e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1030,19 +1030,19 @@
         <v>4.8398412479926476e-5</v>
       </c>
       <c r="G18">
-        <v>7.612907358461776</v>
+        <v>7.612907358462016</v>
       </c>
       <c r="H18">
-        <v>0.00011634704247168413</v>
+        <v>0.00011634704247168588</v>
       </c>
       <c r="I18">
-        <v>-6.700241587336889e-6</v>
+        <v>-6.7002415873368345e-6</v>
       </c>
       <c r="J18">
-        <v>0.001968203332772407</v>
+        <v>0.0019682033327724376</v>
       </c>
       <c r="K18">
-        <v>4.8398444077897826e-5</v>
+        <v>4.839844407789862e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1065,19 +1065,19 @@
         <v>4.8385019910310906e-5</v>
       </c>
       <c r="G19">
-        <v>7.586407817449084</v>
+        <v>7.586407817449329</v>
       </c>
       <c r="H19">
-        <v>0.0001098820365389879</v>
+        <v>0.00010988203653898962</v>
       </c>
       <c r="I19">
-        <v>-7.016833338199031e-6</v>
+        <v>-7.016833338198975e-6</v>
       </c>
       <c r="J19">
-        <v>0.00196632962684083</v>
+        <v>0.0019663296268408624</v>
       </c>
       <c r="K19">
-        <v>4.8385050677790894e-5</v>
+        <v>4.8385050677791714e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1100,19 +1100,19 @@
         <v>4.8373254758944056e-5</v>
       </c>
       <c r="G20">
-        <v>7.5609607695484105</v>
+        <v>7.560960769548659</v>
       </c>
       <c r="H20">
-        <v>0.0001035518295402581</v>
+        <v>0.0001035518295402598</v>
       </c>
       <c r="I20">
-        <v>-7.325109802011944e-6</v>
+        <v>-7.325109802011885e-6</v>
       </c>
       <c r="J20">
-        <v>0.00196446749909842</v>
+        <v>0.001964467499098454</v>
       </c>
       <c r="K20">
-        <v>4.8373284514502404e-5</v>
+        <v>4.837328451450324e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1135,19 +1135,19 @@
         <v>4.8362950272157596e-5</v>
       </c>
       <c r="G21">
-        <v>7.536545803590867</v>
+        <v>7.536545803591118</v>
       </c>
       <c r="H21">
-        <v>9.734995326201363e-5</v>
+        <v>9.734995326201531e-5</v>
       </c>
       <c r="I21">
-        <v>-7.624653406491551e-6</v>
+        <v>-7.624653406491488e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019626183850086822</v>
+        <v>0.0019626183850087187</v>
       </c>
       <c r="K21">
-        <v>4.8362978819376865e-5</v>
+        <v>4.836297881937773e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1170,19 +1170,19 @@
         <v>4.8353954536138854e-5</v>
       </c>
       <c r="G22">
-        <v>7.513135888325812</v>
+        <v>7.513135888326066</v>
       </c>
       <c r="H22">
-        <v>9.127093164551425e-5</v>
+        <v>9.12709316455159e-5</v>
       </c>
       <c r="I22">
-        <v>-7.914491378880796e-6</v>
+        <v>-7.91449137888073e-6</v>
       </c>
       <c r="J22">
-        <v>0.0019607838174000667</v>
+        <v>0.001960783817400104</v>
       </c>
       <c r="K22">
-        <v>4.835398165186481e-5</v>
+        <v>4.8353981651865693e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1205,19 +1205,19 @@
         <v>4.834613159614925e-5</v>
       </c>
       <c r="G23">
-        <v>7.490701334282188</v>
+        <v>7.490701334282444</v>
       </c>
       <c r="H23">
-        <v>8.531064725236922e-5</v>
+        <v>8.531064725237085e-5</v>
       </c>
       <c r="I23">
-        <v>-8.192852189965784e-6</v>
+        <v>-8.192852189965715e-6</v>
       </c>
       <c r="J23">
-        <v>0.001958965591570009</v>
+        <v>0.0019589655915700477</v>
       </c>
       <c r="K23">
-        <v>4.834615702506604e-5</v>
+        <v>4.8346157025066934e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1240,19 +1240,19 @@
         <v>4.8339361794909474e-5</v>
       </c>
       <c r="G24">
-        <v>7.469213476146782</v>
+        <v>7.46921347614704</v>
       </c>
       <c r="H24">
-        <v>7.946678513084185e-5</v>
+        <v>7.946678513084342e-5</v>
       </c>
       <c r="I24">
-        <v>-8.456873093602695e-6</v>
+        <v>-8.456873093602622e-6</v>
       </c>
       <c r="J24">
-        <v>0.001957165982352102</v>
+        <v>0.001957165982352141</v>
       </c>
       <c r="K24">
-        <v>4.83393852502599e-5</v>
+        <v>4.833938525026081e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1275,19 +1275,19 @@
         <v>4.8333541517289776e-5</v>
       </c>
       <c r="G25">
-        <v>7.448647949405034</v>
+        <v>7.448647949405292</v>
       </c>
       <c r="H25">
-        <v>7.373932920266412e-5</v>
+        <v>7.373932920266565e-5</v>
       </c>
       <c r="I25">
-        <v>-8.70227522243227e-6</v>
+        <v>-8.70227522243219e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019553879998276246</v>
+        <v>0.001955387999827664</v>
       </c>
       <c r="K25">
-        <v>4.833356268999592e-5</v>
+        <v>4.833356268999684e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1310,19 +1310,19 @@
         <v>4.832858248105254e-5</v>
       </c>
       <c r="G26">
-        <v>7.4289874309988475</v>
+        <v>7.428987430999108</v>
       </c>
       <c r="H26">
-        <v>6.813106811247555e-5</v>
+        <v>6.813106811247703e-5</v>
       </c>
       <c r="I26">
-        <v>-8.923034425488367e-6</v>
+        <v>-8.923034425488282e-6</v>
       </c>
       <c r="J26">
-        <v>0.001953635662223099</v>
+        <v>0.0019536356622231387</v>
       </c>
       <c r="K26">
-        <v>4.832860105463656e-5</v>
+        <v>4.8328601054637494e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1345,19 +1345,19 @@
         <v>4.832441067317987e-5</v>
       </c>
       <c r="G27">
-        <v>7.41022370353363</v>
+        <v>7.410223703533892</v>
       </c>
       <c r="H27">
-        <v>6.264805057951653e-5</v>
+        <v>6.264805057951795e-5</v>
       </c>
       <c r="I27">
-        <v>-9.111086458837038e-6</v>
+        <v>-9.11108645883695e-6</v>
       </c>
       <c r="J27">
-        <v>0.001951914256689243</v>
+        <v>0.0019519142566892835</v>
       </c>
       <c r="K27">
-        <v>4.8324426346305936e-5</v>
+        <v>4.832442634630688e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1380,19 +1380,19 @@
         <v>4.8320965005546946e-5</v>
       </c>
       <c r="G28">
-        <v>7.392358905203945</v>
+        <v>7.392358905204207</v>
       </c>
       <c r="H28">
-        <v>5.7299920024607674e-5</v>
+        <v>5.7299920024609056e-5</v>
       </c>
       <c r="I28">
-        <v>-9.256111924496959e-6</v>
+        <v>-9.256111924496864e-6</v>
       </c>
       <c r="J28">
-        <v>0.0019502305522079426</v>
+        <v>0.0019502305522079834</v>
       </c>
       <c r="K28">
-        <v>4.832097751938774e-5</v>
+        <v>4.83209775193887e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1415,19 +1415,19 @@
         <v>4.83181957530721e-5</v>
       </c>
       <c r="G29">
-        <v>7.375405850045815</v>
+        <v>7.375405850046079</v>
       </c>
       <c r="H29">
-        <v>5.2100055448611535e-5</v>
+        <v>5.210005544861288e-5</v>
       </c>
       <c r="I29">
-        <v>-9.345447398617258e-6</v>
+        <v>-9.345447398617156e-6</v>
       </c>
       <c r="J29">
-        <v>0.0019485929266229722</v>
+        <v>0.0019485929266230126</v>
       </c>
       <c r="K29">
-        <v>4.8318204917111193e-5</v>
+        <v>4.8318204917112156e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1450,19 +1450,19 @@
         <v>4.831606283818292e-5</v>
       </c>
       <c r="G30">
-        <v>7.359387354378963</v>
+        <v>7.359387354379228</v>
       </c>
       <c r="H30">
-        <v>4.706545354435266e-5</v>
+        <v>4.7065453544353974e-5</v>
       </c>
       <c r="I30">
-        <v>-9.364163261759415e-6</v>
+        <v>-9.364163261759306e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019470113716499508</v>
+        <v>0.0019470113716499916</v>
       </c>
       <c r="K30">
-        <v>4.831606855488391e-5</v>
+        <v>4.831606855488487e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1485,19 +1485,19 @@
         <v>4.831453403146398e-5</v>
       </c>
       <c r="G31">
-        <v>7.344334576019145</v>
+        <v>7.344334576019412</v>
       </c>
       <c r="H31">
-        <v>4.221630801152268e-5</v>
+        <v>4.221630801152397e-5</v>
       </c>
       <c r="I31">
-        <v>-9.295335837850918e-6</v>
+        <v>-9.295335837850803e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019454973478109502</v>
+        <v>0.001945497347810991</v>
       </c>
       <c r="K31">
-        <v>4.831453631615341e-5</v>
+        <v>4.8314536316154354e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1520,19 +1520,19 @@
         <v>4.831358314364582e-5</v>
       </c>
       <c r="G32">
-        <v>7.330284455858266</v>
+        <v>7.330284455858534</v>
       </c>
       <c r="H32">
-        <v>3.757526911920184e-5</v>
+        <v>3.757526911920312e-5</v>
       </c>
       <c r="I32">
-        <v>-9.120522684989436e-6</v>
+        <v>-9.12052268498931e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019440634747248263</v>
+        <v>0.0019440634747248677</v>
       </c>
       <c r="K32">
-        <v>4.831358213485416e-5</v>
+        <v>4.83135821348551e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1555,19 +1555,19 @@
         <v>4.8313188284273985e-5</v>
       </c>
       <c r="G33">
-        <v>7.317276437159605</v>
+        <v>7.317276437159875</v>
       </c>
       <c r="H33">
-        <v>3.316640351172419e-5</v>
+        <v>3.3166403511725444e-5</v>
       </c>
       <c r="I33">
-        <v>-8.820427593408144e-6</v>
+        <v>-8.820427593408008e-6</v>
       </c>
       <c r="J33">
-        <v>0.0019427230595528762</v>
+        <v>0.0019427230595529185</v>
       </c>
       <c r="K33">
-        <v>4.831318424704049e-5</v>
+        <v>4.831318424704143e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1590,19 +1590,19 @@
         <v>4.831333025564672e-5</v>
       </c>
       <c r="G34">
-        <v>7.30534870951408</v>
+        <v>7.305348709514352</v>
       </c>
       <c r="H34">
-        <v>2.9013908313809825e-5</v>
+        <v>2.9013908313811066e-5</v>
       </c>
       <c r="I34">
-        <v>-8.375718961163262e-6</v>
+        <v>-8.375718961163113e-6</v>
       </c>
       <c r="J34">
-        <v>0.0019414894860820856</v>
+        <v>0.0019414894860821294</v>
       </c>
       <c r="K34">
-        <v>4.831332357466414e-5</v>
+        <v>4.831332357466507e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1625,19 +1625,19 @@
         <v>4.8313991137688784e-5</v>
       </c>
       <c r="G35">
-        <v>7.294534272270874</v>
+        <v>7.2945342722711475</v>
       </c>
       <c r="H35">
-        <v>2.514066853142819e-5</v>
+        <v>2.514066853142942e-5</v>
       </c>
       <c r="I35">
-        <v>-7.767944932789733e-6</v>
+        <v>-7.767944932789567e-6</v>
       </c>
       <c r="J35">
-        <v>0.0019403755070803743</v>
+        <v>0.0019403755070804187</v>
       </c>
       <c r="K35">
-        <v>4.831398230181611e-5</v>
+        <v>4.831398230181704e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1660,19 +1660,19 @@
         <v>4.831515310290752e-5</v>
       </c>
       <c r="G36">
-        <v>7.284857135929343</v>
+        <v>7.284857135929619</v>
       </c>
       <c r="H36">
-        <v>2.1566770087548603e-5</v>
+        <v>2.1566770087549823e-5</v>
       </c>
       <c r="I36">
-        <v>-6.980473730468054e-6</v>
+        <v>-6.980473730467873e-6</v>
       </c>
       <c r="J36">
-        <v>0.0019393924973864992</v>
+        <v>0.0019393924973865452</v>
       </c>
       <c r="K36">
-        <v>4.8315142683707874e-5</v>
+        <v>4.8315142683708775e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1695,19 +1695,19 @@
         <v>4.831679748368219e-5</v>
       </c>
       <c r="G37">
-        <v>7.276328971098849</v>
+        <v>7.276328971099127</v>
       </c>
       <c r="H37">
-        <v>1.830809407036639e-5</v>
+        <v>1.8308094070367603e-5</v>
       </c>
       <c r="I37">
-        <v>-5.999380145826941e-6</v>
+        <v>-5.999380145826738e-6</v>
       </c>
       <c r="J37">
-        <v>0.0019385497359596026</v>
+        <v>0.00193854973595965</v>
       </c>
       <c r="K37">
-        <v>4.831678610709331e-5</v>
+        <v>4.831678610709419e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1730,19 +1730,19 @@
         <v>4.831890409961597e-5</v>
       </c>
       <c r="G38">
-        <v>7.268946478960987</v>
+        <v>7.268946478961267</v>
       </c>
       <c r="H38">
-        <v>1.537511722144341e-5</v>
+        <v>1.5375117221444615e-5</v>
       </c>
       <c r="I38">
-        <v>-4.8142002596471745e-6</v>
+        <v>-4.814200259646946e-6</v>
       </c>
       <c r="J38">
-        <v>0.001937853786565565</v>
+        <v>0.0019378537865656134</v>
       </c>
       <c r="K38">
-        <v>4.831889241623657e-5</v>
+        <v>4.831889241623744e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1765,19 +1765,19 @@
         <v>4.832145084202095e-5</v>
       </c>
       <c r="G39">
-        <v>7.262689698694386</v>
+        <v>7.262689698694668</v>
       </c>
       <c r="H39">
-        <v>1.277202805742133e-5</v>
+        <v>1.2772028057422527e-5</v>
       </c>
       <c r="I39">
-        <v>-3.4184861359962113e-6</v>
+        <v>-3.4184861359959542e-6</v>
       </c>
       <c r="J39">
-        <v>0.001937308039940605</v>
+        <v>0.0019373080399406556</v>
       </c>
       <c r="K39">
-        <v>4.832143949520435e-5</v>
+        <v>4.83214394952052e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1800,19 +1800,19 @@
         <v>4.8324413505779754e-5</v>
       </c>
       <c r="G40">
-        <v>7.257521390297174</v>
+        <v>7.257521390297457</v>
       </c>
       <c r="H40">
-        <v>1.0496241439325371e-5</v>
+        <v>1.0496241439326557e-5</v>
       </c>
       <c r="I40">
-        <v>-1.8101091583286516e-6</v>
+        <v>-1.8101091583283606e-6</v>
       </c>
       <c r="J40">
-        <v>0.0019369124653975892</v>
+        <v>0.001936912465397641</v>
       </c>
       <c r="K40">
-        <v>4.8324403100652894e-5</v>
+        <v>4.8324403100653734e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1835,19 +1835,19 @@
         <v>4.832776585451803e-5</v>
       </c>
       <c r="G41">
-        <v>7.25338754470145</v>
+        <v>7.253387544701736</v>
       </c>
       <c r="H41">
-        <v>8.538357132797134e-6</v>
+        <v>8.538357132798312e-6</v>
       </c>
       <c r="I41">
-        <v>8.716171073912777e-9</v>
+        <v>8.716171074241536e-9</v>
       </c>
       <c r="J41">
-        <v>0.0019366635978510514</v>
+        <v>0.0019366635978511056</v>
       </c>
       <c r="K41">
-        <v>4.832775692979341e-5</v>
+        <v>4.832775692979423e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1870,19 +1870,19 @@
         <v>4.833147990121659e-5</v>
       </c>
       <c r="G42">
-        <v>7.250218980602127</v>
+        <v>7.250218980602414</v>
       </c>
       <c r="H42">
-        <v>6.8825658522694075e-6</v>
+        <v>6.882565852270574e-6</v>
       </c>
       <c r="I42">
-        <v>2.0316906953440993e-6</v>
+        <v>2.0316906953444707e-6</v>
       </c>
       <c r="J42">
-        <v>0.0019365547616150382</v>
+        <v>0.0019365547616150944</v>
       </c>
       <c r="K42">
-        <v>4.8331472905447334e-5</v>
+        <v>4.833147290544813e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1905,19 +1905,19 @@
         <v>4.833552638112789e-5</v>
       </c>
       <c r="G43">
-        <v>7.2479338983072825</v>
+        <v>7.247933898307569</v>
       </c>
       <c r="H43">
-        <v>5.507463928924687e-6</v>
+        <v>5.507463928925845e-6</v>
       </c>
       <c r="I43">
-        <v>4.248947427784378e-6</v>
+        <v>4.248947427784794e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019365765072447282</v>
+        <v>0.0019365765072447863</v>
       </c>
       <c r="K43">
-        <v>4.8335521654526654e-5</v>
+        <v>4.833552165452743e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1940,19 +1940,19 @@
         <v>4.8339875385950724e-5</v>
       </c>
       <c r="G44">
-        <v>7.246441182120706</v>
+        <v>7.246441182120994</v>
       </c>
       <c r="H44">
-        <v>4.387199781402918e-6</v>
+        <v>4.387199781404067e-6</v>
       </c>
       <c r="I44">
-        <v>6.6477795919683944e-6</v>
+        <v>6.647779591968857e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019367172158483235</v>
+        <v>0.001936717215848383</v>
       </c>
       <c r="K44">
-        <v>4.8339873149284184e-5</v>
+        <v>4.8339873149284956e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1975,19 +1975,19 @@
         <v>4.834449711775671e-5</v>
       </c>
       <c r="G45">
-        <v>7.245644181270692</v>
+        <v>7.245644181270981</v>
       </c>
       <c r="H45">
-        <v>3.4928459872760594e-6</v>
+        <v>3.492845987277199e-6</v>
       </c>
       <c r="I45">
-        <v>9.213513966705484e-6</v>
+        <v>9.213513966705997e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019369638102394492</v>
+        <v>0.0019369638102395095</v>
       </c>
       <c r="K45">
-        <v>4.8344497469358374e-5</v>
+        <v>4.834449746935913e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2010,19 +2010,19 @@
         <v>4.834936270970386e-5</v>
       </c>
       <c r="G46">
-        <v>7.245444661694741</v>
+        <v>7.245444661695029</v>
       </c>
       <c r="H46">
-        <v>2.793873710403524e-6</v>
+        <v>2.793873710404655e-6</v>
       </c>
       <c r="I46">
-        <v>1.1930452671845816e-5</v>
+        <v>1.1930452671846379e-5</v>
       </c>
       <c r="J46">
-        <v>0.0019373025046656362</v>
+        <v>0.0019373025046656976</v>
       </c>
       <c r="K46">
-        <v>4.834936563041026e-5</v>
+        <v>4.8349365630411e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2045,19 +2045,19 @@
         <v>4.8354445050848366e-5</v>
       </c>
       <c r="G47">
-        <v>7.245746614662284</v>
+        <v>7.245746614662573</v>
       </c>
       <c r="H47">
-        <v>2.259603205444049e-6</v>
+        <v>2.25960320544517e-6</v>
       </c>
       <c r="I47">
-        <v>1.4782803531112541e-5</v>
+        <v>1.478280353111316e-5</v>
       </c>
       <c r="J47">
-        <v>0.0019377195262514225</v>
+        <v>0.001937719526251485</v>
       </c>
       <c r="K47">
-        <v>4.8354450416679775e-5</v>
+        <v>4.8354450416680514e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2080,19 +2080,19 @@
         <v>4.835971954759592e-5</v>
       </c>
       <c r="G48">
-        <v>7.2464596325750446</v>
+        <v>7.246459632575332</v>
       </c>
       <c r="H48">
-        <v>1.860514434952143e-6</v>
+        <v>1.8605144349532537e-6</v>
       </c>
       <c r="I48">
-        <v>1.7755525443021133e-5</v>
+        <v>1.7755525443021807e-5</v>
       </c>
       <c r="J48">
-        <v>0.001938201750144167</v>
+        <v>0.00193820175014423</v>
       </c>
       <c r="K48">
-        <v>4.835972714889791e-5</v>
+        <v>4.835972714889865e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2115,19 +2115,19 @@
         <v>4.8365164757245284e-5</v>
       </c>
       <c r="G49">
-        <v>7.247501618061919</v>
+        <v>7.247501618062206</v>
       </c>
       <c r="H49">
-        <v>1.5693250581999523e-6</v>
+        <v>1.5693250582010524e-6</v>
       </c>
       <c r="I49">
-        <v>2.0835028683781048e-5</v>
+        <v>2.083502868378178e-5</v>
       </c>
       <c r="J49">
-        <v>0.0019387372052478119</v>
+        <v>0.0019387372052478756</v>
       </c>
       <c r="K49">
-        <v>4.836517432230248e-5</v>
+        <v>4.836517432230322e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2150,19 +2150,19 @@
         <v>4.837076284093996e-5</v>
       </c>
       <c r="G50">
-        <v>7.248800673177445</v>
+        <v>7.24880067317773</v>
       </c>
       <c r="H50">
-        <v>1.3617746561836744e-6</v>
+        <v>1.3617746561847641e-6</v>
       </c>
       <c r="I50">
-        <v>2.4009689896800163e-5</v>
+        <v>2.4009689896800952e-5</v>
       </c>
       <c r="J50">
-        <v>0.0019393154258928228</v>
+        <v>0.0019393154258928876</v>
       </c>
       <c r="K50">
-        <v>4.8370774061626014e-5</v>
+        <v>4.837077406162676e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2185,19 +2185,19 @@
         <v>4.837649980332754e-5</v>
       </c>
       <c r="G51">
-        <v>7.250296109172255</v>
+        <v>7.250296109172539</v>
       </c>
       <c r="H51">
-        <v>1.2170902187351749e-6</v>
+        <v>1.2170902187362538e-6</v>
       </c>
       <c r="I51">
-        <v>2.72701643611626e-5</v>
+        <v>2.727016436116345e-5</v>
       </c>
       <c r="J51">
-        <v>0.0019399276436320937</v>
+        <v>0.0019399276436321599</v>
       </c>
       <c r="K51">
-        <v>4.8376512360146374e-5</v>
+        <v>4.837651236014712e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2220,19 +2220,19 @@
         <v>4.838236551138063e-5</v>
       </c>
       <c r="G52">
-        <v>7.251938612725489</v>
+        <v>7.251938612725772</v>
       </c>
       <c r="H52">
-        <v>1.1181433915402286e-6</v>
+        <v>1.1181433915412971e-6</v>
       </c>
       <c r="I52">
-        <v>3.0609500348179865e-5</v>
+        <v>3.060950034818077e-5</v>
       </c>
       <c r="J52">
-        <v>0.0019405668307630156</v>
+        <v>0.0019405668307630826</v>
       </c>
       <c r="K52">
-        <v>4.8382379095392026e-5</v>
+        <v>4.838237909539277e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2255,19 +2255,19 @@
         <v>4.8388353510734986e-5</v>
       </c>
       <c r="G53">
-        <v>7.253689687332454</v>
+        <v>7.253689687332735</v>
       </c>
       <c r="H53">
-        <v>1.0513401863003215e-6</v>
+        <v>1.0513401863013793e-6</v>
       </c>
       <c r="I53">
-        <v>3.4023080989838096e-5</v>
+        <v>3.402308098983908e-5</v>
       </c>
       <c r="J53">
-        <v>0.0019412276203510596</v>
+        <v>0.0019412276203511273</v>
       </c>
       <c r="K53">
-        <v>4.838836784063756e-5</v>
+        <v>4.838836784063829e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2290,19 +2290,19 @@
         <v>4.83944606798026e-5</v>
       </c>
       <c r="G54">
-        <v>7.255520547067238</v>
+        <v>7.255520547067517</v>
       </c>
       <c r="H54">
-        <v>1.0063051012536182e-6</v>
+        <v>1.0063051012546649e-6</v>
       </c>
       <c r="I54">
-        <v>3.750843200575717e-5</v>
+        <v>3.7508432005758214e-5</v>
       </c>
       <c r="J54">
-        <v>0.0019419061358587314</v>
+        <v>0.001941906135858799</v>
       </c>
       <c r="K54">
-        <v>4.8394475513115074e-5</v>
+        <v>4.839447551311578e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2325,19 +2325,19 @@
         <v>4.840068677601837e-5</v>
       </c>
       <c r="G55">
-        <v>7.257410668183709</v>
+        <v>7.257410668183987</v>
       </c>
       <c r="H55">
-        <v>9.754319575368887e-7</v>
+        <v>9.754319575379244e-7</v>
       </c>
       <c r="I55">
-        <v>4.106494193415876e-5</v>
+        <v>4.1064941934159874e-5</v>
       </c>
       <c r="J55">
-        <v>0.0019425997662648096</v>
+        <v>0.0019425997662648774</v>
       </c>
       <c r="K55">
-        <v>4.84007019142718e-5</v>
+        <v>4.84007019142725e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2360,19 +2360,19 @@
         <v>4.8407033932978165e-5</v>
       </c>
       <c r="G56">
-        <v>7.259346201474744</v>
+        <v>7.2593462014750205</v>
       </c>
       <c r="H56">
-        <v>9.53373156004905e-7</v>
+        <v>9.533731560059295e-7</v>
       </c>
       <c r="I56">
-        <v>4.4693540632003e-5</v>
+        <v>4.469354063200418e-5</v>
       </c>
       <c r="J56">
-        <v>0.0019433069202695295</v>
+        <v>0.001943306920269597</v>
       </c>
       <c r="K56">
-        <v>4.8407049221620085e-5</v>
+        <v>4.840704922162078e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2395,19 +2395,19 @@
         <v>4.84135061622837e-5</v>
       </c>
       <c r="G57">
-        <v>7.261318418973372</v>
+        <v>7.261318418973645</v>
       </c>
       <c r="H57">
-        <v>9.365292792678307e-7</v>
+        <v>9.365292792688437e-7</v>
       </c>
       <c r="I57">
-        <v>4.83963765524222e-5</v>
+        <v>4.839637655242345e-5</v>
       </c>
       <c r="J57">
-        <v>0.0019440267874122979</v>
+        <v>0.0019440267874123653</v>
       </c>
       <c r="K57">
-        <v>4.841352148669146e-5</v>
+        <v>4.8413521486692145e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2430,19 +2430,19 @@
         <v>4.842010890192948e-5</v>
       </c>
       <c r="G58">
-        <v>7.263322321970262</v>
+        <v>7.2633223219705325</v>
       </c>
       <c r="H58">
-        <v>9.225851477397872e-7</v>
+        <v>9.225851477407884e-7</v>
       </c>
       <c r="I58">
-        <v>5.217652267974833e-5</v>
+        <v>5.217652267974966e-5</v>
       </c>
       <c r="J58">
-        <v>0.0019447591255105957</v>
+        <v>0.0019447591255106623</v>
       </c>
       <c r="K58">
-        <v>4.842012418097067e-5</v>
+        <v>4.8420124180971354e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2465,19 +2465,19 @@
         <v>4.8426848637476386e-5</v>
       </c>
       <c r="G59">
-        <v>7.2653554842137265</v>
+        <v>7.265355484213996</v>
       </c>
       <c r="H59">
-        <v>9.101202086285935e-7</v>
+        <v>9.101202086295827e-7</v>
       </c>
       <c r="I59">
-        <v>5.603772994370305e-5</v>
+        <v>5.603772994370442e-5</v>
       </c>
       <c r="J59">
-        <v>0.0019455040854916197</v>
+        <v>0.0019455040854916854</v>
       </c>
       <c r="K59">
-        <v>4.842686381613507e-5</v>
+        <v>4.842686381613574e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2500,19 +2500,19 @@
         <v>4.8433732606605773e-5</v>
       </c>
       <c r="G60">
-        <v>7.26741715560067</v>
+        <v>7.267417155600937</v>
       </c>
       <c r="H60">
-        <v>8.983039850089023e-7</v>
+        <v>8.983039850098789e-7</v>
       </c>
       <c r="I60">
-        <v>5.998423525576875e-5</v>
+        <v>5.998423525577019e-5</v>
       </c>
       <c r="J60">
-        <v>0.001946262076647499</v>
+        <v>0.0019462620766475635</v>
       </c>
       <c r="K60">
-        <v>4.843374764883238e-5</v>
+        <v>4.843374764883305e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2535,19 +2535,19 @@
         <v>4.844076858473411e-5</v>
       </c>
       <c r="G61">
-        <v>7.269507612444722</v>
+        <v>7.269507612444986</v>
       </c>
       <c r="H61">
-        <v>8.86673719388902e-7</v>
+        <v>8.866737193898661e-7</v>
       </c>
       <c r="I61">
-        <v>6.40206226219881e-5</v>
+        <v>6.40206226219896e-5</v>
       </c>
       <c r="J61">
-        <v>0.0019470336698424763</v>
+        <v>0.00194703366984254</v>
       </c>
       <c r="K61">
-        <v>4.844078346731532e-5</v>
+        <v>4.844078346731599e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2570,19 +2570,19 @@
         <v>4.8447964740740784e-5</v>
       </c>
       <c r="G62">
-        <v>7.2716277165526835</v>
+        <v>7.271627716552945</v>
       </c>
       <c r="H62">
-        <v>8.749825768037258e-7</v>
+        <v>8.749825768046773e-7</v>
       </c>
       <c r="I62">
-        <v>6.815173030162464e-5</v>
+        <v>6.815173030162621e-5</v>
       </c>
       <c r="J62">
-        <v>0.0019478195324433062</v>
+        <v>0.0019478195324433697</v>
       </c>
       <c r="K62">
-        <v>4.8447979448553246e-5</v>
+        <v>4.844797944855394e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2605,19 +2605,19 @@
         <v>4.845532954775411e-5</v>
       </c>
       <c r="G63">
-        <v>7.273778635496355</v>
+        <v>7.273778635496614</v>
       </c>
       <c r="H63">
-        <v>8.631027944397914e-7</v>
+        <v>8.631027944407297e-7</v>
       </c>
       <c r="I63">
-        <v>7.238259368066681e-5</v>
+        <v>7.238259368066844e-5</v>
       </c>
       <c r="J63">
-        <v>0.001948620387545765</v>
+        <v>0.0019486203875458278</v>
       </c>
       <c r="K63">
-        <v>4.845534407036082e-5</v>
+        <v>4.8455344070361506e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2640,19 +2640,19 @@
         <v>4.8462871733573745e-5</v>
       </c>
       <c r="G64">
-        <v>7.275961676535602</v>
+        <v>7.275961676535857</v>
       </c>
       <c r="H64">
-        <v>8.509680152021159e-7</v>
+        <v>8.509680152030411e-7</v>
       </c>
       <c r="I64">
-        <v>7.671841387636301e-5</v>
+        <v>7.67184138763647e-5</v>
       </c>
       <c r="J64">
-        <v>0.0019494369902245286</v>
+        <v>0.0019494369902245906</v>
       </c>
       <c r="K64">
-        <v>4.846288606300981e-5</v>
+        <v>4.846288606301048e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2675,19 +2675,19 @@
         <v>4.847060025737794e-5</v>
       </c>
       <c r="G65">
-        <v>7.278178194618025</v>
+        <v>7.2781781946182775</v>
       </c>
       <c r="H65">
-        <v>8.385413196996798e-7</v>
+        <v>8.385413197005914e-7</v>
       </c>
       <c r="I65">
-        <v>8.116454328317272e-5</v>
+        <v>8.116454328317447e-5</v>
       </c>
       <c r="J65">
-        <v>0.0019502701148235856</v>
+        <v>0.001950270114823646</v>
       </c>
       <c r="K65">
-        <v>4.8470614386838613e-5</v>
+        <v>4.847061438683927e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2710,19 +2710,19 @@
         <v>4.8478524302528665e-5</v>
       </c>
       <c r="G66">
-        <v>7.280429544648074</v>
+        <v>7.280429544648323</v>
       </c>
       <c r="H66">
-        <v>8.257987730434588e-7</v>
+        <v>8.257987730443564e-7</v>
       </c>
       <c r="I66">
-        <v>8.572648138976862e-5</v>
+        <v>8.572648138977042e-5</v>
       </c>
       <c r="J66">
-        <v>0.0019511205487794708</v>
+        <v>0.0019511205487795298</v>
       </c>
       <c r="K66">
-        <v>4.847853822557117e-5</v>
+        <v>4.8478538225571824e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2745,19 +2745,19 @@
         <v>4.848665327850304e-5</v>
       </c>
       <c r="G67">
-        <v>7.282717058204123</v>
+        <v>7.282717058204369</v>
       </c>
       <c r="H67">
-        <v>8.127215877390094e-7</v>
+        <v>8.127215877398925e-7</v>
       </c>
       <c r="I67">
-        <v>9.040987651760975e-5</v>
+        <v>9.040987651761166e-5</v>
       </c>
       <c r="J67">
-        <v>0.0019519890900807646</v>
+        <v>0.0019519890900808218</v>
       </c>
       <c r="K67">
-        <v>4.848666698870967e-5</v>
+        <v>4.848666698871033e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2780,19 +2780,19 @@
         <v>4.8494996827639143e-5</v>
       </c>
       <c r="G68">
-        <v>7.285042032503036</v>
+        <v>7.285042032503278</v>
       </c>
       <c r="H68">
-        <v>7.992926792978501e-7</v>
+        <v>7.992926792987184e-7</v>
       </c>
       <c r="I68">
-        <v>9.522053053966222e-5</v>
+        <v>9.522053053966416e-5</v>
       </c>
       <c r="J68">
-        <v>0.0019528765465281577</v>
+        <v>0.001952876546528213</v>
       </c>
       <c r="K68">
-        <v>4.849501031841282e-5</v>
+        <v>4.8495010318413505e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2815,19 +2815,19 @@
         <v>4.850356483428012e-5</v>
       </c>
       <c r="G69">
-        <v>7.287405725085117</v>
+        <v>7.287405725085355</v>
       </c>
       <c r="H69">
-        <v>7.854952704902101e-7</v>
+        <v>7.854952704910633e-7</v>
       </c>
       <c r="I69">
-        <v>0.00010016440518081419</v>
+        <v>0.00010016440518081621</v>
       </c>
       <c r="J69">
-        <v>0.001953783735850068</v>
+        <v>0.0019537837358501215</v>
       </c>
       <c r="K69">
-        <v>4.850357809875975e-5</v>
+        <v>4.850357809876046e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2850,19 +2850,19 @@
         <v>4.8512367435091887e-5</v>
       </c>
       <c r="G70">
-        <v>7.289809350646192</v>
+        <v>7.2898093506464265</v>
       </c>
       <c r="H70">
-        <v>7.713123676750324e-7</v>
+        <v>7.713123676758699e-7</v>
       </c>
       <c r="I70">
-        <v>0.00010524762907018352</v>
+        <v>0.00010524762907018562</v>
       </c>
       <c r="J70">
-        <v>0.001954711486193958</v>
+        <v>0.001954711486194009</v>
       </c>
       <c r="K70">
-        <v>4.85123804661521e-5</v>
+        <v>4.85123804661528e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2885,19 +2885,19 @@
         <v>4.852141502999615e-5</v>
       </c>
       <c r="G71">
-        <v>7.292254078829717</v>
+        <v>7.292254078829948</v>
       </c>
       <c r="H71">
-        <v>7.567265726643914e-7</v>
+        <v>7.56726572665213e-7</v>
       </c>
       <c r="I71">
-        <v>0.00011047650519990339</v>
+        <v>0.00011047650519990554</v>
       </c>
       <c r="J71">
-        <v>0.0019556606367460974</v>
+        <v>0.001955660636746146</v>
       </c>
       <c r="K71">
-        <v>4.852142782019015e-5</v>
+        <v>4.8521427820190846e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2920,19 +2920,19 @@
         <v>4.853071829349388e-5</v>
       </c>
       <c r="G72">
-        <v>7.294741032210822</v>
+        <v>7.294741032211048</v>
       </c>
       <c r="H72">
-        <v>7.417200108834321e-7</v>
+        <v>7.417200108842374e-7</v>
       </c>
       <c r="I72">
-        <v>0.00011585751875999621</v>
+        <v>0.00011585751875999842</v>
       </c>
       <c r="J72">
-        <v>0.001956632038449792</v>
+        <v>0.0019566320384498386</v>
       </c>
       <c r="K72">
-        <v>4.853073083508103e-5</v>
+        <v>4.853073083508172e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2955,19 +2955,19 @@
         <v>4.8540288186303366e-5</v>
       </c>
       <c r="G73">
-        <v>7.297271284125004</v>
+        <v>7.297271284125225</v>
       </c>
       <c r="H73">
-        <v>7.262742963641785e-7</v>
+        <v>7.26274296364967e-7</v>
       </c>
       <c r="I73">
-        <v>0.00012139734507336926</v>
+        <v>0.00012139734507337148</v>
       </c>
       <c r="J73">
-        <v>0.0019576265547281858</v>
+        <v>0.00195762655472823</v>
       </c>
       <c r="K73">
-        <v>4.854030047120627e-5</v>
+        <v>4.854030047120697e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2990,19 +2990,19 @@
         <v>4.855013596729647e-5</v>
       </c>
       <c r="G74">
-        <v>7.299845856595653</v>
+        <v>7.29984585659587</v>
       </c>
       <c r="H74">
-        <v>7.103705061347291e-7</v>
+        <v>7.103705061355003e-7</v>
       </c>
       <c r="I74">
-        <v>0.00012710285791890058</v>
+        <v>0.0001271028579189029</v>
       </c>
       <c r="J74">
-        <v>0.0019586450622448275</v>
+        <v>0.0019586450622448687</v>
       </c>
       <c r="K74">
-        <v>4.855014798712775e-5</v>
+        <v>4.855014798712843e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3025,19 +3025,19 @@
         <v>4.856027320573906e-5</v>
       </c>
       <c r="G75">
-        <v>7.302465718169234</v>
+        <v>7.302465718169446</v>
       </c>
       <c r="H75">
-        <v>6.939891558725662e-7</v>
+        <v>6.939891558733194e-7</v>
       </c>
       <c r="I75">
-        <v>0.00013298113794782892</v>
+        <v>0.00013298113794783122</v>
       </c>
       <c r="J75">
-        <v>0.001959688451709282</v>
+        <v>0.001959688451709321</v>
       </c>
       <c r="K75">
-        <v>4.856028495174052e-5</v>
+        <v>4.8560284951741215e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3060,19 +3060,19 @@
         <v>4.857071179384759e-5</v>
       </c>
       <c r="G76">
-        <v>7.305131781571073</v>
+        <v>7.305131781571279</v>
       </c>
       <c r="H76">
-        <v>6.771101763903061e-7</v>
+        <v>6.771101763910409e-7</v>
       </c>
       <c r="I76">
-        <v>0.00013903948151758688</v>
+        <v>0.00013903948151758918</v>
       </c>
       <c r="J76">
-        <v>0.001960757628703542</v>
+        <v>0.001960757628703578</v>
       </c>
       <c r="K76">
-        <v>4.8570723256940094e-5</v>
+        <v>4.8570723256940765e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3095,19 +3095,19 @@
         <v>4.8581463959677454e-5</v>
       </c>
       <c r="G77">
-        <v>7.307844901393363</v>
+        <v>7.3078449013935645</v>
       </c>
       <c r="H77">
-        <v>6.59712888816876e-7</v>
+        <v>6.597128888175917e-7</v>
       </c>
       <c r="I77">
-        <v>0.00014528540967133146</v>
+        <v>0.0001452854096713338</v>
       </c>
       <c r="J77">
-        <v>0.0019618535145589306</v>
+        <v>0.0019618535145589644</v>
       </c>
       <c r="K77">
-        <v>4.8581475130431636e-5</v>
+        <v>4.8581475130432293e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3130,19 +3130,19 @@
         <v>4.8592542280359294e-5</v>
       </c>
       <c r="G78">
-        <v>7.310605871627542</v>
+        <v>7.310605871627739</v>
       </c>
       <c r="H78">
-        <v>6.417759792322093e-7</v>
+        <v>6.417759792329055e-7</v>
       </c>
       <c r="I78">
-        <v>0.00015172667739533102</v>
+        <v>0.00015172667739533338</v>
       </c>
       <c r="J78">
-        <v>0.001962977047248582</v>
+        <v>0.0019629770472486133</v>
       </c>
       <c r="K78">
-        <v>4.859255314898391e-5</v>
+        <v>4.859255314898456e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3165,19 +3165,19 @@
         <v>4.860395969570039e-5</v>
       </c>
       <c r="G79">
-        <v>7.313415423301982</v>
+        <v>7.313415423302173</v>
       </c>
       <c r="H79">
-        <v>6.232774727407325e-7</v>
+        <v>6.232774727414084e-7</v>
       </c>
       <c r="I79">
-        <v>0.00015837128312990822</v>
+        <v>0.0001583712831299106</v>
       </c>
       <c r="J79">
-        <v>0.0019641291823504214</v>
+        <v>0.0019641291823504505</v>
       </c>
       <c r="K79">
-        <v>4.8603970252014496e-5</v>
+        <v>4.8603970252015126e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3200,19 +3200,19 @@
         <v>4.861572952216938e-5</v>
       </c>
       <c r="G80">
-        <v>7.316274221999821</v>
+        <v>7.316274222000006</v>
       </c>
       <c r="H80">
-        <v>6.041947062770059e-7</v>
+        <v>6.04194706277661e-7</v>
       </c>
       <c r="I80">
-        <v>0.0001652274787557882</v>
+        <v>0.0001652274787557906</v>
       </c>
       <c r="J80">
-        <v>0.001965310894041264</v>
+        <v>0.001965310894041291</v>
       </c>
       <c r="K80">
-        <v>4.861573975564683e-5</v>
+        <v>4.8615739755647446e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3235,19 +3235,19 @@
         <v>4.8627865467283235e-5</v>
       </c>
       <c r="G81">
-        <v>7.319182865364562</v>
+        <v>7.319182865364741</v>
       </c>
       <c r="H81">
-        <v>5.845043011295769e-7</v>
+        <v>5.845043011302106e-7</v>
       </c>
       <c r="I81">
-        <v>0.0001723037795901888</v>
+        <v>0.00017230377959019124</v>
       </c>
       <c r="J81">
-        <v>0.001966523176159204</v>
+        <v>0.0019665231761592295</v>
       </c>
       <c r="K81">
-        <v>4.862787536701596e-5</v>
+        <v>4.862787536701656e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3270,19 +3270,19 @@
         <v>4.864038164441654e-5</v>
       </c>
       <c r="G82">
-        <v>7.322141880644497</v>
+        <v>7.322141880644671</v>
       </c>
       <c r="H82">
-        <v>5.641821340557998e-7</v>
+        <v>5.641821340564114e-7</v>
       </c>
       <c r="I82">
-        <v>0.00017960897497891826</v>
+        <v>0.0001796089749789207</v>
       </c>
       <c r="J82">
-        <v>0.0019677670433101576</v>
+        <v>0.0019677670433101814</v>
       </c>
       <c r="K82">
-        <v>4.864039119912404e-5</v>
+        <v>4.864039119912463e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3305,19 +3305,19 @@
         <v>4.8653292588053906e-5</v>
       </c>
       <c r="G83">
-        <v>7.325151722284339</v>
+        <v>7.325151722284507</v>
       </c>
       <c r="H83">
-        <v>5.432033076921294e-7</v>
+        <v>5.432033076927181e-7</v>
       </c>
       <c r="I83">
-        <v>0.0001871521390199817</v>
+        <v>0.00018715213901998408</v>
       </c>
       <c r="J83">
-        <v>0.0019690435320389803</v>
+        <v>0.0019690435320390024</v>
       </c>
       <c r="K83">
-        <v>4.8653301786052484e-5</v>
+        <v>4.8653301786053046e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3340,19 +3340,19 @@
         <v>4.866661326950781e-5</v>
       </c>
       <c r="G84">
-        <v>7.328212769507212</v>
+        <v>7.328212769507374</v>
       </c>
       <c r="H84">
-        <v>5.21542120400792e-7</v>
+        <v>5.215421204013571e-7</v>
       </c>
       <c r="I84">
-        <v>0.00019494264169891718</v>
+        <v>0.0001949426416989195</v>
       </c>
       <c r="J84">
-        <v>0.0019703537020599226</v>
+        <v>0.001970353702059943</v>
       </c>
       <c r="K84">
-        <v>4.866662209869693e-5</v>
+        <v>4.8666622098697485e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3375,19 +3375,19 @@
         <v>4.868035911312491e-5</v>
       </c>
       <c r="G85">
-        <v>7.331325324002859</v>
+        <v>7.331325324003014</v>
       </c>
       <c r="H85">
-        <v>4.991720344256106e-7</v>
+        <v>4.991720344261514e-7</v>
       </c>
       <c r="I85">
-        <v>0.00020299016040185795</v>
+        <v>0.0002029901604018602</v>
       </c>
       <c r="J85">
-        <v>0.001971698637571365</v>
+        <v>0.001971698637571384</v>
       </c>
       <c r="K85">
-        <v>4.868036756105194e-5</v>
+        <v>4.8680367561052465e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3410,19 +3410,19 @@
         <v>4.869454601300515e-5</v>
       </c>
       <c r="G86">
-        <v>7.334489607609273</v>
+        <v>7.334489607609422</v>
       </c>
       <c r="H86">
-        <v>4.7606564362510843e-7</v>
+        <v>4.760656436256241e-7</v>
       </c>
       <c r="I86">
-        <v>0.00021130469177697926</v>
+        <v>0.0002113046917769816</v>
       </c>
       <c r="J86">
-        <v>0.0019730794486179574</v>
+        <v>0.001973079448617975</v>
       </c>
       <c r="K86">
-        <v>4.869455406678576e-5</v>
+        <v>4.869455406678626e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3445,19 +3445,19 @@
         <v>4.870919035025941e-5</v>
       </c>
       <c r="G87">
-        <v>7.3377057602103335</v>
+        <v>7.3377057602104765</v>
       </c>
       <c r="H87">
-        <v>4.5219463979656913e-7</v>
+        <v>4.5219463979705877e-7</v>
       </c>
       <c r="I87">
-        <v>0.00021989656391193922</v>
+        <v>0.00021989656391194155</v>
       </c>
       <c r="J87">
-        <v>0.0019744972725471866</v>
+        <v>0.0019744972725472035</v>
       </c>
       <c r="K87">
-        <v>4.870919799662496e-5</v>
+        <v>4.870919799662544e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3480,19 +3480,19 @@
         <v>4.8724309010832496e-5</v>
       </c>
       <c r="G88">
-        <v>7.3409738376851985</v>
+        <v>7.340973837685334</v>
       </c>
       <c r="H88">
-        <v>4.2752977787285957e-7</v>
+        <v>4.2752977787332236e-7</v>
       </c>
       <c r="I88">
-        <v>0.00022877644903718282</v>
+        <v>0.0002287764490371851</v>
       </c>
       <c r="J88">
-        <v>0.0019759532755392203</v>
+        <v>0.0019759532755392367</v>
       </c>
       <c r="K88">
-        <v>4.872431623609457e-5</v>
+        <v>4.872431623609503e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3515,19 +3515,19 @@
         <v>4.873991940391952e-5</v>
       </c>
       <c r="G89">
-        <v>7.34429380999024</v>
+        <v>7.344293809990369</v>
       </c>
       <c r="H89">
-        <v>4.0204084027381875e-7</v>
+        <v>4.0204084027425386e-7</v>
       </c>
       <c r="I89">
-        <v>0.00023795537652181325</v>
+        <v>0.00023795537652181552</v>
       </c>
       <c r="J89">
-        <v>0.001977448654228642</v>
+        <v>0.0019774486542286566</v>
       </c>
       <c r="K89">
-        <v>4.873992619397781e-5</v>
+        <v>4.8739926193978245e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3550,19 +3550,19 @@
         <v>4.875603948100551e-5</v>
       </c>
       <c r="G90">
-        <v>7.34766555940031</v>
+        <v>7.347665559400433</v>
       </c>
       <c r="H90">
-        <v>3.7569659984859986e-7</v>
+        <v>3.756965998490063e-7</v>
       </c>
       <c r="I90">
-        <v>0.000247444746355808</v>
+        <v>0.0002474447463558102</v>
       </c>
       <c r="J90">
-        <v>0.0019789846373844395</v>
+        <v>0.0019789846373844534</v>
       </c>
       <c r="K90">
-        <v>4.875604582135968e-5</v>
+        <v>4.8756045821360085e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3585,19 +3585,19 @@
         <v>4.877268775555879e-5</v>
       </c>
       <c r="G91">
-        <v>7.351088878921322</v>
+        <v>7.351088878921437</v>
       </c>
       <c r="H91">
-        <v>3.4846478140896547e-7</v>
+        <v>3.4846478140934235e-7</v>
       </c>
       <c r="I91">
-        <v>0.0002572563430099977</v>
+        <v>0.00025725634300999983</v>
       </c>
       <c r="J91">
-        <v>0.0019805624877034488</v>
+        <v>0.001980562487703461</v>
       </c>
       <c r="K91">
-        <v>4.877269363129476e-5</v>
+        <v>4.877269363129514e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3620,19 +3620,19 @@
         <v>4.878988332341083e-5</v>
       </c>
       <c r="G92">
-        <v>7.354563470879064</v>
+        <v>7.354563470879171</v>
       </c>
       <c r="H92">
-        <v>3.203120226989492e-7</v>
+        <v>3.203120226992956e-7</v>
       </c>
       <c r="I92">
-        <v>0.0002674023498594663</v>
+        <v>0.0002674023498594684</v>
       </c>
       <c r="J92">
-        <v>0.001982183503695978</v>
+        <v>0.0019821835036959888</v>
       </c>
       <c r="K92">
-        <v>4.878988871919137e-5</v>
+        <v>4.878988871919171e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3655,19 +3655,19 @@
         <v>4.8807645883856166e-5</v>
       </c>
       <c r="G93">
-        <v>7.358088945796801</v>
+        <v>7.358088945796899</v>
       </c>
       <c r="H93">
-        <v>2.9120383296914846e-7</v>
+        <v>2.9120383296946335e-7</v>
       </c>
       <c r="I93">
-        <v>0.00027789536403391093</v>
+        <v>0.000277895364033913</v>
       </c>
       <c r="J93">
-        <v>0.001983849021659772</v>
+        <v>0.0019838490216597814</v>
       </c>
       <c r="K93">
-        <v>4.880765078395419e-5</v>
+        <v>4.8807650783954485e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3690,19 +3690,19 @@
         <v>4.882599576150767e-5</v>
       </c>
       <c r="G94">
-        <v>7.36166482135037</v>
+        <v>7.36166482135046</v>
       </c>
       <c r="H94">
-        <v>2.611045508464772e-7</v>
+        <v>2.6110455084675953e-7</v>
       </c>
       <c r="I94">
-        <v>0.00028874841164973326</v>
+        <v>0.0002887484116497353</v>
       </c>
       <c r="J94">
-        <v>0.0019855604177419495</v>
+        <v>0.001985560417741958</v>
       </c>
       <c r="K94">
-        <v>4.882600014980478e-5</v>
+        <v>4.882600014980501e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3725,19 +3725,19 @@
         <v>4.8844953928944064e-5</v>
       </c>
       <c r="G95">
-        <v>7.365290521671741</v>
+        <v>7.365290521671823</v>
       </c>
       <c r="H95">
-        <v>2.2997730093576748e-7</v>
+        <v>2.2997730093601603e-7</v>
       </c>
       <c r="I95">
-        <v>0.00029997496376417843</v>
+        <v>0.00029997496376418033</v>
       </c>
       <c r="J95">
-        <v>0.001987319110111812</v>
+        <v>0.0019873191101118194</v>
       </c>
       <c r="K95">
-        <v>4.884495778891009e-5</v>
+        <v>4.884495778891029e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3760,19 +3760,19 @@
         <v>4.886454203018767e-5</v>
       </c>
       <c r="G96">
-        <v>7.368965376890998</v>
+        <v>7.368965376891071</v>
       </c>
       <c r="H96">
-        <v>1.9778394844870256e-7</v>
+        <v>1.9778394844891633e-7</v>
       </c>
       <c r="I96">
-        <v>0.0003115889527468353</v>
+        <v>0.0003115889527468371</v>
       </c>
       <c r="J96">
-        <v>0.0019891265612342773</v>
+        <v>0.0019891265612342834</v>
       </c>
       <c r="K96">
-        <v>4.886454534491189e-5</v>
+        <v>4.8864545344912036e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3795,19 +3795,19 @@
         <v>4.8884782405052464e-5</v>
       </c>
       <c r="G97">
-        <v>7.372688622932694</v>
+        <v>7.372688622932758</v>
       </c>
       <c r="H97">
-        <v>1.644850524236927e-7</v>
+        <v>1.6448505242387044e-7</v>
       </c>
       <c r="I97">
-        <v>0.0003236047891388708</v>
+        <v>0.0003236047891388723</v>
       </c>
       <c r="J97">
-        <v>0.001990984280232577</v>
+        <v>0.0019909842802325827</v>
       </c>
       <c r="K97">
-        <v>4.8884785157245624e-5</v>
+        <v>4.8884785157245726e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3830,19 +3830,19 @@
         <v>4.8905698114403275e-5</v>
       </c>
       <c r="G98">
-        <v>7.376459401596641</v>
+        <v>7.376459401596697</v>
       </c>
       <c r="H98">
-        <v>1.3003981739578537e-7</v>
+        <v>1.3003981739592595e-7</v>
       </c>
       <c r="I98">
-        <v>0.00033603737923282507</v>
+        <v>0.0003360373792328265</v>
       </c>
       <c r="J98">
-        <v>0.0019928938253809874</v>
+        <v>0.001992893825380992</v>
       </c>
       <c r="K98">
-        <v>4.890570028640362e-5</v>
+        <v>4.8905700286403695e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3865,19 +3865,19 @@
         <v>4.892731296636935e-5</v>
       </c>
       <c r="G99">
-        <v>7.380276760909612</v>
+        <v>7.380276760909658</v>
       </c>
       <c r="H99">
-        <v>9.440604365751236e-8</v>
+        <v>9.440604365761444e-8</v>
       </c>
       <c r="I99">
-        <v>0.0003489021431797159</v>
+        <v>0.00034890214317971705</v>
       </c>
       <c r="J99">
-        <v>0.001994856806679772</v>
+        <v>0.001994856806679777</v>
       </c>
       <c r="K99">
-        <v>4.892731454016507e-5</v>
+        <v>4.892731454016511e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3900,19 +3900,19 @@
         <v>4.894965154355592e-5</v>
       </c>
       <c r="G100">
-        <v>7.38413965577827</v>
+        <v>7.384139655778312</v>
       </c>
       <c r="H100">
-        <v>5.7540075124351284e-8</v>
+        <v>5.754007512441351e-8</v>
       </c>
       <c r="I100">
-        <v>0.000362215033637959</v>
+        <v>0.0003622150336379598</v>
       </c>
       <c r="J100">
-        <v>0.0019968748885312907</v>
+        <v>0.0019968748885312955</v>
       </c>
       <c r="K100">
-        <v>4.89496525007793e-5</v>
+        <v>4.894965250077934e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3935,19 +3935,19 @@
         <v>4.897273923129991e-5</v>
       </c>
       <c r="G101">
-        <v>7.38804694898689</v>
+        <v>7.388046948986897</v>
       </c>
       <c r="H101">
-        <v>1.9396746354727667e-8</v>
+        <v>1.939674635474864e-8</v>
       </c>
       <c r="I101">
-        <v>0.0003759925552202933</v>
+        <v>0.00037599255522029353</v>
       </c>
       <c r="J101">
-        <v>0.001998949792558895</v>
+        <v>0.001998949792558896</v>
       </c>
       <c r="K101">
-        <v>4.8972739553252064e-5</v>
+        <v>4.897273955325207e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.nonuniform_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.nonuniform_analytical.solution.xlsx
@@ -461,13 +461,13 @@
         <v>0.0002450169676502838</v>
       </c>
       <c r="D2">
-        <v>-2.529528624327934e-7</v>
+        <v>-2.5295286243279647e-7</v>
       </c>
       <c r="E2">
-        <v>0.0019990012986896674</v>
+        <v>0.001999001298689667</v>
       </c>
       <c r="F2">
-        <v>4.8955883636333254e-5</v>
+        <v>4.895588363633325e-5</v>
       </c>
       <c r="G2">
         <v>8.133575322549751</v>
@@ -496,13 +496,13 @@
         <v>0.00023519727610256643</v>
       </c>
       <c r="D3">
-        <v>-7.511043661038317e-7</v>
+        <v>-7.511043661038432e-7</v>
       </c>
       <c r="E3">
         <v>0.0019970068688779452</v>
       </c>
       <c r="F3">
-        <v>4.890005084505261e-5</v>
+        <v>4.890005084505262e-5</v>
       </c>
       <c r="G3">
         <v>8.100142035706687</v>
@@ -525,16 +525,16 @@
         <v>-0.044622902364851905</v>
       </c>
       <c r="B4">
-        <v>8.066300167450647</v>
+        <v>8.066300167450645</v>
       </c>
       <c r="C4">
         <v>0.0002256644053459053</v>
       </c>
       <c r="D4">
-        <v>-1.234232946703025e-6</v>
+        <v>-1.234232946703039e-6</v>
       </c>
       <c r="E4">
-        <v>0.001995033329885662</v>
+        <v>0.0019950333298856624</v>
       </c>
       <c r="F4">
         <v>4.8846716527065253e-5</v>
@@ -560,19 +560,19 @@
         <v>-0.04257735085834355</v>
       </c>
       <c r="B5">
-        <v>8.03213013001259</v>
+        <v>8.032130130012591</v>
       </c>
       <c r="C5">
         <v>0.00021640667642149544</v>
       </c>
       <c r="D5">
-        <v>-1.7028933753639464e-6</v>
+        <v>-1.7028933753639296e-6</v>
       </c>
       <c r="E5">
-        <v>0.0019930767711754125</v>
+        <v>0.001993076771175413</v>
       </c>
       <c r="F5">
-        <v>4.879602701731428e-5</v>
+        <v>4.879602701731429e-5</v>
       </c>
       <c r="G5">
         <v>8.03213918085133</v>
@@ -595,19 +595,19 @@
         <v>-0.04059008755652645</v>
       </c>
       <c r="B6">
-        <v>7.997718669339731</v>
+        <v>7.99771866933973</v>
       </c>
       <c r="C6">
         <v>0.0002074127474538254</v>
       </c>
       <c r="D6">
-        <v>-2.157622093494248e-6</v>
+        <v>-2.1576220934942517e-6</v>
       </c>
       <c r="E6">
-        <v>0.0019911335103634177</v>
+        <v>0.001991133510363418</v>
       </c>
       <c r="F6">
-        <v>4.874811682098521e-5</v>
+        <v>4.8748116820985206e-5</v>
       </c>
       <c r="G6">
         <v>7.997730584984386</v>
@@ -636,13 +636,13 @@
         <v>0.00019867159975609676</v>
       </c>
       <c r="D7">
-        <v>-2.5989392820885655e-6</v>
+        <v>-2.5989392820885617e-6</v>
       </c>
       <c r="E7">
         <v>0.001989200207106942</v>
       </c>
       <c r="F7">
-        <v>4.870310170975046e-5</v>
+        <v>4.870310170975047e-5</v>
       </c>
       <c r="G7">
         <v>7.963190532074721</v>
@@ -665,19 +665,19 @@
         <v>-0.03678075541029506</v>
       </c>
       <c r="B8">
-        <v>7.9286285149868</v>
+        <v>7.9286285149868005</v>
       </c>
       <c r="C8">
         <v>0.00019017252433393882</v>
       </c>
       <c r="D8">
-        <v>-3.0273512189304563e-6</v>
+        <v>-3.0273512189304537e-6</v>
       </c>
       <c r="E8">
-        <v>0.001987273980286448</v>
+        <v>0.0019872739802864474</v>
       </c>
       <c r="F8">
-        <v>4.866107140816928e-5</v>
+        <v>4.8661071408169275e-5</v>
       </c>
       <c r="G8">
         <v>7.928646363866982</v>
@@ -700,7 +700,7 @@
         <v>-0.03495401965761728</v>
       </c>
       <c r="B9">
-        <v>7.8942182646301005</v>
+        <v>7.894218264630099</v>
       </c>
       <c r="C9">
         <v>0.00018190510877796878</v>
@@ -712,7 +712,7 @@
         <v>0.0019853525146377427</v>
       </c>
       <c r="F9">
-        <v>4.8622082683592737e-5</v>
+        <v>4.862208268359272e-5</v>
       </c>
       <c r="G9">
         <v>7.894239106175522</v>
@@ -735,13 +735,13 @@
         <v>-0.03317623257555752</v>
       </c>
       <c r="B10">
-        <v>7.860094175121828</v>
+        <v>7.860094175121829</v>
       </c>
       <c r="C10">
         <v>0.00017385922455334337</v>
       </c>
       <c r="D10">
-        <v>-3.8474300447529606e-6</v>
+        <v>-3.847430044752962e-6</v>
       </c>
       <c r="E10">
         <v>0.001983434140985834</v>
@@ -779,7 +779,7 @@
         <v>-4.240062251498455e-6</v>
       </c>
       <c r="E11">
-        <v>0.0019815178756342317</v>
+        <v>0.001981517875634232</v>
       </c>
       <c r="F11">
         <v>4.855326130585241e-5</v>
@@ -805,13 +805,13 @@
         <v>-0.02975884967719607</v>
       </c>
       <c r="B12">
-        <v>7.7933014747391445</v>
+        <v>7.793301474739145</v>
       </c>
       <c r="C12">
         <v>0.0001583928824391198</v>
       </c>
       <c r="D12">
-        <v>-4.621723545826e-6</v>
+        <v>-4.621723545826006e-6</v>
       </c>
       <c r="E12">
         <v>0.001979603409766732</v>
@@ -846,13 +846,13 @@
         <v>0.00015095348023037497</v>
       </c>
       <c r="D13">
-        <v>-4.992883234835205e-6</v>
+        <v>-4.9928832348351966e-6</v>
       </c>
       <c r="E13">
         <v>0.001977691047996105</v>
       </c>
       <c r="F13">
-        <v>4.849628410545774e-5</v>
+        <v>4.849628410545773e-5</v>
       </c>
       <c r="G13">
         <v>7.76094205780909</v>
@@ -875,19 +875,19 @@
         <v>-0.026511854700278226</v>
       </c>
       <c r="B14">
-        <v>7.729346744909794</v>
+        <v>7.729346744909792</v>
       </c>
       <c r="C14">
         <v>0.0001436977018998037</v>
       </c>
       <c r="D14">
-        <v>-5.354004245847757e-6</v>
+        <v>-5.354004245847764e-6</v>
       </c>
       <c r="E14">
-        <v>0.0019757816042556887</v>
+        <v>0.001975781604255689</v>
       </c>
       <c r="F14">
-        <v>4.847195618963449e-5</v>
+        <v>4.847195618963448e-5</v>
       </c>
       <c r="G14">
         <v>7.729381164056849</v>
@@ -910,16 +910,16 @@
         <v>-0.024947248223872683</v>
       </c>
       <c r="B15">
-        <v>7.698703672715173</v>
+        <v>7.6987036727151725</v>
       </c>
       <c r="C15">
         <v>0.0001366166784375094</v>
       </c>
       <c r="D15">
-        <v>-5.705538252633291e-6</v>
+        <v>-5.705538252633283e-6</v>
       </c>
       <c r="E15">
-        <v>0.00197387627053191</v>
+        <v>0.0019738762705319097</v>
       </c>
       <c r="F15">
         <v>4.8450191293169366e-5</v>
@@ -945,19 +945,19 @@
         <v>-0.023419330871660086</v>
       </c>
       <c r="B16">
-        <v>7.669049298077523</v>
+        <v>7.669049298077524</v>
       </c>
       <c r="C16">
         <v>0.00012970178230923006</v>
       </c>
       <c r="D16">
-        <v>-6.047915057272288e-6</v>
+        <v>-6.047915057272292e-6</v>
       </c>
       <c r="E16">
-        <v>0.0019719764777377546</v>
+        <v>0.001971976477737754</v>
       </c>
       <c r="F16">
-        <v>4.8430807085982744e-5</v>
+        <v>4.843080708598275e-5</v>
       </c>
       <c r="G16">
         <v>7.669087918591888</v>
@@ -980,19 +980,19 @@
         <v>-0.021926230753806925</v>
       </c>
       <c r="B17">
-        <v>7.640428706162137</v>
+        <v>7.640428706162136</v>
       </c>
       <c r="C17">
         <v>0.00012294464642166538</v>
       </c>
       <c r="D17">
-        <v>-6.381522195584641e-6</v>
+        <v>-6.381522195584645e-6</v>
       </c>
       <c r="E17">
         <v>0.0019700837680736044</v>
       </c>
       <c r="F17">
-        <v>4.8413611934728976e-5</v>
+        <v>4.841361193472898e-5</v>
       </c>
       <c r="G17">
         <v>7.640469083809439</v>
@@ -1015,19 +1015,19 @@
         <v>-0.020466118635945926</v>
       </c>
       <c r="B18">
-        <v>7.612865481085045</v>
+        <v>7.612865481085044</v>
       </c>
       <c r="C18">
         <v>0.00011633720740498593</v>
       </c>
       <c r="D18">
-        <v>-6.706668690662227e-6</v>
+        <v>-6.706668690662214e-6</v>
       </c>
       <c r="E18">
         <v>0.0019681996955696</v>
       </c>
       <c r="F18">
-        <v>4.8398412479926476e-5</v>
+        <v>4.839841247992648e-5</v>
       </c>
       <c r="G18">
         <v>7.612907358462016</v>
@@ -1056,13 +1056,13 @@
         <v>0.00010987178610915522</v>
       </c>
       <c r="D19">
-        <v>-7.023524747266349e-6</v>
+        <v>-7.023524747266355e-6</v>
       </c>
       <c r="E19">
-        <v>0.0019663257677192923</v>
+        <v>0.001966325767719292</v>
       </c>
       <c r="F19">
-        <v>4.8385019910310906e-5</v>
+        <v>4.83850199103109e-5</v>
       </c>
       <c r="G19">
         <v>7.586407817449329</v>
@@ -1085,13 +1085,13 @@
         <v>-0.01763774134333008</v>
       </c>
       <c r="B20">
-        <v>7.5609168263822495</v>
+        <v>7.56091682638225</v>
       </c>
       <c r="C20">
         <v>0.00010354122062736035</v>
       </c>
       <c r="D20">
-        <v>-7.332027613093094e-6</v>
+        <v>-7.3320276130931e-6</v>
       </c>
       <c r="E20">
         <v>0.001964463437406933</v>
@@ -1126,10 +1126,10 @@
         <v>9.733906738936686e-5</v>
       </c>
       <c r="D21">
-        <v>-7.631743709734346e-6</v>
+        <v>-7.63174370973434e-6</v>
       </c>
       <c r="E21">
-        <v>0.0019626141510816117</v>
+        <v>0.0019626141510816113</v>
       </c>
       <c r="F21">
         <v>4.8362950272157596e-5</v>
@@ -1190,13 +1190,13 @@
         <v>-0.013599062418082824</v>
       </c>
       <c r="B23">
-        <v>7.490657772557748</v>
+        <v>7.490657772557746</v>
       </c>
       <c r="C23">
         <v>8.52995876244567e-5</v>
       </c>
       <c r="D23">
-        <v>-8.200037718757436e-6</v>
+        <v>-8.200037718757443e-6</v>
       </c>
       <c r="E23">
         <v>0.0019589611649297248</v>
@@ -1225,19 +1225,19 @@
         <v>-0.012300576728531541</v>
       </c>
       <c r="B24">
-        <v>7.469171410457826</v>
+        <v>7.469171410457828</v>
       </c>
       <c r="C24">
         <v>7.945591163798943e-5</v>
       </c>
       <c r="D24">
-        <v>-8.463927657604086e-6</v>
+        <v>-8.463927657604087e-6</v>
       </c>
       <c r="E24">
-        <v>0.0019571615731114795</v>
+        <v>0.001957161573111479</v>
       </c>
       <c r="F24">
-        <v>4.8339361794909474e-5</v>
+        <v>4.833936179490947e-5</v>
       </c>
       <c r="G24">
         <v>7.46921347614704</v>
@@ -1260,13 +1260,13 @@
         <v>-0.011023286409034213</v>
       </c>
       <c r="B25">
-        <v>7.448608266914714</v>
+        <v>7.448608266914711</v>
       </c>
       <c r="C25">
         <v>7.372888340807497e-5</v>
       </c>
       <c r="D25">
-        <v>-8.70904137606208e-6</v>
+        <v>-8.709041376062064e-6</v>
       </c>
       <c r="E25">
         <v>0.0019553837118497595</v>
@@ -1295,16 +1295,16 @@
         <v>-0.009765626619215123</v>
       </c>
       <c r="B26">
-        <v>7.428951114042946</v>
+        <v>7.428951114042947</v>
       </c>
       <c r="C26">
         <v>6.812133228266888e-5</v>
       </c>
       <c r="D26">
-        <v>-8.92932861120224e-6</v>
+        <v>-8.929328611202247e-6</v>
       </c>
       <c r="E26">
-        <v>0.001953631619506667</v>
+        <v>0.0019536316195066664</v>
       </c>
       <c r="F26">
         <v>4.832858248105254e-5</v>
@@ -1330,7 +1330,7 @@
         <v>-0.008526056568552345</v>
       </c>
       <c r="B27">
-        <v>7.410191784918883</v>
+        <v>7.410191784918882</v>
       </c>
       <c r="C27">
         <v>6.263933736158594e-5</v>
@@ -1339,10 +1339,10 @@
         <v>-9.116705879470632e-6</v>
       </c>
       <c r="E27">
-        <v>0.001951910599356399</v>
+        <v>0.0019519105993563992</v>
       </c>
       <c r="F27">
-        <v>4.832441067317987e-5</v>
+        <v>4.8324410673179863e-5</v>
       </c>
       <c r="G27">
         <v>7.410223703533892</v>
@@ -1365,16 +1365,16 @@
         <v>-0.00730305762871666</v>
       </c>
       <c r="B28">
-        <v>7.392332404779486</v>
+        <v>7.392332404779483</v>
       </c>
       <c r="C28">
         <v>5.729255557643234e-5</v>
       </c>
       <c r="D28">
-        <v>-9.260845597049128e-6</v>
+        <v>-9.260845597049131e-6</v>
       </c>
       <c r="E28">
-        <v>0.0019502274294796989</v>
+        <v>0.001950227429479699</v>
       </c>
       <c r="F28">
         <v>4.8320965005546946e-5</v>
@@ -1406,10 +1406,10 @@
         <v>5.2094356601681106e-5</v>
       </c>
       <c r="D29">
-        <v>-9.349090900620674e-6</v>
+        <v>-9.349090900620677e-6</v>
       </c>
       <c r="E29">
-        <v>0.0019485904868328276</v>
+        <v>0.0019485904868328271</v>
       </c>
       <c r="F29">
         <v>4.83181957530721e-5</v>
@@ -1447,7 +1447,7 @@
         <v>0.00194700975000084</v>
       </c>
       <c r="F30">
-        <v>4.831606283818292e-5</v>
+        <v>4.831606283818293e-5</v>
       </c>
       <c r="G30">
         <v>7.359387354379228</v>
@@ -1476,10 +1476,10 @@
         <v>4.221471840159398e-5</v>
       </c>
       <c r="D31">
-        <v>-9.296299522542027e-6</v>
+        <v>-9.296299522542023e-6</v>
       </c>
       <c r="E31">
-        <v>0.001945496653018517</v>
+        <v>0.0019454966530185168</v>
       </c>
       <c r="F31">
         <v>4.831453403146398e-5</v>
@@ -1505,16 +1505,16 @@
         <v>-0.002547072577722697</v>
       </c>
       <c r="B32">
-        <v>7.330286796753259</v>
+        <v>7.330286796753257</v>
       </c>
       <c r="C32">
         <v>3.757596762926318e-5</v>
       </c>
       <c r="D32">
-        <v>-9.11999814610707e-6</v>
+        <v>-9.119998146107068e-6</v>
       </c>
       <c r="E32">
-        <v>0.0019440637758832073</v>
+        <v>0.0019440637758832075</v>
       </c>
       <c r="F32">
         <v>4.831358314364582e-5</v>
@@ -1546,13 +1546,13 @@
         <v>3.316940221803574e-5</v>
       </c>
       <c r="D33">
-        <v>-8.81840900732886e-6</v>
+        <v>-8.818409007328856e-6</v>
       </c>
       <c r="E33">
-        <v>0.0019427243748271112</v>
+        <v>0.0019427243748271115</v>
       </c>
       <c r="F33">
-        <v>4.8313188284273985e-5</v>
+        <v>4.831318828427399e-5</v>
       </c>
       <c r="G33">
         <v>7.317276437159875</v>
@@ -1610,19 +1610,19 @@
         <v>0.0009177033683987063</v>
       </c>
       <c r="B35">
-        <v>7.2945572207086515</v>
+        <v>7.294557220708653</v>
       </c>
       <c r="C35">
         <v>2.5147790115978112e-5</v>
       </c>
       <c r="D35">
-        <v>-7.763252318093851e-6</v>
+        <v>-7.763252318093824e-6</v>
       </c>
       <c r="E35">
-        <v>0.0019403786674974499</v>
+        <v>0.00194037866749745</v>
       </c>
       <c r="F35">
-        <v>4.8313991137688784e-5</v>
+        <v>4.831399113768878e-5</v>
       </c>
       <c r="G35">
         <v>7.2945342722711475</v>
@@ -1645,19 +1645,19 @@
         <v>0.0020607480858926483</v>
       </c>
       <c r="B36">
-        <v>7.28488478803008</v>
+        <v>7.284884788030081</v>
       </c>
       <c r="C36">
         <v>2.1575458140936757e-5</v>
       </c>
       <c r="D36">
-        <v>-6.974766032647931e-6</v>
+        <v>-6.9747660326479515e-6</v>
       </c>
       <c r="E36">
-        <v>0.0019393963677999673</v>
+        <v>0.0019393963677999668</v>
       </c>
       <c r="F36">
-        <v>4.831515310290752e-5</v>
+        <v>4.831515310290753e-5</v>
       </c>
       <c r="G36">
         <v>7.284857135929619</v>
@@ -1686,10 +1686,10 @@
         <v>1.831787066340181e-5</v>
       </c>
       <c r="D37">
-        <v>-5.9929670607790336e-6</v>
+        <v>-5.992967060779016e-6</v>
       </c>
       <c r="E37">
-        <v>0.0019385541036394955</v>
+        <v>0.0019385541036394953</v>
       </c>
       <c r="F37">
         <v>4.831679748368219e-5</v>
@@ -1715,7 +1715,7 @@
         <v>0.004337430628481818</v>
       </c>
       <c r="B38">
-        <v>7.268978576840244</v>
+        <v>7.268978576840245</v>
       </c>
       <c r="C38">
         <v>1.538542594581264e-5</v>
@@ -1756,10 +1756,10 @@
         <v>1.2782269476574575e-5</v>
       </c>
       <c r="D39">
-        <v>-3.4117700749607536e-6</v>
+        <v>-3.411770074960754e-6</v>
       </c>
       <c r="E39">
-        <v>0.0019373126283647579</v>
+        <v>0.0019373126283647576</v>
       </c>
       <c r="F39">
         <v>4.832145084202095e-5</v>
@@ -1785,16 +1785,16 @@
         <v>0.006610865255243126</v>
       </c>
       <c r="B40">
-        <v>7.257550654241504</v>
+        <v>7.257550654241502</v>
       </c>
       <c r="C40">
         <v>1.0505812637309046e-5</v>
       </c>
       <c r="D40">
-        <v>-1.803825461029544e-6</v>
+        <v>-1.80382546102955e-6</v>
       </c>
       <c r="E40">
-        <v>0.0019369167540906971</v>
+        <v>0.0019369167540906973</v>
       </c>
       <c r="F40">
         <v>4.8324413505779754e-5</v>
@@ -1826,10 +1826,10 @@
         <v>8.546691545968992e-6</v>
       </c>
       <c r="D41">
-        <v>1.4200716513346433e-8</v>
+        <v>1.4200716513346162e-8</v>
       </c>
       <c r="E41">
-        <v>0.0019366673299333079</v>
+        <v>0.0019366673299333077</v>
       </c>
       <c r="F41">
         <v>4.832776585451803e-5</v>
@@ -1861,7 +1861,7 @@
         <v>6.8891696116903005e-6</v>
       </c>
       <c r="D42">
-        <v>2.036055832462504e-6</v>
+        <v>2.0360558324625128e-6</v>
       </c>
       <c r="E42">
         <v>0.0019365577148973728</v>
@@ -1890,13 +1890,13 @@
         <v>0.010039314770512228</v>
       </c>
       <c r="B43">
-        <v>7.247947321226962</v>
+        <v>7.247947321226963</v>
       </c>
       <c r="C43">
         <v>5.51194531618884e-6</v>
       </c>
       <c r="D43">
-        <v>4.2519384220735484e-6</v>
+        <v>4.251938422073547e-6</v>
       </c>
       <c r="E43">
         <v>0.0019365785080908914</v>
@@ -1934,10 +1934,10 @@
         <v>6.6492201480031514e-6</v>
       </c>
       <c r="E44">
-        <v>0.0019367181482288442</v>
+        <v>0.0019367181482288444</v>
       </c>
       <c r="F44">
-        <v>4.8339875385950724e-5</v>
+        <v>4.833987538595072e-5</v>
       </c>
       <c r="G44">
         <v>7.246441182120994</v>
@@ -1960,13 +1960,13 @@
         <v>0.012353485920408983</v>
       </c>
       <c r="B45">
-        <v>7.245642889906763</v>
+        <v>7.2456428899067635</v>
       </c>
       <c r="C45">
         <v>3.492404529571674e-6</v>
       </c>
       <c r="D45">
-        <v>9.213312135826688e-6</v>
+        <v>9.213312135826661e-6</v>
       </c>
       <c r="E45">
         <v>0.001936963619245825</v>
@@ -2001,10 +2001,10 @@
         <v>2.7908912378135774e-6</v>
       </c>
       <c r="D46">
-        <v>1.1928599488115741e-5</v>
+        <v>1.1928599488115713e-5</v>
       </c>
       <c r="E46">
-        <v>0.0019373011945591025</v>
+        <v>0.001937301194559103</v>
       </c>
       <c r="F46">
         <v>4.834936270970386e-5</v>
@@ -2030,19 +2030,19 @@
         <v>0.014703703866818844</v>
       </c>
       <c r="B47">
-        <v>7.245730736825845</v>
+        <v>7.245730736825844</v>
       </c>
       <c r="C47">
         <v>2.2541853358306274e-6</v>
       </c>
       <c r="D47">
-        <v>1.4779365068283099e-5</v>
+        <v>1.47793650682831e-5</v>
       </c>
       <c r="E47">
-        <v>0.001937717153675129</v>
+        <v>0.0019377171536751295</v>
       </c>
       <c r="F47">
-        <v>4.8354445050848366e-5</v>
+        <v>4.835444505084836e-5</v>
       </c>
       <c r="G47">
         <v>7.245746614662573</v>
@@ -2071,7 +2071,7 @@
         <v>1.8528617272811534e-6</v>
       </c>
       <c r="D48">
-        <v>1.775062952179296e-5</v>
+        <v>1.7750629521792934e-5</v>
       </c>
       <c r="E48">
         <v>0.0019381984136631466</v>
@@ -2106,10 +2106,10 @@
         <v>1.5597067902987931e-6</v>
       </c>
       <c r="D49">
-        <v>2.0828848093788625e-5</v>
+        <v>2.0828848093788598e-5</v>
       </c>
       <c r="E49">
-        <v>0.0019387330327298748</v>
+        <v>0.001938733032729875</v>
       </c>
       <c r="F49">
         <v>4.8365164757245284e-5</v>
@@ -2135,19 +2135,19 @@
         <v>0.018321882409371174</v>
       </c>
       <c r="B50">
-        <v>7.248767986476219</v>
+        <v>7.248767986476218</v>
       </c>
       <c r="C50">
         <v>1.3505005141298404e-6</v>
       </c>
       <c r="D50">
-        <v>2.400242419613355e-5</v>
+        <v>2.4002424196133543e-5</v>
       </c>
       <c r="E50">
-        <v>0.0019393105612503657</v>
+        <v>0.001939310561250366</v>
       </c>
       <c r="F50">
-        <v>4.837076284093996e-5</v>
+        <v>4.8370762840939965e-5</v>
       </c>
       <c r="G50">
         <v>7.24880067317773</v>
@@ -2170,19 +2170,19 @@
         <v>0.019558596409849263</v>
       </c>
       <c r="B51">
-        <v>7.250259681882585</v>
+        <v>7.250259681882584</v>
       </c>
       <c r="C51">
         <v>1.2044830495843167e-6</v>
       </c>
       <c r="D51">
-        <v>2.7262022163118018e-5</v>
+        <v>2.726202216311803e-5</v>
       </c>
       <c r="E51">
-        <v>0.0019399222344385987</v>
+        <v>0.001939922234438599</v>
       </c>
       <c r="F51">
-        <v>4.837649980332754e-5</v>
+        <v>4.8376499803327535e-5</v>
       </c>
       <c r="G51">
         <v>7.250296109172539</v>
@@ -2240,19 +2240,19 @@
         <v>0.022087069695348203</v>
       </c>
       <c r="B53">
-        <v>7.253648460409316</v>
+        <v>7.253648460409315</v>
       </c>
       <c r="C53">
         <v>1.036976129078197e-6</v>
       </c>
       <c r="D53">
-        <v>3.401377516309506e-5</v>
+        <v>3.401377516309505e-5</v>
       </c>
       <c r="E53">
-        <v>0.0019412215301985196</v>
+        <v>0.0019412215301985198</v>
       </c>
       <c r="F53">
-        <v>4.8388353510734986e-5</v>
+        <v>4.838835351073498e-5</v>
       </c>
       <c r="G53">
         <v>7.253689687332735</v>
@@ -2275,19 +2275,19 @@
         <v>0.023381926676347586</v>
       </c>
       <c r="B54">
-        <v>7.2554780503328855</v>
+        <v>7.255478050332886</v>
       </c>
       <c r="C54">
         <v>9.914490792158786e-7</v>
       </c>
       <c r="D54">
-        <v>3.7498795574919365e-5</v>
+        <v>3.749879557491937e-5</v>
       </c>
       <c r="E54">
-        <v>0.001941899875913064</v>
+        <v>0.0019418998759130638</v>
       </c>
       <c r="F54">
-        <v>4.83944606798026e-5</v>
+        <v>4.839446067980259e-5</v>
       </c>
       <c r="G54">
         <v>7.255520547067517</v>
@@ -2310,19 +2310,19 @@
         <v>0.024699303816317582</v>
       </c>
       <c r="B55">
-        <v>7.25736748016159</v>
+        <v>7.257367480161589</v>
       </c>
       <c r="C55">
         <v>9.602833958554e-7</v>
       </c>
       <c r="D55">
-        <v>4.1055104871511797e-5</v>
+        <v>4.1055104871511824e-5</v>
       </c>
       <c r="E55">
         <v>0.00194259342317658</v>
       </c>
       <c r="F55">
-        <v>4.840068677601837e-5</v>
+        <v>4.8400686776018376e-5</v>
       </c>
       <c r="G55">
         <v>7.257410668183987</v>
@@ -2389,7 +2389,7 @@
         <v>4.838641514472512e-5</v>
       </c>
       <c r="E57">
-        <v>0.0019440204593507123</v>
+        <v>0.001944020459350712</v>
       </c>
       <c r="F57">
         <v>4.84135061622837e-5</v>
@@ -2421,10 +2421,10 @@
         <v>9.073323989524735e-7</v>
       </c>
       <c r="D58">
-        <v>5.2166589336395536e-5</v>
+        <v>5.216658933639553e-5</v>
       </c>
       <c r="E58">
-        <v>0.0019447528628264341</v>
+        <v>0.0019447528628264345</v>
       </c>
       <c r="F58">
         <v>4.842010890192948e-5</v>
@@ -2459,7 +2459,7 @@
         <v>5.602786039842262e-5</v>
       </c>
       <c r="E59">
-        <v>0.0019454979104554639</v>
+        <v>0.0019454979104554636</v>
       </c>
       <c r="F59">
         <v>4.8426848637476386e-5</v>
@@ -2491,10 +2491,10 @@
         <v>8.83309510303407e-7</v>
       </c>
       <c r="D60">
-        <v>5.997445280501339e-5</v>
+        <v>5.997445280501338e-5</v>
       </c>
       <c r="E60">
-        <v>0.0019462560033896023</v>
+        <v>0.0019462560033896021</v>
       </c>
       <c r="F60">
         <v>4.8433732606605773e-5</v>
@@ -2520,19 +2520,19 @@
         <v>0.03316905486385881</v>
       </c>
       <c r="B61">
-        <v>7.26946623742337</v>
+        <v>7.269466237423369</v>
       </c>
       <c r="C61">
         <v>8.718486040444797e-7</v>
       </c>
       <c r="D61">
-        <v>6.401094220706533e-5</v>
+        <v>6.401094220706534e-5</v>
       </c>
       <c r="E61">
         <v>0.0019470277070312576</v>
       </c>
       <c r="F61">
-        <v>4.844076858473411e-5</v>
+        <v>4.8440768584734116e-5</v>
       </c>
       <c r="G61">
         <v>7.269507612444986</v>
@@ -2555,19 +2555,19 @@
         <v>0.03469106271808073</v>
       </c>
       <c r="B62">
-        <v>7.271587009371626</v>
+        <v>7.271587009371627</v>
       </c>
       <c r="C62">
         <v>8.603413044847299e-7</v>
       </c>
       <c r="D62">
-        <v>6.81421615884087e-5</v>
+        <v>6.814216158840865e-5</v>
       </c>
       <c r="E62">
-        <v>0.0019478136853391058</v>
+        <v>0.0019478136853391056</v>
       </c>
       <c r="F62">
-        <v>4.8447964740740784e-5</v>
+        <v>4.844796474074079e-5</v>
       </c>
       <c r="G62">
         <v>7.271627716552945</v>
@@ -2590,7 +2590,7 @@
         <v>0.03624944583721316</v>
       </c>
       <c r="B63">
-        <v>7.273738622135767</v>
+        <v>7.273738622135768</v>
       </c>
       <c r="C63">
         <v>8.486551788812878e-7</v>
@@ -2599,7 +2599,7 @@
         <v>7.237314327567376e-5</v>
       </c>
       <c r="E63">
-        <v>0.0019486146594325778</v>
+        <v>0.0019486146594325775</v>
       </c>
       <c r="F63">
         <v>4.845532954775411e-5</v>
@@ -2625,16 +2625,16 @@
         <v>0.037846113435464034</v>
       </c>
       <c r="B64">
-        <v>7.275922375878311</v>
+        <v>7.27592237587831</v>
       </c>
       <c r="C64">
         <v>8.367214094960454e-7</v>
       </c>
       <c r="D64">
-        <v>7.670908676927277e-5</v>
+        <v>7.670908676927274e-5</v>
       </c>
       <c r="E64">
-        <v>0.0019494313833382463</v>
+        <v>0.0019494313833382467</v>
       </c>
       <c r="F64">
         <v>4.8462871733573745e-5</v>
@@ -2660,7 +2660,7 @@
         <v>0.039483021630316</v>
       </c>
       <c r="B65">
-        <v>7.278139622173662</v>
+        <v>7.278139622173663</v>
       </c>
       <c r="C65">
         <v>8.245019441452105e-7</v>
@@ -2669,7 +2669,7 @@
         <v>8.11553437086665e-5</v>
       </c>
       <c r="E65">
-        <v>0.001950264630886844</v>
+        <v>0.0019502646308868438</v>
       </c>
       <c r="F65">
         <v>4.847060025737794e-5</v>
@@ -2704,10 +2704,10 @@
         <v>8.571741334559529e-5</v>
       </c>
       <c r="E66">
-        <v>0.0019511151893041151</v>
+        <v>0.0019511151893041158</v>
       </c>
       <c r="F66">
-        <v>4.8478524302528665e-5</v>
+        <v>4.847852430252866e-5</v>
       </c>
       <c r="G66">
         <v>7.280429544648323</v>
@@ -2765,16 +2765,16 @@
         <v>0.04465550527048268</v>
       </c>
       <c r="B68">
-        <v>7.285005729263278</v>
+        <v>7.285005729263277</v>
       </c>
       <c r="C68">
         <v>7.859100195323562e-7</v>
       </c>
       <c r="D68">
-        <v>9.521173763894731e-5</v>
+        <v>9.521173763894733e-5</v>
       </c>
       <c r="E68">
-        <v>0.0019528714402958108</v>
+        <v>0.0019528714402958106</v>
       </c>
       <c r="F68">
         <v>4.8494996827639143e-5</v>
@@ -2835,19 +2835,19 @@
         <v>0.0483432260347933</v>
       </c>
       <c r="B70">
-        <v>7.289774632165889</v>
+        <v>7.289774632165888</v>
       </c>
       <c r="C70">
         <v>7.58398168348012e-7</v>
       </c>
       <c r="D70">
-        <v>0.00010523912842720852</v>
+        <v>0.00010523912842720859</v>
       </c>
       <c r="E70">
-        <v>0.001954706639061218</v>
+        <v>0.0019547066390612185</v>
       </c>
       <c r="F70">
-        <v>4.8512367435091887e-5</v>
+        <v>4.851236743509188e-5</v>
       </c>
       <c r="G70">
         <v>7.2898093506464265</v>
@@ -2876,7 +2876,7 @@
         <v>7.440565807789996e-7</v>
       </c>
       <c r="D71">
-        <v>0.00011046815760025476</v>
+        <v>0.00011046815760025479</v>
       </c>
       <c r="E71">
         <v>0.0019556559214347962</v>
@@ -2914,10 +2914,10 @@
         <v>0.0001158493290745307</v>
       </c>
       <c r="E72">
-        <v>0.0019566274565064605</v>
+        <v>0.001956627456506461</v>
       </c>
       <c r="F72">
-        <v>4.853071829349388e-5</v>
+        <v>4.853071829349389e-5</v>
       </c>
       <c r="G72">
         <v>7.294741032211048</v>
@@ -2940,13 +2940,13 @@
         <v>0.05427911709555772</v>
       </c>
       <c r="B73">
-        <v>7.297239059100109</v>
+        <v>7.297239059100108</v>
       </c>
       <c r="C73">
         <v>7.141141630525891e-7</v>
       </c>
       <c r="D73">
-        <v>0.00012138931840646898</v>
+        <v>0.00012138931840646897</v>
       </c>
       <c r="E73">
         <v>0.001957622107717312</v>
@@ -2975,13 +2975,13 @@
         <v>0.0563751919288537</v>
       </c>
       <c r="B74">
-        <v>7.299814495498568</v>
+        <v>7.299814495498569</v>
       </c>
       <c r="C74">
         <v>6.984766482236308e-7</v>
       </c>
       <c r="D74">
-        <v>0.0001270949995857879</v>
+        <v>0.00012709499958578788</v>
       </c>
       <c r="E74">
         <v>0.001958640751751383</v>
@@ -3016,10 +3016,10 @@
         <v>6.823695693601582e-7</v>
       </c>
       <c r="D75">
-        <v>0.00013297345353165013</v>
+        <v>0.00013297345353165016</v>
       </c>
       <c r="E75">
-        <v>0.001959684279332067</v>
+        <v>0.0019596842793320668</v>
       </c>
       <c r="F75">
         <v>4.856027320573906e-5</v>
@@ -3045,7 +3045,7 @@
         <v>0.060758809764734634</v>
       </c>
       <c r="B76">
-        <v>7.305102199966786</v>
+        <v>7.305102199966787</v>
       </c>
       <c r="C76">
         <v>6.657731932713749e-7</v>
@@ -3080,7 +3080,7 @@
         <v>0.06305172324737145</v>
       </c>
       <c r="B77">
-        <v>7.30781623610681</v>
+        <v>7.307816236106811</v>
       </c>
       <c r="C77">
         <v>6.486671873205049e-7</v>
@@ -3115,19 +3115,19 @@
         <v>0.06541575735077167</v>
       </c>
       <c r="B78">
-        <v>7.310578140880337</v>
+        <v>7.310578140880338</v>
       </c>
       <c r="C78">
         <v>6.310305945108406e-7</v>
       </c>
       <c r="D78">
-        <v>0.0001517195506052437</v>
+        <v>0.00015171955060524367</v>
       </c>
       <c r="E78">
         <v>0.0019629732988726894</v>
       </c>
       <c r="F78">
-        <v>4.8592542280359294e-5</v>
+        <v>4.85925422803593e-5</v>
       </c>
       <c r="G78">
         <v>7.310605871627739</v>
@@ -3150,16 +3150,16 @@
         <v>0.06785380831235142</v>
       </c>
       <c r="B79">
-        <v>7.313388645656416</v>
+        <v>7.313388645656415</v>
       </c>
       <c r="C79">
         <v>6.128418078107965e-7</v>
       </c>
       <c r="D79">
-        <v>0.00015836435505118</v>
+        <v>0.00015836435505118006</v>
       </c>
       <c r="E79">
-        <v>0.0019641255785185037</v>
+        <v>0.001964125578518504</v>
       </c>
       <c r="F79">
         <v>4.860395969570039e-5</v>
@@ -3191,7 +3191,7 @@
         <v>5.940785436819097e-7</v>
       </c>
       <c r="D80">
-        <v>0.0001652207562393619</v>
+        <v>0.00016522075623936192</v>
       </c>
       <c r="E80">
         <v>0.0019653074363486767</v>
@@ -3220,7 +3220,7 @@
         <v>0.07296400281859933</v>
       </c>
       <c r="B81">
-        <v>7.319158050856857</v>
+        <v>7.319158050856856</v>
       </c>
       <c r="C81">
         <v>5.747178147791608e-7</v>
@@ -3229,10 +3229,10 @@
         <v>0.00017229726980380088</v>
       </c>
       <c r="E81">
-        <v>0.0019665198661861514</v>
+        <v>0.001966519866186152</v>
       </c>
       <c r="F81">
-        <v>4.8627865467283235e-5</v>
+        <v>4.862786546728324e-5</v>
       </c>
       <c r="G81">
         <v>7.319182865364741</v>
@@ -3264,7 +3264,7 @@
         <v>0.00017960268536347285</v>
       </c>
       <c r="E82">
-        <v>0.0019677638826170523</v>
+        <v>0.001967763882617052</v>
       </c>
       <c r="F82">
         <v>4.864038164441654e-5</v>
@@ -3290,19 +3290,19 @@
         <v>0.07840735694551344</v>
       </c>
       <c r="B83">
-        <v>7.325128948802532</v>
+        <v>7.325128948802533</v>
       </c>
       <c r="C83">
         <v>5.341083243675213e-7</v>
       </c>
       <c r="D83">
-        <v>0.00018714607731701102</v>
+        <v>0.00018714607731701096</v>
       </c>
       <c r="E83">
-        <v>0.001969040522161524</v>
+        <v>0.0019690405221615237</v>
       </c>
       <c r="F83">
-        <v>4.8653292588053906e-5</v>
+        <v>4.86532925880539e-5</v>
       </c>
       <c r="G83">
         <v>7.325151722284507</v>
@@ -3331,10 +3331,10 @@
         <v>5.128098111543695e-7</v>
       </c>
       <c r="D84">
-        <v>0.00019493681597721152</v>
+        <v>0.00019493681597721157</v>
       </c>
       <c r="E84">
-        <v>0.0019703508445088774</v>
+        <v>0.001970350844508878</v>
       </c>
       <c r="F84">
         <v>4.866661326950781e-5</v>
@@ -3366,10 +3366,10 @@
         <v>4.908142688067667e-7</v>
       </c>
       <c r="D85">
-        <v>0.00020298457905840048</v>
+        <v>0.00020298457905840053</v>
       </c>
       <c r="E85">
-        <v>0.0019716959338208916</v>
+        <v>0.001971695933820892</v>
       </c>
       <c r="F85">
         <v>4.868035911312491e-5</v>
@@ -3395,16 +3395,16 @@
         <v>0.08725591078440487</v>
       </c>
       <c r="B86">
-        <v>7.334470045953828</v>
+        <v>7.334470045953827</v>
       </c>
       <c r="C86">
         <v>4.6809475003463335e-7</v>
       </c>
       <c r="D86">
-        <v>0.0002112993635301737</v>
+        <v>0.00021129936353017368</v>
       </c>
       <c r="E86">
-        <v>0.001973076900107038</v>
+        <v>0.0019730769001070386</v>
       </c>
       <c r="F86">
         <v>4.869454601300515e-5</v>
@@ -3436,13 +3436,13 @@
         <v>4.4462342058625663e-7</v>
       </c>
       <c r="D87">
-        <v>0.00021989149785152221</v>
+        <v>0.00021989149785152224</v>
       </c>
       <c r="E87">
-        <v>0.0019744948806753155</v>
+        <v>0.001974494880675315</v>
       </c>
       <c r="F87">
-        <v>4.870919035025941e-5</v>
+        <v>4.870919035025942e-5</v>
       </c>
       <c r="G87">
         <v>7.3377057602104765</v>
@@ -3474,10 +3474,10 @@
         <v>0.00022877165459986225</v>
       </c>
       <c r="E88">
-        <v>0.0019759510416622497</v>
+        <v>0.0019759510416622493</v>
       </c>
       <c r="F88">
-        <v>4.8724309010832496e-5</v>
+        <v>4.872430901083249e-5</v>
       </c>
       <c r="G88">
         <v>7.340973837685334</v>
@@ -3506,7 +3506,7 @@
         <v>3.953093521144651e-7</v>
       </c>
       <c r="D89">
-        <v>0.00023795086351003657</v>
+        <v>0.00023795086351003654</v>
       </c>
       <c r="E89">
         <v>0.0019774465796454817</v>
@@ -3576,7 +3576,7 @@
         <v>3.426303257705121e-7</v>
       </c>
       <c r="D91">
-        <v>0.0002572524237718167</v>
+        <v>0.00025725242377181665</v>
       </c>
       <c r="E91">
         <v>0.0019805607353964817</v>
@@ -3605,13 +3605,13 @@
         <v>0.10778379480681288</v>
       </c>
       <c r="B92">
-        <v>7.354550890620017</v>
+        <v>7.3545508906200165</v>
       </c>
       <c r="C92">
         <v>3.1494893406479754e-7</v>
       </c>
       <c r="D92">
-        <v>0.00026739874378757923</v>
+        <v>0.0002673987437875793</v>
       </c>
       <c r="E92">
         <v>0.0019821819142584384</v>
@@ -3640,19 +3640,19 @@
         <v>0.11162017111105581</v>
       </c>
       <c r="B93">
-        <v>7.358077602418369</v>
+        <v>7.358077602418368</v>
       </c>
       <c r="C93">
         <v>2.863281089061904e-7</v>
       </c>
       <c r="D93">
-        <v>0.0002778920824997706</v>
+        <v>0.0002778920824997707</v>
       </c>
       <c r="E93">
         <v>0.0019838475961577863</v>
       </c>
       <c r="F93">
-        <v>4.8807645883856166e-5</v>
+        <v>4.880764588385616e-5</v>
       </c>
       <c r="G93">
         <v>7.358088945796899</v>
@@ -3687,7 +3687,7 @@
         <v>0.0019855591571742927</v>
       </c>
       <c r="F94">
-        <v>4.882599576150767e-5</v>
+        <v>4.8825995761507674e-5</v>
       </c>
       <c r="G94">
         <v>7.36166482135046</v>
@@ -3710,7 +3710,7 @@
         <v>0.11968965291953414</v>
       </c>
       <c r="B95">
-        <v>7.365281714905441</v>
+        <v>7.365281714905442</v>
       </c>
       <c r="C95">
         <v>2.2612670798907007e-7</v>
@@ -3719,7 +3719,7 @@
         <v>0.00029997236726735457</v>
       </c>
       <c r="E95">
-        <v>0.001987318015407259</v>
+        <v>0.0019873180154072593</v>
       </c>
       <c r="F95">
         <v>4.8844953928944064e-5</v>
@@ -3754,10 +3754,10 @@
         <v>0.00031158671762798474</v>
       </c>
       <c r="E96">
-        <v>0.0019891256332459713</v>
+        <v>0.001989125633245971</v>
       </c>
       <c r="F96">
-        <v>4.886454203018767e-5</v>
+        <v>4.886454203018768e-5</v>
       </c>
       <c r="G96">
         <v>7.368965376891071</v>
@@ -3789,10 +3789,10 @@
         <v>0.00032360292861101955</v>
       </c>
       <c r="E97">
-        <v>0.001990983519742794</v>
+        <v>0.0019909835197427935</v>
       </c>
       <c r="F97">
-        <v>4.8884782405052464e-5</v>
+        <v>4.888478240505245e-5</v>
       </c>
       <c r="G97">
         <v>7.372688622932758</v>
@@ -3821,10 +3821,10 @@
         <v>1.2786250881438952e-7</v>
       </c>
       <c r="D98">
-        <v>0.0003360359069960031</v>
+        <v>0.00033603590699600314</v>
       </c>
       <c r="E98">
-        <v>0.00199289323309032</v>
+        <v>0.0019928932330903204</v>
       </c>
       <c r="F98">
         <v>4.8905698114403275e-5</v>
@@ -3850,7 +3850,7 @@
         <v>0.13755755552893628</v>
       </c>
       <c r="B99">
-        <v>7.380273276179428</v>
+        <v>7.3802732761794285</v>
       </c>
       <c r="C99">
         <v>9.282536422658629e-8</v>
@@ -3885,19 +3885,19 @@
         <v>0.14241638404137996</v>
       </c>
       <c r="B100">
-        <v>7.384137552457143</v>
+        <v>7.384137552457142</v>
       </c>
       <c r="C100">
         <v>5.6576657034781486e-8</v>
       </c>
       <c r="D100">
-        <v>0.000362214381046588</v>
+        <v>0.0003622143810465881</v>
       </c>
       <c r="E100">
-        <v>0.001996874634409493</v>
+        <v>0.0019968746344094933</v>
       </c>
       <c r="F100">
-        <v>4.894965154355592e-5</v>
+        <v>4.894965154355591e-5</v>
       </c>
       <c r="G100">
         <v>7.384139655778312</v>
@@ -3926,13 +3926,13 @@
         <v>1.907197803946592e-8</v>
       </c>
       <c r="D101">
-        <v>0.00037599233503830945</v>
+        <v>0.0003759923350383095</v>
       </c>
       <c r="E101">
-        <v>0.0019989497082404844</v>
+        <v>0.001998949708240484</v>
       </c>
       <c r="F101">
-        <v>4.897273923129991e-5</v>
+        <v>4.89727392312999e-5</v>
       </c>
       <c r="G101">
         <v>7.388046948986897</v>

--- a/examples/analytical/pHBB1991/pHBB1991.nonuniform_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.nonuniform_analytical.solution.xlsx
@@ -455,34 +455,34 @@
         <v>-0.04889896869814063</v>
       </c>
       <c r="B2">
-        <v>8.13357414358921</v>
+        <v>8.133574143589207</v>
       </c>
       <c r="C2">
         <v>0.0002450169676502838</v>
       </c>
       <c r="D2">
-        <v>-2.5295286243279647e-7</v>
+        <v>-2.5295286243278307e-7</v>
       </c>
       <c r="E2">
-        <v>0.001999001298689667</v>
+        <v>0.0019990012986896674</v>
       </c>
       <c r="F2">
         <v>4.895588363633325e-5</v>
       </c>
       <c r="G2">
-        <v>8.133575322549751</v>
+        <v>8.133575322549735</v>
       </c>
       <c r="H2">
-        <v>0.00024501733728118143</v>
+        <v>0.0002450173372811814</v>
       </c>
       <c r="I2">
-        <v>-2.527084404754243e-7</v>
+        <v>-2.5270844047542567e-7</v>
       </c>
       <c r="J2">
-        <v>0.0019990013959773623</v>
+        <v>0.0019990013959773592</v>
       </c>
       <c r="K2">
-        <v>4.895588600113674e-5</v>
+        <v>4.8955886001136717e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -496,7 +496,7 @@
         <v>0.00023519727610256643</v>
       </c>
       <c r="D3">
-        <v>-7.511043661038432e-7</v>
+        <v>-7.511043661038318e-7</v>
       </c>
       <c r="E3">
         <v>0.0019970068688779452</v>
@@ -505,19 +505,19 @@
         <v>4.890005084505262e-5</v>
       </c>
       <c r="G3">
-        <v>8.100142035706687</v>
+        <v>8.100142035706645</v>
       </c>
       <c r="H3">
-        <v>0.00023519837386438286</v>
+        <v>0.0002351983738643827</v>
       </c>
       <c r="I3">
-        <v>-7.503786260257582e-7</v>
+        <v>-7.503786260257621e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019970071625252496</v>
+        <v>0.001997007162525242</v>
       </c>
       <c r="K3">
-        <v>4.890005780790219e-5</v>
+        <v>4.8900057807902145e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -531,28 +531,28 @@
         <v>0.0002256644053459053</v>
       </c>
       <c r="D4">
-        <v>-1.234232946703039e-6</v>
+        <v>-1.2342329467030393e-6</v>
       </c>
       <c r="E4">
-        <v>0.0019950333298856624</v>
+        <v>0.001995033329885662</v>
       </c>
       <c r="F4">
-        <v>4.8846716527065253e-5</v>
+        <v>4.884671652706525e-5</v>
       </c>
       <c r="G4">
-        <v>8.066306461321691</v>
+        <v>8.066306461321624</v>
       </c>
       <c r="H4">
-        <v>0.00022566620983382657</v>
+        <v>0.00022566620983382636</v>
       </c>
       <c r="I4">
-        <v>-1.2330404569538007e-6</v>
+        <v>-1.2330404569538064e-6</v>
       </c>
       <c r="J4">
-        <v>0.001995033821031839</v>
+        <v>0.001995033821031826</v>
       </c>
       <c r="K4">
-        <v>4.8846727822021516e-5</v>
+        <v>4.8846727822021455e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -566,28 +566,28 @@
         <v>0.00021640667642149544</v>
       </c>
       <c r="D5">
-        <v>-1.7028933753639296e-6</v>
+        <v>-1.7028933753639455e-6</v>
       </c>
       <c r="E5">
-        <v>0.001993076771175413</v>
+        <v>0.0019930767711754125</v>
       </c>
       <c r="F5">
         <v>4.879602701731429e-5</v>
       </c>
       <c r="G5">
-        <v>8.03213918085133</v>
+        <v>8.032139180851221</v>
       </c>
       <c r="H5">
-        <v>0.00021640916715320657</v>
+        <v>0.00021640916715320627</v>
       </c>
       <c r="I5">
-        <v>-1.7012481750194892e-6</v>
+        <v>-1.7012481750194958e-6</v>
       </c>
       <c r="J5">
-        <v>0.0019930774619592324</v>
+        <v>0.001993077461959213</v>
       </c>
       <c r="K5">
-        <v>4.879604233361614e-5</v>
+        <v>4.879604233361604e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -595,34 +595,34 @@
         <v>-0.04059008755652645</v>
       </c>
       <c r="B6">
-        <v>7.99771866933973</v>
+        <v>7.997718669339731</v>
       </c>
       <c r="C6">
         <v>0.0002074127474538254</v>
       </c>
       <c r="D6">
-        <v>-2.1576220934942517e-6</v>
+        <v>-2.1576220934942445e-6</v>
       </c>
       <c r="E6">
-        <v>0.001991133510363418</v>
+        <v>0.0019911335103634177</v>
       </c>
       <c r="F6">
-        <v>4.8748116820985206e-5</v>
+        <v>4.874811682098521e-5</v>
       </c>
       <c r="G6">
-        <v>7.997730584984386</v>
+        <v>7.997730584984232</v>
       </c>
       <c r="H6">
-        <v>0.00020741590478634545</v>
+        <v>0.00020741590478634512</v>
       </c>
       <c r="I6">
-        <v>-2.155537711475197e-6</v>
+        <v>-2.155537711475204e-6</v>
       </c>
       <c r="J6">
-        <v>0.001991134403832062</v>
+        <v>0.001991134403832036</v>
       </c>
       <c r="K6">
-        <v>4.87481357999663e-5</v>
+        <v>4.8748135799966177e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -636,7 +636,7 @@
         <v>0.00019867159975609676</v>
       </c>
       <c r="D7">
-        <v>-2.5989392820885617e-6</v>
+        <v>-2.5989392820885643e-6</v>
       </c>
       <c r="E7">
         <v>0.001989200207106942</v>
@@ -645,19 +645,19 @@
         <v>4.870310170975047e-5</v>
       </c>
       <c r="G7">
-        <v>7.963190532074721</v>
+        <v>7.963190532074531</v>
       </c>
       <c r="H7">
-        <v>0.0001986754048311492</v>
+        <v>0.00019867540483114885</v>
       </c>
       <c r="I7">
-        <v>-2.596428757330737e-6</v>
+        <v>-2.5964287573307433e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019892013071934845</v>
+        <v>0.0019892013071934524</v>
       </c>
       <c r="K7">
-        <v>4.870312395670829e-5</v>
+        <v>4.870312395670815e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -665,34 +665,34 @@
         <v>-0.03678075541029506</v>
       </c>
       <c r="B8">
-        <v>7.9286285149868005</v>
+        <v>7.928628514986801</v>
       </c>
       <c r="C8">
         <v>0.00019017252433393882</v>
       </c>
       <c r="D8">
-        <v>-3.0273512189304537e-6</v>
+        <v>-3.027351218930471e-6</v>
       </c>
       <c r="E8">
         <v>0.0019872739802864474</v>
       </c>
       <c r="F8">
-        <v>4.8661071408169275e-5</v>
+        <v>4.866107140816928e-5</v>
       </c>
       <c r="G8">
-        <v>7.928646363866982</v>
+        <v>7.928646363866756</v>
       </c>
       <c r="H8">
-        <v>0.00019017695907574093</v>
+        <v>0.00019017695907574058</v>
       </c>
       <c r="I8">
-        <v>-3.024427110579049e-6</v>
+        <v>-3.024427110579054e-6</v>
       </c>
       <c r="J8">
-        <v>0.0019872752915507143</v>
+        <v>0.001987275291550676</v>
       </c>
       <c r="K8">
-        <v>4.866109649260717e-5</v>
+        <v>4.866109649260702e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -706,28 +706,28 @@
         <v>0.00018190510877796878</v>
       </c>
       <c r="D9">
-        <v>-3.4433528028013423e-6</v>
+        <v>-3.443352802801342e-6</v>
       </c>
       <c r="E9">
         <v>0.0019853525146377427</v>
       </c>
       <c r="F9">
-        <v>4.862208268359272e-5</v>
+        <v>4.862208268359273e-5</v>
       </c>
       <c r="G9">
-        <v>7.894239106175522</v>
+        <v>7.894239106175263</v>
       </c>
       <c r="H9">
-        <v>0.0001819101559829825</v>
+        <v>0.0001819101559829821</v>
       </c>
       <c r="I9">
-        <v>-3.440027203125897e-6</v>
+        <v>-3.4400272031258985e-6</v>
       </c>
       <c r="J9">
-        <v>0.001985354042154495</v>
+        <v>0.0019853540421544513</v>
       </c>
       <c r="K9">
-        <v>4.8622110155954294e-5</v>
+        <v>4.8622110155954125e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -741,28 +741,28 @@
         <v>0.00017385922455334337</v>
       </c>
       <c r="D10">
-        <v>-3.847430044752962e-6</v>
+        <v>-3.847430044752952e-6</v>
       </c>
       <c r="E10">
         <v>0.001983434140985834</v>
       </c>
       <c r="F10">
-        <v>4.858615380663568e-5</v>
+        <v>4.858615380663567e-5</v>
       </c>
       <c r="G10">
-        <v>7.86011796990356</v>
+        <v>7.860117969903269</v>
       </c>
       <c r="H10">
-        <v>0.00017386486770491863</v>
+        <v>0.00017386486770491814</v>
       </c>
       <c r="I10">
-        <v>-3.843714590511305e-6</v>
+        <v>-3.843714590511302e-6</v>
       </c>
       <c r="J10">
-        <v>0.001983435890027275</v>
+        <v>0.001983435890027225</v>
       </c>
       <c r="K10">
-        <v>4.858618321107341e-5</v>
+        <v>4.858618321107326e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,7 +770,7 @@
         <v>-0.03144521615261516</v>
       </c>
       <c r="B11">
-        <v>7.826406943738201</v>
+        <v>7.8264069437382</v>
       </c>
       <c r="C11">
         <v>0.00016602501474433047</v>
@@ -782,22 +782,22 @@
         <v>0.001981517875634232</v>
       </c>
       <c r="F11">
-        <v>4.855326130585241e-5</v>
+        <v>4.8553261305852404e-5</v>
       </c>
       <c r="G11">
-        <v>7.826433609208503</v>
+        <v>7.826433609208183</v>
       </c>
       <c r="H11">
-        <v>0.00016603123803506336</v>
+        <v>0.00016603123803506277</v>
       </c>
       <c r="I11">
-        <v>-4.235968142077476e-6</v>
+        <v>-4.235968142077468e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019815198513828854</v>
+        <v>0.001981519851382829</v>
       </c>
       <c r="K11">
-        <v>4.85532921925486e-5</v>
+        <v>4.8553292192548444e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,34 +805,34 @@
         <v>-0.02975884967719607</v>
       </c>
       <c r="B12">
-        <v>7.793301474739145</v>
+        <v>7.7933014747391445</v>
       </c>
       <c r="C12">
         <v>0.0001583928824391198</v>
       </c>
       <c r="D12">
-        <v>-4.621723545826006e-6</v>
+        <v>-4.621723545826003e-6</v>
       </c>
       <c r="E12">
         <v>0.001979603409766732</v>
       </c>
       <c r="F12">
-        <v>4.852333966051009e-5</v>
+        <v>4.8523339660510095e-5</v>
       </c>
       <c r="G12">
-        <v>7.793330889029942</v>
+        <v>7.793330889029597</v>
       </c>
       <c r="H12">
-        <v>0.00015839967064521955</v>
+        <v>0.0001583996706452188</v>
       </c>
       <c r="I12">
-        <v>-4.617261588456231e-6</v>
+        <v>-4.617261588456218e-6</v>
       </c>
       <c r="J12">
-        <v>0.001979605617068646</v>
+        <v>0.001979605617068584</v>
       </c>
       <c r="K12">
-        <v>4.8523371604951735e-5</v>
+        <v>4.85233716049516e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -846,7 +846,7 @@
         <v>0.00015095348023037497</v>
       </c>
       <c r="D13">
-        <v>-4.9928832348351966e-6</v>
+        <v>-4.992883234835209e-6</v>
       </c>
       <c r="E13">
         <v>0.001977691047996105</v>
@@ -855,19 +855,19 @@
         <v>4.849628410545773e-5</v>
       </c>
       <c r="G13">
-        <v>7.76094205780909</v>
+        <v>7.760942057808721</v>
       </c>
       <c r="H13">
-        <v>0.00015096081866003495</v>
+        <v>0.00015096081866003403</v>
       </c>
       <c r="I13">
-        <v>-4.988063940362748e-6</v>
+        <v>-4.988063940362727e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019776934910634525</v>
+        <v>0.001977693491063384</v>
       </c>
       <c r="K13">
-        <v>4.8496316717090994e-5</v>
+        <v>4.849631671709089e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -881,7 +881,7 @@
         <v>0.0001436977018998037</v>
       </c>
       <c r="D14">
-        <v>-5.354004245847764e-6</v>
+        <v>-5.354004245847761e-6</v>
       </c>
       <c r="E14">
         <v>0.001975781604255689</v>
@@ -890,19 +890,19 @@
         <v>4.847195618963448e-5</v>
       </c>
       <c r="G14">
-        <v>7.729381164056849</v>
+        <v>7.729381164056461</v>
       </c>
       <c r="H14">
-        <v>0.00014370557585351103</v>
+        <v>0.00014370557585350994</v>
       </c>
       <c r="I14">
-        <v>-5.348838045811861e-6</v>
+        <v>-5.348838045811834e-6</v>
       </c>
       <c r="J14">
-        <v>0.0019757842863815547</v>
+        <v>0.001975784286381481</v>
       </c>
       <c r="K14">
-        <v>4.8471989120026957e-5</v>
+        <v>4.847198912002689e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,34 +910,34 @@
         <v>-0.024947248223872683</v>
       </c>
       <c r="B15">
-        <v>7.6987036727151725</v>
+        <v>7.698703672715173</v>
       </c>
       <c r="C15">
         <v>0.0001366166784375094</v>
       </c>
       <c r="D15">
-        <v>-5.705538252633283e-6</v>
+        <v>-5.705538252633288e-6</v>
       </c>
       <c r="E15">
-        <v>0.0019738762705319097</v>
+        <v>0.00197387627053191</v>
       </c>
       <c r="F15">
         <v>4.8450191293169366e-5</v>
       </c>
       <c r="G15">
-        <v>7.6987403015577005</v>
+        <v>7.698740301557295</v>
       </c>
       <c r="H15">
-        <v>0.00013662507274887184</v>
+        <v>0.00013662507274887065</v>
       </c>
       <c r="I15">
-        <v>-5.7000359305388664e-6</v>
+        <v>-5.70003593053883e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019738791937567897</v>
+        <v>0.00197387919375671</v>
       </c>
       <c r="K15">
-        <v>4.845022424061093e-5</v>
+        <v>4.845022424061091e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -945,34 +945,34 @@
         <v>-0.023419330871660086</v>
       </c>
       <c r="B16">
-        <v>7.669049298077524</v>
+        <v>7.669049298077523</v>
       </c>
       <c r="C16">
         <v>0.00012970178230923006</v>
       </c>
       <c r="D16">
-        <v>-6.047915057272292e-6</v>
+        <v>-6.047915057272299e-6</v>
       </c>
       <c r="E16">
         <v>0.001971976477737754</v>
       </c>
       <c r="F16">
-        <v>4.843080708598275e-5</v>
+        <v>4.8430807085982744e-5</v>
       </c>
       <c r="G16">
-        <v>7.669087918591888</v>
+        <v>7.669087918591468</v>
       </c>
       <c r="H16">
-        <v>0.00012971068004944452</v>
+        <v>0.00012971068004944325</v>
       </c>
       <c r="I16">
-        <v>-6.042088540777731e-6</v>
+        <v>-6.042088540777686e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019719796423836593</v>
+        <v>0.0019719796423835743</v>
       </c>
       <c r="K16">
-        <v>4.843083979454207e-5</v>
+        <v>4.843083979454208e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -980,34 +980,34 @@
         <v>-0.021926230753806925</v>
       </c>
       <c r="B17">
-        <v>7.640428706162136</v>
+        <v>7.640428706162135</v>
       </c>
       <c r="C17">
         <v>0.00012294464642166538</v>
       </c>
       <c r="D17">
-        <v>-6.381522195584645e-6</v>
+        <v>-6.381522195584649e-6</v>
       </c>
       <c r="E17">
         <v>0.0019700837680736044</v>
       </c>
       <c r="F17">
-        <v>4.841361193472898e-5</v>
+        <v>4.8413611934728976e-5</v>
       </c>
       <c r="G17">
-        <v>7.640469083809439</v>
+        <v>7.6404690838090055</v>
       </c>
       <c r="H17">
-        <v>0.00012295402672777412</v>
+        <v>0.0001229540267277728</v>
       </c>
       <c r="I17">
-        <v>-6.375385899162473e-6</v>
+        <v>-6.37538589916242e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019700871719568777</v>
+        <v>0.0019700871719567875</v>
       </c>
       <c r="K17">
-        <v>4.8413644184422383e-5</v>
+        <v>4.8413644184422424e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,34 +1015,34 @@
         <v>-0.020466118635945926</v>
       </c>
       <c r="B18">
-        <v>7.612865481085044</v>
+        <v>7.612865481085046</v>
       </c>
       <c r="C18">
         <v>0.00011633720740498593</v>
       </c>
       <c r="D18">
-        <v>-6.706668690662214e-6</v>
+        <v>-6.706668690662222e-6</v>
       </c>
       <c r="E18">
-        <v>0.0019681996955696</v>
+        <v>0.0019681996955695997</v>
       </c>
       <c r="F18">
         <v>4.839841247992648e-5</v>
       </c>
       <c r="G18">
-        <v>7.612907358462016</v>
+        <v>7.612907358461573</v>
       </c>
       <c r="H18">
-        <v>0.00011634704247168588</v>
+        <v>0.00011634704247168456</v>
       </c>
       <c r="I18">
-        <v>-6.7002415873368345e-6</v>
+        <v>-6.700241587336771e-6</v>
       </c>
       <c r="J18">
-        <v>0.0019682033327724376</v>
+        <v>0.001968203332772343</v>
       </c>
       <c r="K18">
-        <v>4.839844407789862e-5</v>
+        <v>4.83984440778987e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1056,28 +1056,28 @@
         <v>0.00010987178610915522</v>
       </c>
       <c r="D19">
-        <v>-7.023524747266355e-6</v>
+        <v>-7.023524747266362e-6</v>
       </c>
       <c r="E19">
         <v>0.001966325767719292</v>
       </c>
       <c r="F19">
-        <v>4.83850199103109e-5</v>
+        <v>4.8385019910310906e-5</v>
       </c>
       <c r="G19">
-        <v>7.586407817449329</v>
+        <v>7.586407817448878</v>
       </c>
       <c r="H19">
-        <v>0.00010988203653898962</v>
+        <v>0.00010988203653898831</v>
       </c>
       <c r="I19">
-        <v>-7.016833338198975e-6</v>
+        <v>-7.016833338198903e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019663296268408624</v>
+        <v>0.001966329626840764</v>
       </c>
       <c r="K19">
-        <v>4.8385050677791714e-5</v>
+        <v>4.838505067779181e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1085,13 +1085,13 @@
         <v>-0.01763774134333008</v>
       </c>
       <c r="B20">
-        <v>7.56091682638225</v>
+        <v>7.560916826382249</v>
       </c>
       <c r="C20">
         <v>0.00010354122062736035</v>
       </c>
       <c r="D20">
-        <v>-7.3320276130931e-6</v>
+        <v>-7.332027613093106e-6</v>
       </c>
       <c r="E20">
         <v>0.001964463437406933</v>
@@ -1100,19 +1100,19 @@
         <v>4.8373254758944056e-5</v>
       </c>
       <c r="G20">
-        <v>7.560960769548659</v>
+        <v>7.560960769548201</v>
       </c>
       <c r="H20">
-        <v>0.0001035518295402598</v>
+        <v>0.00010355182954025849</v>
       </c>
       <c r="I20">
-        <v>-7.325109802011885e-6</v>
+        <v>-7.325109802011805e-6</v>
       </c>
       <c r="J20">
-        <v>0.001964467499098454</v>
+        <v>0.0019644674990983517</v>
       </c>
       <c r="K20">
-        <v>4.837328451450324e-5</v>
+        <v>4.8373284514503366e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1120,7 +1120,7 @@
         <v>-0.016266011052682848</v>
       </c>
       <c r="B21">
-        <v>7.536501425095122</v>
+        <v>7.536501425095121</v>
       </c>
       <c r="C21">
         <v>9.733906738936686e-5</v>
@@ -1129,25 +1129,25 @@
         <v>-7.63174370973434e-6</v>
       </c>
       <c r="E21">
-        <v>0.0019626141510816113</v>
+        <v>0.0019626141510816117</v>
       </c>
       <c r="F21">
-        <v>4.8362950272157596e-5</v>
+        <v>4.83629502721576e-5</v>
       </c>
       <c r="G21">
-        <v>7.536545803591118</v>
+        <v>7.536545803590655</v>
       </c>
       <c r="H21">
-        <v>9.734995326201531e-5</v>
+        <v>9.734995326201405e-5</v>
       </c>
       <c r="I21">
-        <v>-7.624653406491488e-6</v>
+        <v>-7.6246534064914e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019626183850087187</v>
+        <v>0.0019626183850086133</v>
       </c>
       <c r="K21">
-        <v>4.836297881937773e-5</v>
+        <v>4.836297881937788e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1170,19 +1170,19 @@
         <v>4.8353954536138854e-5</v>
       </c>
       <c r="G22">
-        <v>7.513135888326066</v>
+        <v>7.513135888325598</v>
       </c>
       <c r="H22">
-        <v>9.12709316455159e-5</v>
+        <v>9.12709316455147e-5</v>
       </c>
       <c r="I22">
-        <v>-7.91449137888073e-6</v>
+        <v>-7.914491378880633e-6</v>
       </c>
       <c r="J22">
-        <v>0.001960783817400104</v>
+        <v>0.001960783817399996</v>
       </c>
       <c r="K22">
-        <v>4.8353981651865693e-5</v>
+        <v>4.835398165186587e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1190,13 +1190,13 @@
         <v>-0.013599062418082824</v>
       </c>
       <c r="B23">
-        <v>7.490657772557746</v>
+        <v>7.490657772557747</v>
       </c>
       <c r="C23">
         <v>8.52995876244567e-5</v>
       </c>
       <c r="D23">
-        <v>-8.200037718757443e-6</v>
+        <v>-8.20003771875744e-6</v>
       </c>
       <c r="E23">
         <v>0.0019589611649297248</v>
@@ -1205,19 +1205,19 @@
         <v>4.834613159614925e-5</v>
       </c>
       <c r="G23">
-        <v>7.490701334282444</v>
+        <v>7.490701334281972</v>
       </c>
       <c r="H23">
-        <v>8.531064725237085e-5</v>
+        <v>8.531064725236967e-5</v>
       </c>
       <c r="I23">
-        <v>-8.192852189965715e-6</v>
+        <v>-8.192852189965612e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019589655915700477</v>
+        <v>0.001958965591569936</v>
       </c>
       <c r="K23">
-        <v>4.8346157025066934e-5</v>
+        <v>4.8346157025067144e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1225,34 +1225,34 @@
         <v>-0.012300576728531541</v>
       </c>
       <c r="B24">
-        <v>7.469171410457828</v>
+        <v>7.469171410457826</v>
       </c>
       <c r="C24">
         <v>7.945591163798943e-5</v>
       </c>
       <c r="D24">
-        <v>-8.463927657604087e-6</v>
+        <v>-8.463927657604097e-6</v>
       </c>
       <c r="E24">
-        <v>0.001957161573111479</v>
+        <v>0.0019571615731114795</v>
       </c>
       <c r="F24">
         <v>4.833936179490947e-5</v>
       </c>
       <c r="G24">
-        <v>7.46921347614704</v>
+        <v>7.469213476146566</v>
       </c>
       <c r="H24">
-        <v>7.946678513084342e-5</v>
+        <v>7.946678513084229e-5</v>
       </c>
       <c r="I24">
-        <v>-8.456873093602622e-6</v>
+        <v>-8.456873093602509e-6</v>
       </c>
       <c r="J24">
-        <v>0.001957165982352141</v>
+        <v>0.001957165982352027</v>
       </c>
       <c r="K24">
-        <v>4.833938525026081e-5</v>
+        <v>4.833938525026105e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,7 +1260,7 @@
         <v>-0.011023286409034213</v>
       </c>
       <c r="B25">
-        <v>7.448608266914711</v>
+        <v>7.44860826691471</v>
       </c>
       <c r="C25">
         <v>7.372888340807497e-5</v>
@@ -1272,22 +1272,22 @@
         <v>0.0019553837118497595</v>
       </c>
       <c r="F25">
-        <v>4.8333541517289776e-5</v>
+        <v>4.833354151728978e-5</v>
       </c>
       <c r="G25">
-        <v>7.448647949405292</v>
+        <v>7.4486479494048154</v>
       </c>
       <c r="H25">
-        <v>7.373932920266565e-5</v>
+        <v>7.373932920266454e-5</v>
       </c>
       <c r="I25">
-        <v>-8.70227522243219e-6</v>
+        <v>-8.702275222432071e-6</v>
       </c>
       <c r="J25">
-        <v>0.001955387999827664</v>
+        <v>0.001955387999827547</v>
       </c>
       <c r="K25">
-        <v>4.833356268999684e-5</v>
+        <v>4.83335626899971e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1301,28 +1301,28 @@
         <v>6.812133228266888e-5</v>
       </c>
       <c r="D26">
-        <v>-8.929328611202247e-6</v>
+        <v>-8.92932861120225e-6</v>
       </c>
       <c r="E26">
-        <v>0.0019536316195066664</v>
+        <v>0.001953631619506667</v>
       </c>
       <c r="F26">
         <v>4.832858248105254e-5</v>
       </c>
       <c r="G26">
-        <v>7.428987430999108</v>
+        <v>7.428987430998628</v>
       </c>
       <c r="H26">
-        <v>6.813106811247703e-5</v>
+        <v>6.813106811247595e-5</v>
       </c>
       <c r="I26">
-        <v>-8.923034425488282e-6</v>
+        <v>-8.923034425488155e-6</v>
       </c>
       <c r="J26">
-        <v>0.0019536356622231387</v>
+        <v>0.001953635662223018</v>
       </c>
       <c r="K26">
-        <v>4.8328601054637494e-5</v>
+        <v>4.832860105463778e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1330,34 +1330,34 @@
         <v>-0.008526056568552345</v>
       </c>
       <c r="B27">
-        <v>7.410191784918882</v>
+        <v>7.410191784918883</v>
       </c>
       <c r="C27">
         <v>6.263933736158594e-5</v>
       </c>
       <c r="D27">
-        <v>-9.116705879470632e-6</v>
+        <v>-9.116705879470635e-6</v>
       </c>
       <c r="E27">
-        <v>0.0019519105993563992</v>
+        <v>0.001951910599356399</v>
       </c>
       <c r="F27">
-        <v>4.8324410673179863e-5</v>
+        <v>4.832441067317987e-5</v>
       </c>
       <c r="G27">
-        <v>7.410223703533892</v>
+        <v>7.4102237035334095</v>
       </c>
       <c r="H27">
-        <v>6.264805057951795e-5</v>
+        <v>6.264805057951687e-5</v>
       </c>
       <c r="I27">
-        <v>-9.11108645883695e-6</v>
+        <v>-9.111086458836814e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019519142566892835</v>
+        <v>0.0019519142566891592</v>
       </c>
       <c r="K27">
-        <v>4.832442634630688e-5</v>
+        <v>4.8324426346307176e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1371,28 +1371,28 @@
         <v>5.729255557643234e-5</v>
       </c>
       <c r="D28">
-        <v>-9.260845597049131e-6</v>
+        <v>-9.260845597049134e-6</v>
       </c>
       <c r="E28">
         <v>0.001950227429479699</v>
       </c>
       <c r="F28">
-        <v>4.8320965005546946e-5</v>
+        <v>4.832096500554694e-5</v>
       </c>
       <c r="G28">
-        <v>7.392358905204207</v>
+        <v>7.392358905203723</v>
       </c>
       <c r="H28">
-        <v>5.7299920024609056e-5</v>
+        <v>5.729992002460798e-5</v>
       </c>
       <c r="I28">
-        <v>-9.256111924496864e-6</v>
+        <v>-9.256111924496724e-6</v>
       </c>
       <c r="J28">
-        <v>0.0019502305522079834</v>
+        <v>0.0019502305522078563</v>
       </c>
       <c r="K28">
-        <v>4.83209775193887e-5</v>
+        <v>4.832097751938901e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1406,28 +1406,28 @@
         <v>5.2094356601681106e-5</v>
       </c>
       <c r="D29">
-        <v>-9.349090900620677e-6</v>
+        <v>-9.349090900620679e-6</v>
       </c>
       <c r="E29">
-        <v>0.0019485904868328271</v>
+        <v>0.0019485904868328274</v>
       </c>
       <c r="F29">
         <v>4.83181957530721e-5</v>
       </c>
       <c r="G29">
-        <v>7.375405850046079</v>
+        <v>7.375405850045592</v>
       </c>
       <c r="H29">
-        <v>5.210005544861288e-5</v>
+        <v>5.210005544861182e-5</v>
       </c>
       <c r="I29">
-        <v>-9.345447398617156e-6</v>
+        <v>-9.345447398617009e-6</v>
       </c>
       <c r="J29">
-        <v>0.0019485929266230126</v>
+        <v>0.0019485929266228829</v>
       </c>
       <c r="K29">
-        <v>4.8318204917112156e-5</v>
+        <v>4.8318204917112474e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1441,7 +1441,7 @@
         <v>4.706170112540973e-5</v>
       </c>
       <c r="D30">
-        <v>-9.3665360575084e-6</v>
+        <v>-9.366536057508407e-6</v>
       </c>
       <c r="E30">
         <v>0.00194700975000084</v>
@@ -1450,19 +1450,19 @@
         <v>4.831606283818293e-5</v>
       </c>
       <c r="G30">
-        <v>7.359387354379228</v>
+        <v>7.35938735437874</v>
       </c>
       <c r="H30">
-        <v>4.7065453544353974e-5</v>
+        <v>4.706545354435293e-5</v>
       </c>
       <c r="I30">
-        <v>-9.364163261759306e-6</v>
+        <v>-9.364163261759157e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019470113716499916</v>
+        <v>0.0019470113716498591</v>
       </c>
       <c r="K30">
-        <v>4.831606855488487e-5</v>
+        <v>4.8316068554885194e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1470,7 +1470,7 @@
         <v>-0.003718594724924723</v>
       </c>
       <c r="B31">
-        <v>7.344329133937909</v>
+        <v>7.34432913393791</v>
       </c>
       <c r="C31">
         <v>4.221471840159398e-5</v>
@@ -1482,22 +1482,22 @@
         <v>0.0019454966530185168</v>
       </c>
       <c r="F31">
-        <v>4.831453403146398e-5</v>
+        <v>4.831453403146399e-5</v>
       </c>
       <c r="G31">
-        <v>7.344334576019412</v>
+        <v>7.34433457601892</v>
       </c>
       <c r="H31">
-        <v>4.221630801152397e-5</v>
+        <v>4.221630801152293e-5</v>
       </c>
       <c r="I31">
-        <v>-9.295335837850803e-6</v>
+        <v>-9.29533583785065e-6</v>
       </c>
       <c r="J31">
-        <v>0.001945497347810991</v>
+        <v>0.001945497347810856</v>
       </c>
       <c r="K31">
-        <v>4.8314536316154354e-5</v>
+        <v>4.8314536316154687e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1505,7 +1505,7 @@
         <v>-0.002547072577722697</v>
       </c>
       <c r="B32">
-        <v>7.330286796753257</v>
+        <v>7.330286796753258</v>
       </c>
       <c r="C32">
         <v>3.757596762926318e-5</v>
@@ -1520,19 +1520,19 @@
         <v>4.831358314364582e-5</v>
       </c>
       <c r="G32">
-        <v>7.330284455858534</v>
+        <v>7.330284455858039</v>
       </c>
       <c r="H32">
-        <v>3.757526911920312e-5</v>
+        <v>3.757526911920206e-5</v>
       </c>
       <c r="I32">
-        <v>-9.12052268498931e-6</v>
+        <v>-9.120522684989158e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019440634747248677</v>
+        <v>0.00194406347472473</v>
       </c>
       <c r="K32">
-        <v>4.83135821348551e-5</v>
+        <v>4.831358213485544e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1540,34 +1540,34 @@
         <v>-0.001384796538244068</v>
       </c>
       <c r="B33">
-        <v>7.317286365496367</v>
+        <v>7.317286365496366</v>
       </c>
       <c r="C33">
         <v>3.316940221803574e-5</v>
       </c>
       <c r="D33">
-        <v>-8.818409007328856e-6</v>
+        <v>-8.818409007328849e-6</v>
       </c>
       <c r="E33">
-        <v>0.0019427243748271115</v>
+        <v>0.0019427243748271117</v>
       </c>
       <c r="F33">
         <v>4.831318828427399e-5</v>
       </c>
       <c r="G33">
-        <v>7.317276437159875</v>
+        <v>7.317276437159378</v>
       </c>
       <c r="H33">
-        <v>3.3166403511725444e-5</v>
+        <v>3.316640351172439e-5</v>
       </c>
       <c r="I33">
-        <v>-8.820427593408008e-6</v>
+        <v>-8.820427593407857e-6</v>
       </c>
       <c r="J33">
-        <v>0.0019427230595529185</v>
+        <v>0.0019427230595527782</v>
       </c>
       <c r="K33">
-        <v>4.831318424704143e-5</v>
+        <v>4.831318424704178e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1590,19 +1590,19 @@
         <v>4.831333025564672e-5</v>
       </c>
       <c r="G34">
-        <v>7.305348709514352</v>
+        <v>7.305348709513851</v>
       </c>
       <c r="H34">
-        <v>2.9013908313811066e-5</v>
+        <v>2.9013908313810015e-5</v>
       </c>
       <c r="I34">
-        <v>-8.375718961163113e-6</v>
+        <v>-8.375718961162967e-6</v>
       </c>
       <c r="J34">
-        <v>0.0019414894860821294</v>
+        <v>0.0019414894860819863</v>
       </c>
       <c r="K34">
-        <v>4.831332357466507e-5</v>
+        <v>4.831332357466543e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1610,34 +1610,34 @@
         <v>0.0009177033683987063</v>
       </c>
       <c r="B35">
-        <v>7.294557220708653</v>
+        <v>7.2945572207086515</v>
       </c>
       <c r="C35">
         <v>2.5147790115978112e-5</v>
       </c>
       <c r="D35">
-        <v>-7.763252318093824e-6</v>
+        <v>-7.76325231809384e-6</v>
       </c>
       <c r="E35">
-        <v>0.00194037866749745</v>
+        <v>0.0019403786674974499</v>
       </c>
       <c r="F35">
-        <v>4.831399113768878e-5</v>
+        <v>4.8313991137688784e-5</v>
       </c>
       <c r="G35">
-        <v>7.2945342722711475</v>
+        <v>7.294534272270644</v>
       </c>
       <c r="H35">
-        <v>2.514066853142942e-5</v>
+        <v>2.5140668531428373e-5</v>
       </c>
       <c r="I35">
-        <v>-7.767944932789567e-6</v>
+        <v>-7.767944932789435e-6</v>
       </c>
       <c r="J35">
-        <v>0.0019403755070804187</v>
+        <v>0.0019403755070802734</v>
       </c>
       <c r="K35">
-        <v>4.831398230181704e-5</v>
+        <v>4.83139823018174e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1651,28 +1651,28 @@
         <v>2.1575458140936757e-5</v>
       </c>
       <c r="D36">
-        <v>-6.9747660326479515e-6</v>
+        <v>-6.974766032647944e-6</v>
       </c>
       <c r="E36">
-        <v>0.0019393963677999668</v>
+        <v>0.001939396367799967</v>
       </c>
       <c r="F36">
         <v>4.831515310290753e-5</v>
       </c>
       <c r="G36">
-        <v>7.284857135929619</v>
+        <v>7.284857135929111</v>
       </c>
       <c r="H36">
-        <v>2.1566770087549823e-5</v>
+        <v>2.1566770087548783e-5</v>
       </c>
       <c r="I36">
-        <v>-6.980473730467873e-6</v>
+        <v>-6.980473730467757e-6</v>
       </c>
       <c r="J36">
-        <v>0.0019393924973865452</v>
+        <v>0.0019393924973863971</v>
       </c>
       <c r="K36">
-        <v>4.8315142683708775e-5</v>
+        <v>4.831514268370914e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1680,34 +1680,34 @@
         <v>0.0032001918522172254</v>
       </c>
       <c r="B37">
-        <v>7.276359733535202</v>
+        <v>7.2763597335352035</v>
       </c>
       <c r="C37">
         <v>1.831787066340181e-5</v>
       </c>
       <c r="D37">
-        <v>-5.992967060779016e-6</v>
+        <v>-5.992967060779031e-6</v>
       </c>
       <c r="E37">
-        <v>0.0019385541036394953</v>
+        <v>0.001938554103639495</v>
       </c>
       <c r="F37">
-        <v>4.831679748368219e-5</v>
+        <v>4.831679748368218e-5</v>
       </c>
       <c r="G37">
-        <v>7.276328971099127</v>
+        <v>7.276328971098616</v>
       </c>
       <c r="H37">
-        <v>1.8308094070367603e-5</v>
+        <v>1.830809407036657e-5</v>
       </c>
       <c r="I37">
-        <v>-5.999380145826738e-6</v>
+        <v>-5.999380145826646e-6</v>
       </c>
       <c r="J37">
-        <v>0.00193854973595965</v>
+        <v>0.0019385497359594996</v>
       </c>
       <c r="K37">
-        <v>4.831678610709419e-5</v>
+        <v>4.8316786107094576e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1715,7 +1715,7 @@
         <v>0.004337430628481818</v>
       </c>
       <c r="B38">
-        <v>7.268978576840245</v>
+        <v>7.268978576840244</v>
       </c>
       <c r="C38">
         <v>1.538542594581264e-5</v>
@@ -1730,19 +1730,19 @@
         <v>4.831890409961597e-5</v>
       </c>
       <c r="G38">
-        <v>7.268946478961267</v>
+        <v>7.2689464789607525</v>
       </c>
       <c r="H38">
-        <v>1.5375117221444615e-5</v>
+        <v>1.5375117221443592e-5</v>
       </c>
       <c r="I38">
-        <v>-4.814200259646946e-6</v>
+        <v>-4.8142002596468865e-6</v>
       </c>
       <c r="J38">
-        <v>0.0019378537865656134</v>
+        <v>0.0019378537865654614</v>
       </c>
       <c r="K38">
-        <v>4.831889241623744e-5</v>
+        <v>4.831889241623782e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1756,7 +1756,7 @@
         <v>1.2782269476574575e-5</v>
       </c>
       <c r="D39">
-        <v>-3.411770074960754e-6</v>
+        <v>-3.4117700749607477e-6</v>
       </c>
       <c r="E39">
         <v>0.0019373126283647576</v>
@@ -1765,19 +1765,19 @@
         <v>4.832145084202095e-5</v>
       </c>
       <c r="G39">
-        <v>7.262689698694668</v>
+        <v>7.2626896986941505</v>
       </c>
       <c r="H39">
-        <v>1.2772028057422527e-5</v>
+        <v>1.2772028057421513e-5</v>
       </c>
       <c r="I39">
-        <v>-3.4184861359959542e-6</v>
+        <v>-3.4184861359959343e-6</v>
       </c>
       <c r="J39">
-        <v>0.0019373080399406556</v>
+        <v>0.0019373080399405012</v>
       </c>
       <c r="K39">
-        <v>4.83214394952052e-5</v>
+        <v>4.832143949520559e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1785,34 +1785,34 @@
         <v>0.006610865255243126</v>
       </c>
       <c r="B40">
-        <v>7.257550654241502</v>
+        <v>7.257550654241503</v>
       </c>
       <c r="C40">
         <v>1.0505812637309046e-5</v>
       </c>
       <c r="D40">
-        <v>-1.80382546102955e-6</v>
+        <v>-1.803825461029561e-6</v>
       </c>
       <c r="E40">
-        <v>0.0019369167540906973</v>
+        <v>0.001936916754090697</v>
       </c>
       <c r="F40">
         <v>4.8324413505779754e-5</v>
       </c>
       <c r="G40">
-        <v>7.257521390297457</v>
+        <v>7.2575213902969375</v>
       </c>
       <c r="H40">
-        <v>1.0496241439326557e-5</v>
+        <v>1.0496241439325553e-5</v>
       </c>
       <c r="I40">
-        <v>-1.8101091583283606e-6</v>
+        <v>-1.8101091583283885e-6</v>
       </c>
       <c r="J40">
-        <v>0.001936912465397641</v>
+        <v>0.0019369124653974845</v>
       </c>
       <c r="K40">
-        <v>4.8324403100653734e-5</v>
+        <v>4.832440310065414e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1820,34 +1820,34 @@
         <v>0.007749846347466959</v>
       </c>
       <c r="B41">
-        <v>7.253412830546521</v>
+        <v>7.253412830546522</v>
       </c>
       <c r="C41">
         <v>8.546691545968992e-6</v>
       </c>
       <c r="D41">
-        <v>1.4200716513346162e-8</v>
+        <v>1.4200716513345695e-8</v>
       </c>
       <c r="E41">
-        <v>0.0019366673299333077</v>
+        <v>0.0019366673299333074</v>
       </c>
       <c r="F41">
         <v>4.832776585451803e-5</v>
       </c>
       <c r="G41">
-        <v>7.253387544701736</v>
+        <v>7.253387544701213</v>
       </c>
       <c r="H41">
-        <v>8.538357132798312e-6</v>
+        <v>8.538357132797314e-6</v>
       </c>
       <c r="I41">
-        <v>8.716171074241536e-9</v>
+        <v>8.716171074158297e-9</v>
       </c>
       <c r="J41">
-        <v>0.0019366635978511056</v>
+        <v>0.0019366635978509466</v>
       </c>
       <c r="K41">
-        <v>4.832775692979423e-5</v>
+        <v>4.8327756929794654e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1861,28 +1861,28 @@
         <v>6.8891696116903005e-6</v>
       </c>
       <c r="D42">
-        <v>2.0360558324625128e-6</v>
+        <v>2.036055832462501e-6</v>
       </c>
       <c r="E42">
-        <v>0.0019365577148973728</v>
+        <v>0.001936557714897373</v>
       </c>
       <c r="F42">
         <v>4.833147990121659e-5</v>
       </c>
       <c r="G42">
-        <v>7.250218980602414</v>
+        <v>7.250218980601889</v>
       </c>
       <c r="H42">
-        <v>6.882565852270574e-6</v>
+        <v>6.882565852269587e-6</v>
       </c>
       <c r="I42">
-        <v>2.0316906953444707e-6</v>
+        <v>2.0316906953443237e-6</v>
       </c>
       <c r="J42">
-        <v>0.0019365547616150944</v>
+        <v>0.0019365547616149337</v>
       </c>
       <c r="K42">
-        <v>4.833147290544813e-5</v>
+        <v>4.833147290544857e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1890,34 +1890,34 @@
         <v>0.010039314770512228</v>
       </c>
       <c r="B43">
-        <v>7.247947321226963</v>
+        <v>7.247947321226962</v>
       </c>
       <c r="C43">
         <v>5.51194531618884e-6</v>
       </c>
       <c r="D43">
-        <v>4.251938422073547e-6</v>
+        <v>4.251938422073539e-6</v>
       </c>
       <c r="E43">
-        <v>0.0019365785080908914</v>
+        <v>0.0019365785080908912</v>
       </c>
       <c r="F43">
         <v>4.833552638112789e-5</v>
       </c>
       <c r="G43">
-        <v>7.247933898307569</v>
+        <v>7.2479338983070445</v>
       </c>
       <c r="H43">
-        <v>5.507463928925845e-6</v>
+        <v>5.507463928924867e-6</v>
       </c>
       <c r="I43">
-        <v>4.248947427784794e-6</v>
+        <v>4.248947427784579e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019365765072447863</v>
+        <v>0.0019365765072446237</v>
       </c>
       <c r="K43">
-        <v>4.833552165452743e-5</v>
+        <v>4.833552165452789e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1931,7 +1931,7 @@
         <v>4.389289125768824e-6</v>
       </c>
       <c r="D44">
-        <v>6.6492201480031514e-6</v>
+        <v>6.64922014800315e-6</v>
       </c>
       <c r="E44">
         <v>0.0019367181482288444</v>
@@ -1940,19 +1940,19 @@
         <v>4.833987538595072e-5</v>
       </c>
       <c r="G44">
-        <v>7.246441182120994</v>
+        <v>7.246441182120467</v>
       </c>
       <c r="H44">
-        <v>4.387199781404067e-6</v>
+        <v>4.387199781403097e-6</v>
       </c>
       <c r="I44">
-        <v>6.647779591968857e-6</v>
+        <v>6.647779591968568e-6</v>
       </c>
       <c r="J44">
-        <v>0.001936717215848383</v>
+        <v>0.0019367172158482188</v>
       </c>
       <c r="K44">
-        <v>4.8339873149284956e-5</v>
+        <v>4.833987314928542e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1966,28 +1966,28 @@
         <v>3.492404529571674e-6</v>
       </c>
       <c r="D45">
-        <v>9.213312135826661e-6</v>
+        <v>9.213312135826688e-6</v>
       </c>
       <c r="E45">
-        <v>0.001936963619245825</v>
+        <v>0.0019369636192458249</v>
       </c>
       <c r="F45">
-        <v>4.834449711775671e-5</v>
+        <v>4.834449711775672e-5</v>
       </c>
       <c r="G45">
-        <v>7.245644181270981</v>
+        <v>7.245644181270453</v>
       </c>
       <c r="H45">
-        <v>3.492845987277199e-6</v>
+        <v>3.4928459872762364e-6</v>
       </c>
       <c r="I45">
-        <v>9.213513966705997e-6</v>
+        <v>9.213513966705624e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019369638102395095</v>
+        <v>0.0019369638102393447</v>
       </c>
       <c r="K45">
-        <v>4.834449746935913e-5</v>
+        <v>4.83444974693596e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1995,34 +1995,34 @@
         <v>0.01352337379421037</v>
       </c>
       <c r="B46">
-        <v>7.2454358905659895</v>
+        <v>7.24543589056599</v>
       </c>
       <c r="C46">
         <v>2.7908912378135774e-6</v>
       </c>
       <c r="D46">
-        <v>1.1928599488115713e-5</v>
+        <v>1.1928599488115718e-5</v>
       </c>
       <c r="E46">
-        <v>0.001937301194559103</v>
+        <v>0.0019373011945591028</v>
       </c>
       <c r="F46">
         <v>4.834936270970386e-5</v>
       </c>
       <c r="G46">
-        <v>7.245444661695029</v>
+        <v>7.245444661694503</v>
       </c>
       <c r="H46">
-        <v>2.793873710404655e-6</v>
+        <v>2.7938737104036995e-6</v>
       </c>
       <c r="I46">
-        <v>1.1930452671846379e-5</v>
+        <v>1.1930452671845923e-5</v>
       </c>
       <c r="J46">
-        <v>0.0019373025046656976</v>
+        <v>0.0019373025046655315</v>
       </c>
       <c r="K46">
-        <v>4.8349365630411e-5</v>
+        <v>4.834936563041147e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2036,7 +2036,7 @@
         <v>2.2541853358306274e-6</v>
       </c>
       <c r="D47">
-        <v>1.47793650682831e-5</v>
+        <v>1.4779365068283099e-5</v>
       </c>
       <c r="E47">
         <v>0.0019377171536751295</v>
@@ -2045,19 +2045,19 @@
         <v>4.835444505084836e-5</v>
       </c>
       <c r="G47">
-        <v>7.245746614662573</v>
+        <v>7.245746614662047</v>
       </c>
       <c r="H47">
-        <v>2.25960320544517e-6</v>
+        <v>2.259603205444223e-6</v>
       </c>
       <c r="I47">
-        <v>1.478280353111316e-5</v>
+        <v>1.478280353111262e-5</v>
       </c>
       <c r="J47">
-        <v>0.001937719526251485</v>
+        <v>0.001937719526251318</v>
       </c>
       <c r="K47">
-        <v>4.8354450416680514e-5</v>
+        <v>4.835445041668099e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2071,7 +2071,7 @@
         <v>1.8528617272811534e-6</v>
       </c>
       <c r="D48">
-        <v>1.7750629521792934e-5</v>
+        <v>1.7750629521792938e-5</v>
       </c>
       <c r="E48">
         <v>0.0019381984136631466</v>
@@ -2080,19 +2080,19 @@
         <v>4.835971954759592e-5</v>
       </c>
       <c r="G48">
-        <v>7.246459632575332</v>
+        <v>7.2464596325748065</v>
       </c>
       <c r="H48">
-        <v>1.8605144349532537e-6</v>
+        <v>1.8605144349523152e-6</v>
       </c>
       <c r="I48">
-        <v>1.7755525443021807e-5</v>
+        <v>1.7755525443021174e-5</v>
       </c>
       <c r="J48">
-        <v>0.00193820175014423</v>
+        <v>0.001938201750144062</v>
       </c>
       <c r="K48">
-        <v>4.835972714889865e-5</v>
+        <v>4.835972714889912e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2106,28 +2106,28 @@
         <v>1.5597067902987931e-6</v>
       </c>
       <c r="D49">
-        <v>2.0828848093788598e-5</v>
+        <v>2.0828848093788608e-5</v>
       </c>
       <c r="E49">
-        <v>0.001938733032729875</v>
+        <v>0.0019387330327298748</v>
       </c>
       <c r="F49">
-        <v>4.8365164757245284e-5</v>
+        <v>4.836516475724528e-5</v>
       </c>
       <c r="G49">
-        <v>7.247501618062206</v>
+        <v>7.247501618061682</v>
       </c>
       <c r="H49">
-        <v>1.5693250582010524e-6</v>
+        <v>1.5693250582001223e-6</v>
       </c>
       <c r="I49">
-        <v>2.083502868378178e-5</v>
+        <v>2.0835028683781055e-5</v>
       </c>
       <c r="J49">
-        <v>0.0019387372052478756</v>
+        <v>0.0019387372052477065</v>
       </c>
       <c r="K49">
-        <v>4.836517432230322e-5</v>
+        <v>4.836517432230368e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2135,34 +2135,34 @@
         <v>0.018321882409371174</v>
       </c>
       <c r="B50">
-        <v>7.248767986476218</v>
+        <v>7.248767986476219</v>
       </c>
       <c r="C50">
         <v>1.3505005141298404e-6</v>
       </c>
       <c r="D50">
-        <v>2.4002424196133543e-5</v>
+        <v>2.4002424196133533e-5</v>
       </c>
       <c r="E50">
-        <v>0.001939310561250366</v>
+        <v>0.0019393105612503657</v>
       </c>
       <c r="F50">
         <v>4.8370762840939965e-5</v>
       </c>
       <c r="G50">
-        <v>7.24880067317773</v>
+        <v>7.248800673177208</v>
       </c>
       <c r="H50">
-        <v>1.3617746561847641e-6</v>
+        <v>1.3617746561838428e-6</v>
       </c>
       <c r="I50">
-        <v>2.4009689896800952e-5</v>
+        <v>2.4009689896800136e-5</v>
       </c>
       <c r="J50">
-        <v>0.0019393154258928876</v>
+        <v>0.0019393154258927183</v>
       </c>
       <c r="K50">
-        <v>4.837077406162676e-5</v>
+        <v>4.837077406162719e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2170,34 +2170,34 @@
         <v>0.019558596409849263</v>
       </c>
       <c r="B51">
-        <v>7.250259681882584</v>
+        <v>7.250259681882585</v>
       </c>
       <c r="C51">
         <v>1.2044830495843167e-6</v>
       </c>
       <c r="D51">
-        <v>2.726202216311803e-5</v>
+        <v>2.726202216311801e-5</v>
       </c>
       <c r="E51">
         <v>0.001939922234438599</v>
       </c>
       <c r="F51">
-        <v>4.8376499803327535e-5</v>
+        <v>4.837649980332754e-5</v>
       </c>
       <c r="G51">
-        <v>7.250296109172539</v>
+        <v>7.2502961091720195</v>
       </c>
       <c r="H51">
-        <v>1.2170902187362538e-6</v>
+        <v>1.2170902187353415e-6</v>
       </c>
       <c r="I51">
-        <v>2.727016436116345e-5</v>
+        <v>2.727016436116254e-5</v>
       </c>
       <c r="J51">
-        <v>0.0019399276436321599</v>
+        <v>0.0019399276436319894</v>
       </c>
       <c r="K51">
-        <v>4.837651236014712e-5</v>
+        <v>4.8376512360147546e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2214,25 +2214,25 @@
         <v>3.0600684100708324e-5</v>
       </c>
       <c r="E52">
-        <v>0.0019405610178590115</v>
+        <v>0.0019405610178590117</v>
       </c>
       <c r="F52">
         <v>4.838236551138063e-5</v>
       </c>
       <c r="G52">
-        <v>7.251938612725772</v>
+        <v>7.251938612725255</v>
       </c>
       <c r="H52">
-        <v>1.1181433915412971e-6</v>
+        <v>1.118143391540394e-6</v>
       </c>
       <c r="I52">
-        <v>3.060950034818077e-5</v>
+        <v>3.060950034817977e-5</v>
       </c>
       <c r="J52">
-        <v>0.0019405668307630826</v>
+        <v>0.001940566830762912</v>
       </c>
       <c r="K52">
-        <v>4.838237909539277e-5</v>
+        <v>4.8382379095393164e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2240,7 +2240,7 @@
         <v>0.022087069695348203</v>
       </c>
       <c r="B53">
-        <v>7.253648460409315</v>
+        <v>7.253648460409317</v>
       </c>
       <c r="C53">
         <v>1.036976129078197e-6</v>
@@ -2252,22 +2252,22 @@
         <v>0.0019412215301985198</v>
       </c>
       <c r="F53">
-        <v>4.838835351073498e-5</v>
+        <v>4.8388353510734986e-5</v>
       </c>
       <c r="G53">
-        <v>7.253689687332735</v>
+        <v>7.253689687332221</v>
       </c>
       <c r="H53">
-        <v>1.0513401863013793e-6</v>
+        <v>1.0513401863004854e-6</v>
       </c>
       <c r="I53">
-        <v>3.402308098983908e-5</v>
+        <v>3.4023080989837974e-5</v>
       </c>
       <c r="J53">
-        <v>0.0019412276203511273</v>
+        <v>0.0019412276203509564</v>
       </c>
       <c r="K53">
-        <v>4.838836784063829e-5</v>
+        <v>4.8388367840638664e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2275,34 +2275,34 @@
         <v>0.023381926676347586</v>
       </c>
       <c r="B54">
-        <v>7.255478050332886</v>
+        <v>7.2554780503328855</v>
       </c>
       <c r="C54">
         <v>9.914490792158786e-7</v>
       </c>
       <c r="D54">
-        <v>3.749879557491937e-5</v>
+        <v>3.7498795574919365e-5</v>
       </c>
       <c r="E54">
-        <v>0.0019418998759130638</v>
+        <v>0.001941899875913064</v>
       </c>
       <c r="F54">
-        <v>4.839446067980259e-5</v>
+        <v>4.83944606798026e-5</v>
       </c>
       <c r="G54">
-        <v>7.255520547067517</v>
+        <v>7.2555205470670066</v>
       </c>
       <c r="H54">
-        <v>1.0063051012546649e-6</v>
+        <v>1.0063051012537802e-6</v>
       </c>
       <c r="I54">
-        <v>3.7508432005758214e-5</v>
+        <v>3.750843200575703e-5</v>
       </c>
       <c r="J54">
-        <v>0.001941906135858799</v>
+        <v>0.0019419061358586286</v>
       </c>
       <c r="K54">
-        <v>4.839447551311578e-5</v>
+        <v>4.839447551311615e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2310,34 +2310,34 @@
         <v>0.024699303816317582</v>
       </c>
       <c r="B55">
-        <v>7.257367480161589</v>
+        <v>7.25736748016159</v>
       </c>
       <c r="C55">
         <v>9.602833958554e-7</v>
       </c>
       <c r="D55">
-        <v>4.1055104871511824e-5</v>
+        <v>4.105510487151183e-5</v>
       </c>
       <c r="E55">
         <v>0.00194259342317658</v>
       </c>
       <c r="F55">
-        <v>4.8400686776018376e-5</v>
+        <v>4.840068677601837e-5</v>
       </c>
       <c r="G55">
-        <v>7.257410668183987</v>
+        <v>7.257410668183479</v>
       </c>
       <c r="H55">
-        <v>9.754319575379244e-7</v>
+        <v>9.754319575370492e-7</v>
       </c>
       <c r="I55">
-        <v>4.1064941934159874e-5</v>
+        <v>4.106494193415861e-5</v>
       </c>
       <c r="J55">
-        <v>0.0019425997662648774</v>
+        <v>0.0019425997662647072</v>
       </c>
       <c r="K55">
-        <v>4.84007019142725e-5</v>
+        <v>4.8400701914272884e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2345,34 +2345,34 @@
         <v>0.026040815067002142</v>
       </c>
       <c r="B56">
-        <v>7.259302768649233</v>
+        <v>7.259302768649234</v>
       </c>
       <c r="C56">
         <v>9.380867906694165e-7</v>
       </c>
       <c r="D56">
-        <v>4.4683603999922525e-5</v>
+        <v>4.468360399992251e-5</v>
       </c>
       <c r="E56">
-        <v>0.0019433005604740025</v>
+        <v>0.0019433005604740023</v>
       </c>
       <c r="F56">
         <v>4.8407033932978165e-5</v>
       </c>
       <c r="G56">
-        <v>7.2593462014750205</v>
+        <v>7.259346201474516</v>
       </c>
       <c r="H56">
-        <v>9.533731560059295e-7</v>
+        <v>9.533731560050641e-7</v>
       </c>
       <c r="I56">
-        <v>4.469354063200418e-5</v>
+        <v>4.469354063200282e-5</v>
       </c>
       <c r="J56">
-        <v>0.001943306920269597</v>
+        <v>0.0019433069202694278</v>
       </c>
       <c r="K56">
-        <v>4.840704922162078e-5</v>
+        <v>4.8407049221621176e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2380,7 +2380,7 @@
         <v>0.027408103947448977</v>
       </c>
       <c r="B57">
-        <v>7.261275069412563</v>
+        <v>7.261275069412562</v>
       </c>
       <c r="C57">
         <v>9.212194351066774e-7</v>
@@ -2389,25 +2389,25 @@
         <v>4.838641514472512e-5</v>
       </c>
       <c r="E57">
-        <v>0.001944020459350712</v>
+        <v>0.0019440204593507123</v>
       </c>
       <c r="F57">
-        <v>4.84135061622837e-5</v>
+        <v>4.841350616228371e-5</v>
       </c>
       <c r="G57">
-        <v>7.261318418973645</v>
+        <v>7.261318418973145</v>
       </c>
       <c r="H57">
-        <v>9.365292792688437e-7</v>
+        <v>9.365292792679885e-7</v>
       </c>
       <c r="I57">
-        <v>4.839637655242345e-5</v>
+        <v>4.839637655242201e-5</v>
       </c>
       <c r="J57">
-        <v>0.0019440267874123653</v>
+        <v>0.0019440267874121973</v>
       </c>
       <c r="K57">
-        <v>4.8413521486692145e-5</v>
+        <v>4.841352148669255e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2415,7 +2415,7 @@
         <v>0.028802845557525943</v>
       </c>
       <c r="B58">
-        <v>7.263279285430858</v>
+        <v>7.263279285430857</v>
       </c>
       <c r="C58">
         <v>9.073323989524735e-7</v>
@@ -2424,25 +2424,25 @@
         <v>5.216658933639553e-5</v>
       </c>
       <c r="E58">
-        <v>0.0019447528628264345</v>
+        <v>0.0019447528628264343</v>
       </c>
       <c r="F58">
         <v>4.842010890192948e-5</v>
       </c>
       <c r="G58">
-        <v>7.2633223219705325</v>
+        <v>7.263322321970037</v>
       </c>
       <c r="H58">
-        <v>9.225851477407884e-7</v>
+        <v>9.225851477399435e-7</v>
       </c>
       <c r="I58">
-        <v>5.217652267974966e-5</v>
+        <v>5.2176522679748126e-5</v>
       </c>
       <c r="J58">
-        <v>0.0019447591255106623</v>
+        <v>0.0019447591255104953</v>
       </c>
       <c r="K58">
-        <v>4.8420124180971354e-5</v>
+        <v>4.842012418097177e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2456,28 +2456,28 @@
         <v>8.949789134366317e-7</v>
       </c>
       <c r="D59">
-        <v>5.602786039842262e-5</v>
+        <v>5.6027860398422624e-5</v>
       </c>
       <c r="E59">
-        <v>0.0019454979104554636</v>
+        <v>0.0019454979104554639</v>
       </c>
       <c r="F59">
         <v>4.8426848637476386e-5</v>
       </c>
       <c r="G59">
-        <v>7.265355484213996</v>
+        <v>7.2653554842135035</v>
       </c>
       <c r="H59">
-        <v>9.101202086295827e-7</v>
+        <v>9.101202086287484e-7</v>
       </c>
       <c r="I59">
-        <v>5.603772994370442e-5</v>
+        <v>5.60377299437028e-5</v>
       </c>
       <c r="J59">
-        <v>0.0019455040854916854</v>
+        <v>0.0019455040854915201</v>
       </c>
       <c r="K59">
-        <v>4.842686381613574e-5</v>
+        <v>4.842686381613616e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2500,19 +2500,19 @@
         <v>4.8433732606605773e-5</v>
       </c>
       <c r="G60">
-        <v>7.267417155600937</v>
+        <v>7.267417155600449</v>
       </c>
       <c r="H60">
-        <v>8.983039850098789e-7</v>
+        <v>8.983039850090558e-7</v>
       </c>
       <c r="I60">
-        <v>5.998423525577019e-5</v>
+        <v>5.9984235255768466e-5</v>
       </c>
       <c r="J60">
-        <v>0.0019462620766475635</v>
+        <v>0.0019462620766473996</v>
       </c>
       <c r="K60">
-        <v>4.843374764883305e-5</v>
+        <v>4.843374764883347e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,7 +2520,7 @@
         <v>0.03316905486385881</v>
       </c>
       <c r="B61">
-        <v>7.269466237423369</v>
+        <v>7.269466237423371</v>
       </c>
       <c r="C61">
         <v>8.718486040444797e-7</v>
@@ -2529,25 +2529,25 @@
         <v>6.401094220706534e-5</v>
       </c>
       <c r="E61">
-        <v>0.0019470277070312576</v>
+        <v>0.0019470277070312572</v>
       </c>
       <c r="F61">
-        <v>4.8440768584734116e-5</v>
+        <v>4.844076858473411e-5</v>
       </c>
       <c r="G61">
-        <v>7.269507612444986</v>
+        <v>7.269507612444502</v>
       </c>
       <c r="H61">
-        <v>8.866737193898661e-7</v>
+        <v>8.866737193890541e-7</v>
       </c>
       <c r="I61">
-        <v>6.40206226219896e-5</v>
+        <v>6.40206226219878e-5</v>
       </c>
       <c r="J61">
-        <v>0.00194703366984254</v>
+        <v>0.0019470336698423768</v>
       </c>
       <c r="K61">
-        <v>4.844078346731599e-5</v>
+        <v>4.8440783467316404e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2555,34 +2555,34 @@
         <v>0.03469106271808073</v>
       </c>
       <c r="B62">
-        <v>7.271587009371627</v>
+        <v>7.271587009371626</v>
       </c>
       <c r="C62">
         <v>8.603413044847299e-7</v>
       </c>
       <c r="D62">
-        <v>6.814216158840865e-5</v>
+        <v>6.814216158840867e-5</v>
       </c>
       <c r="E62">
-        <v>0.0019478136853391056</v>
+        <v>0.0019478136853391058</v>
       </c>
       <c r="F62">
-        <v>4.844796474074079e-5</v>
+        <v>4.844796474074078e-5</v>
       </c>
       <c r="G62">
-        <v>7.271627716552945</v>
+        <v>7.271627716552466</v>
       </c>
       <c r="H62">
-        <v>8.749825768046773e-7</v>
+        <v>8.749825768038764e-7</v>
       </c>
       <c r="I62">
-        <v>6.815173030162621e-5</v>
+        <v>6.815173030162429e-5</v>
       </c>
       <c r="J62">
-        <v>0.0019478195324433697</v>
+        <v>0.0019478195324432073</v>
       </c>
       <c r="K62">
-        <v>4.844797944855394e-5</v>
+        <v>4.8447979448554344e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2590,34 +2590,34 @@
         <v>0.03624944583721316</v>
       </c>
       <c r="B63">
-        <v>7.273738622135768</v>
+        <v>7.273738622135766</v>
       </c>
       <c r="C63">
         <v>8.486551788812878e-7</v>
       </c>
       <c r="D63">
-        <v>7.237314327567376e-5</v>
+        <v>7.237314327567375e-5</v>
       </c>
       <c r="E63">
-        <v>0.0019486146594325775</v>
+        <v>0.0019486146594325782</v>
       </c>
       <c r="F63">
-        <v>4.845532954775411e-5</v>
+        <v>4.845532954775412e-5</v>
       </c>
       <c r="G63">
-        <v>7.273778635496614</v>
+        <v>7.273778635496139</v>
       </c>
       <c r="H63">
-        <v>8.631027944407297e-7</v>
+        <v>8.631027944399404e-7</v>
       </c>
       <c r="I63">
-        <v>7.238259368066844e-5</v>
+        <v>7.238259368066645e-5</v>
       </c>
       <c r="J63">
-        <v>0.0019486203875458278</v>
+        <v>0.001948620387545667</v>
       </c>
       <c r="K63">
-        <v>4.8455344070361506e-5</v>
+        <v>4.8455344070361906e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2631,28 +2631,28 @@
         <v>8.367214094960454e-7</v>
       </c>
       <c r="D64">
-        <v>7.670908676927274e-5</v>
+        <v>7.670908676927273e-5</v>
       </c>
       <c r="E64">
-        <v>0.0019494313833382467</v>
+        <v>0.0019494313833382465</v>
       </c>
       <c r="F64">
         <v>4.8462871733573745e-5</v>
       </c>
       <c r="G64">
-        <v>7.275961676535857</v>
+        <v>7.275961676535388</v>
       </c>
       <c r="H64">
-        <v>8.509680152030411e-7</v>
+        <v>8.509680152022635e-7</v>
       </c>
       <c r="I64">
-        <v>7.67184138763647e-5</v>
+        <v>7.67184138763626e-5</v>
       </c>
       <c r="J64">
-        <v>0.0019494369902245906</v>
+        <v>0.0019494369902244315</v>
       </c>
       <c r="K64">
-        <v>4.846288606301048e-5</v>
+        <v>4.846288606301089e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,34 +2660,34 @@
         <v>0.039483021630316</v>
       </c>
       <c r="B65">
-        <v>7.278139622173663</v>
+        <v>7.278139622173664</v>
       </c>
       <c r="C65">
         <v>8.245019441452105e-7</v>
       </c>
       <c r="D65">
-        <v>8.11553437086665e-5</v>
+        <v>8.115534370866653e-5</v>
       </c>
       <c r="E65">
-        <v>0.0019502646308868438</v>
+        <v>0.001950264630886844</v>
       </c>
       <c r="F65">
         <v>4.847060025737794e-5</v>
       </c>
       <c r="G65">
-        <v>7.2781781946182775</v>
+        <v>7.278178194617814</v>
       </c>
       <c r="H65">
-        <v>8.385413197005914e-7</v>
+        <v>8.385413196998257e-7</v>
       </c>
       <c r="I65">
-        <v>8.116454328317447e-5</v>
+        <v>8.116454328317231e-5</v>
       </c>
       <c r="J65">
-        <v>0.001950270114823646</v>
+        <v>0.0019502701148234893</v>
       </c>
       <c r="K65">
-        <v>4.847061438683927e-5</v>
+        <v>4.8470614386839684e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2701,28 +2701,28 @@
         <v>8.119724503701597e-7</v>
       </c>
       <c r="D66">
-        <v>8.571741334559529e-5</v>
+        <v>8.57174133455953e-5</v>
       </c>
       <c r="E66">
-        <v>0.0019511151893041158</v>
+        <v>0.0019511151893041156</v>
       </c>
       <c r="F66">
         <v>4.847852430252866e-5</v>
       </c>
       <c r="G66">
-        <v>7.280429544648323</v>
+        <v>7.280429544647864</v>
       </c>
       <c r="H66">
-        <v>8.257987730443564e-7</v>
+        <v>8.257987730436027e-7</v>
       </c>
       <c r="I66">
-        <v>8.572648138977042e-5</v>
+        <v>8.572648138976818e-5</v>
       </c>
       <c r="J66">
-        <v>0.0019511205487795298</v>
+        <v>0.0019511205487793748</v>
       </c>
       <c r="K66">
-        <v>4.8478538225571824e-5</v>
+        <v>4.8478538225572244e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2736,28 +2736,28 @@
         <v>7.99114118553333e-7</v>
       </c>
       <c r="D67">
-        <v>9.040094399191787e-5</v>
+        <v>9.040094399191783e-5</v>
       </c>
       <c r="E67">
-        <v>0.0019519838565078883</v>
+        <v>0.0019519838565078885</v>
       </c>
       <c r="F67">
         <v>4.848665327850304e-5</v>
       </c>
       <c r="G67">
-        <v>7.282717058204369</v>
+        <v>7.282717058203915</v>
       </c>
       <c r="H67">
-        <v>8.127215877398925e-7</v>
+        <v>8.127215877391514e-7</v>
       </c>
       <c r="I67">
-        <v>9.040987651761166e-5</v>
+        <v>9.040987651760933e-5</v>
       </c>
       <c r="J67">
-        <v>0.0019519890900808218</v>
+        <v>0.0019519890900806694</v>
       </c>
       <c r="K67">
-        <v>4.848666698871033e-5</v>
+        <v>4.8486666988710746e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2765,34 +2765,34 @@
         <v>0.04465550527048268</v>
       </c>
       <c r="B68">
-        <v>7.285005729263277</v>
+        <v>7.285005729263278</v>
       </c>
       <c r="C68">
         <v>7.859100195323562e-7</v>
       </c>
       <c r="D68">
-        <v>9.521173763894733e-5</v>
+        <v>9.521173763894731e-5</v>
       </c>
       <c r="E68">
-        <v>0.0019528714402958106</v>
+        <v>0.0019528714402958108</v>
       </c>
       <c r="F68">
         <v>4.8494996827639143e-5</v>
       </c>
       <c r="G68">
-        <v>7.285042032503278</v>
+        <v>7.28504203250283</v>
       </c>
       <c r="H68">
-        <v>7.992926792987184e-7</v>
+        <v>7.992926792979899e-7</v>
       </c>
       <c r="I68">
-        <v>9.522053053966416e-5</v>
+        <v>9.522053053966176e-5</v>
       </c>
       <c r="J68">
-        <v>0.001952876546528213</v>
+        <v>0.0019528765465280633</v>
       </c>
       <c r="K68">
-        <v>4.8495010318413505e-5</v>
+        <v>4.84950103184139e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2806,28 +2806,28 @@
         <v>7.723436108097815e-7</v>
       </c>
       <c r="D69">
-        <v>0.00010015575617809435</v>
+        <v>0.00010015575617809434</v>
       </c>
       <c r="E69">
-        <v>0.0019537787584219778</v>
+        <v>0.001953778758421978</v>
       </c>
       <c r="F69">
-        <v>4.850356483428012e-5</v>
+        <v>4.8503564834280117e-5</v>
       </c>
       <c r="G69">
-        <v>7.287405725085355</v>
+        <v>7.287405725084913</v>
       </c>
       <c r="H69">
-        <v>7.854952704910633e-7</v>
+        <v>7.854952704903479e-7</v>
       </c>
       <c r="I69">
-        <v>0.00010016440518081621</v>
+        <v>0.00010016440518081373</v>
       </c>
       <c r="J69">
-        <v>0.0019537837358501215</v>
+        <v>0.0019537837358499744</v>
       </c>
       <c r="K69">
-        <v>4.850357809876046e-5</v>
+        <v>4.850357809876083e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2841,7 +2841,7 @@
         <v>7.58398168348012e-7</v>
       </c>
       <c r="D70">
-        <v>0.00010523912842720859</v>
+        <v>0.00010523912842720856</v>
       </c>
       <c r="E70">
         <v>0.0019547066390612185</v>
@@ -2850,19 +2850,19 @@
         <v>4.851236743509188e-5</v>
       </c>
       <c r="G70">
-        <v>7.2898093506464265</v>
+        <v>7.2898093506459904</v>
       </c>
       <c r="H70">
-        <v>7.713123676758699e-7</v>
+        <v>7.713123676751683e-7</v>
       </c>
       <c r="I70">
-        <v>0.00010524762907018562</v>
+        <v>0.00010524762907018302</v>
       </c>
       <c r="J70">
-        <v>0.001954711486194009</v>
+        <v>0.0019547114861938656</v>
       </c>
       <c r="K70">
-        <v>4.85123804661528e-5</v>
+        <v>4.8512380466153156e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2870,13 +2870,13 @@
         <v>0.05026559268319017</v>
       </c>
       <c r="B71">
-        <v>7.292220175565945</v>
+        <v>7.292220175565946</v>
       </c>
       <c r="C71">
         <v>7.440565807789996e-7</v>
       </c>
       <c r="D71">
-        <v>0.00011046815760025479</v>
+        <v>0.00011046815760025477</v>
       </c>
       <c r="E71">
         <v>0.0019556559214347962</v>
@@ -2885,19 +2885,19 @@
         <v>4.852141502999615e-5</v>
       </c>
       <c r="G71">
-        <v>7.292254078829948</v>
+        <v>7.292254078829518</v>
       </c>
       <c r="H71">
-        <v>7.56726572665213e-7</v>
+        <v>7.567265726645251e-7</v>
       </c>
       <c r="I71">
-        <v>0.00011047650519990554</v>
+        <v>0.00011047650519990287</v>
       </c>
       <c r="J71">
-        <v>0.001955660636746146</v>
+        <v>0.0019556606367460067</v>
       </c>
       <c r="K71">
-        <v>4.8521427820190846e-5</v>
+        <v>4.85214278201912e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2905,7 +2905,7 @@
         <v>0.05224341534341173</v>
       </c>
       <c r="B72">
-        <v>7.294707959946488</v>
+        <v>7.2947079599464875</v>
       </c>
       <c r="C72">
         <v>7.293012717937591e-7</v>
@@ -2914,25 +2914,25 @@
         <v>0.0001158493290745307</v>
       </c>
       <c r="E72">
-        <v>0.001956627456506461</v>
+        <v>0.0019566274565064605</v>
       </c>
       <c r="F72">
         <v>4.853071829349389e-5</v>
       </c>
       <c r="G72">
-        <v>7.294741032211048</v>
+        <v>7.294741032210625</v>
       </c>
       <c r="H72">
-        <v>7.417200108842374e-7</v>
+        <v>7.417200108835637e-7</v>
       </c>
       <c r="I72">
-        <v>0.00011585751875999842</v>
+        <v>0.00011585751875999564</v>
       </c>
       <c r="J72">
-        <v>0.0019566320384498386</v>
+        <v>0.001956632038449703</v>
       </c>
       <c r="K72">
-        <v>4.853073083508172e-5</v>
+        <v>4.853073083508207e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2940,13 +2940,13 @@
         <v>0.05427911709555772</v>
       </c>
       <c r="B73">
-        <v>7.297239059100108</v>
+        <v>7.297239059100109</v>
       </c>
       <c r="C73">
         <v>7.141141630525891e-7</v>
       </c>
       <c r="D73">
-        <v>0.00012138931840646897</v>
+        <v>0.00012138931840646898</v>
       </c>
       <c r="E73">
         <v>0.001957622107717312</v>
@@ -2955,19 +2955,19 @@
         <v>4.8540288186303366e-5</v>
       </c>
       <c r="G73">
-        <v>7.297271284125225</v>
+        <v>7.297271284124809</v>
       </c>
       <c r="H73">
-        <v>7.26274296364967e-7</v>
+        <v>7.262742963643081e-7</v>
       </c>
       <c r="I73">
-        <v>0.00012139734507337148</v>
+        <v>0.00012139734507336865</v>
       </c>
       <c r="J73">
-        <v>0.00195762655472823</v>
+        <v>0.001957626554728097</v>
       </c>
       <c r="K73">
-        <v>4.854030047120697e-5</v>
+        <v>4.85403004712073e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2975,34 +2975,34 @@
         <v>0.0563751919288537</v>
       </c>
       <c r="B74">
-        <v>7.299814495498569</v>
+        <v>7.29981449549857</v>
       </c>
       <c r="C74">
         <v>6.984766482236308e-7</v>
       </c>
       <c r="D74">
-        <v>0.00012709499958578788</v>
+        <v>0.0001270949995857879</v>
       </c>
       <c r="E74">
         <v>0.001958640751751383</v>
       </c>
       <c r="F74">
-        <v>4.855013596729647e-5</v>
+        <v>4.855013596729648e-5</v>
       </c>
       <c r="G74">
-        <v>7.29984585659587</v>
+        <v>7.299845856595462</v>
       </c>
       <c r="H74">
-        <v>7.103705061355003e-7</v>
+        <v>7.103705061348566e-7</v>
       </c>
       <c r="I74">
-        <v>0.0001271028579189029</v>
+        <v>0.0001271028579188999</v>
       </c>
       <c r="J74">
-        <v>0.0019586450622448687</v>
+        <v>0.0019586450622447395</v>
       </c>
       <c r="K74">
-        <v>4.855014798712843e-5</v>
+        <v>4.855014798712878e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3019,25 +3019,25 @@
         <v>0.00013297345353165016</v>
       </c>
       <c r="E75">
-        <v>0.0019596842793320668</v>
+        <v>0.001959684279332067</v>
       </c>
       <c r="F75">
         <v>4.856027320573906e-5</v>
       </c>
       <c r="G75">
-        <v>7.302465718169446</v>
+        <v>7.302465718169045</v>
       </c>
       <c r="H75">
-        <v>6.939891558733194e-7</v>
+        <v>6.939891558726913e-7</v>
       </c>
       <c r="I75">
-        <v>0.00013298113794783122</v>
+        <v>0.0001329811379478282</v>
       </c>
       <c r="J75">
-        <v>0.001959688451709321</v>
+        <v>0.0019596884517091946</v>
       </c>
       <c r="K75">
-        <v>4.8560284951741215e-5</v>
+        <v>4.8560284951741527e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3045,7 +3045,7 @@
         <v>0.060758809764734634</v>
       </c>
       <c r="B76">
-        <v>7.305102199966787</v>
+        <v>7.305102199966786</v>
       </c>
       <c r="C76">
         <v>6.657731932713749e-7</v>
@@ -3057,22 +3057,22 @@
         <v>0.001960753596052163</v>
       </c>
       <c r="F76">
-        <v>4.857071179384759e-5</v>
+        <v>4.857071179384758e-5</v>
       </c>
       <c r="G76">
-        <v>7.305131781571279</v>
+        <v>7.305131781570886</v>
       </c>
       <c r="H76">
-        <v>6.771101763910409e-7</v>
+        <v>6.771101763904288e-7</v>
       </c>
       <c r="I76">
-        <v>0.00013903948151758918</v>
+        <v>0.00013903948151758607</v>
       </c>
       <c r="J76">
-        <v>0.001960757628703578</v>
+        <v>0.0019607576287034544</v>
       </c>
       <c r="K76">
-        <v>4.8570723256940765e-5</v>
+        <v>4.857072325694107e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3080,7 +3080,7 @@
         <v>0.06305172324737145</v>
       </c>
       <c r="B77">
-        <v>7.307816236106811</v>
+        <v>7.3078162361068095</v>
       </c>
       <c r="C77">
         <v>6.486671873205049e-7</v>
@@ -3095,19 +3095,19 @@
         <v>4.8581463959677454e-5</v>
       </c>
       <c r="G77">
-        <v>7.3078449013935645</v>
+        <v>7.307844901393178</v>
       </c>
       <c r="H77">
-        <v>6.597128888175917e-7</v>
+        <v>6.59712888816996e-7</v>
       </c>
       <c r="I77">
-        <v>0.0001452854096713338</v>
+        <v>0.0001452854096713306</v>
       </c>
       <c r="J77">
-        <v>0.0019618535145589644</v>
+        <v>0.0019618535145588443</v>
       </c>
       <c r="K77">
-        <v>4.8581475130432293e-5</v>
+        <v>4.8581475130432564e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3115,34 +3115,34 @@
         <v>0.06541575735077167</v>
       </c>
       <c r="B78">
-        <v>7.310578140880338</v>
+        <v>7.310578140880337</v>
       </c>
       <c r="C78">
         <v>6.310305945108406e-7</v>
       </c>
       <c r="D78">
-        <v>0.00015171955060524367</v>
+        <v>0.0001517195506052437</v>
       </c>
       <c r="E78">
         <v>0.0019629732988726894</v>
       </c>
       <c r="F78">
-        <v>4.85925422803593e-5</v>
+        <v>4.8592542280359294e-5</v>
       </c>
       <c r="G78">
-        <v>7.310605871627739</v>
+        <v>7.310605871627361</v>
       </c>
       <c r="H78">
-        <v>6.417759792329055e-7</v>
+        <v>6.417759792323265e-7</v>
       </c>
       <c r="I78">
-        <v>0.00015172667739533338</v>
+        <v>0.00015172667739533005</v>
       </c>
       <c r="J78">
-        <v>0.0019629770472486133</v>
+        <v>0.001962977047248496</v>
       </c>
       <c r="K78">
-        <v>4.859255314898456e-5</v>
+        <v>4.8592553148984806e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3150,34 +3150,34 @@
         <v>0.06785380831235142</v>
       </c>
       <c r="B79">
-        <v>7.313388645656415</v>
+        <v>7.313388645656414</v>
       </c>
       <c r="C79">
         <v>6.128418078107965e-7</v>
       </c>
       <c r="D79">
-        <v>0.00015836435505118006</v>
+        <v>0.00015836435505118</v>
       </c>
       <c r="E79">
         <v>0.001964125578518504</v>
       </c>
       <c r="F79">
-        <v>4.860395969570039e-5</v>
+        <v>4.8603959695700386e-5</v>
       </c>
       <c r="G79">
-        <v>7.313415423302173</v>
+        <v>7.3134154233018025</v>
       </c>
       <c r="H79">
-        <v>6.232774727414084e-7</v>
+        <v>6.232774727408465e-7</v>
       </c>
       <c r="I79">
-        <v>0.0001583712831299106</v>
+        <v>0.0001583712831299072</v>
       </c>
       <c r="J79">
-        <v>0.0019641291823504505</v>
+        <v>0.001964129182350337</v>
       </c>
       <c r="K79">
-        <v>4.8603970252015126e-5</v>
+        <v>4.860397025201536e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,7 +3185,7 @@
         <v>0.07036886304943443</v>
       </c>
       <c r="B80">
-        <v>7.316248416331103</v>
+        <v>7.316248416331102</v>
       </c>
       <c r="C80">
         <v>5.940785436819097e-7</v>
@@ -3197,22 +3197,22 @@
         <v>0.0019653074363486767</v>
       </c>
       <c r="F80">
-        <v>4.861572952216938e-5</v>
+        <v>4.861572952216937e-5</v>
       </c>
       <c r="G80">
-        <v>7.316274222000006</v>
+        <v>7.316274221999645</v>
       </c>
       <c r="H80">
-        <v>6.04194706277661e-7</v>
+        <v>6.041947062771164e-7</v>
       </c>
       <c r="I80">
-        <v>0.0001652274787557906</v>
+        <v>0.00016522747875578713</v>
       </c>
       <c r="J80">
-        <v>0.001965310894041291</v>
+        <v>0.0019653108940411814</v>
       </c>
       <c r="K80">
-        <v>4.8615739755647446e-5</v>
+        <v>4.8615739755647636e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3226,28 +3226,28 @@
         <v>5.747178147791608e-7</v>
       </c>
       <c r="D81">
-        <v>0.00017229726980380088</v>
+        <v>0.00017229726980380082</v>
       </c>
       <c r="E81">
         <v>0.001966519866186152</v>
       </c>
       <c r="F81">
-        <v>4.862786546728324e-5</v>
+        <v>4.8627865467283235e-5</v>
       </c>
       <c r="G81">
-        <v>7.319182865364741</v>
+        <v>7.319182865364389</v>
       </c>
       <c r="H81">
-        <v>5.845043011302106e-7</v>
+        <v>5.845043011296839e-7</v>
       </c>
       <c r="I81">
-        <v>0.00017230377959019124</v>
+        <v>0.00017230377959018758</v>
       </c>
       <c r="J81">
-        <v>0.0019665231761592295</v>
+        <v>0.0019665231761591237</v>
       </c>
       <c r="K81">
-        <v>4.862787536701656e-5</v>
+        <v>4.862787536701672e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3261,28 +3261,28 @@
         <v>5.547359017884464e-7</v>
       </c>
       <c r="D82">
-        <v>0.00017960268536347285</v>
+        <v>0.00017960268536347288</v>
       </c>
       <c r="E82">
-        <v>0.001967763882617052</v>
+        <v>0.0019677638826170523</v>
       </c>
       <c r="F82">
-        <v>4.864038164441654e-5</v>
+        <v>4.864038164441653e-5</v>
       </c>
       <c r="G82">
-        <v>7.322141880644671</v>
+        <v>7.322141880644328</v>
       </c>
       <c r="H82">
-        <v>5.641821340564114e-7</v>
+        <v>5.641821340559032e-7</v>
       </c>
       <c r="I82">
-        <v>0.0001796089749789207</v>
+        <v>0.00017960897497891698</v>
       </c>
       <c r="J82">
-        <v>0.0019677670433101814</v>
+        <v>0.00196776704331008</v>
       </c>
       <c r="K82">
-        <v>4.864039119912463e-5</v>
+        <v>4.8640391199124745e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3290,34 +3290,34 @@
         <v>0.07840735694551344</v>
       </c>
       <c r="B83">
-        <v>7.325128948802533</v>
+        <v>7.325128948802532</v>
       </c>
       <c r="C83">
         <v>5.341083243675213e-7</v>
       </c>
       <c r="D83">
-        <v>0.00018714607731701096</v>
+        <v>0.000187146077317011</v>
       </c>
       <c r="E83">
         <v>0.0019690405221615237</v>
       </c>
       <c r="F83">
-        <v>4.86532925880539e-5</v>
+        <v>4.8653292588053906e-5</v>
       </c>
       <c r="G83">
-        <v>7.325151722284507</v>
+        <v>7.325151722284173</v>
       </c>
       <c r="H83">
-        <v>5.432033076927181e-7</v>
+        <v>5.432033076922292e-7</v>
       </c>
       <c r="I83">
-        <v>0.00018715213901998408</v>
+        <v>0.0001871521390199803</v>
       </c>
       <c r="J83">
-        <v>0.0019690435320390024</v>
+        <v>0.001969043532038905</v>
       </c>
       <c r="K83">
-        <v>4.8653301786053046e-5</v>
+        <v>4.865330178605312e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3325,34 +3325,34 @@
         <v>0.08126224009279871</v>
       </c>
       <c r="B84">
-        <v>7.328191046386957</v>
+        <v>7.328191046386956</v>
       </c>
       <c r="C84">
         <v>5.128098111543695e-7</v>
       </c>
       <c r="D84">
-        <v>0.00019493681597721157</v>
+        <v>0.0001949368159772116</v>
       </c>
       <c r="E84">
-        <v>0.001970350844508878</v>
+        <v>0.0019703508445088774</v>
       </c>
       <c r="F84">
         <v>4.866661326950781e-5</v>
       </c>
       <c r="G84">
-        <v>7.328212769507374</v>
+        <v>7.32821276950705</v>
       </c>
       <c r="H84">
-        <v>5.215421204013571e-7</v>
+        <v>5.215421204008879e-7</v>
       </c>
       <c r="I84">
-        <v>0.0001949426416989195</v>
+        <v>0.0001949426416989156</v>
       </c>
       <c r="J84">
-        <v>0.001970353702059943</v>
+        <v>0.0019703537020598493</v>
       </c>
       <c r="K84">
-        <v>4.8666622098697485e-5</v>
+        <v>4.86666220986975e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3366,7 +3366,7 @@
         <v>4.908142688067667e-7</v>
       </c>
       <c r="D85">
-        <v>0.00020298457905840053</v>
+        <v>0.0002029845790584005</v>
       </c>
       <c r="E85">
         <v>0.001971695933820892</v>
@@ -3375,19 +3375,19 @@
         <v>4.868035911312491e-5</v>
       </c>
       <c r="G85">
-        <v>7.331325324003014</v>
+        <v>7.3313253240027</v>
       </c>
       <c r="H85">
-        <v>4.991720344261514e-7</v>
+        <v>4.991720344257024e-7</v>
       </c>
       <c r="I85">
-        <v>0.0002029901604018602</v>
+        <v>0.00020299016040185627</v>
       </c>
       <c r="J85">
-        <v>0.001971698637571384</v>
+        <v>0.001971698637571295</v>
       </c>
       <c r="K85">
-        <v>4.8680367561052465e-5</v>
+        <v>4.868036756105244e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3395,34 +3395,34 @@
         <v>0.08725591078440487</v>
       </c>
       <c r="B86">
-        <v>7.334470045953827</v>
+        <v>7.334470045953828</v>
       </c>
       <c r="C86">
         <v>4.6809475003463335e-7</v>
       </c>
       <c r="D86">
-        <v>0.00021129936353017368</v>
+        <v>0.0002112993635301737</v>
       </c>
       <c r="E86">
-        <v>0.0019730769001070386</v>
+        <v>0.001973076900107038</v>
       </c>
       <c r="F86">
         <v>4.869454601300515e-5</v>
       </c>
       <c r="G86">
-        <v>7.334489607609422</v>
+        <v>7.334489607609117</v>
       </c>
       <c r="H86">
-        <v>4.760656436256241e-7</v>
+        <v>4.7606564362519605e-7</v>
       </c>
       <c r="I86">
-        <v>0.0002113046917769816</v>
+        <v>0.00021130469177697755</v>
       </c>
       <c r="J86">
-        <v>0.001973079448617975</v>
+        <v>0.0019730794486178898</v>
       </c>
       <c r="K86">
-        <v>4.869455406678626e-5</v>
+        <v>4.8694554066786204e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3436,28 +3436,28 @@
         <v>4.4462342058625663e-7</v>
       </c>
       <c r="D87">
-        <v>0.00021989149785152224</v>
+        <v>0.00021989149785152221</v>
       </c>
       <c r="E87">
         <v>0.001974494880675315</v>
       </c>
       <c r="F87">
-        <v>4.870919035025942e-5</v>
+        <v>4.870919035025941e-5</v>
       </c>
       <c r="G87">
-        <v>7.3377057602104765</v>
+        <v>7.337705760210182</v>
       </c>
       <c r="H87">
-        <v>4.5219463979705877e-7</v>
+        <v>4.521946397966524e-7</v>
       </c>
       <c r="I87">
-        <v>0.00021989656391194155</v>
+        <v>0.0002198965639119375</v>
       </c>
       <c r="J87">
-        <v>0.0019744972725472035</v>
+        <v>0.0019744972725471216</v>
       </c>
       <c r="K87">
-        <v>4.870919799662544e-5</v>
+        <v>4.870919799662534e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3477,22 +3477,22 @@
         <v>0.0019759510416622493</v>
       </c>
       <c r="F88">
-        <v>4.872430901083249e-5</v>
+        <v>4.8724309010832496e-5</v>
       </c>
       <c r="G88">
-        <v>7.340973837685334</v>
+        <v>7.34097383768505</v>
       </c>
       <c r="H88">
-        <v>4.2752977787332236e-7</v>
+        <v>4.275297778729384e-7</v>
       </c>
       <c r="I88">
-        <v>0.0002287764490371851</v>
+        <v>0.00022877644903718093</v>
       </c>
       <c r="J88">
-        <v>0.0019759532755392367</v>
+        <v>0.0019759532755391587</v>
       </c>
       <c r="K88">
-        <v>4.872431623609503e-5</v>
+        <v>4.8724316236094904e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,34 +3500,34 @@
         <v>0.0970121695340651</v>
       </c>
       <c r="B89">
-        <v>7.344277645040715</v>
+        <v>7.344277645040714</v>
       </c>
       <c r="C89">
         <v>3.953093521144651e-7</v>
       </c>
       <c r="D89">
-        <v>0.00023795086351003654</v>
+        <v>0.00023795086351003652</v>
       </c>
       <c r="E89">
-        <v>0.0019774465796454817</v>
+        <v>0.0019774465796454812</v>
       </c>
       <c r="F89">
-        <v>4.873991940391952e-5</v>
+        <v>4.873991940391953e-5</v>
       </c>
       <c r="G89">
-        <v>7.344293809990369</v>
+        <v>7.344293809990096</v>
       </c>
       <c r="H89">
-        <v>4.0204084027425386e-7</v>
+        <v>4.020408402738929e-7</v>
       </c>
       <c r="I89">
-        <v>0.00023795537652181552</v>
+        <v>0.00023795537652181132</v>
       </c>
       <c r="J89">
-        <v>0.0019774486542286566</v>
+        <v>0.001977448654228583</v>
       </c>
       <c r="K89">
-        <v>4.8739926193978245e-5</v>
+        <v>4.8739926193978096e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3535,34 +3535,34 @@
         <v>0.10048426543648617</v>
       </c>
       <c r="B90">
-        <v>7.347650568368094</v>
+        <v>7.347650568368093</v>
       </c>
       <c r="C90">
         <v>3.6940619719006984e-7</v>
       </c>
       <c r="D90">
-        <v>0.0002474405249389155</v>
+        <v>0.00024744052493891545</v>
       </c>
       <c r="E90">
         <v>0.0019789827233421993</v>
       </c>
       <c r="F90">
-        <v>4.875603948100551e-5</v>
+        <v>4.8756039481005507e-5</v>
       </c>
       <c r="G90">
-        <v>7.347665559400433</v>
+        <v>7.34766555940017</v>
       </c>
       <c r="H90">
-        <v>3.756965998490063e-7</v>
+        <v>3.756965998486692e-7</v>
       </c>
       <c r="I90">
-        <v>0.0002474447463558102</v>
+        <v>0.00024744474635580603</v>
       </c>
       <c r="J90">
-        <v>0.0019789846373844534</v>
+        <v>0.001978984637384384</v>
       </c>
       <c r="K90">
-        <v>4.8756045821360085e-5</v>
+        <v>4.875604582135992e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3570,34 +3570,34 @@
         <v>0.10407334150506084</v>
       </c>
       <c r="B91">
-        <v>7.351075082769107</v>
+        <v>7.351075082769108</v>
       </c>
       <c r="C91">
         <v>3.426303257705121e-7</v>
       </c>
       <c r="D91">
-        <v>0.00025725242377181665</v>
+        <v>0.0002572524237718166</v>
       </c>
       <c r="E91">
-        <v>0.0019805607353964817</v>
+        <v>0.001980560735396482</v>
       </c>
       <c r="F91">
         <v>4.877268775555879e-5</v>
       </c>
       <c r="G91">
-        <v>7.351088878921437</v>
+        <v>7.3510888789211855</v>
       </c>
       <c r="H91">
-        <v>3.4846478140934235e-7</v>
+        <v>3.4846478140902984e-7</v>
       </c>
       <c r="I91">
-        <v>0.00025725634300999983</v>
+        <v>0.0002572563430099957</v>
       </c>
       <c r="J91">
-        <v>0.001980562487703461</v>
+        <v>0.0019805624877033963</v>
       </c>
       <c r="K91">
-        <v>4.877269363129514e-5</v>
+        <v>4.8772693631294966e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3605,34 +3605,34 @@
         <v>0.10778379480681288</v>
       </c>
       <c r="B92">
-        <v>7.3545508906200165</v>
+        <v>7.354550890620017</v>
       </c>
       <c r="C92">
         <v>3.1494893406479754e-7</v>
       </c>
       <c r="D92">
-        <v>0.0002673987437875793</v>
+        <v>0.00026739874378757934</v>
       </c>
       <c r="E92">
         <v>0.0019821819142584384</v>
       </c>
       <c r="F92">
-        <v>4.878988332341083e-5</v>
+        <v>4.878988332341084e-5</v>
       </c>
       <c r="G92">
-        <v>7.354563470879171</v>
+        <v>7.354563470878931</v>
       </c>
       <c r="H92">
-        <v>3.203120226992956e-7</v>
+        <v>3.2031202269900834e-7</v>
       </c>
       <c r="I92">
-        <v>0.0002674023498594684</v>
+        <v>0.00026740234985946434</v>
       </c>
       <c r="J92">
-        <v>0.0019821835036959888</v>
+        <v>0.001982183503695929</v>
       </c>
       <c r="K92">
-        <v>4.878988871919171e-5</v>
+        <v>4.878988871919154e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3649,25 +3649,25 @@
         <v>0.0002778920824997707</v>
       </c>
       <c r="E93">
-        <v>0.0019838475961577863</v>
+        <v>0.001983847596157786</v>
       </c>
       <c r="F93">
         <v>4.880764588385616e-5</v>
       </c>
       <c r="G93">
-        <v>7.358088945796899</v>
+        <v>7.3580889457966725</v>
       </c>
       <c r="H93">
-        <v>2.9120383296946335e-7</v>
+        <v>2.912038329692022e-7</v>
       </c>
       <c r="I93">
-        <v>0.000277895364033913</v>
+        <v>0.0002778953640339091</v>
       </c>
       <c r="J93">
-        <v>0.0019838490216597814</v>
+        <v>0.0019838490216597263</v>
       </c>
       <c r="K93">
-        <v>4.8807650783954485e-5</v>
+        <v>4.8807650783954336e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3675,7 +3675,7 @@
         <v>0.11558717045852875</v>
       </c>
       <c r="B94">
-        <v>7.361654735818274</v>
+        <v>7.3616547358182745</v>
       </c>
       <c r="C94">
         <v>2.567327862047405e-7</v>
@@ -3684,25 +3684,25 @@
         <v>0.00028874546649216795</v>
       </c>
       <c r="E94">
-        <v>0.0019855591571742927</v>
+        <v>0.0019855591571742923</v>
       </c>
       <c r="F94">
         <v>4.8825995761507674e-5</v>
       </c>
       <c r="G94">
-        <v>7.36166482135046</v>
+        <v>7.361664821350246</v>
       </c>
       <c r="H94">
-        <v>2.6110455084675953e-7</v>
+        <v>2.611045508465254e-7</v>
       </c>
       <c r="I94">
-        <v>0.0002887484116497353</v>
+        <v>0.0002887484116497314</v>
       </c>
       <c r="J94">
-        <v>0.001985560417741958</v>
+        <v>0.0019855604177419083</v>
       </c>
       <c r="K94">
-        <v>4.882600014980501e-5</v>
+        <v>4.882600014980489e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3716,28 +3716,28 @@
         <v>2.2612670798907007e-7</v>
       </c>
       <c r="D95">
-        <v>0.00029997236726735457</v>
+        <v>0.0002999723672673545</v>
       </c>
       <c r="E95">
         <v>0.0019873180154072593</v>
       </c>
       <c r="F95">
-        <v>4.8844953928944064e-5</v>
+        <v>4.884495392894406e-5</v>
       </c>
       <c r="G95">
-        <v>7.365290521671823</v>
+        <v>7.365290521671621</v>
       </c>
       <c r="H95">
-        <v>2.2997730093601603e-7</v>
+        <v>2.299773009358098e-7</v>
       </c>
       <c r="I95">
-        <v>0.00029997496376418033</v>
+        <v>0.0002999749637641766</v>
       </c>
       <c r="J95">
-        <v>0.0019873191101118194</v>
+        <v>0.0019873191101117743</v>
       </c>
       <c r="K95">
-        <v>4.884495778891029e-5</v>
+        <v>4.884495778891017e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3754,25 +3754,25 @@
         <v>0.00031158671762798474</v>
       </c>
       <c r="E96">
-        <v>0.001989125633245971</v>
+        <v>0.0019891256332459713</v>
       </c>
       <c r="F96">
         <v>4.886454203018768e-5</v>
       </c>
       <c r="G96">
-        <v>7.368965376891071</v>
+        <v>7.368965376890882</v>
       </c>
       <c r="H96">
-        <v>1.9778394844891633e-7</v>
+        <v>1.9778394844873893e-7</v>
       </c>
       <c r="I96">
-        <v>0.0003115889527468371</v>
+        <v>0.0003115889527468335</v>
       </c>
       <c r="J96">
-        <v>0.0019891265612342834</v>
+        <v>0.001989126561234244</v>
       </c>
       <c r="K96">
-        <v>4.8864545344912036e-5</v>
+        <v>4.886454534491194e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3789,25 +3789,25 @@
         <v>0.00032360292861101955</v>
       </c>
       <c r="E97">
-        <v>0.0019909835197427935</v>
+        <v>0.001990983519742794</v>
       </c>
       <c r="F97">
         <v>4.888478240505245e-5</v>
       </c>
       <c r="G97">
-        <v>7.372688622932758</v>
+        <v>7.372688622932583</v>
       </c>
       <c r="H97">
-        <v>1.6448505242387044e-7</v>
+        <v>1.6448505242372292e-7</v>
       </c>
       <c r="I97">
-        <v>0.0003236047891388723</v>
+        <v>0.00032360478913886885</v>
       </c>
       <c r="J97">
-        <v>0.0019909842802325827</v>
+        <v>0.001990984280232547</v>
       </c>
       <c r="K97">
-        <v>4.8884785157245726e-5</v>
+        <v>4.8884785157245645e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3824,25 +3824,25 @@
         <v>0.00033603590699600314</v>
       </c>
       <c r="E98">
-        <v>0.0019928932330903204</v>
+        <v>0.00199289323309032</v>
       </c>
       <c r="F98">
         <v>4.8905698114403275e-5</v>
       </c>
       <c r="G98">
-        <v>7.376459401596697</v>
+        <v>7.376459401596535</v>
       </c>
       <c r="H98">
-        <v>1.3003981739592595e-7</v>
+        <v>1.300398173958093e-7</v>
       </c>
       <c r="I98">
-        <v>0.0003360373792328265</v>
+        <v>0.0003360373792328231</v>
       </c>
       <c r="J98">
-        <v>0.001992893825380992</v>
+        <v>0.001992893825380962</v>
       </c>
       <c r="K98">
-        <v>4.8905700286403695e-5</v>
+        <v>4.890570028640362e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3850,7 +3850,7 @@
         <v>0.13755755552893628</v>
       </c>
       <c r="B99">
-        <v>7.3802732761794285</v>
+        <v>7.380273276179427</v>
       </c>
       <c r="C99">
         <v>9.282536422658629e-8</v>
@@ -3859,25 +3859,25 @@
         <v>0.0003489010734092443</v>
       </c>
       <c r="E99">
-        <v>0.0019948563832037605</v>
+        <v>0.001994856383203761</v>
       </c>
       <c r="F99">
         <v>4.892731296636935e-5</v>
       </c>
       <c r="G99">
-        <v>7.380276760909658</v>
+        <v>7.380276760909539</v>
       </c>
       <c r="H99">
-        <v>9.440604365761444e-8</v>
+        <v>9.440604365752975e-8</v>
       </c>
       <c r="I99">
-        <v>0.00034890214317971705</v>
+        <v>0.0003489021431797146</v>
       </c>
       <c r="J99">
-        <v>0.001994856806679777</v>
+        <v>0.001994856806679755</v>
       </c>
       <c r="K99">
-        <v>4.892731454016511e-5</v>
+        <v>4.8927314540165074e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3891,7 +3891,7 @@
         <v>5.6576657034781486e-8</v>
       </c>
       <c r="D100">
-        <v>0.0003622143810465881</v>
+        <v>0.00036221438104658813</v>
       </c>
       <c r="E100">
         <v>0.0019968746344094933</v>
@@ -3900,19 +3900,19 @@
         <v>4.894965154355591e-5</v>
       </c>
       <c r="G100">
-        <v>7.384139655778312</v>
+        <v>7.3841396557782435</v>
       </c>
       <c r="H100">
-        <v>5.754007512441351e-8</v>
+        <v>5.754007512436188e-8</v>
       </c>
       <c r="I100">
-        <v>0.0003622150336379598</v>
+        <v>0.0003622150336379584</v>
       </c>
       <c r="J100">
-        <v>0.0019968748885312955</v>
+        <v>0.001996874888531283</v>
       </c>
       <c r="K100">
-        <v>4.894965250077934e-5</v>
+        <v>4.894965250077931e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3920,31 +3920,31 @@
         <v>0.1474435648091811</v>
       </c>
       <c r="B101">
-        <v>7.3880462469951755</v>
+        <v>7.388046246995176</v>
       </c>
       <c r="C101">
         <v>1.907197803946592e-8</v>
       </c>
       <c r="D101">
-        <v>0.0003759923350383095</v>
+        <v>0.0003759923350383094</v>
       </c>
       <c r="E101">
-        <v>0.001998949708240484</v>
+        <v>0.0019989497082404844</v>
       </c>
       <c r="F101">
         <v>4.89727392312999e-5</v>
       </c>
       <c r="G101">
-        <v>7.388046948986897</v>
+        <v>7.388046948986885</v>
       </c>
       <c r="H101">
-        <v>1.939674635474864e-8</v>
+        <v>1.939674635473124e-8</v>
       </c>
       <c r="I101">
-        <v>0.00037599255522029353</v>
+        <v>0.0003759925552202932</v>
       </c>
       <c r="J101">
-        <v>0.001998949792558896</v>
+        <v>0.0019989497925588934</v>
       </c>
       <c r="K101">
         <v>4.897273955325207e-5</v>
